--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions1.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lium183/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFE2F05-12A9-6749-A95B-3C2390122528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6884F7AE-5EED-FF49-80BF-9FDE27011702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-28340" windowWidth="51200" windowHeight="28340" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34120" windowHeight="15760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="CSV" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">CSV!$A$4:$J$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">CSV!$A$4:$J$141</definedName>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="1052">
   <si>
     <t>target</t>
   </si>
@@ -1729,9 +1729,6 @@
     <t>reason</t>
   </si>
   <si>
-    <t>After</t>
-  </si>
-  <si>
     <t>message</t>
   </si>
   <si>
@@ -1744,18 +1741,12 @@
     <t>[TEXT(${message}) =&gt; after(for)]</t>
   </si>
   <si>
-    <t>Before</t>
-  </si>
-  <si>
     <t xml:space="preserve">Now is the time </t>
   </si>
   <si>
     <t>[TEXT(${message}) =&gt; before(for)]</t>
   </si>
   <si>
-    <t>Remove</t>
-  </si>
-  <si>
     <t>I SAW a SAW such a SAW never SAW.</t>
   </si>
   <si>
@@ -1765,36 +1756,24 @@
     <t>[TEXT(${message}) =&gt; remove(SAW)]</t>
   </si>
   <si>
-    <t>Replace</t>
-  </si>
-  <si>
     <t>Now is the time for all good people to come to the aid of his country.</t>
   </si>
   <si>
     <t>[TEXT(${message}) =&gt; replace(men,people)]</t>
   </si>
   <si>
-    <t>Insert</t>
-  </si>
-  <si>
     <t>Now is the time for each and every good men to come to the aid of his country.</t>
   </si>
   <si>
     <t>[TEXT(${message}) =&gt; remove(all) insert(for ,each and every)]</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Title: 'Now Is The Time For All Good Men To Come To The Aid Of His Country.'</t>
   </si>
   <si>
     <t>Title: '[TEXT(${message}) =&gt; title]'</t>
   </si>
   <si>
-    <t>Upper</t>
-  </si>
-  <si>
     <t>After all, tomorrow is another day.</t>
   </si>
   <si>
@@ -1804,18 +1783,12 @@
     <t>[TEXT(${message}) =&gt; upper]</t>
   </si>
   <si>
-    <t>Lower</t>
-  </si>
-  <si>
     <t>after all, tomorrow is another day.</t>
   </si>
   <si>
     <t>[TEXT(${message}) =&gt; lower]</t>
   </si>
   <si>
-    <t>Distinct</t>
-  </si>
-  <si>
     <t>The FAIR girl is really FAIR at the FAIR.</t>
   </si>
   <si>
@@ -1825,9 +1798,6 @@
     <t>[TEXT(${message}) =&gt; distinct]</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
     <t>The length of text.</t>
   </si>
   <si>
@@ -1837,18 +1807,12 @@
     <t>[TEXT(${message}) =&gt; length]</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>[TEXT(${message}) =&gt; count(FAIR)]</t>
   </si>
   <si>
-    <t>Trim</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Example    for  trim   expression     </t>
   </si>
   <si>
@@ -1879,27 +1843,18 @@
     <t>[TEXT(${list}) =&gt; list(delim) store(var)]</t>
   </si>
   <si>
-    <t>Between</t>
-  </si>
-  <si>
     <t xml:space="preserve"> tomorrow is another</t>
   </si>
   <si>
     <t>[TEXT(${message}) =&gt; between(all\,, day)]</t>
   </si>
   <si>
-    <t>Substring</t>
-  </si>
-  <si>
     <t>tomorrow</t>
   </si>
   <si>
     <t>[TEXT(${message}) =&gt; substring(11,19)]</t>
   </si>
   <si>
-    <t>Store</t>
-  </si>
-  <si>
     <t>After all, Tomorrow is another day.</t>
   </si>
   <si>
@@ -1915,45 +1870,30 @@
     <t>[TEXT(var) =&gt; length]</t>
   </si>
   <si>
-    <t>RemoveStart</t>
-  </si>
-  <si>
     <t>tomorrow is another day.</t>
   </si>
   <si>
     <t>[TEXT(${message}) =&gt; removeStart(After all\, )]</t>
   </si>
   <si>
-    <t>RemoveEnd</t>
-  </si>
-  <si>
     <t>After all</t>
   </si>
   <si>
     <t>[TEXT(${message}) =&gt; removeEnd(\, tomorrow is another day.)]</t>
   </si>
   <si>
-    <t>RemoveRegex</t>
-  </si>
-  <si>
     <t>After all,  is another day.</t>
   </si>
   <si>
     <t>[TEXT(${message}) =&gt; removeRegex(T.*w)]</t>
   </si>
   <si>
-    <t>ReplaceRegex</t>
-  </si>
-  <si>
     <t>After all, Today is another day.</t>
   </si>
   <si>
     <t>[TEXT(${message}) =&gt; replaceRegex(T.*w,Today)]</t>
   </si>
   <si>
-    <t>Append</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actions speak </t>
   </si>
   <si>
@@ -1963,18 +1903,12 @@
     <t>[TEXT(${message}) =&gt; append(louder, than, words)]</t>
   </si>
   <si>
-    <t>AppendIfMissing</t>
-  </si>
-  <si>
     <t>Actions speak louder than</t>
   </si>
   <si>
     <t>[TEXT(${message}) =&gt; appendIfMissing( words)]</t>
   </si>
   <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>value1</t>
   </si>
   <si>
@@ -1999,9 +1933,6 @@
     <t>[NUMBER(${value1}) =&gt; add(${value2})]</t>
   </si>
   <si>
-    <t>Normalize</t>
-  </si>
-  <si>
     <t xml:space="preserve">   white   spaces    between   text.</t>
   </si>
   <si>
@@ -2011,9 +1942,6 @@
     <t>[TEXT(${message}) =&gt; normalize]</t>
   </si>
   <si>
-    <t>Prepend</t>
-  </si>
-  <si>
     <t>another day</t>
   </si>
   <si>
@@ -2023,9 +1951,6 @@
     <t>[TEXT(${message}) =&gt; prepend(Tomorrow ,is )]</t>
   </si>
   <si>
-    <t>PrependIfMissing</t>
-  </si>
-  <si>
     <t>tomorrow is another day</t>
   </si>
   <si>
@@ -2035,12 +1960,6 @@
     <t>[TEXT(${message}) =&gt; prependIfMissing(After all\, )]</t>
   </si>
   <si>
-    <t>ReplaceRegex2</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
     <t>message1</t>
   </si>
   <si>
@@ -2050,9 +1969,6 @@
     <t>Actions speak louder than words.</t>
   </si>
   <si>
-    <t>Retain</t>
-  </si>
-  <si>
     <t>Easy Come Easy Go</t>
   </si>
   <si>
@@ -2068,9 +1984,6 @@
     <t>[TEXT(${message}) =&gt; retain([as+])]</t>
   </si>
   <si>
-    <t>Base64encode</t>
-  </si>
-  <si>
     <t>encodedText</t>
   </si>
   <si>
@@ -2080,16 +1993,7 @@
     <t>[TEXT(${message}) =&gt; base64encode]</t>
   </si>
   <si>
-    <t>Base64decode</t>
-  </si>
-  <si>
     <t>[TEXT(${message}) =&gt; base64decode]</t>
-  </si>
-  <si>
-    <t>Base64decodeThenSave</t>
-  </si>
-  <si>
-    <t>CSV</t>
   </si>
   <si>
     <t>content</t>
@@ -3908,12 +3812,6 @@
     <t>[TEXT(${content}) =&gt; csv(5,) save($(syspath|out|fullpath)\unitTest_expression_text03.txt)]</t>
   </si>
   <si>
-    <t>Setup</t>
-  </si>
-  <si>
-    <t>prep target file</t>
-  </si>
-  <si>
     <t>target.file</t>
   </si>
   <si>
@@ -3931,9 +3829,6 @@
   </si>
   <si>
     <t>false</t>
-  </si>
-  <si>
-    <t>TEXT-to-CSV</t>
   </si>
   <si>
     <r>
@@ -6100,14 +5995,6 @@
 ]</t>
   </si>
   <si>
-    <t xml:space="preserve">
-[CSV(${csvData1}) =&gt; parse(header=true) merge(csv2,SSN,First Name,Last Name)]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-[CSV(${csvData1}) =&gt; parse(header=true) merge(csv2,Last Name,First Name,SSN)]</t>
-  </si>
-  <si>
     <t>SSN,First Name,Last Name,Age,Years of Service,City,Title
 111223334,James,Atopas,22,4,Fullerton,Supervisor
 111223333,John,Adams,36,15,Brea,Manager
@@ -6119,6 +6006,66 @@
 111223333,John,Adams,Bsc,36-A,16
 111223334,James,Atopas,Bba,22-112,3
 </t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>trim</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>substring</t>
+  </si>
+  <si>
+    <t>removeStart</t>
+  </si>
+  <si>
+    <t>removeEnd</t>
+  </si>
+  <si>
+    <t>removeRegex</t>
+  </si>
+  <si>
+    <t>appendIfMissing</t>
+  </si>
+  <si>
+    <t>normalize</t>
+  </si>
+  <si>
+    <t>prependIfMissing</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>retain</t>
+  </si>
+  <si>
+    <t>base64encode</t>
+  </si>
+  <si>
+    <t>base64decode</t>
+  </si>
+  <si>
+    <t>base64decodeThenSave</t>
+  </si>
+  <si>
+    <t>parseAsCsv</t>
   </si>
 </sst>
 </file>
@@ -9111,18 +9058,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O299"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" style="5" customWidth="1"/>
-    <col min="5" max="6" width="36.33203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" style="5" customWidth="1"/>
     <col min="7" max="9" width="20" style="5" customWidth="1"/>
     <col min="10" max="10" width="20" style="6" customWidth="1"/>
     <col min="11" max="11" width="1.6640625" style="7" customWidth="1"/>
@@ -9164,7 +9112,7 @@
       <c r="N1" s="73"/>
       <c r="O1" s="74"/>
     </row>
-    <row r="2" spans="1:15" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="75" t="s">
         <v>537</v>
       </c>
@@ -9185,7 +9133,7 @@
       <c r="N2" s="78"/>
       <c r="O2" s="78"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="11" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
@@ -9249,11 +9197,9 @@
     </row>
     <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>552</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>552</v>
-      </c>
+        <v>1032</v>
+      </c>
+      <c r="B5" s="21"/>
       <c r="C5" s="45" t="s">
         <v>5</v>
       </c>
@@ -9261,10 +9207,10 @@
         <v>323</v>
       </c>
       <c r="E5" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="F5" s="42" t="s">
         <v>553</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>554</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -9286,10 +9232,10 @@
         <v>41</v>
       </c>
       <c r="E6" s="42" t="s">
+        <v>554</v>
+      </c>
+      <c r="F6" s="42" t="s">
         <v>555</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>556</v>
       </c>
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
@@ -9302,11 +9248,9 @@
     </row>
     <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>557</v>
-      </c>
+        <v>1033</v>
+      </c>
+      <c r="B7" s="21"/>
       <c r="C7" s="45" t="s">
         <v>5</v>
       </c>
@@ -9314,10 +9258,10 @@
         <v>323</v>
       </c>
       <c r="E7" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="F7" s="42" t="s">
         <v>553</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>554</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
@@ -9339,10 +9283,10 @@
         <v>41</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
@@ -9355,11 +9299,9 @@
     </row>
     <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>560</v>
-      </c>
+        <v>749</v>
+      </c>
+      <c r="B9" s="21"/>
       <c r="C9" s="45" t="s">
         <v>5</v>
       </c>
@@ -9367,10 +9309,10 @@
         <v>323</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
@@ -9392,10 +9334,10 @@
         <v>41</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
@@ -9408,11 +9350,9 @@
     </row>
     <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>564</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>564</v>
-      </c>
+        <v>755</v>
+      </c>
+      <c r="B11" s="21"/>
       <c r="C11" s="45" t="s">
         <v>5</v>
       </c>
@@ -9420,10 +9360,10 @@
         <v>323</v>
       </c>
       <c r="E11" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="F11" s="42" t="s">
         <v>553</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>554</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
@@ -9445,10 +9385,10 @@
         <v>41</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -9461,11 +9401,9 @@
     </row>
     <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>567</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>567</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="B13" s="21"/>
       <c r="C13" s="45" t="s">
         <v>5</v>
       </c>
@@ -9473,10 +9411,10 @@
         <v>323</v>
       </c>
       <c r="E13" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="F13" s="42" t="s">
         <v>553</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>554</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
@@ -9498,10 +9436,10 @@
         <v>41</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
@@ -9514,11 +9452,9 @@
     </row>
     <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>570</v>
-      </c>
+        <v>1034</v>
+      </c>
+      <c r="B15" s="21"/>
       <c r="C15" s="45" t="s">
         <v>5</v>
       </c>
@@ -9526,10 +9462,10 @@
         <v>323</v>
       </c>
       <c r="E15" s="42" t="s">
+        <v>552</v>
+      </c>
+      <c r="F15" s="42" t="s">
         <v>553</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>554</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
@@ -9551,10 +9487,10 @@
         <v>41</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
@@ -9567,11 +9503,9 @@
     </row>
     <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>573</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>573</v>
-      </c>
+        <v>1035</v>
+      </c>
+      <c r="B17" s="21"/>
       <c r="C17" s="45" t="s">
         <v>5</v>
       </c>
@@ -9579,10 +9513,10 @@
         <v>323</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
@@ -9604,10 +9538,10 @@
         <v>41</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
@@ -9620,11 +9554,9 @@
     </row>
     <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>577</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>577</v>
-      </c>
+        <v>1036</v>
+      </c>
+      <c r="B19" s="21"/>
       <c r="C19" s="45" t="s">
         <v>5</v>
       </c>
@@ -9632,10 +9564,10 @@
         <v>323</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -9657,10 +9589,10 @@
         <v>41</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
@@ -9673,11 +9605,9 @@
     </row>
     <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>580</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="B21" s="21"/>
       <c r="C21" s="45" t="s">
         <v>5</v>
       </c>
@@ -9685,10 +9615,10 @@
         <v>323</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
@@ -9710,10 +9640,10 @@
         <v>41</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
@@ -9726,11 +9656,9 @@
     </row>
     <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>584</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="B23" s="21"/>
       <c r="C23" s="45" t="s">
         <v>5</v>
       </c>
@@ -9738,10 +9666,10 @@
         <v>323</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
@@ -9763,10 +9691,10 @@
         <v>41</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
@@ -9779,11 +9707,9 @@
     </row>
     <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
-        <v>588</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>588</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="B25" s="21"/>
       <c r="C25" s="45" t="s">
         <v>5</v>
       </c>
@@ -9791,10 +9717,10 @@
         <v>323</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
@@ -9816,10 +9742,10 @@
         <v>41</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
@@ -9832,11 +9758,9 @@
     </row>
     <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>591</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>591</v>
-      </c>
+        <v>1037</v>
+      </c>
+      <c r="B27" s="21"/>
       <c r="C27" s="45" t="s">
         <v>5</v>
       </c>
@@ -9844,10 +9768,10 @@
         <v>323</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
@@ -9869,10 +9793,10 @@
         <v>41</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
@@ -9885,11 +9809,9 @@
     </row>
     <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>595</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="B29" s="21"/>
       <c r="C29" s="45" t="s">
         <v>5</v>
       </c>
@@ -9897,10 +9819,10 @@
         <v>323</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -9922,10 +9844,10 @@
         <v>323</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
@@ -9947,10 +9869,10 @@
         <v>41</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
@@ -9963,11 +9885,9 @@
     </row>
     <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>602</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>602</v>
-      </c>
+        <v>1038</v>
+      </c>
+      <c r="B32" s="21"/>
       <c r="C32" s="45" t="s">
         <v>5</v>
       </c>
@@ -9975,10 +9895,10 @@
         <v>323</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
@@ -10000,10 +9920,10 @@
         <v>41</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
@@ -10016,11 +9936,9 @@
     </row>
     <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>605</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>605</v>
-      </c>
+        <v>1039</v>
+      </c>
+      <c r="B34" s="21"/>
       <c r="C34" s="45" t="s">
         <v>5</v>
       </c>
@@ -10028,10 +9946,10 @@
         <v>323</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
@@ -10053,10 +9971,10 @@
         <v>41</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="H35" s="23"/>
       <c r="I35" s="23"/>
@@ -10069,11 +9987,9 @@
     </row>
     <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>608</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>608</v>
-      </c>
+        <v>777</v>
+      </c>
+      <c r="B36" s="21"/>
       <c r="C36" s="45" t="s">
         <v>5</v>
       </c>
@@ -10081,10 +9997,10 @@
         <v>323</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
@@ -10106,10 +10022,10 @@
         <v>41</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="F37" s="42" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
@@ -10130,10 +10046,10 @@
         <v>41</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="F38" s="42" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
@@ -10146,11 +10062,9 @@
     </row>
     <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>614</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>614</v>
-      </c>
+        <v>1040</v>
+      </c>
+      <c r="B39" s="21"/>
       <c r="C39" s="45" t="s">
         <v>5</v>
       </c>
@@ -10158,10 +10072,10 @@
         <v>323</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
@@ -10183,10 +10097,10 @@
         <v>41</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
@@ -10199,11 +10113,9 @@
     </row>
     <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>617</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>617</v>
-      </c>
+        <v>1041</v>
+      </c>
+      <c r="B41" s="21"/>
       <c r="C41" s="45" t="s">
         <v>5</v>
       </c>
@@ -10211,10 +10123,10 @@
         <v>323</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
@@ -10236,10 +10148,10 @@
         <v>41</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
@@ -10252,11 +10164,9 @@
     </row>
     <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>620</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>620</v>
-      </c>
+        <v>1042</v>
+      </c>
+      <c r="B43" s="21"/>
       <c r="C43" s="45" t="s">
         <v>5</v>
       </c>
@@ -10264,10 +10174,10 @@
         <v>323</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
@@ -10289,10 +10199,10 @@
         <v>41</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
@@ -10305,11 +10215,9 @@
     </row>
     <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>623</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>623</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="B45" s="21"/>
       <c r="C45" s="45" t="s">
         <v>5</v>
       </c>
@@ -10317,10 +10225,10 @@
         <v>323</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
@@ -10342,10 +10250,10 @@
         <v>41</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
@@ -10357,12 +10265,8 @@
       <c r="O46" s="17"/>
     </row>
     <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
-        <v>626</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>626</v>
-      </c>
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="45" t="s">
         <v>5</v>
       </c>
@@ -10370,12 +10274,11 @@
         <v>323</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F47" s="42" t="s">
-        <v>627</v>
-      </c>
-      <c r="G47" s="23"/>
+        <v>594</v>
+      </c>
       <c r="H47" s="23"/>
       <c r="I47" s="23"/>
       <c r="J47" s="24"/>
@@ -10395,10 +10298,10 @@
         <v>41</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
@@ -10411,11 +10314,9 @@
     </row>
     <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>630</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>630</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="B49" s="21"/>
       <c r="C49" s="45" t="s">
         <v>5</v>
       </c>
@@ -10423,10 +10324,10 @@
         <v>323</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
@@ -10448,10 +10349,10 @@
         <v>41</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
@@ -10463,20 +10364,23 @@
       <c r="O50" s="17"/>
     </row>
     <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
+      <c r="A51" s="20" t="s">
+        <v>1043</v>
+      </c>
       <c r="B51" s="21"/>
       <c r="C51" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="42" t="s">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>628</v>
+        <v>552</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>632</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
       <c r="J51" s="24"/>
@@ -10487,25 +10391,20 @@
       <c r="O51" s="17"/>
     </row>
     <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="20" t="s">
-        <v>633</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>633</v>
-      </c>
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="42" t="s">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>635</v>
-      </c>
-      <c r="G52" s="23"/>
+        <v>611</v>
+      </c>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
       <c r="J52" s="24"/>
@@ -10522,15 +10421,14 @@
         <v>5</v>
       </c>
       <c r="D53" s="42" t="s">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>636</v>
+        <v>608</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>637</v>
-      </c>
-      <c r="G53" s="23"/>
+        <v>611</v>
+      </c>
       <c r="H53" s="23"/>
       <c r="I53" s="23"/>
       <c r="J53" s="24"/>
@@ -10541,20 +10439,23 @@
       <c r="O53" s="17"/>
     </row>
     <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
+      <c r="A54" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="B54" s="21"/>
       <c r="C54" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="42" t="s">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="E54" s="42" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="F54" s="42" t="s">
-        <v>638</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="G54" s="23"/>
       <c r="H54" s="23"/>
       <c r="I54" s="23"/>
       <c r="J54" s="24"/>
@@ -10571,14 +10472,15 @@
         <v>5</v>
       </c>
       <c r="D55" s="42" t="s">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
       <c r="F55" s="42" t="s">
-        <v>639</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="G55" s="23"/>
       <c r="H55" s="23"/>
       <c r="I55" s="23"/>
       <c r="J55" s="24"/>
@@ -10598,10 +10500,10 @@
         <v>41</v>
       </c>
       <c r="E56" s="42" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
       <c r="F56" s="42" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
@@ -10613,25 +10515,20 @@
       <c r="O56" s="17"/>
     </row>
     <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="s">
-        <v>642</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>642</v>
-      </c>
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>553</v>
+        <v>615</v>
       </c>
       <c r="F57" s="42" t="s">
-        <v>643</v>
-      </c>
-      <c r="G57" s="23"/>
+        <v>617</v>
+      </c>
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
       <c r="J57" s="24"/>
@@ -10651,10 +10548,10 @@
         <v>41</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
@@ -10667,11 +10564,9 @@
     </row>
     <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>646</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>646</v>
-      </c>
+        <v>1044</v>
+      </c>
+      <c r="B59" s="21"/>
       <c r="C59" s="45" t="s">
         <v>5</v>
       </c>
@@ -10679,10 +10574,10 @@
         <v>323</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F59" s="42" t="s">
-        <v>647</v>
+        <v>620</v>
       </c>
       <c r="G59" s="23"/>
       <c r="H59" s="23"/>
@@ -10704,10 +10599,10 @@
         <v>41</v>
       </c>
       <c r="E60" s="42" t="s">
-        <v>648</v>
+        <v>621</v>
       </c>
       <c r="F60" s="42" t="s">
-        <v>649</v>
+        <v>622</v>
       </c>
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
@@ -10720,11 +10615,9 @@
     </row>
     <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>650</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>650</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="B61" s="21"/>
       <c r="C61" s="45" t="s">
         <v>5</v>
       </c>
@@ -10732,10 +10625,10 @@
         <v>323</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F61" s="42" t="s">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
@@ -10757,10 +10650,10 @@
         <v>41</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>652</v>
+        <v>624</v>
       </c>
       <c r="F62" s="42" t="s">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="H62" s="23"/>
       <c r="I62" s="23"/>
@@ -10772,20 +10665,23 @@
       <c r="O62" s="17"/>
     </row>
     <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
+      <c r="A63" s="20" t="s">
+        <v>1045</v>
+      </c>
       <c r="B63" s="21"/>
       <c r="C63" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>652</v>
+        <v>552</v>
       </c>
       <c r="F63" s="42" t="s">
-        <v>653</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="G63" s="23"/>
       <c r="H63" s="23"/>
       <c r="I63" s="23"/>
       <c r="J63" s="24"/>
@@ -10796,25 +10692,20 @@
       <c r="O63" s="17"/>
     </row>
     <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="20" t="s">
-        <v>654</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>623</v>
-      </c>
+      <c r="A64" s="20"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>323</v>
+        <v>41</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>553</v>
+        <v>627</v>
       </c>
       <c r="F64" s="42" t="s">
-        <v>609</v>
-      </c>
-      <c r="G64" s="23"/>
+        <v>628</v>
+      </c>
       <c r="H64" s="23"/>
       <c r="I64" s="23"/>
       <c r="J64" s="24"/>
@@ -10834,10 +10725,10 @@
         <v>41</v>
       </c>
       <c r="E65" s="42" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="F65" s="42" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="H65" s="23"/>
       <c r="I65" s="23"/>
@@ -10850,11 +10741,9 @@
     </row>
     <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
-        <v>655</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>655</v>
-      </c>
+        <v>1046</v>
+      </c>
+      <c r="B66" s="21"/>
       <c r="C66" s="45" t="s">
         <v>5</v>
       </c>
@@ -10862,10 +10751,10 @@
         <v>323</v>
       </c>
       <c r="E66" s="42" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="F66" s="42" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
@@ -10887,10 +10776,10 @@
         <v>41</v>
       </c>
       <c r="E67" s="42" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F67" s="42" t="s">
-        <v>960</v>
+        <v>928</v>
       </c>
       <c r="H67" s="23"/>
       <c r="I67" s="23"/>
@@ -10911,10 +10800,10 @@
         <v>323</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="F68" s="42" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
       <c r="G68" s="23"/>
       <c r="H68" s="23"/>
@@ -10936,10 +10825,10 @@
         <v>41</v>
       </c>
       <c r="E69" s="42" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
       <c r="F69" s="42" t="s">
-        <v>961</v>
+        <v>929</v>
       </c>
       <c r="H69" s="23"/>
       <c r="I69" s="23"/>
@@ -10952,11 +10841,9 @@
     </row>
     <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>659</v>
-      </c>
-      <c r="B70" s="46" t="s">
-        <v>659</v>
-      </c>
+        <v>1047</v>
+      </c>
+      <c r="B70" s="46"/>
       <c r="C70" s="45" t="s">
         <v>5</v>
       </c>
@@ -10964,10 +10851,10 @@
         <v>323</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F70" s="42" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="G70" s="23"/>
       <c r="H70" s="23"/>
@@ -10989,10 +10876,10 @@
         <v>41</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>661</v>
+        <v>633</v>
       </c>
       <c r="F71" s="42" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
       <c r="H71" s="23"/>
       <c r="I71" s="23"/>
@@ -11013,10 +10900,10 @@
         <v>323</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F72" s="42" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="G72" s="21"/>
       <c r="H72" s="23"/>
@@ -11038,10 +10925,10 @@
         <v>41</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>663</v>
+        <v>635</v>
       </c>
       <c r="F73" s="42" t="s">
-        <v>664</v>
+        <v>636</v>
       </c>
       <c r="H73" s="23"/>
       <c r="I73" s="23"/>
@@ -11054,11 +10941,9 @@
     </row>
     <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
-        <v>665</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>665</v>
-      </c>
+        <v>1048</v>
+      </c>
+      <c r="B74" s="21"/>
       <c r="C74" s="45" t="s">
         <v>5</v>
       </c>
@@ -11066,10 +10951,10 @@
         <v>323</v>
       </c>
       <c r="E74" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F74" s="42" t="s">
-        <v>666</v>
+        <v>637</v>
       </c>
       <c r="G74" s="23"/>
       <c r="H74" s="23"/>
@@ -11091,10 +10976,10 @@
         <v>41</v>
       </c>
       <c r="E75" s="42" t="s">
-        <v>667</v>
+        <v>638</v>
       </c>
       <c r="F75" s="42" t="s">
-        <v>668</v>
+        <v>639</v>
       </c>
       <c r="H75" s="23"/>
       <c r="I75" s="23"/>
@@ -11107,11 +10992,9 @@
     </row>
     <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
-        <v>669</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>669</v>
-      </c>
+        <v>1049</v>
+      </c>
+      <c r="B76" s="21"/>
       <c r="C76" s="45" t="s">
         <v>5</v>
       </c>
@@ -11119,10 +11002,10 @@
         <v>323</v>
       </c>
       <c r="E76" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F76" s="42" t="s">
-        <v>667</v>
+        <v>638</v>
       </c>
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
@@ -11144,10 +11027,10 @@
         <v>41</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>666</v>
+        <v>637</v>
       </c>
       <c r="F77" s="42" t="s">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="H77" s="23"/>
       <c r="I77" s="23"/>
@@ -11160,11 +11043,9 @@
     </row>
     <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
-        <v>671</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>671</v>
-      </c>
+        <v>1050</v>
+      </c>
+      <c r="B78" s="21"/>
       <c r="C78" s="45" t="s">
         <v>5</v>
       </c>
@@ -11172,10 +11053,10 @@
         <v>323</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F78" s="42" t="s">
-        <v>667</v>
+        <v>638</v>
       </c>
       <c r="G78" s="23"/>
       <c r="H78" s="23"/>
@@ -11197,10 +11078,10 @@
         <v>41</v>
       </c>
       <c r="E79" s="42" t="s">
-        <v>666</v>
+        <v>637</v>
       </c>
       <c r="F79" s="42" t="s">
-        <v>962</v>
+        <v>930</v>
       </c>
       <c r="H79" s="23"/>
       <c r="I79" s="23"/>
@@ -11213,11 +11094,9 @@
     </row>
     <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
-        <v>672</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>672</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B80" s="21"/>
       <c r="C80" s="45" t="s">
         <v>5</v>
       </c>
@@ -11225,10 +11104,10 @@
         <v>323</v>
       </c>
       <c r="E80" s="42" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
       <c r="F80" s="42" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="G80" s="23"/>
       <c r="H80" s="23"/>
@@ -11240,7 +11119,7 @@
       <c r="N80" s="18"/>
       <c r="O80" s="17"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="30" x14ac:dyDescent="0.2">
       <c r="A81" s="20"/>
       <c r="B81" s="21"/>
       <c r="C81" s="45" t="s">
@@ -11250,10 +11129,10 @@
         <v>41</v>
       </c>
       <c r="E81" s="47" t="s">
-        <v>675</v>
+        <v>643</v>
       </c>
       <c r="F81" s="42" t="s">
-        <v>963</v>
+        <v>931</v>
       </c>
       <c r="H81" s="23"/>
       <c r="I81" s="23"/>
@@ -11274,10 +11153,10 @@
         <v>323</v>
       </c>
       <c r="E82" s="42" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
       <c r="F82" s="42" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="H82" s="23"/>
       <c r="I82" s="23"/>
@@ -11297,8 +11176,8 @@
       <c r="D83" s="42" t="s">
         <v>369</v>
       </c>
-      <c r="E83" s="47" t="s">
-        <v>964</v>
+      <c r="E83" s="42" t="s">
+        <v>932</v>
       </c>
       <c r="F83" s="42"/>
       <c r="H83" s="23"/>
@@ -11314,9 +11193,7 @@
       <c r="A84" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B84" s="21" t="s">
-        <v>13</v>
-      </c>
+      <c r="B84" s="21"/>
       <c r="C84" s="45" t="s">
         <v>5</v>
       </c>
@@ -11324,10 +11201,10 @@
         <v>323</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
       <c r="F84" s="42" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="G84" s="23"/>
       <c r="H84" s="23"/>
@@ -11349,10 +11226,10 @@
         <v>323</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>677</v>
+        <v>645</v>
       </c>
       <c r="F85" s="42" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="G85" s="23"/>
       <c r="H85" s="23"/>
@@ -11374,10 +11251,10 @@
         <v>41</v>
       </c>
       <c r="E86" s="42" t="s">
-        <v>679</v>
+        <v>647</v>
       </c>
       <c r="F86" s="42" t="s">
-        <v>680</v>
+        <v>648</v>
       </c>
       <c r="H86" s="23"/>
       <c r="I86" s="23"/>
@@ -11392,9 +11269,7 @@
       <c r="A87" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B87" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="B87" s="21"/>
       <c r="C87" s="45" t="s">
         <v>5</v>
       </c>
@@ -11402,10 +11277,10 @@
         <v>323</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
       <c r="F87" s="42" t="s">
-        <v>681</v>
+        <v>649</v>
       </c>
       <c r="G87" s="23"/>
       <c r="H87" s="23"/>
@@ -11427,10 +11302,10 @@
         <v>323</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>682</v>
+        <v>650</v>
       </c>
       <c r="F88" s="42" t="s">
-        <v>683</v>
+        <v>651</v>
       </c>
       <c r="G88" s="23"/>
       <c r="H88" s="23"/>
@@ -11452,10 +11327,10 @@
         <v>41</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="F89" s="42" t="s">
-        <v>685</v>
+        <v>653</v>
       </c>
       <c r="H89" s="23"/>
       <c r="I89" s="23"/>
@@ -11476,10 +11351,10 @@
         <v>323</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>686</v>
+        <v>654</v>
       </c>
       <c r="F90" s="42" t="s">
-        <v>687</v>
+        <v>655</v>
       </c>
       <c r="G90" s="23"/>
       <c r="H90" s="23"/>
@@ -11491,7 +11366,7 @@
       <c r="N90" s="18"/>
       <c r="O90" s="17"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="90" x14ac:dyDescent="0.2">
       <c r="A91" s="20"/>
       <c r="B91" s="21"/>
       <c r="C91" s="45" t="s">
@@ -11501,10 +11376,10 @@
         <v>41</v>
       </c>
       <c r="E91" s="47" t="s">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="F91" s="42" t="s">
-        <v>689</v>
+        <v>657</v>
       </c>
       <c r="H91" s="23"/>
       <c r="I91" s="23"/>
@@ -11517,11 +11392,9 @@
     </row>
     <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="20" t="s">
-        <v>690</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>690</v>
-      </c>
+        <v>658</v>
+      </c>
+      <c r="B92" s="21"/>
       <c r="C92" s="22" t="s">
         <v>5</v>
       </c>
@@ -11529,10 +11402,10 @@
         <v>323</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>691</v>
+        <v>659</v>
       </c>
       <c r="G92" s="23"/>
       <c r="H92" s="23"/>
@@ -11554,10 +11427,10 @@
         <v>41</v>
       </c>
       <c r="E93" s="23" t="s">
-        <v>692</v>
+        <v>660</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
       <c r="H93" s="23"/>
       <c r="I93" s="23"/>
@@ -11570,11 +11443,9 @@
     </row>
     <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
-        <v>694</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>13</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="B94" s="21"/>
       <c r="C94" s="45" t="s">
         <v>5</v>
       </c>
@@ -11582,10 +11453,10 @@
         <v>323</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
       <c r="F94" s="42" t="s">
-        <v>695</v>
+        <v>663</v>
       </c>
       <c r="G94" s="23"/>
       <c r="H94" s="23"/>
@@ -11607,10 +11478,10 @@
         <v>323</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>677</v>
+        <v>645</v>
       </c>
       <c r="F95" s="42" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="G95" s="23"/>
       <c r="H95" s="23"/>
@@ -11632,10 +11503,10 @@
         <v>41</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>679</v>
+        <v>647</v>
       </c>
       <c r="F96" s="42" t="s">
-        <v>680</v>
+        <v>648</v>
       </c>
       <c r="H96" s="23"/>
       <c r="I96" s="23"/>
@@ -11656,10 +11527,10 @@
         <v>41</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>696</v>
+        <v>664</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>697</v>
+        <v>665</v>
       </c>
       <c r="G97" s="23"/>
       <c r="H97" s="23"/>
@@ -11673,11 +11544,9 @@
     </row>
     <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
-        <v>698</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>698</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="B98" s="21"/>
       <c r="C98" s="22" t="s">
         <v>5</v>
       </c>
@@ -11685,10 +11554,10 @@
         <v>323</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F98" s="48" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="G98" s="23"/>
       <c r="H98" s="23"/>
@@ -11710,10 +11579,10 @@
         <v>41</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>699</v>
+        <v>667</v>
       </c>
       <c r="H99" s="23"/>
       <c r="I99" s="23"/>
@@ -11726,11 +11595,9 @@
     </row>
     <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>700</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>700</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="B100" s="15"/>
       <c r="C100" s="44" t="s">
         <v>5</v>
       </c>
@@ -11738,10 +11605,10 @@
         <v>323</v>
       </c>
       <c r="E100" s="33" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F100" s="33" t="s">
-        <v>701</v>
+        <v>669</v>
       </c>
       <c r="G100" s="33"/>
       <c r="H100" s="33"/>
@@ -11763,10 +11630,10 @@
         <v>41</v>
       </c>
       <c r="E101" s="33" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="F101" s="33" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="G101" s="33"/>
       <c r="I101" s="33"/>
@@ -11787,10 +11654,10 @@
         <v>41</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="F102" s="33" t="s">
-        <v>705</v>
+        <v>673</v>
       </c>
       <c r="G102" s="33"/>
       <c r="H102" s="33"/>
@@ -11812,10 +11679,10 @@
         <v>41</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>706</v>
+        <v>674</v>
       </c>
       <c r="F103" s="33" t="s">
-        <v>707</v>
+        <v>675</v>
       </c>
       <c r="G103" s="33"/>
       <c r="H103" s="33"/>
@@ -11837,10 +11704,10 @@
         <v>41</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>706</v>
+        <v>674</v>
       </c>
       <c r="F104" s="33" t="s">
-        <v>708</v>
+        <v>676</v>
       </c>
       <c r="G104" s="33"/>
       <c r="H104" s="33"/>
@@ -11853,12 +11720,10 @@
       <c r="O104" s="17"/>
     </row>
     <row r="105" spans="1:15" s="57" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="49" t="s">
-        <v>965</v>
-      </c>
-      <c r="B105" s="50" t="s">
-        <v>966</v>
-      </c>
+      <c r="A105" s="14" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B105" s="50"/>
       <c r="C105" s="51" t="s">
         <v>5</v>
       </c>
@@ -11866,10 +11731,10 @@
         <v>323</v>
       </c>
       <c r="E105" s="53" t="s">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="F105" s="52" t="s">
-        <v>968</v>
+        <v>934</v>
       </c>
       <c r="G105" s="52"/>
       <c r="H105" s="52"/>
@@ -11888,16 +11753,16 @@
         <v>11</v>
       </c>
       <c r="D106" s="52" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E106" s="58" t="s">
-        <v>969</v>
+        <v>935</v>
       </c>
       <c r="F106" s="58" t="s">
-        <v>970</v>
+        <v>936</v>
       </c>
       <c r="G106" s="52" t="s">
-        <v>971</v>
+        <v>937</v>
       </c>
       <c r="H106" s="52"/>
       <c r="I106" s="52"/>
@@ -11908,10 +11773,8 @@
       <c r="N106" s="55"/>
       <c r="O106" s="54"/>
     </row>
-    <row r="107" spans="1:15" s="57" customFormat="1" ht="128" x14ac:dyDescent="0.2">
-      <c r="A107" s="49" t="s">
-        <v>972</v>
-      </c>
+    <row r="107" spans="1:15" s="57" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A107" s="49"/>
       <c r="B107" s="50"/>
       <c r="C107" s="51" t="s">
         <v>17</v>
@@ -11920,10 +11783,10 @@
         <v>75</v>
       </c>
       <c r="E107" s="58" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="F107" s="58" t="s">
-        <v>973</v>
+        <v>938</v>
       </c>
       <c r="G107" s="59"/>
       <c r="H107" s="52"/>
@@ -11945,10 +11808,10 @@
         <v>75</v>
       </c>
       <c r="E108" s="52" t="s">
-        <v>830</v>
+        <v>798</v>
       </c>
       <c r="F108" s="52" t="s">
-        <v>974</v>
+        <v>939</v>
       </c>
       <c r="G108" s="52"/>
       <c r="H108" s="52"/>
@@ -15215,18 +15078,18 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N100:N104 N109:N299">
+  <conditionalFormatting sqref="N109:N299 N3:N104">
     <cfRule type="beginsWith" dxfId="20" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
-      <formula>LEFT(N100,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="19" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
-      <formula>LEFT(N100,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N3,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="18" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
-      <formula>LEFT(N100,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N99 N300:N1048576">
+  <conditionalFormatting sqref="N1 N300:N1048576">
     <cfRule type="beginsWith" dxfId="17" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -15248,7 +15111,7 @@
       <formula>LEFT(N105,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D299" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
@@ -15403,10 +15266,10 @@
     </row>
     <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>709</v>
+        <v>677</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>709</v>
+        <v>677</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>5</v>
@@ -15415,10 +15278,10 @@
         <v>323</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>710</v>
+        <v>678</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -15440,10 +15303,10 @@
         <v>323</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -15465,10 +15328,10 @@
         <v>41</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>713</v>
+        <v>681</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>714</v>
+        <v>682</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="33"/>
@@ -15481,10 +15344,10 @@
     </row>
     <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>715</v>
+        <v>683</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>715</v>
+        <v>683</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>5</v>
@@ -15493,10 +15356,10 @@
         <v>323</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
@@ -15518,10 +15381,10 @@
         <v>41</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>716</v>
+        <v>684</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>717</v>
+        <v>685</v>
       </c>
       <c r="H9" s="23"/>
       <c r="I9" s="33"/>
@@ -15534,10 +15397,10 @@
     </row>
     <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>718</v>
+        <v>686</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>718</v>
+        <v>686</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>5</v>
@@ -15546,10 +15409,10 @@
         <v>323</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>719</v>
+        <v>687</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
@@ -15571,10 +15434,10 @@
         <v>323</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>721</v>
+        <v>689</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
@@ -15596,10 +15459,10 @@
         <v>41</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>722</v>
+        <v>690</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>723</v>
+        <v>691</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="33"/>
@@ -15620,10 +15483,10 @@
         <v>41</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>724</v>
+        <v>692</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>725</v>
+        <v>693</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="33"/>
@@ -15644,10 +15507,10 @@
         <v>41</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>724</v>
+        <v>692</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>726</v>
+        <v>694</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="33"/>
@@ -15660,10 +15523,10 @@
     </row>
     <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>727</v>
+        <v>695</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>727</v>
+        <v>695</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>5</v>
@@ -15672,10 +15535,10 @@
         <v>323</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>728</v>
+        <v>696</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
@@ -15697,10 +15560,10 @@
         <v>41</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>729</v>
+        <v>697</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>730</v>
+        <v>698</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="33"/>
@@ -15713,10 +15576,10 @@
     </row>
     <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>731</v>
+        <v>699</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>731</v>
+        <v>699</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>5</v>
@@ -15725,10 +15588,10 @@
         <v>323</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>732</v>
+        <v>700</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
@@ -15750,10 +15613,10 @@
         <v>41</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>734</v>
+        <v>702</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="33"/>
@@ -15766,10 +15629,10 @@
     </row>
     <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>5</v>
@@ -15778,10 +15641,10 @@
         <v>323</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -15803,10 +15666,10 @@
         <v>41</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>736</v>
+        <v>704</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>737</v>
+        <v>705</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="33"/>
@@ -15819,10 +15682,10 @@
     </row>
     <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>738</v>
+        <v>706</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>738</v>
+        <v>706</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>5</v>
@@ -15831,10 +15694,10 @@
         <v>323</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>739</v>
+        <v>707</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
@@ -15856,10 +15719,10 @@
         <v>41</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>740</v>
+        <v>708</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>741</v>
+        <v>709</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="33"/>
@@ -15872,10 +15735,10 @@
     </row>
     <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>742</v>
+        <v>710</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>742</v>
+        <v>710</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>5</v>
@@ -15884,10 +15747,10 @@
         <v>323</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
@@ -15909,10 +15772,10 @@
         <v>41</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>743</v>
+        <v>711</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>744</v>
+        <v>712</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="33"/>
@@ -15925,10 +15788,10 @@
     </row>
     <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>745</v>
+        <v>713</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>745</v>
+        <v>713</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>5</v>
@@ -15937,10 +15800,10 @@
         <v>323</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
@@ -15962,10 +15825,10 @@
         <v>41</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>746</v>
+        <v>714</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="33"/>
@@ -15978,10 +15841,10 @@
     </row>
     <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>747</v>
+        <v>715</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>747</v>
+        <v>715</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>5</v>
@@ -15990,10 +15853,10 @@
         <v>323</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>748</v>
+        <v>716</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
@@ -16015,10 +15878,10 @@
         <v>41</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>749</v>
+        <v>717</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>750</v>
+        <v>718</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="33"/>
@@ -16031,10 +15894,10 @@
     </row>
     <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>751</v>
+        <v>719</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>751</v>
+        <v>719</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>5</v>
@@ -16043,10 +15906,10 @@
         <v>323</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>752</v>
+        <v>720</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>753</v>
+        <v>721</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -16068,10 +15931,10 @@
         <v>323</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>754</v>
+        <v>722</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
@@ -16093,10 +15956,10 @@
         <v>41</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>755</v>
+        <v>723</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>756</v>
+        <v>724</v>
       </c>
       <c r="H31" s="23"/>
       <c r="I31" s="33"/>
@@ -16109,10 +15972,10 @@
     </row>
     <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>757</v>
+        <v>725</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>757</v>
+        <v>725</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>5</v>
@@ -16121,10 +15984,10 @@
         <v>323</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
@@ -16146,10 +16009,10 @@
         <v>41</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>758</v>
+        <v>726</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>759</v>
+        <v>727</v>
       </c>
       <c r="H33" s="23"/>
       <c r="I33" s="33"/>
@@ -16162,10 +16025,10 @@
     </row>
     <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>760</v>
+        <v>728</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>760</v>
+        <v>728</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>5</v>
@@ -16174,10 +16037,10 @@
         <v>323</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>752</v>
+        <v>720</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>761</v>
+        <v>729</v>
       </c>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
@@ -16199,10 +16062,10 @@
         <v>323</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>754</v>
+        <v>722</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>748</v>
+        <v>716</v>
       </c>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
@@ -16224,10 +16087,10 @@
         <v>41</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>762</v>
+        <v>730</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>763</v>
+        <v>731</v>
       </c>
       <c r="H36" s="23"/>
       <c r="I36" s="33"/>
@@ -16240,10 +16103,10 @@
     </row>
     <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>764</v>
+        <v>732</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>764</v>
+        <v>732</v>
       </c>
       <c r="C37" s="22" t="s">
         <v>5</v>
@@ -16252,10 +16115,10 @@
         <v>323</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
@@ -16277,10 +16140,10 @@
         <v>41</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>765</v>
+        <v>733</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>766</v>
+        <v>734</v>
       </c>
       <c r="H38" s="23"/>
       <c r="I38" s="33"/>
@@ -16293,10 +16156,10 @@
     </row>
     <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>767</v>
+        <v>735</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>767</v>
+        <v>735</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>5</v>
@@ -16305,10 +16168,10 @@
         <v>323</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
@@ -16330,10 +16193,10 @@
         <v>41</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>729</v>
+        <v>697</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>768</v>
+        <v>736</v>
       </c>
       <c r="H40" s="23"/>
       <c r="I40" s="33"/>
@@ -16346,10 +16209,10 @@
     </row>
     <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>769</v>
+        <v>737</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>769</v>
+        <v>737</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>5</v>
@@ -16358,10 +16221,10 @@
         <v>323</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>728</v>
+        <v>696</v>
       </c>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
@@ -16383,10 +16246,10 @@
         <v>41</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>770</v>
+        <v>738</v>
       </c>
       <c r="F42" s="23" t="s">
-        <v>771</v>
+        <v>739</v>
       </c>
       <c r="H42" s="23"/>
       <c r="I42" s="33"/>
@@ -16399,10 +16262,10 @@
     </row>
     <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>772</v>
+        <v>740</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>772</v>
+        <v>740</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>5</v>
@@ -16411,10 +16274,10 @@
         <v>323</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>728</v>
+        <v>696</v>
       </c>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
@@ -16436,10 +16299,10 @@
         <v>41</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>773</v>
+        <v>741</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>774</v>
+        <v>742</v>
       </c>
       <c r="H44" s="23"/>
       <c r="I44" s="33"/>
@@ -16452,10 +16315,10 @@
     </row>
     <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>690</v>
+        <v>658</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>690</v>
+        <v>658</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>5</v>
@@ -16464,10 +16327,10 @@
         <v>323</v>
       </c>
       <c r="E45" s="23" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>775</v>
+        <v>743</v>
       </c>
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
@@ -16489,10 +16352,10 @@
         <v>41</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>777</v>
+        <v>745</v>
       </c>
       <c r="H46" s="23"/>
       <c r="I46" s="33"/>
@@ -16505,10 +16368,10 @@
     </row>
     <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>778</v>
+        <v>746</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>778</v>
+        <v>746</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>5</v>
@@ -16517,10 +16380,10 @@
         <v>323</v>
       </c>
       <c r="E47" s="23" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
@@ -16542,10 +16405,10 @@
         <v>41</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>779</v>
+        <v>747</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="H48" s="23"/>
       <c r="I48" s="33"/>
@@ -16558,10 +16421,10 @@
     </row>
     <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="35" t="s">
-        <v>781</v>
+        <v>749</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>781</v>
+        <v>749</v>
       </c>
       <c r="C49" s="22" t="s">
         <v>5</v>
@@ -16570,10 +16433,10 @@
         <v>323</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
@@ -16595,10 +16458,10 @@
         <v>41</v>
       </c>
       <c r="E50" s="23" t="s">
-        <v>782</v>
+        <v>750</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>783</v>
+        <v>751</v>
       </c>
       <c r="H50" s="23"/>
       <c r="I50" s="33"/>
@@ -16611,10 +16474,10 @@
     </row>
     <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>784</v>
+        <v>752</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>784</v>
+        <v>752</v>
       </c>
       <c r="C51" s="22" t="s">
         <v>5</v>
@@ -16623,10 +16486,10 @@
         <v>323</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
@@ -16648,10 +16511,10 @@
         <v>41</v>
       </c>
       <c r="E52" s="23" t="s">
-        <v>785</v>
+        <v>753</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="H52" s="23"/>
       <c r="I52" s="33"/>
@@ -16664,10 +16527,10 @@
     </row>
     <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>787</v>
+        <v>755</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>787</v>
+        <v>755</v>
       </c>
       <c r="C53" s="22" t="s">
         <v>5</v>
@@ -16676,10 +16539,10 @@
         <v>323</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>788</v>
+        <v>756</v>
       </c>
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
@@ -16701,10 +16564,10 @@
         <v>41</v>
       </c>
       <c r="E54" s="23" t="s">
-        <v>789</v>
+        <v>757</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>790</v>
+        <v>758</v>
       </c>
       <c r="H54" s="23"/>
       <c r="I54" s="33"/>
@@ -16717,10 +16580,10 @@
     </row>
     <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
-        <v>791</v>
+        <v>759</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>791</v>
+        <v>759</v>
       </c>
       <c r="C55" s="22" t="s">
         <v>5</v>
@@ -16729,10 +16592,10 @@
         <v>323</v>
       </c>
       <c r="E55" s="23" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>792</v>
+        <v>760</v>
       </c>
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
@@ -16754,10 +16617,10 @@
         <v>41</v>
       </c>
       <c r="E56" s="23" t="s">
-        <v>793</v>
+        <v>761</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>794</v>
+        <v>762</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="33"/>
@@ -16770,10 +16633,10 @@
     </row>
     <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="s">
-        <v>795</v>
+        <v>763</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>795</v>
+        <v>763</v>
       </c>
       <c r="C57" s="22" t="s">
         <v>5</v>
@@ -16782,10 +16645,10 @@
         <v>323</v>
       </c>
       <c r="E57" s="23" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>796</v>
+        <v>764</v>
       </c>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
@@ -16807,10 +16670,10 @@
         <v>41</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>797</v>
+        <v>765</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>798</v>
+        <v>766</v>
       </c>
       <c r="H58" s="23"/>
       <c r="I58" s="33"/>
@@ -16823,10 +16686,10 @@
     </row>
     <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
-        <v>799</v>
+        <v>767</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>799</v>
+        <v>767</v>
       </c>
       <c r="C59" s="22" t="s">
         <v>5</v>
@@ -16835,10 +16698,10 @@
         <v>323</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>800</v>
+        <v>768</v>
       </c>
       <c r="G59" s="23"/>
       <c r="H59" s="23"/>
@@ -16860,10 +16723,10 @@
         <v>41</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>801</v>
+        <v>769</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>802</v>
+        <v>770</v>
       </c>
       <c r="H60" s="23"/>
       <c r="I60" s="33"/>
@@ -16876,10 +16739,10 @@
     </row>
     <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
-        <v>803</v>
+        <v>771</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>803</v>
+        <v>771</v>
       </c>
       <c r="C61" s="22" t="s">
         <v>5</v>
@@ -16888,10 +16751,10 @@
         <v>323</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>800</v>
+        <v>768</v>
       </c>
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
@@ -16913,10 +16776,10 @@
         <v>41</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>804</v>
+        <v>772</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="H62" s="23"/>
       <c r="I62" s="33"/>
@@ -16929,10 +16792,10 @@
     </row>
     <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
-        <v>806</v>
+        <v>774</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>806</v>
+        <v>774</v>
       </c>
       <c r="C63" s="22" t="s">
         <v>5</v>
@@ -16941,10 +16804,10 @@
         <v>323</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
       <c r="G63" s="23"/>
       <c r="H63" s="23"/>
@@ -16966,10 +16829,10 @@
         <v>41</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>807</v>
+        <v>775</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>808</v>
+        <v>776</v>
       </c>
       <c r="H64" s="23"/>
       <c r="I64" s="33"/>
@@ -16982,10 +16845,10 @@
     </row>
     <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>809</v>
+        <v>777</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>809</v>
+        <v>777</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>5</v>
@@ -16994,10 +16857,10 @@
         <v>323</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>796</v>
+        <v>764</v>
       </c>
       <c r="G65" s="23"/>
       <c r="H65" s="23"/>
@@ -17019,10 +16882,10 @@
         <v>41</v>
       </c>
       <c r="E66" s="23" t="s">
-        <v>796</v>
+        <v>764</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>810</v>
+        <v>778</v>
       </c>
       <c r="H66" s="23"/>
       <c r="I66" s="33"/>
@@ -17043,10 +16906,10 @@
         <v>41</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>811</v>
+        <v>779</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>812</v>
+        <v>780</v>
       </c>
       <c r="H67" s="23"/>
       <c r="I67" s="33"/>
@@ -17059,10 +16922,10 @@
     </row>
     <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
-        <v>813</v>
+        <v>781</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>813</v>
+        <v>781</v>
       </c>
       <c r="C68" s="22" t="s">
         <v>5</v>
@@ -17071,10 +16934,10 @@
         <v>323</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
       <c r="G68" s="23"/>
       <c r="H68" s="23"/>
@@ -17096,10 +16959,10 @@
         <v>41</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>755</v>
+        <v>723</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>814</v>
+        <v>782</v>
       </c>
       <c r="H69" s="23"/>
       <c r="I69" s="33"/>
@@ -17112,10 +16975,10 @@
     </row>
     <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>815</v>
+        <v>783</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>815</v>
+        <v>783</v>
       </c>
       <c r="C70" s="22" t="s">
         <v>5</v>
@@ -17124,10 +16987,10 @@
         <v>323</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>728</v>
+        <v>696</v>
       </c>
       <c r="G70" s="23"/>
       <c r="H70" s="23"/>
@@ -17149,10 +17012,10 @@
         <v>41</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>816</v>
+        <v>784</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>817</v>
+        <v>785</v>
       </c>
       <c r="H71" s="23"/>
       <c r="I71" s="33"/>
@@ -17165,10 +17028,10 @@
     </row>
     <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
-        <v>698</v>
+        <v>666</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>698</v>
+        <v>666</v>
       </c>
       <c r="C72" s="22" t="s">
         <v>5</v>
@@ -17177,10 +17040,10 @@
         <v>323</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>796</v>
+        <v>764</v>
       </c>
       <c r="G72" s="23"/>
       <c r="H72" s="23"/>
@@ -17202,10 +17065,10 @@
         <v>41</v>
       </c>
       <c r="E73" s="23" t="s">
-        <v>796</v>
+        <v>764</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>810</v>
+        <v>778</v>
       </c>
       <c r="H73" s="23"/>
       <c r="I73" s="33"/>
@@ -17226,10 +17089,10 @@
         <v>41</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>818</v>
+        <v>786</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>819</v>
+        <v>787</v>
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="33"/>
@@ -17242,10 +17105,10 @@
     </row>
     <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
-        <v>820</v>
+        <v>788</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>820</v>
+        <v>788</v>
       </c>
       <c r="C75" s="22" t="s">
         <v>5</v>
@@ -17254,10 +17117,10 @@
         <v>323</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>752</v>
+        <v>720</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>761</v>
+        <v>729</v>
       </c>
       <c r="G75" s="23"/>
       <c r="H75" s="23"/>
@@ -17279,10 +17142,10 @@
         <v>323</v>
       </c>
       <c r="E76" s="23" t="s">
-        <v>754</v>
+        <v>722</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>748</v>
+        <v>716</v>
       </c>
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
@@ -17304,10 +17167,10 @@
         <v>41</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>821</v>
+        <v>789</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>822</v>
+        <v>790</v>
       </c>
       <c r="H77" s="23"/>
       <c r="I77" s="33"/>
@@ -17320,10 +17183,10 @@
     </row>
     <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
-        <v>823</v>
+        <v>791</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>823</v>
+        <v>791</v>
       </c>
       <c r="C78" s="22" t="s">
         <v>5</v>
@@ -17332,10 +17195,10 @@
         <v>323</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>728</v>
+        <v>696</v>
       </c>
       <c r="G78" s="23"/>
       <c r="H78" s="23"/>
@@ -17357,10 +17220,10 @@
         <v>41</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>729</v>
+        <v>697</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>824</v>
+        <v>792</v>
       </c>
       <c r="G79" s="23"/>
       <c r="H79" s="23"/>
@@ -20952,11 +20815,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O326"/>
+  <dimension ref="A1:O324"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21010,7 +20873,7 @@
     </row>
     <row r="2" spans="1:15" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="75" t="s">
-        <v>975</v>
+        <v>940</v>
       </c>
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
@@ -21093,10 +20956,10 @@
     </row>
     <row r="5" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>825</v>
+        <v>793</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>825</v>
+        <v>793</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>5</v>
@@ -21105,10 +20968,10 @@
         <v>323</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>827</v>
+        <v>795</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
@@ -21130,10 +20993,10 @@
         <v>41</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>828</v>
+        <v>796</v>
       </c>
       <c r="F6" s="62" t="s">
-        <v>976</v>
+        <v>941</v>
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="23"/>
@@ -21147,10 +21010,10 @@
     </row>
     <row r="7" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>829</v>
+        <v>797</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>829</v>
+        <v>797</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>5</v>
@@ -21159,10 +21022,10 @@
         <v>323</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>827</v>
+        <v>795</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
@@ -21184,10 +21047,10 @@
         <v>41</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>830</v>
+        <v>798</v>
       </c>
       <c r="F8" s="62" t="s">
-        <v>977</v>
+        <v>942</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
@@ -21201,10 +21064,10 @@
     </row>
     <row r="9" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>831</v>
+        <v>799</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>831</v>
+        <v>799</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>5</v>
@@ -21213,10 +21076,10 @@
         <v>323</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>827</v>
+        <v>795</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
@@ -21238,10 +21101,10 @@
         <v>41</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>832</v>
+        <v>800</v>
       </c>
       <c r="F10" s="62" t="s">
-        <v>978</v>
+        <v>943</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
@@ -21263,10 +21126,10 @@
         <v>41</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>833</v>
+        <v>801</v>
       </c>
       <c r="F11" s="62" t="s">
-        <v>979</v>
+        <v>944</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
@@ -21281,7 +21144,7 @@
     <row r="12" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="20"/>
       <c r="B12" s="21" t="s">
-        <v>1052</v>
+        <v>1017</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>5</v>
@@ -21290,10 +21153,10 @@
         <v>41</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>1050</v>
+        <v>1015</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>980</v>
+        <v>945</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
@@ -21308,7 +21171,7 @@
     <row r="13" spans="1:15" s="60" customFormat="1" ht="144" x14ac:dyDescent="0.2">
       <c r="A13" s="20"/>
       <c r="B13" s="21" t="s">
-        <v>1052</v>
+        <v>1017</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>5</v>
@@ -21317,10 +21180,10 @@
         <v>41</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>981</v>
+        <v>946</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>1051</v>
+        <v>1016</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
@@ -21334,10 +21197,10 @@
     </row>
     <row r="14" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>834</v>
+        <v>802</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>834</v>
+        <v>802</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>5</v>
@@ -21346,10 +21209,10 @@
         <v>323</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>827</v>
+        <v>795</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
@@ -21371,10 +21234,10 @@
         <v>41</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>835</v>
+        <v>803</v>
       </c>
       <c r="F15" s="62" t="s">
-        <v>982</v>
+        <v>947</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
@@ -21396,7 +21259,7 @@
         <v>369</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>983</v>
+        <v>948</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="23"/>
@@ -21411,10 +21274,10 @@
     </row>
     <row r="17" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>738</v>
+        <v>706</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>738</v>
+        <v>706</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>5</v>
@@ -21423,10 +21286,10 @@
         <v>323</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>836</v>
+        <v>804</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
@@ -21448,10 +21311,10 @@
         <v>41</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>837</v>
+        <v>805</v>
       </c>
       <c r="F18" s="62" t="s">
-        <v>984</v>
+        <v>949</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
@@ -21465,10 +21328,10 @@
     </row>
     <row r="19" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>838</v>
+        <v>806</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>838</v>
+        <v>806</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>5</v>
@@ -21477,10 +21340,10 @@
         <v>323</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>827</v>
+        <v>795</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -21502,10 +21365,10 @@
         <v>323</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>839</v>
+        <v>807</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>840</v>
+        <v>808</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
@@ -21527,10 +21390,10 @@
         <v>323</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>841</v>
+        <v>809</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>842</v>
+        <v>810</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
@@ -21552,7 +21415,7 @@
         <v>369</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>985</v>
+        <v>950</v>
       </c>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
@@ -21567,10 +21430,10 @@
     </row>
     <row r="23" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>843</v>
+        <v>811</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>843</v>
+        <v>811</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>5</v>
@@ -21579,10 +21442,10 @@
         <v>323</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>844</v>
+        <v>812</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
@@ -21604,10 +21467,10 @@
         <v>41</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>845</v>
+        <v>813</v>
       </c>
       <c r="F24" s="62" t="s">
-        <v>986</v>
+        <v>951</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
@@ -21629,10 +21492,10 @@
         <v>41</v>
       </c>
       <c r="E25" s="62" t="s">
-        <v>988</v>
+        <v>953</v>
       </c>
       <c r="F25" s="62" t="s">
-        <v>987</v>
+        <v>952</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
@@ -21646,10 +21509,10 @@
     </row>
     <row r="26" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
-        <v>846</v>
+        <v>814</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>846</v>
+        <v>814</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>5</v>
@@ -21658,10 +21521,10 @@
         <v>323</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>844</v>
+        <v>812</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
@@ -21683,10 +21546,10 @@
         <v>41</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>847</v>
+        <v>815</v>
       </c>
       <c r="F27" s="62" t="s">
-        <v>989</v>
+        <v>954</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
@@ -21708,10 +21571,10 @@
         <v>41</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>848</v>
+        <v>816</v>
       </c>
       <c r="F28" s="62" t="s">
-        <v>990</v>
+        <v>955</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
@@ -21725,10 +21588,10 @@
     </row>
     <row r="29" spans="1:15" s="60" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
-        <v>849</v>
+        <v>817</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>849</v>
+        <v>817</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>5</v>
@@ -21737,10 +21600,10 @@
         <v>323</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>850</v>
+        <v>818</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>851</v>
+        <v>819</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
@@ -21762,10 +21625,10 @@
         <v>41</v>
       </c>
       <c r="E30" s="63" t="s">
-        <v>852</v>
+        <v>820</v>
       </c>
       <c r="F30" s="62" t="s">
-        <v>992</v>
+        <v>957</v>
       </c>
       <c r="G30" s="24"/>
       <c r="H30" s="23"/>
@@ -21787,10 +21650,10 @@
         <v>41</v>
       </c>
       <c r="E31" s="63" t="s">
-        <v>853</v>
+        <v>821</v>
       </c>
       <c r="F31" s="62" t="s">
-        <v>991</v>
+        <v>956</v>
       </c>
       <c r="G31" s="24"/>
       <c r="H31" s="23"/>
@@ -21804,10 +21667,10 @@
     </row>
     <row r="32" spans="1:15" s="60" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>854</v>
+        <v>822</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>854</v>
+        <v>822</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>5</v>
@@ -21816,10 +21679,10 @@
         <v>323</v>
       </c>
       <c r="E32" s="64" t="s">
-        <v>850</v>
+        <v>818</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>851</v>
+        <v>819</v>
       </c>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
@@ -21841,10 +21704,10 @@
         <v>41</v>
       </c>
       <c r="E33" s="63" t="s">
-        <v>855</v>
+        <v>823</v>
       </c>
       <c r="F33" s="62" t="s">
-        <v>993</v>
+        <v>958</v>
       </c>
       <c r="G33" s="24"/>
       <c r="H33" s="23"/>
@@ -21866,10 +21729,10 @@
         <v>323</v>
       </c>
       <c r="E34" s="64" t="s">
-        <v>850</v>
+        <v>818</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>856</v>
+        <v>824</v>
       </c>
       <c r="G34" s="24"/>
       <c r="H34" s="23"/>
@@ -21891,10 +21754,10 @@
         <v>41</v>
       </c>
       <c r="E35" s="63" t="s">
-        <v>857</v>
+        <v>825</v>
       </c>
       <c r="F35" s="62" t="s">
-        <v>993</v>
+        <v>958</v>
       </c>
       <c r="G35" s="24"/>
       <c r="H35" s="23"/>
@@ -21916,10 +21779,10 @@
         <v>323</v>
       </c>
       <c r="E36" s="64" t="s">
-        <v>850</v>
+        <v>818</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>858</v>
+        <v>826</v>
       </c>
       <c r="G36" s="24"/>
       <c r="H36" s="23"/>
@@ -21941,10 +21804,10 @@
         <v>41</v>
       </c>
       <c r="E37" s="63" t="s">
-        <v>859</v>
+        <v>827</v>
       </c>
       <c r="F37" s="62" t="s">
-        <v>994</v>
+        <v>959</v>
       </c>
       <c r="G37" s="24"/>
       <c r="H37" s="23"/>
@@ -21958,10 +21821,10 @@
     </row>
     <row r="38" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
-        <v>860</v>
+        <v>828</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>860</v>
+        <v>828</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>5</v>
@@ -21970,10 +21833,10 @@
         <v>323</v>
       </c>
       <c r="E38" s="64" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>844</v>
+        <v>812</v>
       </c>
       <c r="G38" s="23"/>
       <c r="H38" s="23"/>
@@ -21995,10 +21858,10 @@
         <v>41</v>
       </c>
       <c r="E39" s="62" t="s">
-        <v>848</v>
+        <v>816</v>
       </c>
       <c r="F39" s="62" t="s">
-        <v>995</v>
+        <v>960</v>
       </c>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
@@ -22020,10 +21883,10 @@
         <v>41</v>
       </c>
       <c r="E40" s="62" t="s">
-        <v>861</v>
+        <v>829</v>
       </c>
       <c r="F40" s="62" t="s">
-        <v>996</v>
+        <v>961</v>
       </c>
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
@@ -22045,10 +21908,10 @@
         <v>41</v>
       </c>
       <c r="E41" s="62" t="s">
-        <v>862</v>
+        <v>830</v>
       </c>
       <c r="F41" s="62" t="s">
-        <v>997</v>
+        <v>962</v>
       </c>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
@@ -22062,10 +21925,10 @@
     </row>
     <row r="42" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>863</v>
+        <v>831</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>863</v>
+        <v>831</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>5</v>
@@ -22074,10 +21937,10 @@
         <v>323</v>
       </c>
       <c r="E42" s="64" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>844</v>
+        <v>812</v>
       </c>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
@@ -22089,7 +21952,7 @@
       <c r="N42" s="18"/>
       <c r="O42" s="17"/>
     </row>
-    <row r="43" spans="1:15" s="60" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" s="60" customFormat="1" ht="176" x14ac:dyDescent="0.2">
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="22" t="s">
@@ -22099,10 +21962,10 @@
         <v>41</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>864</v>
+        <v>832</v>
       </c>
       <c r="F43" s="62" t="s">
-        <v>998</v>
+        <v>963</v>
       </c>
       <c r="G43" s="24"/>
       <c r="H43" s="23"/>
@@ -22128,10 +21991,10 @@
         <v>323</v>
       </c>
       <c r="E44" s="64" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>865</v>
+        <v>833</v>
       </c>
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
@@ -22153,10 +22016,10 @@
         <v>41</v>
       </c>
       <c r="E45" s="62" t="s">
-        <v>866</v>
+        <v>834</v>
       </c>
       <c r="F45" s="62" t="s">
-        <v>999</v>
+        <v>964</v>
       </c>
       <c r="G45" s="24"/>
       <c r="H45" s="23"/>
@@ -22178,10 +22041,10 @@
         <v>41</v>
       </c>
       <c r="E46" s="62" t="s">
-        <v>867</v>
+        <v>835</v>
       </c>
       <c r="F46" s="62" t="s">
-        <v>1000</v>
+        <v>965</v>
       </c>
       <c r="G46" s="24"/>
       <c r="H46" s="23"/>
@@ -22195,10 +22058,10 @@
     </row>
     <row r="47" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>767</v>
+        <v>735</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>767</v>
+        <v>735</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>5</v>
@@ -22207,10 +22070,10 @@
         <v>323</v>
       </c>
       <c r="E47" s="64" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>844</v>
+        <v>812</v>
       </c>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
@@ -22232,10 +22095,10 @@
         <v>41</v>
       </c>
       <c r="E48" s="62" t="s">
-        <v>729</v>
+        <v>697</v>
       </c>
       <c r="F48" s="62" t="s">
-        <v>1001</v>
+        <v>966</v>
       </c>
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
@@ -22257,10 +22120,10 @@
         <v>41</v>
       </c>
       <c r="E49" s="62" t="s">
-        <v>868</v>
+        <v>836</v>
       </c>
       <c r="F49" s="62" t="s">
-        <v>1002</v>
+        <v>967</v>
       </c>
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
@@ -22274,10 +22137,10 @@
     </row>
     <row r="50" spans="1:15" s="60" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>1054</v>
+        <v>1019</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>869</v>
+        <v>837</v>
       </c>
       <c r="C50" s="22" t="s">
         <v>5</v>
@@ -22286,10 +22149,10 @@
         <v>323</v>
       </c>
       <c r="E50" s="64" t="s">
-        <v>870</v>
+        <v>838</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>871</v>
+        <v>839</v>
       </c>
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
@@ -22311,10 +22174,10 @@
         <v>323</v>
       </c>
       <c r="E51" s="64" t="s">
-        <v>872</v>
+        <v>840</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>873</v>
+        <v>841</v>
       </c>
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
@@ -22336,10 +22199,10 @@
         <v>41</v>
       </c>
       <c r="E52" s="62" t="s">
-        <v>873</v>
+        <v>841</v>
       </c>
       <c r="F52" s="62" t="s">
-        <v>1003</v>
+        <v>968</v>
       </c>
       <c r="G52" s="24"/>
       <c r="H52" s="23"/>
@@ -22361,10 +22224,10 @@
         <v>41</v>
       </c>
       <c r="E53" s="62" t="s">
-        <v>874</v>
+        <v>842</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>1056</v>
+        <v>1021</v>
       </c>
       <c r="G53" s="24"/>
       <c r="H53" s="23"/>
@@ -22379,7 +22242,7 @@
     <row r="54" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A54" s="61"/>
       <c r="B54" s="68" t="s">
-        <v>1035</v>
+        <v>1000</v>
       </c>
       <c r="C54" s="22" t="s">
         <v>5</v>
@@ -22388,10 +22251,10 @@
         <v>323</v>
       </c>
       <c r="E54" s="64" t="s">
-        <v>870</v>
+        <v>838</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>875</v>
+        <v>843</v>
       </c>
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
@@ -22413,10 +22276,10 @@
         <v>323</v>
       </c>
       <c r="E55" s="64" t="s">
-        <v>872</v>
+        <v>840</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>876</v>
+        <v>844</v>
       </c>
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
@@ -22438,10 +22301,10 @@
         <v>41</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>877</v>
+        <v>845</v>
       </c>
       <c r="F56" s="62" t="s">
-        <v>1004</v>
+        <v>969</v>
       </c>
       <c r="G56" s="24"/>
       <c r="H56" s="23"/>
@@ -22463,10 +22326,10 @@
         <v>41</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>878</v>
+        <v>846</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>1055</v>
+        <v>1020</v>
       </c>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
@@ -22481,7 +22344,7 @@
     <row r="58" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A58" s="20"/>
       <c r="B58" s="21" t="s">
-        <v>869</v>
+        <v>837</v>
       </c>
       <c r="C58" s="22" t="s">
         <v>5</v>
@@ -22490,10 +22353,10 @@
         <v>323</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>870</v>
+        <v>838</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>879</v>
+        <v>847</v>
       </c>
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
@@ -22515,10 +22378,10 @@
         <v>323</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>872</v>
+        <v>840</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>880</v>
+        <v>848</v>
       </c>
       <c r="G59" s="23"/>
       <c r="H59" s="23"/>
@@ -22540,10 +22403,10 @@
         <v>41</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>881</v>
+        <v>849</v>
       </c>
       <c r="F60" s="62" t="s">
-        <v>1004</v>
+        <v>969</v>
       </c>
       <c r="G60" s="24"/>
       <c r="H60" s="23"/>
@@ -22565,10 +22428,10 @@
         <v>41</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>882</v>
+        <v>850</v>
       </c>
       <c r="F61" s="62" t="s">
-        <v>1005</v>
+        <v>970</v>
       </c>
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
@@ -22590,10 +22453,10 @@
         <v>323</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>883</v>
+        <v>851</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>884</v>
+        <v>852</v>
       </c>
       <c r="G62" s="23"/>
       <c r="H62" s="23"/>
@@ -22615,7 +22478,7 @@
         <v>369</v>
       </c>
       <c r="E63" s="62" t="s">
-        <v>1006</v>
+        <v>971</v>
       </c>
       <c r="F63" s="24"/>
       <c r="G63" s="23"/>
@@ -22638,7 +22501,7 @@
         <v>369</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>1058</v>
+        <v>1023</v>
       </c>
       <c r="F64" s="24"/>
       <c r="G64" s="23"/>
@@ -22661,10 +22524,10 @@
         <v>323</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>872</v>
+        <v>840</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>885</v>
+        <v>853</v>
       </c>
       <c r="G65" s="23"/>
       <c r="H65" s="23"/>
@@ -22686,10 +22549,10 @@
         <v>41</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>886</v>
+        <v>854</v>
       </c>
       <c r="F66" s="62" t="s">
-        <v>1004</v>
+        <v>969</v>
       </c>
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
@@ -22711,7 +22574,7 @@
         <v>369</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>1057</v>
+        <v>1022</v>
       </c>
       <c r="F67" s="24"/>
       <c r="G67" s="23"/>
@@ -22727,7 +22590,7 @@
     <row r="68" spans="1:15" s="60" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="20"/>
       <c r="B68" s="21" t="s">
-        <v>1059</v>
+        <v>1024</v>
       </c>
       <c r="C68" s="22" t="s">
         <v>5</v>
@@ -22736,10 +22599,10 @@
         <v>323</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>870</v>
+        <v>838</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>1067</v>
+        <v>1030</v>
       </c>
       <c r="G68" s="23"/>
       <c r="H68" s="23"/>
@@ -22761,10 +22624,10 @@
         <v>323</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>872</v>
+        <v>840</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>1068</v>
+        <v>1031</v>
       </c>
       <c r="G69" s="23"/>
       <c r="H69" s="23"/>
@@ -22786,7 +22649,7 @@
         <v>369</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>1060</v>
+        <v>1025</v>
       </c>
       <c r="F70" s="24"/>
       <c r="G70" s="23"/>
@@ -22799,19 +22662,21 @@
       <c r="N70" s="18"/>
       <c r="O70" s="17"/>
     </row>
-    <row r="71" spans="1:15" s="60" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" s="60" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A71" s="20"/>
       <c r="B71" s="21"/>
       <c r="C71" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>369</v>
+        <v>41</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F71" s="24"/>
+        <v>1026</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>1028</v>
+      </c>
       <c r="G71" s="23"/>
       <c r="H71" s="23"/>
       <c r="I71" s="33"/>
@@ -22822,19 +22687,21 @@
       <c r="N71" s="18"/>
       <c r="O71" s="17"/>
     </row>
-    <row r="72" spans="1:15" s="60" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" s="60" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A72" s="20"/>
       <c r="B72" s="21"/>
       <c r="C72" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>369</v>
+        <v>41</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F72" s="24"/>
+        <v>1027</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>1029</v>
+      </c>
       <c r="G72" s="23"/>
       <c r="H72" s="23"/>
       <c r="I72" s="33"/>
@@ -22845,20 +22712,24 @@
       <c r="N72" s="18"/>
       <c r="O72" s="17"/>
     </row>
-    <row r="73" spans="1:15" s="60" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A73" s="20"/>
-      <c r="B73" s="21"/>
+    <row r="73" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A73" s="20" t="s">
+        <v>855</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>855</v>
+      </c>
       <c r="C73" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E73" s="24" t="s">
-        <v>1061</v>
+        <v>323</v>
+      </c>
+      <c r="E73" s="23" t="s">
+        <v>794</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>1063</v>
+        <v>856</v>
       </c>
       <c r="G73" s="23"/>
       <c r="H73" s="23"/>
@@ -22870,7 +22741,7 @@
       <c r="N73" s="18"/>
       <c r="O73" s="17"/>
     </row>
-    <row r="74" spans="1:15" s="60" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A74" s="20"/>
       <c r="B74" s="21"/>
       <c r="C74" s="22" t="s">
@@ -22880,12 +22751,12 @@
         <v>41</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F74" s="24" t="s">
-        <v>1064</v>
-      </c>
-      <c r="G74" s="23"/>
+        <v>857</v>
+      </c>
+      <c r="F74" s="62" t="s">
+        <v>972</v>
+      </c>
+      <c r="G74" s="24"/>
       <c r="H74" s="23"/>
       <c r="I74" s="33"/>
       <c r="J74" s="34"/>
@@ -22896,11 +22767,11 @@
       <c r="O74" s="17"/>
     </row>
     <row r="75" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A75" s="20" t="s">
-        <v>887</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>887</v>
+      <c r="A75" s="39" t="s">
+        <v>858</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>858</v>
       </c>
       <c r="C75" s="22" t="s">
         <v>5</v>
@@ -22909,10 +22780,10 @@
         <v>323</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>888</v>
+        <v>859</v>
       </c>
       <c r="G75" s="23"/>
       <c r="H75" s="23"/>
@@ -22934,10 +22805,10 @@
         <v>41</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>889</v>
+        <v>860</v>
       </c>
       <c r="F76" s="62" t="s">
-        <v>1007</v>
+        <v>974</v>
       </c>
       <c r="G76" s="24"/>
       <c r="H76" s="23"/>
@@ -22950,25 +22821,21 @@
       <c r="O76" s="17"/>
     </row>
     <row r="77" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A77" s="39" t="s">
-        <v>890</v>
-      </c>
-      <c r="B77" s="40" t="s">
-        <v>890</v>
-      </c>
+      <c r="A77" s="20"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>826</v>
-      </c>
-      <c r="F77" s="24" t="s">
-        <v>891</v>
-      </c>
-      <c r="G77" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="F77" s="62" t="s">
+        <v>973</v>
+      </c>
+      <c r="G77" s="24"/>
       <c r="H77" s="23"/>
       <c r="I77" s="33"/>
       <c r="J77" s="34"/>
@@ -22979,21 +22846,25 @@
       <c r="O77" s="17"/>
     </row>
     <row r="78" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A78" s="20"/>
-      <c r="B78" s="21"/>
+      <c r="A78" s="20" t="s">
+        <v>862</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>862</v>
+      </c>
       <c r="C78" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>892</v>
-      </c>
-      <c r="F78" s="62" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G78" s="24"/>
+        <v>323</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>794</v>
+      </c>
+      <c r="F78" s="37" t="s">
+        <v>863</v>
+      </c>
+      <c r="G78" s="23"/>
       <c r="H78" s="23"/>
       <c r="I78" s="33"/>
       <c r="J78" s="34"/>
@@ -23003,7 +22874,7 @@
       <c r="N78" s="18"/>
       <c r="O78" s="17"/>
     </row>
-    <row r="79" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" s="60" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="20"/>
       <c r="B79" s="21"/>
       <c r="C79" s="22" t="s">
@@ -23013,10 +22884,10 @@
         <v>41</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>893</v>
-      </c>
-      <c r="F79" s="62" t="s">
-        <v>1008</v>
+        <v>864</v>
+      </c>
+      <c r="F79" s="66" t="s">
+        <v>975</v>
       </c>
       <c r="G79" s="24"/>
       <c r="H79" s="23"/>
@@ -23028,26 +22899,22 @@
       <c r="N79" s="18"/>
       <c r="O79" s="17"/>
     </row>
-    <row r="80" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A80" s="20" t="s">
-        <v>894</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>894</v>
-      </c>
+    <row r="80" spans="1:15" s="60" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A80" s="20"/>
+      <c r="B80" s="21"/>
       <c r="C80" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E80" s="23" t="s">
-        <v>826</v>
-      </c>
-      <c r="F80" s="37" t="s">
-        <v>895</v>
-      </c>
-      <c r="G80" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="E80" s="38" t="s">
+        <v>865</v>
+      </c>
+      <c r="F80" s="62" t="s">
+        <v>977</v>
+      </c>
+      <c r="G80" s="24"/>
       <c r="H80" s="23"/>
       <c r="I80" s="33"/>
       <c r="J80" s="34"/>
@@ -23057,7 +22924,7 @@
       <c r="N80" s="18"/>
       <c r="O80" s="17"/>
     </row>
-    <row r="81" spans="1:15" s="60" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" s="60" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A81" s="20"/>
       <c r="B81" s="21"/>
       <c r="C81" s="22" t="s">
@@ -23067,10 +22934,10 @@
         <v>41</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>896</v>
+        <v>866</v>
       </c>
       <c r="F81" s="66" t="s">
-        <v>1010</v>
+        <v>976</v>
       </c>
       <c r="G81" s="24"/>
       <c r="H81" s="23"/>
@@ -23082,22 +22949,26 @@
       <c r="N81" s="18"/>
       <c r="O81" s="17"/>
     </row>
-    <row r="82" spans="1:15" s="60" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A82" s="20"/>
-      <c r="B82" s="21"/>
+    <row r="82" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A82" s="39" t="s">
+        <v>867</v>
+      </c>
+      <c r="B82" s="40" t="s">
+        <v>867</v>
+      </c>
       <c r="C82" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E82" s="38" t="s">
-        <v>897</v>
-      </c>
-      <c r="F82" s="62" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G82" s="24"/>
+        <v>323</v>
+      </c>
+      <c r="E82" s="23" t="s">
+        <v>794</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="G82" s="23"/>
       <c r="H82" s="23"/>
       <c r="I82" s="33"/>
       <c r="J82" s="34"/>
@@ -23107,7 +22978,7 @@
       <c r="N82" s="18"/>
       <c r="O82" s="17"/>
     </row>
-    <row r="83" spans="1:15" s="60" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A83" s="20"/>
       <c r="B83" s="21"/>
       <c r="C83" s="22" t="s">
@@ -23117,10 +22988,10 @@
         <v>41</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>898</v>
-      </c>
-      <c r="F83" s="66" t="s">
-        <v>1011</v>
+        <v>869</v>
+      </c>
+      <c r="F83" s="62" t="s">
+        <v>978</v>
       </c>
       <c r="G83" s="24"/>
       <c r="H83" s="23"/>
@@ -23132,26 +23003,24 @@
       <c r="N83" s="18"/>
       <c r="O83" s="17"/>
     </row>
-    <row r="84" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A84" s="39" t="s">
-        <v>899</v>
-      </c>
-      <c r="B84" s="40" t="s">
-        <v>899</v>
-      </c>
+    <row r="84" spans="1:15" s="60" customFormat="1" ht="176" x14ac:dyDescent="0.2">
+      <c r="A84" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="B84" s="21"/>
       <c r="C84" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>826</v>
-      </c>
-      <c r="F84" s="24" t="s">
-        <v>900</v>
-      </c>
-      <c r="G84" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="F84" s="62" t="s">
+        <v>979</v>
+      </c>
+      <c r="G84" s="24"/>
       <c r="H84" s="23"/>
       <c r="I84" s="33"/>
       <c r="J84" s="34"/>
@@ -23162,21 +23031,23 @@
       <c r="O84" s="17"/>
     </row>
     <row r="85" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A85" s="20"/>
-      <c r="B85" s="21"/>
+      <c r="A85" s="67" t="s">
+        <v>872</v>
+      </c>
+      <c r="B85" s="40"/>
       <c r="C85" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E85" s="24" t="s">
-        <v>901</v>
-      </c>
-      <c r="F85" s="62" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G85" s="24"/>
+        <v>323</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>794</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="G85" s="23"/>
       <c r="H85" s="23"/>
       <c r="I85" s="33"/>
       <c r="J85" s="34"/>
@@ -23186,11 +23057,11 @@
       <c r="N85" s="18"/>
       <c r="O85" s="17"/>
     </row>
-    <row r="86" spans="1:15" s="60" customFormat="1" ht="176" x14ac:dyDescent="0.2">
-      <c r="A86" s="20" t="s">
-        <v>902</v>
-      </c>
-      <c r="B86" s="21"/>
+    <row r="86" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A86" s="20"/>
+      <c r="B86" s="21" t="s">
+        <v>874</v>
+      </c>
       <c r="C86" s="22" t="s">
         <v>5</v>
       </c>
@@ -23198,10 +23069,10 @@
         <v>41</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>903</v>
+        <v>875</v>
       </c>
       <c r="F86" s="62" t="s">
-        <v>1014</v>
+        <v>980</v>
       </c>
       <c r="G86" s="24"/>
       <c r="H86" s="23"/>
@@ -23214,23 +23085,23 @@
       <c r="O86" s="17"/>
     </row>
     <row r="87" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A87" s="67" t="s">
-        <v>904</v>
-      </c>
-      <c r="B87" s="40"/>
+      <c r="A87" s="20"/>
+      <c r="B87" s="21" t="s">
+        <v>876</v>
+      </c>
       <c r="C87" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E87" s="23" t="s">
-        <v>826</v>
-      </c>
-      <c r="F87" s="24" t="s">
-        <v>905</v>
-      </c>
-      <c r="G87" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="F87" s="62" t="s">
+        <v>981</v>
+      </c>
+      <c r="G87" s="24"/>
       <c r="H87" s="23"/>
       <c r="I87" s="33"/>
       <c r="J87" s="34"/>
@@ -23243,7 +23114,7 @@
     <row r="88" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A88" s="20"/>
       <c r="B88" s="21" t="s">
-        <v>906</v>
+        <v>877</v>
       </c>
       <c r="C88" s="22" t="s">
         <v>5</v>
@@ -23252,10 +23123,10 @@
         <v>41</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>907</v>
+        <v>878</v>
       </c>
       <c r="F88" s="62" t="s">
-        <v>1015</v>
+        <v>982</v>
       </c>
       <c r="G88" s="24"/>
       <c r="H88" s="23"/>
@@ -23269,9 +23140,7 @@
     </row>
     <row r="89" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A89" s="20"/>
-      <c r="B89" s="21" t="s">
-        <v>908</v>
-      </c>
+      <c r="B89" s="21"/>
       <c r="C89" s="22" t="s">
         <v>5</v>
       </c>
@@ -23279,10 +23148,10 @@
         <v>41</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>907</v>
+        <v>879</v>
       </c>
       <c r="F89" s="62" t="s">
-        <v>1016</v>
+        <v>983</v>
       </c>
       <c r="G89" s="24"/>
       <c r="H89" s="23"/>
@@ -23294,24 +23163,26 @@
       <c r="N89" s="18"/>
       <c r="O89" s="17"/>
     </row>
-    <row r="90" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A90" s="20"/>
+    <row r="90" spans="1:15" s="60" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A90" s="20" t="s">
+        <v>880</v>
+      </c>
       <c r="B90" s="21" t="s">
-        <v>909</v>
+        <v>880</v>
       </c>
       <c r="C90" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E90" s="24" t="s">
-        <v>910</v>
-      </c>
-      <c r="F90" s="62" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G90" s="24"/>
+        <v>323</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>794</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="G90" s="23"/>
       <c r="H90" s="23"/>
       <c r="I90" s="33"/>
       <c r="J90" s="34"/>
@@ -23323,7 +23194,9 @@
     </row>
     <row r="91" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A91" s="20"/>
-      <c r="B91" s="21"/>
+      <c r="B91" s="21" t="s">
+        <v>882</v>
+      </c>
       <c r="C91" s="22" t="s">
         <v>5</v>
       </c>
@@ -23331,10 +23204,10 @@
         <v>41</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>911</v>
+        <v>860</v>
       </c>
       <c r="F91" s="62" t="s">
-        <v>1018</v>
+        <v>984</v>
       </c>
       <c r="G91" s="24"/>
       <c r="H91" s="23"/>
@@ -23346,26 +23219,24 @@
       <c r="N91" s="18"/>
       <c r="O91" s="17"/>
     </row>
-    <row r="92" spans="1:15" s="60" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A92" s="20" t="s">
-        <v>912</v>
-      </c>
+    <row r="92" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A92" s="20"/>
       <c r="B92" s="21" t="s">
-        <v>912</v>
+        <v>713</v>
       </c>
       <c r="C92" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E92" s="23" t="s">
-        <v>826</v>
-      </c>
-      <c r="F92" s="24" t="s">
-        <v>913</v>
-      </c>
-      <c r="G92" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>883</v>
+      </c>
+      <c r="F92" s="62" t="s">
+        <v>985</v>
+      </c>
+      <c r="G92" s="5"/>
       <c r="H92" s="23"/>
       <c r="I92" s="33"/>
       <c r="J92" s="34"/>
@@ -23375,10 +23246,10 @@
       <c r="N92" s="18"/>
       <c r="O92" s="17"/>
     </row>
-    <row r="93" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" s="60" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A93" s="20"/>
       <c r="B93" s="21" t="s">
-        <v>914</v>
+        <v>884</v>
       </c>
       <c r="C93" s="22" t="s">
         <v>5</v>
@@ -23387,10 +23258,10 @@
         <v>41</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="F93" s="62" t="s">
-        <v>1019</v>
+        <v>986</v>
       </c>
       <c r="G93" s="24"/>
       <c r="H93" s="23"/>
@@ -23402,24 +23273,26 @@
       <c r="N93" s="18"/>
       <c r="O93" s="17"/>
     </row>
-    <row r="94" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A94" s="20"/>
+    <row r="94" spans="1:15" s="60" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A94" s="20" t="s">
+        <v>885</v>
+      </c>
       <c r="B94" s="21" t="s">
-        <v>745</v>
+        <v>885</v>
       </c>
       <c r="C94" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E94" s="24" t="s">
-        <v>915</v>
-      </c>
-      <c r="F94" s="62" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G94" s="5"/>
+        <v>323</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>794</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="G94" s="24"/>
       <c r="H94" s="23"/>
       <c r="I94" s="33"/>
       <c r="J94" s="34"/>
@@ -23429,11 +23302,9 @@
       <c r="N94" s="18"/>
       <c r="O94" s="17"/>
     </row>
-    <row r="95" spans="1:15" s="60" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" s="60" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="20"/>
-      <c r="B95" s="21" t="s">
-        <v>916</v>
-      </c>
+      <c r="B95" s="21"/>
       <c r="C95" s="22" t="s">
         <v>5</v>
       </c>
@@ -23441,10 +23312,10 @@
         <v>41</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>913</v>
+        <v>886</v>
       </c>
       <c r="F95" s="62" t="s">
-        <v>1021</v>
+        <v>987</v>
       </c>
       <c r="G95" s="24"/>
       <c r="H95" s="23"/>
@@ -23456,12 +23327,12 @@
       <c r="N95" s="18"/>
       <c r="O95" s="17"/>
     </row>
-    <row r="96" spans="1:15" s="60" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A96" s="20" t="s">
-        <v>917</v>
+        <v>887</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>917</v>
+        <v>887</v>
       </c>
       <c r="C96" s="22" t="s">
         <v>5</v>
@@ -23470,12 +23341,12 @@
         <v>323</v>
       </c>
       <c r="E96" s="23" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="F96" s="24" t="s">
-        <v>913</v>
-      </c>
-      <c r="G96" s="24"/>
+        <v>859</v>
+      </c>
+      <c r="G96" s="23"/>
       <c r="H96" s="23"/>
       <c r="I96" s="33"/>
       <c r="J96" s="34"/>
@@ -23485,7 +23356,7 @@
       <c r="N96" s="18"/>
       <c r="O96" s="17"/>
     </row>
-    <row r="97" spans="1:15" s="60" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" s="60" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="20"/>
       <c r="B97" s="21"/>
       <c r="C97" s="22" t="s">
@@ -23495,12 +23366,12 @@
         <v>41</v>
       </c>
       <c r="E97" s="24" t="s">
-        <v>918</v>
+        <v>697</v>
       </c>
       <c r="F97" s="62" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G97" s="24"/>
+        <v>988</v>
+      </c>
+      <c r="G97" s="23"/>
       <c r="H97" s="23"/>
       <c r="I97" s="33"/>
       <c r="J97" s="34"/>
@@ -23510,12 +23381,12 @@
       <c r="N97" s="18"/>
       <c r="O97" s="17"/>
     </row>
-    <row r="98" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" s="60" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
-        <v>919</v>
+        <v>658</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>919</v>
+        <v>658</v>
       </c>
       <c r="C98" s="22" t="s">
         <v>5</v>
@@ -23524,10 +23395,10 @@
         <v>323</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="F98" s="24" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="G98" s="23"/>
       <c r="H98" s="23"/>
@@ -23539,7 +23410,7 @@
       <c r="N98" s="18"/>
       <c r="O98" s="17"/>
     </row>
-    <row r="99" spans="1:15" s="60" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A99" s="20"/>
       <c r="B99" s="21"/>
       <c r="C99" s="22" t="s">
@@ -23549,12 +23420,12 @@
         <v>41</v>
       </c>
       <c r="E99" s="24" t="s">
-        <v>729</v>
-      </c>
-      <c r="F99" s="62" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G99" s="23"/>
+        <v>889</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="G99" s="24"/>
       <c r="H99" s="23"/>
       <c r="I99" s="33"/>
       <c r="J99" s="34"/>
@@ -23564,12 +23435,12 @@
       <c r="N99" s="18"/>
       <c r="O99" s="17"/>
     </row>
-    <row r="100" spans="1:15" s="60" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A100" s="20" t="s">
-        <v>690</v>
+        <v>891</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>690</v>
+        <v>891</v>
       </c>
       <c r="C100" s="22" t="s">
         <v>5</v>
@@ -23578,10 +23449,10 @@
         <v>323</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="F100" s="24" t="s">
-        <v>920</v>
+        <v>859</v>
       </c>
       <c r="G100" s="23"/>
       <c r="H100" s="23"/>
@@ -23603,10 +23474,10 @@
         <v>41</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>921</v>
+        <v>892</v>
       </c>
       <c r="F101" s="24" t="s">
-        <v>922</v>
+        <v>893</v>
       </c>
       <c r="G101" s="24"/>
       <c r="H101" s="23"/>
@@ -23618,12 +23489,12 @@
       <c r="N101" s="18"/>
       <c r="O101" s="17"/>
     </row>
-    <row r="102" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" s="60" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A102" s="20" t="s">
-        <v>923</v>
+        <v>894</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>923</v>
+        <v>894</v>
       </c>
       <c r="C102" s="22" t="s">
         <v>5</v>
@@ -23632,10 +23503,10 @@
         <v>323</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="F102" s="24" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="G102" s="23"/>
       <c r="H102" s="23"/>
@@ -23657,10 +23528,10 @@
         <v>41</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>924</v>
-      </c>
-      <c r="F103" s="24" t="s">
-        <v>925</v>
+        <v>895</v>
+      </c>
+      <c r="F103" s="62" t="s">
+        <v>989</v>
       </c>
       <c r="G103" s="24"/>
       <c r="H103" s="23"/>
@@ -23672,26 +23543,22 @@
       <c r="N103" s="18"/>
       <c r="O103" s="17"/>
     </row>
-    <row r="104" spans="1:15" s="60" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A104" s="20" t="s">
-        <v>926</v>
-      </c>
-      <c r="B104" s="21" t="s">
-        <v>926</v>
-      </c>
+    <row r="104" spans="1:15" s="60" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A104" s="20"/>
+      <c r="B104" s="21"/>
       <c r="C104" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E104" s="23" t="s">
-        <v>826</v>
+        <v>41</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>896</v>
       </c>
       <c r="F104" s="24" t="s">
-        <v>927</v>
-      </c>
-      <c r="G104" s="23"/>
+        <v>897</v>
+      </c>
+      <c r="G104" s="24"/>
       <c r="H104" s="23"/>
       <c r="I104" s="33"/>
       <c r="J104" s="34"/>
@@ -23711,10 +23578,10 @@
         <v>41</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>927</v>
+        <v>895</v>
       </c>
       <c r="F105" s="62" t="s">
-        <v>1024</v>
+        <v>990</v>
       </c>
       <c r="G105" s="24"/>
       <c r="H105" s="23"/>
@@ -23736,10 +23603,10 @@
         <v>41</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>928</v>
+        <v>898</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>929</v>
+        <v>897</v>
       </c>
       <c r="G106" s="24"/>
       <c r="H106" s="23"/>
@@ -23761,10 +23628,10 @@
         <v>41</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>927</v>
+        <v>895</v>
       </c>
       <c r="F107" s="62" t="s">
-        <v>1025</v>
+        <v>991</v>
       </c>
       <c r="G107" s="24"/>
       <c r="H107" s="23"/>
@@ -23786,10 +23653,10 @@
         <v>41</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>930</v>
+        <v>898</v>
       </c>
       <c r="F108" s="24" t="s">
-        <v>929</v>
+        <v>897</v>
       </c>
       <c r="G108" s="24"/>
       <c r="H108" s="23"/>
@@ -23811,10 +23678,10 @@
         <v>41</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>927</v>
+        <v>895</v>
       </c>
       <c r="F109" s="62" t="s">
-        <v>1026</v>
+        <v>992</v>
       </c>
       <c r="G109" s="24"/>
       <c r="H109" s="23"/>
@@ -23826,7 +23693,7 @@
       <c r="N109" s="18"/>
       <c r="O109" s="17"/>
     </row>
-    <row r="110" spans="1:15" s="60" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A110" s="20"/>
       <c r="B110" s="21"/>
       <c r="C110" s="22" t="s">
@@ -23836,10 +23703,10 @@
         <v>41</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>930</v>
-      </c>
-      <c r="F110" s="24" t="s">
-        <v>929</v>
+        <v>895</v>
+      </c>
+      <c r="F110" s="62" t="s">
+        <v>993</v>
       </c>
       <c r="G110" s="24"/>
       <c r="H110" s="23"/>
@@ -23861,10 +23728,10 @@
         <v>41</v>
       </c>
       <c r="E111" s="24" t="s">
-        <v>927</v>
+        <v>895</v>
       </c>
       <c r="F111" s="62" t="s">
-        <v>1027</v>
+        <v>994</v>
       </c>
       <c r="G111" s="24"/>
       <c r="H111" s="23"/>
@@ -23877,21 +23744,25 @@
       <c r="O111" s="17"/>
     </row>
     <row r="112" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A112" s="20"/>
-      <c r="B112" s="21"/>
+      <c r="A112" s="20" t="s">
+        <v>791</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>791</v>
+      </c>
       <c r="C112" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E112" s="24" t="s">
-        <v>927</v>
-      </c>
-      <c r="F112" s="62" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G112" s="24"/>
+        <v>323</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>794</v>
+      </c>
+      <c r="F112" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="G112" s="23"/>
       <c r="H112" s="23"/>
       <c r="I112" s="33"/>
       <c r="J112" s="34"/>
@@ -23901,7 +23772,7 @@
       <c r="N112" s="18"/>
       <c r="O112" s="17"/>
     </row>
-    <row r="113" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" s="60" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20"/>
       <c r="B113" s="21"/>
       <c r="C113" s="22" t="s">
@@ -23911,12 +23782,12 @@
         <v>41</v>
       </c>
       <c r="E113" s="24" t="s">
-        <v>927</v>
+        <v>697</v>
       </c>
       <c r="F113" s="62" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G113" s="24"/>
+        <v>995</v>
+      </c>
+      <c r="G113" s="23"/>
       <c r="H113" s="23"/>
       <c r="I113" s="33"/>
       <c r="J113" s="34"/>
@@ -23928,10 +23799,10 @@
     </row>
     <row r="114" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
-        <v>823</v>
+        <v>899</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>823</v>
+        <v>899</v>
       </c>
       <c r="C114" s="22" t="s">
         <v>5</v>
@@ -23940,10 +23811,10 @@
         <v>323</v>
       </c>
       <c r="E114" s="23" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="F114" s="24" t="s">
-        <v>891</v>
+        <v>859</v>
       </c>
       <c r="G114" s="23"/>
       <c r="H114" s="23"/>
@@ -23955,7 +23826,7 @@
       <c r="N114" s="18"/>
       <c r="O114" s="17"/>
     </row>
-    <row r="115" spans="1:15" s="60" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A115" s="20"/>
       <c r="B115" s="21"/>
       <c r="C115" s="22" t="s">
@@ -23965,12 +23836,12 @@
         <v>41</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>729</v>
+        <v>892</v>
       </c>
       <c r="F115" s="62" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G115" s="23"/>
+        <v>996</v>
+      </c>
+      <c r="G115" s="5"/>
       <c r="H115" s="23"/>
       <c r="I115" s="33"/>
       <c r="J115" s="34"/>
@@ -23980,26 +23851,22 @@
       <c r="N115" s="18"/>
       <c r="O115" s="17"/>
     </row>
-    <row r="116" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A116" s="20" t="s">
-        <v>931</v>
-      </c>
-      <c r="B116" s="21" t="s">
-        <v>931</v>
-      </c>
+    <row r="116" spans="1:15" s="60" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A116" s="20"/>
+      <c r="B116" s="21"/>
       <c r="C116" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E116" s="23" t="s">
-        <v>826</v>
-      </c>
-      <c r="F116" s="24" t="s">
-        <v>891</v>
-      </c>
-      <c r="G116" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="E116" s="24" t="s">
+        <v>900</v>
+      </c>
+      <c r="F116" s="62" t="s">
+        <v>997</v>
+      </c>
+      <c r="G116" s="5"/>
       <c r="H116" s="23"/>
       <c r="I116" s="33"/>
       <c r="J116" s="34"/>
@@ -24010,21 +23877,25 @@
       <c r="O116" s="17"/>
     </row>
     <row r="117" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A117" s="20"/>
-      <c r="B117" s="21"/>
+      <c r="A117" s="20" t="s">
+        <v>901</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>901</v>
+      </c>
       <c r="C117" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E117" s="24" t="s">
-        <v>924</v>
-      </c>
-      <c r="F117" s="62" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G117" s="5"/>
+        <v>323</v>
+      </c>
+      <c r="E117" s="23" t="s">
+        <v>794</v>
+      </c>
+      <c r="F117" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="G117" s="23"/>
       <c r="H117" s="23"/>
       <c r="I117" s="33"/>
       <c r="J117" s="34"/>
@@ -24034,7 +23905,7 @@
       <c r="N117" s="18"/>
       <c r="O117" s="17"/>
     </row>
-    <row r="118" spans="1:15" s="60" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A118" s="20"/>
       <c r="B118" s="21"/>
       <c r="C118" s="22" t="s">
@@ -24044,10 +23915,10 @@
         <v>41</v>
       </c>
       <c r="E118" s="24" t="s">
-        <v>932</v>
+        <v>902</v>
       </c>
       <c r="F118" s="62" t="s">
-        <v>1032</v>
+        <v>998</v>
       </c>
       <c r="G118" s="5"/>
       <c r="H118" s="23"/>
@@ -24059,26 +23930,22 @@
       <c r="N118" s="18"/>
       <c r="O118" s="17"/>
     </row>
-    <row r="119" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A119" s="20" t="s">
-        <v>933</v>
-      </c>
-      <c r="B119" s="21" t="s">
-        <v>933</v>
-      </c>
+    <row r="119" spans="1:15" s="60" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A119" s="20"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E119" s="23" t="s">
-        <v>826</v>
-      </c>
-      <c r="F119" s="24" t="s">
-        <v>891</v>
-      </c>
-      <c r="G119" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>903</v>
+      </c>
+      <c r="F119" s="62" t="s">
+        <v>999</v>
+      </c>
+      <c r="G119" s="5"/>
       <c r="H119" s="23"/>
       <c r="I119" s="33"/>
       <c r="J119" s="34"/>
@@ -24089,19 +23956,23 @@
       <c r="O119" s="17"/>
     </row>
     <row r="120" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A120" s="20"/>
-      <c r="B120" s="21"/>
+      <c r="A120" s="20" t="s">
+        <v>904</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>904</v>
+      </c>
       <c r="C120" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E120" s="24" t="s">
-        <v>934</v>
-      </c>
-      <c r="F120" s="62" t="s">
-        <v>1033</v>
+        <v>323</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>794</v>
+      </c>
+      <c r="F120" s="24" t="s">
+        <v>905</v>
       </c>
       <c r="G120" s="5"/>
       <c r="H120" s="23"/>
@@ -24113,7 +23984,7 @@
       <c r="N120" s="18"/>
       <c r="O120" s="17"/>
     </row>
-    <row r="121" spans="1:15" s="60" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" s="60" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A121" s="20"/>
       <c r="B121" s="21"/>
       <c r="C121" s="22" t="s">
@@ -24123,12 +23994,12 @@
         <v>41</v>
       </c>
       <c r="E121" s="24" t="s">
-        <v>935</v>
+        <v>906</v>
       </c>
       <c r="F121" s="62" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G121" s="5"/>
+        <v>1001</v>
+      </c>
+      <c r="G121" s="23"/>
       <c r="H121" s="23"/>
       <c r="I121" s="33"/>
       <c r="J121" s="34"/>
@@ -24138,24 +24009,20 @@
       <c r="N121" s="18"/>
       <c r="O121" s="17"/>
     </row>
-    <row r="122" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A122" s="20" t="s">
-        <v>936</v>
-      </c>
-      <c r="B122" s="21" t="s">
-        <v>936</v>
-      </c>
+    <row r="122" spans="1:15" s="60" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A122" s="20"/>
+      <c r="B122" s="21"/>
       <c r="C122" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E122" s="23" t="s">
-        <v>826</v>
-      </c>
-      <c r="F122" s="24" t="s">
-        <v>937</v>
+        <v>41</v>
+      </c>
+      <c r="E122" s="24" t="s">
+        <v>906</v>
+      </c>
+      <c r="F122" s="62" t="s">
+        <v>1002</v>
       </c>
       <c r="G122" s="5"/>
       <c r="H122" s="23"/>
@@ -24167,20 +24034,24 @@
       <c r="N122" s="18"/>
       <c r="O122" s="17"/>
     </row>
-    <row r="123" spans="1:15" s="60" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A123" s="20"/>
-      <c r="B123" s="21"/>
+    <row r="123" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A123" s="65" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>907</v>
+      </c>
       <c r="C123" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E123" s="24" t="s">
-        <v>938</v>
-      </c>
-      <c r="F123" s="62" t="s">
-        <v>1036</v>
+        <v>323</v>
+      </c>
+      <c r="E123" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>908</v>
       </c>
       <c r="G123" s="23"/>
       <c r="H123" s="23"/>
@@ -24192,7 +24063,7 @@
       <c r="N123" s="18"/>
       <c r="O123" s="17"/>
     </row>
-    <row r="124" spans="1:15" s="60" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A124" s="20"/>
       <c r="B124" s="21"/>
       <c r="C124" s="22" t="s">
@@ -24202,10 +24073,10 @@
         <v>41</v>
       </c>
       <c r="E124" s="24" t="s">
-        <v>938</v>
-      </c>
-      <c r="F124" s="62" t="s">
-        <v>1037</v>
+        <v>909</v>
+      </c>
+      <c r="F124" s="69" t="s">
+        <v>1003</v>
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="23"/>
@@ -24218,11 +24089,9 @@
       <c r="O124" s="17"/>
     </row>
     <row r="125" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A125" s="65" t="s">
-        <v>1039</v>
-      </c>
+      <c r="A125" s="20"/>
       <c r="B125" s="21" t="s">
-        <v>939</v>
+        <v>910</v>
       </c>
       <c r="C125" s="22" t="s">
         <v>5</v>
@@ -24234,7 +24103,7 @@
         <v>6</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>940</v>
+        <v>911</v>
       </c>
       <c r="G125" s="23"/>
       <c r="H125" s="23"/>
@@ -24256,10 +24125,10 @@
         <v>41</v>
       </c>
       <c r="E126" s="24" t="s">
-        <v>941</v>
+        <v>912</v>
       </c>
       <c r="F126" s="69" t="s">
-        <v>1038</v>
+        <v>1005</v>
       </c>
       <c r="G126" s="5"/>
       <c r="H126" s="23"/>
@@ -24274,19 +24143,19 @@
     <row r="127" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A127" s="20"/>
       <c r="B127" s="21" t="s">
-        <v>942</v>
+        <v>913</v>
       </c>
       <c r="C127" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D127" s="23" t="s">
+      <c r="D127" s="42" t="s">
         <v>323</v>
       </c>
       <c r="E127" s="23" t="s">
         <v>6</v>
       </c>
       <c r="F127" s="24" t="s">
-        <v>943</v>
+        <v>914</v>
       </c>
       <c r="G127" s="23"/>
       <c r="H127" s="23"/>
@@ -24308,10 +24177,10 @@
         <v>41</v>
       </c>
       <c r="E128" s="24" t="s">
-        <v>944</v>
-      </c>
-      <c r="F128" s="69" t="s">
-        <v>1040</v>
+        <v>915</v>
+      </c>
+      <c r="F128" s="70" t="s">
+        <v>1006</v>
       </c>
       <c r="G128" s="5"/>
       <c r="H128" s="23"/>
@@ -24326,19 +24195,19 @@
     <row r="129" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A129" s="20"/>
       <c r="B129" s="21" t="s">
-        <v>945</v>
+        <v>916</v>
       </c>
       <c r="C129" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D129" s="42" t="s">
+      <c r="D129" s="23" t="s">
         <v>323</v>
       </c>
       <c r="E129" s="23" t="s">
         <v>6</v>
       </c>
       <c r="F129" s="24" t="s">
-        <v>946</v>
+        <v>917</v>
       </c>
       <c r="G129" s="23"/>
       <c r="H129" s="23"/>
@@ -24360,10 +24229,10 @@
         <v>41</v>
       </c>
       <c r="E130" s="24" t="s">
-        <v>947</v>
-      </c>
-      <c r="F130" s="70" t="s">
-        <v>1041</v>
+        <v>1018</v>
+      </c>
+      <c r="F130" s="43" t="s">
+        <v>1007</v>
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="23"/>
@@ -24377,22 +24246,20 @@
     </row>
     <row r="131" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A131" s="20"/>
-      <c r="B131" s="21" t="s">
-        <v>948</v>
-      </c>
+      <c r="B131" s="21"/>
       <c r="C131" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E131" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F131" s="24" t="s">
-        <v>949</v>
-      </c>
-      <c r="G131" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="E131" s="24" t="s">
+        <v>917</v>
+      </c>
+      <c r="F131" s="70" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G131" s="5"/>
       <c r="H131" s="23"/>
       <c r="I131" s="33"/>
       <c r="J131" s="34"/>
@@ -24403,21 +24270,25 @@
       <c r="O131" s="17"/>
     </row>
     <row r="132" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A132" s="20"/>
-      <c r="B132" s="21"/>
+      <c r="A132" s="20" t="s">
+        <v>666</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>666</v>
+      </c>
       <c r="C132" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D132" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E132" s="24" t="s">
-        <v>1053</v>
-      </c>
-      <c r="F132" s="43" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G132" s="5"/>
+        <v>323</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>794</v>
+      </c>
+      <c r="F132" s="24" t="s">
+        <v>918</v>
+      </c>
+      <c r="G132" s="23"/>
       <c r="H132" s="23"/>
       <c r="I132" s="33"/>
       <c r="J132" s="34"/>
@@ -24437,10 +24308,10 @@
         <v>41</v>
       </c>
       <c r="E133" s="24" t="s">
-        <v>949</v>
-      </c>
-      <c r="F133" s="70" t="s">
-        <v>1043</v>
+        <v>919</v>
+      </c>
+      <c r="F133" s="62" t="s">
+        <v>1009</v>
       </c>
       <c r="G133" s="5"/>
       <c r="H133" s="23"/>
@@ -24454,10 +24325,10 @@
     </row>
     <row r="134" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
-        <v>698</v>
+        <v>920</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>698</v>
+        <v>920</v>
       </c>
       <c r="C134" s="22" t="s">
         <v>5</v>
@@ -24466,10 +24337,10 @@
         <v>323</v>
       </c>
       <c r="E134" s="23" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="F134" s="24" t="s">
-        <v>950</v>
+        <v>921</v>
       </c>
       <c r="G134" s="23"/>
       <c r="H134" s="23"/>
@@ -24481,7 +24352,7 @@
       <c r="N134" s="18"/>
       <c r="O134" s="17"/>
     </row>
-    <row r="135" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" s="60" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A135" s="20"/>
       <c r="B135" s="21"/>
       <c r="C135" s="22" t="s">
@@ -24491,10 +24362,10 @@
         <v>41</v>
       </c>
       <c r="E135" s="24" t="s">
-        <v>951</v>
+        <v>922</v>
       </c>
       <c r="F135" s="62" t="s">
-        <v>1044</v>
+        <v>1010</v>
       </c>
       <c r="G135" s="5"/>
       <c r="H135" s="23"/>
@@ -24506,26 +24377,22 @@
       <c r="N135" s="18"/>
       <c r="O135" s="17"/>
     </row>
-    <row r="136" spans="1:15" s="60" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A136" s="20" t="s">
-        <v>952</v>
-      </c>
-      <c r="B136" s="21" t="s">
-        <v>952</v>
-      </c>
+    <row r="136" spans="1:15" s="60" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A136" s="20"/>
+      <c r="B136" s="21"/>
       <c r="C136" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D136" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E136" s="23" t="s">
-        <v>826</v>
-      </c>
-      <c r="F136" s="24" t="s">
-        <v>953</v>
-      </c>
-      <c r="G136" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="E136" s="24" t="s">
+        <v>923</v>
+      </c>
+      <c r="F136" s="62" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G136" s="5"/>
       <c r="H136" s="23"/>
       <c r="I136" s="33"/>
       <c r="J136" s="34"/>
@@ -24535,9 +24402,13 @@
       <c r="N136" s="18"/>
       <c r="O136" s="17"/>
     </row>
-    <row r="137" spans="1:15" s="60" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A137" s="20"/>
-      <c r="B137" s="21"/>
+    <row r="137" spans="1:15" s="60" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A137" s="20" t="s">
+        <v>924</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>924</v>
+      </c>
       <c r="C137" s="22" t="s">
         <v>5</v>
       </c>
@@ -24545,10 +24416,10 @@
         <v>41</v>
       </c>
       <c r="E137" s="24" t="s">
-        <v>954</v>
+        <v>925</v>
       </c>
       <c r="F137" s="62" t="s">
-        <v>1045</v>
+        <v>1012</v>
       </c>
       <c r="G137" s="5"/>
       <c r="H137" s="23"/>
@@ -24560,7 +24431,7 @@
       <c r="N137" s="18"/>
       <c r="O137" s="17"/>
     </row>
-    <row r="138" spans="1:15" s="60" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" s="60" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A138" s="20"/>
       <c r="B138" s="21"/>
       <c r="C138" s="22" t="s">
@@ -24570,10 +24441,10 @@
         <v>41</v>
       </c>
       <c r="E138" s="24" t="s">
-        <v>955</v>
+        <v>926</v>
       </c>
       <c r="F138" s="62" t="s">
-        <v>1046</v>
+        <v>1013</v>
       </c>
       <c r="G138" s="5"/>
       <c r="H138" s="23"/>
@@ -24585,13 +24456,9 @@
       <c r="N138" s="18"/>
       <c r="O138" s="17"/>
     </row>
-    <row r="139" spans="1:15" s="60" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A139" s="20" t="s">
-        <v>956</v>
-      </c>
-      <c r="B139" s="21" t="s">
-        <v>956</v>
-      </c>
+    <row r="139" spans="1:15" s="60" customFormat="1" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="20"/>
+      <c r="B139" s="21"/>
       <c r="C139" s="22" t="s">
         <v>5</v>
       </c>
@@ -24599,12 +24466,12 @@
         <v>41</v>
       </c>
       <c r="E139" s="24" t="s">
-        <v>957</v>
+        <v>927</v>
       </c>
       <c r="F139" s="62" t="s">
-        <v>1047</v>
-      </c>
-      <c r="G139" s="5"/>
+        <v>1014</v>
+      </c>
+      <c r="G139" s="23"/>
       <c r="H139" s="23"/>
       <c r="I139" s="33"/>
       <c r="J139" s="34"/>
@@ -24614,22 +24481,14 @@
       <c r="N139" s="18"/>
       <c r="O139" s="17"/>
     </row>
-    <row r="140" spans="1:15" s="60" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" s="60" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="20"/>
       <c r="B140" s="21"/>
-      <c r="C140" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E140" s="24" t="s">
-        <v>958</v>
-      </c>
-      <c r="F140" s="62" t="s">
-        <v>1048</v>
-      </c>
-      <c r="G140" s="5"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="24"/>
+      <c r="F140" s="24"/>
+      <c r="G140" s="23"/>
       <c r="H140" s="23"/>
       <c r="I140" s="33"/>
       <c r="J140" s="34"/>
@@ -24639,21 +24498,13 @@
       <c r="N140" s="18"/>
       <c r="O140" s="17"/>
     </row>
-    <row r="141" spans="1:15" s="60" customFormat="1" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="20"/>
       <c r="B141" s="21"/>
-      <c r="C141" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D141" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E141" s="24" t="s">
-        <v>959</v>
-      </c>
-      <c r="F141" s="62" t="s">
-        <v>1049</v>
-      </c>
+      <c r="C141" s="22"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="23"/>
       <c r="G141" s="23"/>
       <c r="H141" s="23"/>
       <c r="I141" s="33"/>
@@ -24664,13 +24515,13 @@
       <c r="N141" s="18"/>
       <c r="O141" s="17"/>
     </row>
-    <row r="142" spans="1:15" s="60" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="20"/>
       <c r="B142" s="21"/>
       <c r="C142" s="22"/>
       <c r="D142" s="23"/>
-      <c r="E142" s="24"/>
-      <c r="F142" s="24"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="23"/>
       <c r="G142" s="23"/>
       <c r="H142" s="23"/>
       <c r="I142" s="33"/>
@@ -24767,14 +24618,14 @@
       <c r="O147" s="17"/>
     </row>
     <row r="148" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="20"/>
-      <c r="B148" s="21"/>
+      <c r="A148" s="14"/>
+      <c r="B148" s="15"/>
       <c r="C148" s="22"/>
-      <c r="D148" s="23"/>
-      <c r="E148" s="23"/>
-      <c r="F148" s="23"/>
-      <c r="G148" s="23"/>
-      <c r="H148" s="23"/>
+      <c r="D148" s="33"/>
+      <c r="E148" s="33"/>
+      <c r="F148" s="33"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="33"/>
       <c r="I148" s="33"/>
       <c r="J148" s="34"/>
       <c r="K148" s="17"/>
@@ -24784,14 +24635,14 @@
       <c r="O148" s="17"/>
     </row>
     <row r="149" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="20"/>
-      <c r="B149" s="21"/>
-      <c r="C149" s="22"/>
-      <c r="D149" s="23"/>
-      <c r="E149" s="23"/>
-      <c r="F149" s="23"/>
-      <c r="G149" s="23"/>
-      <c r="H149" s="23"/>
+      <c r="A149" s="14"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="33"/>
       <c r="I149" s="33"/>
       <c r="J149" s="34"/>
       <c r="K149" s="17"/>
@@ -24803,7 +24654,7 @@
     <row r="150" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="14"/>
       <c r="B150" s="15"/>
-      <c r="C150" s="22"/>
+      <c r="C150" s="44"/>
       <c r="D150" s="33"/>
       <c r="E150" s="33"/>
       <c r="F150" s="33"/>
@@ -27758,42 +27609,8 @@
       <c r="N323" s="18"/>
       <c r="O323" s="17"/>
     </row>
-    <row r="324" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="14"/>
-      <c r="B324" s="15"/>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C324" s="44"/>
-      <c r="D324" s="33"/>
-      <c r="E324" s="33"/>
-      <c r="F324" s="33"/>
-      <c r="G324" s="33"/>
-      <c r="H324" s="33"/>
-      <c r="I324" s="33"/>
-      <c r="J324" s="34"/>
-      <c r="K324" s="17"/>
-      <c r="L324" s="18"/>
-      <c r="M324" s="16"/>
-      <c r="N324" s="18"/>
-      <c r="O324" s="17"/>
-    </row>
-    <row r="325" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="14"/>
-      <c r="B325" s="15"/>
-      <c r="C325" s="44"/>
-      <c r="D325" s="33"/>
-      <c r="E325" s="33"/>
-      <c r="F325" s="33"/>
-      <c r="G325" s="33"/>
-      <c r="H325" s="33"/>
-      <c r="I325" s="33"/>
-      <c r="J325" s="34"/>
-      <c r="K325" s="17"/>
-      <c r="L325" s="18"/>
-      <c r="M325" s="16"/>
-      <c r="N325" s="18"/>
-      <c r="O325" s="17"/>
-    </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C326" s="44"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -27803,7 +27620,7 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N3:N325">
+  <conditionalFormatting sqref="N3:N323">
     <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -27814,7 +27631,7 @@
       <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N326:N1048576">
+  <conditionalFormatting sqref="N1 N324:N1048576">
     <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -27826,28 +27643,28 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D75:D325" xr:uid="{84205658-1E0A-DE49-B48E-626DA84BCDCE}">
-      <formula1>INDIRECT(C76)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D73:D323" xr:uid="{84205658-1E0A-DE49-B48E-626DA84BCDCE}">
+      <formula1>INDIRECT(C74)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D65 D5:D62" xr:uid="{D2ACC809-68EB-0344-A848-70E45E08C27F}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D63:D64 D66:D68" xr:uid="{0C784CF2-1EC5-7648-98D9-2D27A0160D11}">
-      <formula1>INDIRECT(C75)</formula1>
+      <formula1>INDIRECT(C73)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D74" xr:uid="{E79B38AE-373F-D14F-AC6A-582DAD40C266}">
-      <formula1>INDIRECT(C80)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D72" xr:uid="{E79B38AE-373F-D14F-AC6A-582DAD40C266}">
+      <formula1>INDIRECT(C78)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D73" xr:uid="{0A2D0364-8DFE-C143-BF11-823FC6C15760}">
-      <formula1>INDIRECT(C80)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D71" xr:uid="{0A2D0364-8DFE-C143-BF11-823FC6C15760}">
+      <formula1>INDIRECT(C78)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D70:D72" xr:uid="{F7C5A821-7738-C948-A01D-6B85631D3DC6}">
-      <formula1>INDIRECT(C80)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D70" xr:uid="{F7C5A821-7738-C948-A01D-6B85631D3DC6}">
+      <formula1>INDIRECT(C78)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D69" xr:uid="{A155C7C4-EDCC-BB4F-A149-A402BD643C1C}">
-      <formula1>INDIRECT(C80)</formula1>
+      <formula1>INDIRECT(C78)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C326" xr:uid="{8AAE10CF-040C-204E-A2F8-D62F54761EC6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C324" xr:uid="{8AAE10CF-040C-204E-A2F8-D62F54761EC6}">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions1.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions1.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{6884F7AE-5EED-FF49-80BF-9FDE27011702}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="15760" windowWidth="34120" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15760" windowWidth="34120" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -29,7 +29,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="1066">
   <si>
     <t>target</t>
   </si>
@@ -6103,13 +6103,19 @@
   <si>
     <t>saveAllAsText(var,exclude)</t>
   </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6381,8 +6387,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6554,8 +6661,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -6919,12 +7179,338 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -7191,52 +7777,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="28" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="32" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7736,7 +8370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -8428,7 +9062,7 @@
         <v>205</v>
       </c>
       <c r="I10" t="s">
-        <v>1052</v>
+        <v>1064</v>
       </c>
       <c r="L10" t="s">
         <v>207</v>
@@ -8472,7 +9106,7 @@
         <v>217</v>
       </c>
       <c r="I11" t="s">
-        <v>206</v>
+        <v>1065</v>
       </c>
       <c r="L11" t="s">
         <v>219</v>
@@ -8510,7 +9144,7 @@
         <v>228</v>
       </c>
       <c r="I12" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="L12" t="s">
         <v>230</v>
@@ -8548,7 +9182,7 @@
         <v>238</v>
       </c>
       <c r="I13" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="L13" t="s">
         <v>240</v>
@@ -8583,7 +9217,7 @@
         <v>248</v>
       </c>
       <c r="I14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="L14" t="s">
         <v>250</v>
@@ -8618,7 +9252,7 @@
         <v>258</v>
       </c>
       <c r="I15" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="L15" t="s">
         <v>259</v>
@@ -8651,6 +9285,9 @@
       </c>
       <c r="H16" t="s">
         <v>267</v>
+      </c>
+      <c r="I16" t="s">
+        <v>249</v>
       </c>
       <c r="L16" t="s">
         <v>268</v>
@@ -9770,27 +10407,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P299"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" zoomScaleNormal="80" zoomScale="100">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="80">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A93" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="24.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="21.1640625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="9.6640625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="31.83203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="5" width="66.5" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="5" width="42.33203125" collapsed="false"/>
-    <col min="7" max="9" customWidth="true" style="5" width="20.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="7" width="1.6640625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="7" width="49.83203125" collapsed="false"/>
-    <col min="16" max="16384" style="10" width="10.83203125" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="24.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="21.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="31.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="66.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="42.33203125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="5" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="7" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="10" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -15889,27 +16526,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P287"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="80" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="80">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="20.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="41.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="4" width="10.83203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="5" width="30.83203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="5" width="20.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="5" width="30.6640625" collapsed="false"/>
-    <col min="7" max="9" customWidth="true" style="5" width="20.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="7" width="1.6640625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="7" width="49.83203125" collapsed="false"/>
-    <col min="16" max="16384" style="10" width="10.83203125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="2" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="41.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="30.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="20.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="30.6640625" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="5" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="7" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="10" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -21615,27 +22252,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P324"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A58" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="67.0" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="35.1640625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="9.6640625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="29.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="5" width="114.6640625" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="65.83203125" collapsed="false"/>
-    <col min="7" max="9" customWidth="true" style="5" width="20.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="7" width="1.6640625" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="7" width="49.83203125" collapsed="false"/>
-    <col min="16" max="16384" style="10" width="10.83203125" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="67.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="35.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="29.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="114.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="65.83203125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="5" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="7" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="10" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="23" r="1" spans="1:15" x14ac:dyDescent="0.2">

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions1.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions1.xlsx
@@ -31,7 +31,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -49,14 +49,15 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4394" uniqueCount="1075">
   <si>
     <t>target</t>
   </si>
@@ -6109,13 +6110,40 @@
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="90" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6488,8 +6516,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6814,8 +7044,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -7505,12 +8041,664 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="143">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -7825,52 +9013,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="44" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="48" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="60" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="61" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="62" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="64" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8368,7 +9652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8456,21 +9740,24 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8506,7 +9793,7 @@
         <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>1073</v>
       </c>
       <c r="L2" t="s">
         <v>41</v>
@@ -8551,21 +9838,24 @@
         <v>54</v>
       </c>
       <c r="Z2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AA2" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>57</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>58</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>59</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8637,21 +9927,24 @@
         <v>81</v>
       </c>
       <c r="Z3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AA3" t="s">
         <v>82</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>83</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>84</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>85</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>86</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -8720,21 +10013,24 @@
         <v>107</v>
       </c>
       <c r="Z4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AA4" t="s">
         <v>108</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>109</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>110</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>86</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>111</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -8794,21 +10090,24 @@
         <v>129</v>
       </c>
       <c r="Z5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AA5" t="s">
         <v>130</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>131</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>1062</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>133</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>134</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8838,7 +10137,7 @@
         <v>1053</v>
       </c>
       <c r="K6" t="s">
-        <v>142</v>
+        <v>1074</v>
       </c>
       <c r="L6" t="s">
         <v>143</v>
@@ -8865,21 +10164,24 @@
         <v>150</v>
       </c>
       <c r="Z6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AA6" t="s">
         <v>151</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>152</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>132</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>154</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>155</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -8900,7 +10202,7 @@
         <v>160</v>
       </c>
       <c r="K7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="L7" t="s">
         <v>36</v>
@@ -8926,22 +10228,22 @@
       <c r="X7" t="s">
         <v>167</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>168</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>169</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>153</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>171</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>172</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>173</v>
       </c>
     </row>
@@ -8961,6 +10263,9 @@
       <c r="I8" t="s">
         <v>177</v>
       </c>
+      <c r="K8" t="s">
+        <v>161</v>
+      </c>
       <c r="L8" t="s">
         <v>178</v>
       </c>
@@ -8982,22 +10287,22 @@
       <c r="X8" t="s">
         <v>184</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>185</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>186</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>170</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>188</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>189</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>190</v>
       </c>
     </row>
@@ -9038,16 +10343,16 @@
       <c r="X9" t="s">
         <v>201</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>202</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>187</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>203</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>204</v>
       </c>
     </row>
@@ -9082,16 +10387,16 @@
       <c r="U10" t="s">
         <v>212</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>213</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>1063</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>214</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>215</v>
       </c>
     </row>
@@ -9123,13 +10428,13 @@
       <c r="S11" t="s">
         <v>223</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>224</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>225</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -9161,13 +10466,13 @@
       <c r="S12" t="s">
         <v>234</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>235</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>236</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>237</v>
       </c>
     </row>
@@ -9196,13 +10501,13 @@
       <c r="S13" t="s">
         <v>1054</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>244</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>245</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>246</v>
       </c>
     </row>
@@ -9231,13 +10536,13 @@
       <c r="S14" t="s">
         <v>243</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>254</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>255</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>256</v>
       </c>
     </row>
@@ -9266,13 +10571,13 @@
       <c r="S15" t="s">
         <v>253</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>1055</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>264</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>265</v>
       </c>
     </row>
@@ -9301,13 +10606,13 @@
       <c r="S16" t="s">
         <v>262</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>263</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>273</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>274</v>
       </c>
     </row>
@@ -9330,13 +10635,13 @@
       <c r="S17" t="s">
         <v>271</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>272</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>280</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>281</v>
       </c>
     </row>
@@ -9356,10 +10661,10 @@
       <c r="N18" t="s">
         <v>285</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>279</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>287</v>
       </c>
     </row>
@@ -9376,10 +10681,10 @@
       <c r="L19" t="s">
         <v>290</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>286</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>292</v>
       </c>
     </row>
@@ -9396,10 +10701,10 @@
       <c r="L20" t="s">
         <v>295</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>291</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>297</v>
       </c>
     </row>
@@ -9416,10 +10721,10 @@
       <c r="L21" t="s">
         <v>300</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>296</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>302</v>
       </c>
     </row>
@@ -9436,10 +10741,10 @@
       <c r="L22" t="s">
         <v>305</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>301</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>307</v>
       </c>
     </row>
@@ -9456,10 +10761,10 @@
       <c r="L23" t="s">
         <v>310</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>306</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>312</v>
       </c>
     </row>
@@ -9476,10 +10781,10 @@
       <c r="L24" t="s">
         <v>315</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>311</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>317</v>
       </c>
     </row>
@@ -9496,16 +10801,16 @@
       <c r="L25" t="s">
         <v>320</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>316</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>1066</v>
       </c>
       <c r="F26" t="s">
         <v>328</v>
@@ -9516,16 +10821,16 @@
       <c r="L26" t="s">
         <v>325</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>321</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
         <v>333</v>
@@ -9536,16 +10841,16 @@
       <c r="L27" t="s">
         <v>330</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>326</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
         <v>337</v>
@@ -9556,13 +10861,13 @@
       <c r="L28" t="s">
         <v>335</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
         <v>341</v>
@@ -9573,13 +10878,13 @@
       <c r="L29" t="s">
         <v>339</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
         <v>345</v>
@@ -9590,13 +10895,13 @@
       <c r="L30" t="s">
         <v>343</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
         <v>348</v>
@@ -9604,18 +10909,21 @@
       <c r="H31" t="s">
         <v>346</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
       <c r="F32" t="s">
         <v>351</v>
       </c>
       <c r="H32" t="s">
         <v>349</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>347</v>
       </c>
     </row>
@@ -9626,7 +10934,7 @@
       <c r="H33" t="s">
         <v>352</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>350</v>
       </c>
     </row>
@@ -9637,7 +10945,7 @@
       <c r="H34" t="s">
         <v>355</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>353</v>
       </c>
     </row>
@@ -9648,7 +10956,7 @@
       <c r="H35" t="s">
         <v>358</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>356</v>
       </c>
     </row>
@@ -9659,7 +10967,7 @@
       <c r="H36" t="s">
         <v>361</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>359</v>
       </c>
     </row>
@@ -9670,7 +10978,7 @@
       <c r="H37" t="s">
         <v>364</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>362</v>
       </c>
     </row>
@@ -9681,7 +10989,7 @@
       <c r="H38" t="s">
         <v>367</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>365</v>
       </c>
     </row>
@@ -9692,7 +11000,7 @@
       <c r="H39" t="s">
         <v>370</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>368</v>
       </c>
     </row>
@@ -9700,7 +11008,7 @@
       <c r="H40" t="s">
         <v>373</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>371</v>
       </c>
     </row>
@@ -9708,7 +11016,7 @@
       <c r="H41" t="s">
         <v>375</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>374</v>
       </c>
     </row>
@@ -9716,7 +11024,7 @@
       <c r="H42" t="s">
         <v>377</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>376</v>
       </c>
     </row>
@@ -9724,7 +11032,7 @@
       <c r="H43" t="s">
         <v>379</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>378</v>
       </c>
     </row>
@@ -9732,7 +11040,7 @@
       <c r="H44" t="s">
         <v>381</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>380</v>
       </c>
     </row>
@@ -9740,7 +11048,7 @@
       <c r="H45" t="s">
         <v>383</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>382</v>
       </c>
     </row>
@@ -9748,7 +11056,7 @@
       <c r="H46" t="s">
         <v>385</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>384</v>
       </c>
     </row>
@@ -9756,7 +11064,7 @@
       <c r="H47" t="s">
         <v>387</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>386</v>
       </c>
     </row>
@@ -9764,7 +11072,7 @@
       <c r="H48" t="s">
         <v>389</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>388</v>
       </c>
     </row>
@@ -9772,7 +11080,7 @@
       <c r="H49" t="s">
         <v>391</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>390</v>
       </c>
     </row>
@@ -9780,7 +11088,7 @@
       <c r="H50" t="s">
         <v>393</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>392</v>
       </c>
     </row>
@@ -9788,7 +11096,7 @@
       <c r="H51" t="s">
         <v>395</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>394</v>
       </c>
     </row>
@@ -9796,7 +11104,7 @@
       <c r="H52" t="s">
         <v>397</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>396</v>
       </c>
     </row>
@@ -9804,7 +11112,7 @@
       <c r="H53" t="s">
         <v>399</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>398</v>
       </c>
     </row>
@@ -9812,7 +11120,7 @@
       <c r="H54" t="s">
         <v>401</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>400</v>
       </c>
     </row>
@@ -9820,7 +11128,7 @@
       <c r="H55" t="s">
         <v>403</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>402</v>
       </c>
     </row>
@@ -9828,7 +11136,7 @@
       <c r="H56" t="s">
         <v>405</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>404</v>
       </c>
     </row>
@@ -9836,7 +11144,7 @@
       <c r="H57" t="s">
         <v>407</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>406</v>
       </c>
     </row>
@@ -9844,7 +11152,7 @@
       <c r="H58" t="s">
         <v>409</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>408</v>
       </c>
     </row>
@@ -9852,7 +11160,7 @@
       <c r="H59" t="s">
         <v>411</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>410</v>
       </c>
     </row>
@@ -9860,7 +11168,7 @@
       <c r="H60" t="s">
         <v>413</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>412</v>
       </c>
     </row>
@@ -9868,7 +11176,7 @@
       <c r="H61" t="s">
         <v>415</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>414</v>
       </c>
     </row>
@@ -9876,7 +11184,7 @@
       <c r="H62" t="s">
         <v>417</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>416</v>
       </c>
     </row>
@@ -9884,7 +11192,7 @@
       <c r="H63" t="s">
         <v>419</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>418</v>
       </c>
     </row>
@@ -9892,7 +11200,7 @@
       <c r="H64" t="s">
         <v>421</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>420</v>
       </c>
     </row>
@@ -9900,7 +11208,7 @@
       <c r="H65" t="s">
         <v>423</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>422</v>
       </c>
     </row>
@@ -9908,7 +11216,7 @@
       <c r="H66" t="s">
         <v>425</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>424</v>
       </c>
     </row>
@@ -9916,7 +11224,7 @@
       <c r="H67" t="s">
         <v>427</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>426</v>
       </c>
     </row>
@@ -9924,7 +11232,7 @@
       <c r="H68" t="s">
         <v>429</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>428</v>
       </c>
     </row>
@@ -9932,7 +11240,7 @@
       <c r="H69" t="s">
         <v>431</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>430</v>
       </c>
     </row>
@@ -9940,7 +11248,7 @@
       <c r="H70" t="s">
         <v>433</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>432</v>
       </c>
     </row>
@@ -9948,7 +11256,7 @@
       <c r="H71" t="s">
         <v>435</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>434</v>
       </c>
     </row>
@@ -9956,7 +11264,7 @@
       <c r="H72" t="s">
         <v>437</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>436</v>
       </c>
     </row>
@@ -9964,7 +11272,7 @@
       <c r="H73" t="s">
         <v>439</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>438</v>
       </c>
     </row>
@@ -9972,7 +11280,7 @@
       <c r="H74" t="s">
         <v>441</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>440</v>
       </c>
     </row>
@@ -9980,7 +11288,7 @@
       <c r="H75" t="s">
         <v>443</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>442</v>
       </c>
     </row>
@@ -9988,7 +11296,7 @@
       <c r="H76" t="s">
         <v>445</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>444</v>
       </c>
     </row>
@@ -9996,7 +11304,7 @@
       <c r="H77" t="s">
         <v>447</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>446</v>
       </c>
     </row>
@@ -10004,7 +11312,7 @@
       <c r="H78" t="s">
         <v>449</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>448</v>
       </c>
     </row>
@@ -10012,7 +11320,7 @@
       <c r="H79" t="s">
         <v>451</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>450</v>
       </c>
     </row>
@@ -10020,7 +11328,7 @@
       <c r="H80" t="s">
         <v>453</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>452</v>
       </c>
     </row>
@@ -10028,7 +11336,7 @@
       <c r="H81" t="s">
         <v>455</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>454</v>
       </c>
     </row>
@@ -10036,7 +11344,7 @@
       <c r="H82" t="s">
         <v>457</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>456</v>
       </c>
     </row>
@@ -10044,7 +11352,7 @@
       <c r="H83" t="s">
         <v>459</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10052,7 +11360,7 @@
       <c r="H84" t="s">
         <v>461</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>460</v>
       </c>
     </row>
@@ -10060,7 +11368,7 @@
       <c r="H85" t="s">
         <v>463</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>462</v>
       </c>
     </row>
@@ -10068,7 +11376,7 @@
       <c r="H86" t="s">
         <v>465</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>464</v>
       </c>
     </row>
@@ -10076,7 +11384,7 @@
       <c r="H87" t="s">
         <v>467</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>466</v>
       </c>
     </row>
@@ -10084,7 +11392,7 @@
       <c r="H88" t="s">
         <v>469</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>468</v>
       </c>
     </row>
@@ -10092,7 +11400,7 @@
       <c r="H89" t="s">
         <v>471</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>470</v>
       </c>
     </row>
@@ -10100,7 +11408,7 @@
       <c r="H90" t="s">
         <v>473</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>1056</v>
       </c>
     </row>
@@ -10108,7 +11416,7 @@
       <c r="H91" t="s">
         <v>475</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>472</v>
       </c>
     </row>
@@ -10116,7 +11424,7 @@
       <c r="H92" t="s">
         <v>477</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>474</v>
       </c>
     </row>
@@ -10124,7 +11432,7 @@
       <c r="H93" t="s">
         <v>479</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>476</v>
       </c>
     </row>
@@ -10132,7 +11440,7 @@
       <c r="H94" t="s">
         <v>481</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>478</v>
       </c>
     </row>
@@ -10140,7 +11448,7 @@
       <c r="H95" t="s">
         <v>483</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>480</v>
       </c>
     </row>
@@ -10148,7 +11456,7 @@
       <c r="H96" t="s">
         <v>485</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>482</v>
       </c>
     </row>
@@ -10156,7 +11464,7 @@
       <c r="H97" t="s">
         <v>487</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>484</v>
       </c>
     </row>
@@ -10164,237 +11472,237 @@
       <c r="H98" t="s">
         <v>489</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="AA101" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="AA102" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="AA105" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="AA108" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="AA113" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="AA114" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="AA115" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="AA116" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="AA118" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="AA120" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="AA123" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="AA124" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="AA127" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="AA128" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="AA129" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="130">
-      <c r="Z130" t="s">
+      <c r="AA130" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="131">
-      <c r="Z131" t="s">
+      <c r="AA131" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="132">
-      <c r="Z132" t="s">
+      <c r="AA132" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="133">
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="134">
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="135">
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="136">
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="137">
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="138">
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="139">
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="140">
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="141">
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="142">
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="143">
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="144">
-      <c r="Z144" t="s">
+      <c r="AA144" t="s">
         <v>529</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions1.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions1.xlsx
@@ -35,7 +35,7 @@
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -43,7 +43,7 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
@@ -51,13 +51,14 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
     <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4394" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4981" uniqueCount="1085">
   <si>
     <t>target</t>
   </si>
@@ -6137,13 +6138,43 @@
   <si>
     <t>ocr(image,saveVar)</t>
   </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="90" x14ac:knownFonts="1">
+  <fonts count="106" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6718,8 +6749,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7350,8 +7482,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -8693,12 +8978,338 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="159">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -9109,52 +9720,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="76" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="78" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="80" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9652,7 +10311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG145"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9740,7 +10399,7 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>1066</v>
+        <v>1075</v>
       </c>
       <c r="AA1" t="s">
         <v>25</v>
@@ -9820,7 +10479,7 @@
         <v>48</v>
       </c>
       <c r="T2" t="s">
-        <v>49</v>
+        <v>1077</v>
       </c>
       <c r="U2" t="s">
         <v>50</v>
@@ -9838,7 +10497,7 @@
         <v>54</v>
       </c>
       <c r="Z2" t="s">
-        <v>1068</v>
+        <v>1079</v>
       </c>
       <c r="AA2" t="s">
         <v>55</v>
@@ -9912,7 +10571,7 @@
         <v>76</v>
       </c>
       <c r="T3" t="s">
-        <v>77</v>
+        <v>1078</v>
       </c>
       <c r="U3" t="s">
         <v>78</v>
@@ -9927,7 +10586,7 @@
         <v>81</v>
       </c>
       <c r="Z3" t="s">
-        <v>1069</v>
+        <v>1080</v>
       </c>
       <c r="AA3" t="s">
         <v>82</v>
@@ -9998,7 +10657,7 @@
         <v>102</v>
       </c>
       <c r="T4" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="U4" t="s">
         <v>104</v>
@@ -10013,7 +10672,7 @@
         <v>107</v>
       </c>
       <c r="Z4" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
       <c r="AA4" t="s">
         <v>108</v>
@@ -10078,7 +10737,7 @@
         <v>125</v>
       </c>
       <c r="T5" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s">
         <v>127</v>
@@ -10089,9 +10748,6 @@
       <c r="X5" t="s">
         <v>129</v>
       </c>
-      <c r="Z5" t="s">
-        <v>1071</v>
-      </c>
       <c r="AA5" t="s">
         <v>130</v>
       </c>
@@ -10155,16 +10811,13 @@
         <v>147</v>
       </c>
       <c r="T6" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="U6" t="s">
         <v>149</v>
       </c>
       <c r="X6" t="s">
         <v>150</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>1072</v>
       </c>
       <c r="AA6" t="s">
         <v>151</v>
@@ -10220,7 +10873,7 @@
         <v>164</v>
       </c>
       <c r="T7" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="U7" t="s">
         <v>166</v>
@@ -10281,6 +10934,9 @@
       <c r="S8" t="s">
         <v>182</v>
       </c>
+      <c r="T8" t="s">
+        <v>148</v>
+      </c>
       <c r="U8" t="s">
         <v>183</v>
       </c>
@@ -10337,6 +10993,9 @@
       <c r="S9" t="s">
         <v>199</v>
       </c>
+      <c r="T9" t="s">
+        <v>165</v>
+      </c>
       <c r="U9" t="s">
         <v>200</v>
       </c>
@@ -10458,7 +11117,7 @@
         <v>231</v>
       </c>
       <c r="O12" t="s">
-        <v>232</v>
+        <v>1076</v>
       </c>
       <c r="R12" t="s">
         <v>233</v>
@@ -10495,6 +11154,9 @@
       <c r="N13" t="s">
         <v>241</v>
       </c>
+      <c r="O13" t="s">
+        <v>232</v>
+      </c>
       <c r="R13" t="s">
         <v>242</v>
       </c>
@@ -10572,7 +11234,7 @@
         <v>253</v>
       </c>
       <c r="AA15" t="s">
-        <v>1055</v>
+        <v>1082</v>
       </c>
       <c r="AD15" t="s">
         <v>264</v>
@@ -10607,7 +11269,7 @@
         <v>262</v>
       </c>
       <c r="AA16" t="s">
-        <v>263</v>
+        <v>1055</v>
       </c>
       <c r="AD16" t="s">
         <v>273</v>
@@ -10636,7 +11298,7 @@
         <v>271</v>
       </c>
       <c r="AA17" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="AD17" t="s">
         <v>280</v>
@@ -10662,7 +11324,7 @@
         <v>285</v>
       </c>
       <c r="AA18" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="AF18" t="s">
         <v>287</v>
@@ -10682,7 +11344,7 @@
         <v>290</v>
       </c>
       <c r="AA19" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AF19" t="s">
         <v>292</v>
@@ -10702,7 +11364,7 @@
         <v>295</v>
       </c>
       <c r="AA20" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AF20" t="s">
         <v>297</v>
@@ -10722,7 +11384,7 @@
         <v>300</v>
       </c>
       <c r="AA21" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AF21" t="s">
         <v>302</v>
@@ -10742,7 +11404,7 @@
         <v>305</v>
       </c>
       <c r="AA22" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AF22" t="s">
         <v>307</v>
@@ -10762,7 +11424,7 @@
         <v>310</v>
       </c>
       <c r="AA23" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AF23" t="s">
         <v>312</v>
@@ -10782,7 +11444,7 @@
         <v>315</v>
       </c>
       <c r="AA24" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AF24" t="s">
         <v>317</v>
@@ -10802,7 +11464,7 @@
         <v>320</v>
       </c>
       <c r="AA25" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AF25" t="s">
         <v>322</v>
@@ -10810,7 +11472,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1066</v>
+        <v>1075</v>
       </c>
       <c r="F26" t="s">
         <v>328</v>
@@ -10822,7 +11484,7 @@
         <v>325</v>
       </c>
       <c r="AA26" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AF26" t="s">
         <v>327</v>
@@ -10842,7 +11504,7 @@
         <v>330</v>
       </c>
       <c r="AA27" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AF27" t="s">
         <v>332</v>
@@ -10862,7 +11524,7 @@
         <v>335</v>
       </c>
       <c r="AA28" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29">
@@ -10879,7 +11541,7 @@
         <v>339</v>
       </c>
       <c r="AA29" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30">
@@ -10896,7 +11558,7 @@
         <v>343</v>
       </c>
       <c r="AA30" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31">
@@ -10910,7 +11572,7 @@
         <v>346</v>
       </c>
       <c r="AA31" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32">
@@ -10924,7 +11586,7 @@
         <v>349</v>
       </c>
       <c r="AA32" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33">
@@ -10935,7 +11597,7 @@
         <v>352</v>
       </c>
       <c r="AA33" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34">
@@ -10946,7 +11608,7 @@
         <v>355</v>
       </c>
       <c r="AA34" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35">
@@ -10957,7 +11619,7 @@
         <v>358</v>
       </c>
       <c r="AA35" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36">
@@ -10968,7 +11630,7 @@
         <v>361</v>
       </c>
       <c r="AA36" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37">
@@ -10979,7 +11641,7 @@
         <v>364</v>
       </c>
       <c r="AA37" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38">
@@ -10990,7 +11652,7 @@
         <v>367</v>
       </c>
       <c r="AA38" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39">
@@ -11001,7 +11663,7 @@
         <v>370</v>
       </c>
       <c r="AA39" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40">
@@ -11009,7 +11671,7 @@
         <v>373</v>
       </c>
       <c r="AA40" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41">
@@ -11017,7 +11679,7 @@
         <v>375</v>
       </c>
       <c r="AA41" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42">
@@ -11025,7 +11687,7 @@
         <v>377</v>
       </c>
       <c r="AA42" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43">
@@ -11033,7 +11695,7 @@
         <v>379</v>
       </c>
       <c r="AA43" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44">
@@ -11041,7 +11703,7 @@
         <v>381</v>
       </c>
       <c r="AA44" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45">
@@ -11049,7 +11711,7 @@
         <v>383</v>
       </c>
       <c r="AA45" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46">
@@ -11057,7 +11719,7 @@
         <v>385</v>
       </c>
       <c r="AA46" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="47">
@@ -11065,7 +11727,7 @@
         <v>387</v>
       </c>
       <c r="AA47" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48">
@@ -11073,7 +11735,7 @@
         <v>389</v>
       </c>
       <c r="AA48" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49">
@@ -11081,7 +11743,7 @@
         <v>391</v>
       </c>
       <c r="AA49" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50">
@@ -11089,7 +11751,7 @@
         <v>393</v>
       </c>
       <c r="AA50" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51">
@@ -11097,7 +11759,7 @@
         <v>395</v>
       </c>
       <c r="AA51" t="s">
-        <v>394</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="52">
@@ -11105,7 +11767,7 @@
         <v>397</v>
       </c>
       <c r="AA52" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="53">
@@ -11113,7 +11775,7 @@
         <v>399</v>
       </c>
       <c r="AA53" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54">
@@ -11121,7 +11783,7 @@
         <v>401</v>
       </c>
       <c r="AA54" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55">
@@ -11129,7 +11791,7 @@
         <v>403</v>
       </c>
       <c r="AA55" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56">
@@ -11137,7 +11799,7 @@
         <v>405</v>
       </c>
       <c r="AA56" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57">
@@ -11145,7 +11807,7 @@
         <v>407</v>
       </c>
       <c r="AA57" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58">
@@ -11153,7 +11815,7 @@
         <v>409</v>
       </c>
       <c r="AA58" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59">
@@ -11161,7 +11823,7 @@
         <v>411</v>
       </c>
       <c r="AA59" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60">
@@ -11169,7 +11831,7 @@
         <v>413</v>
       </c>
       <c r="AA60" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61">
@@ -11177,7 +11839,7 @@
         <v>415</v>
       </c>
       <c r="AA61" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62">
@@ -11185,7 +11847,7 @@
         <v>417</v>
       </c>
       <c r="AA62" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63">
@@ -11193,7 +11855,7 @@
         <v>419</v>
       </c>
       <c r="AA63" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64">
@@ -11201,7 +11863,7 @@
         <v>421</v>
       </c>
       <c r="AA64" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65">
@@ -11209,7 +11871,7 @@
         <v>423</v>
       </c>
       <c r="AA65" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66">
@@ -11217,7 +11879,7 @@
         <v>425</v>
       </c>
       <c r="AA66" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67">
@@ -11225,7 +11887,7 @@
         <v>427</v>
       </c>
       <c r="AA67" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68">
@@ -11233,7 +11895,7 @@
         <v>429</v>
       </c>
       <c r="AA68" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69">
@@ -11241,7 +11903,7 @@
         <v>431</v>
       </c>
       <c r="AA69" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="70">
@@ -11249,7 +11911,7 @@
         <v>433</v>
       </c>
       <c r="AA70" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71">
@@ -11257,7 +11919,7 @@
         <v>435</v>
       </c>
       <c r="AA71" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="72">
@@ -11265,7 +11927,7 @@
         <v>437</v>
       </c>
       <c r="AA72" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73">
@@ -11273,7 +11935,7 @@
         <v>439</v>
       </c>
       <c r="AA73" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74">
@@ -11281,7 +11943,7 @@
         <v>441</v>
       </c>
       <c r="AA74" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="75">
@@ -11289,7 +11951,7 @@
         <v>443</v>
       </c>
       <c r="AA75" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76">
@@ -11297,7 +11959,7 @@
         <v>445</v>
       </c>
       <c r="AA76" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77">
@@ -11305,7 +11967,7 @@
         <v>447</v>
       </c>
       <c r="AA77" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78">
@@ -11313,7 +11975,7 @@
         <v>449</v>
       </c>
       <c r="AA78" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="79">
@@ -11321,7 +11983,7 @@
         <v>451</v>
       </c>
       <c r="AA79" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80">
@@ -11329,7 +11991,7 @@
         <v>453</v>
       </c>
       <c r="AA80" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81">
@@ -11337,7 +11999,7 @@
         <v>455</v>
       </c>
       <c r="AA81" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="82">
@@ -11345,7 +12007,7 @@
         <v>457</v>
       </c>
       <c r="AA82" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="83">
@@ -11353,7 +12015,7 @@
         <v>459</v>
       </c>
       <c r="AA83" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="84">
@@ -11361,7 +12023,7 @@
         <v>461</v>
       </c>
       <c r="AA84" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="85">
@@ -11369,7 +12031,7 @@
         <v>463</v>
       </c>
       <c r="AA85" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86">
@@ -11377,7 +12039,7 @@
         <v>465</v>
       </c>
       <c r="AA86" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="87">
@@ -11385,7 +12047,7 @@
         <v>467</v>
       </c>
       <c r="AA87" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="88">
@@ -11393,7 +12055,7 @@
         <v>469</v>
       </c>
       <c r="AA88" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="89">
@@ -11401,7 +12063,7 @@
         <v>471</v>
       </c>
       <c r="AA89" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="90">
@@ -11409,7 +12071,7 @@
         <v>473</v>
       </c>
       <c r="AA90" t="s">
-        <v>1056</v>
+        <v>470</v>
       </c>
     </row>
     <row r="91">
@@ -11417,7 +12079,7 @@
         <v>475</v>
       </c>
       <c r="AA91" t="s">
-        <v>472</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="92">
@@ -11425,7 +12087,7 @@
         <v>477</v>
       </c>
       <c r="AA92" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="93">
@@ -11433,7 +12095,7 @@
         <v>479</v>
       </c>
       <c r="AA93" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="94">
@@ -11441,7 +12103,7 @@
         <v>481</v>
       </c>
       <c r="AA94" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="95">
@@ -11449,7 +12111,7 @@
         <v>483</v>
       </c>
       <c r="AA95" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="96">
@@ -11457,7 +12119,7 @@
         <v>485</v>
       </c>
       <c r="AA96" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="97">
@@ -11465,7 +12127,7 @@
         <v>487</v>
       </c>
       <c r="AA97" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="98">
@@ -11473,236 +12135,241 @@
         <v>489</v>
       </c>
       <c r="AA98" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>1057</v>
+        <v>498</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>499</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>1058</v>
+        <v>507</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>508</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>1059</v>
+        <v>509</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>510</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>1060</v>
+        <v>515</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>516</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>520</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>1061</v>
+        <v>526</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>527</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>529</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions1.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B551D264-12E2-4326-BAAF-475994D61A78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A4917A-2DD8-4123-9D02-E9C4B0B8A0D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -6626,6 +6626,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -6653,10 +6657,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9222,11 +9222,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O299"/>
+  <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -9248,12 +9248,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>526</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="11" t="s">
         <v>527</v>
       </c>
@@ -9271,20 +9271,20 @@
       </c>
       <c r="J1" s="29"/>
       <c r="K1" s="17"/>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="74" t="s">
         <v>532</v>
       </c>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="62.1" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>533</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
       <c r="G2" s="12"/>
@@ -9294,10 +9294,10 @@
       </c>
       <c r="J2" s="29"/>
       <c r="K2" s="17"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
     </row>
     <row r="3" spans="1:15" ht="11.1" customHeight="1">
       <c r="A3" s="14"/>
@@ -12073,3219 +12073,6 @@
       <c r="N110" s="18"/>
       <c r="O110" s="17"/>
     </row>
-    <row r="111" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A111" s="20"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="23"/>
-      <c r="J111" s="24"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="18"/>
-      <c r="M111" s="16"/>
-      <c r="N111" s="18"/>
-      <c r="O111" s="17"/>
-    </row>
-    <row r="112" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A112" s="20"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="23"/>
-      <c r="I112" s="23"/>
-      <c r="J112" s="24"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="16"/>
-      <c r="N112" s="18"/>
-      <c r="O112" s="17"/>
-    </row>
-    <row r="113" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A113" s="20"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="23"/>
-      <c r="J113" s="24"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="16"/>
-      <c r="N113" s="18"/>
-      <c r="O113" s="17"/>
-    </row>
-    <row r="114" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A114" s="20"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="23"/>
-      <c r="I114" s="33"/>
-      <c r="J114" s="34"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="18"/>
-      <c r="M114" s="16"/>
-      <c r="N114" s="18"/>
-      <c r="O114" s="17"/>
-    </row>
-    <row r="115" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A115" s="20"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="23"/>
-      <c r="G115" s="23"/>
-      <c r="H115" s="23"/>
-      <c r="I115" s="33"/>
-      <c r="J115" s="34"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="18"/>
-      <c r="M115" s="16"/>
-      <c r="N115" s="18"/>
-      <c r="O115" s="17"/>
-    </row>
-    <row r="116" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A116" s="20"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="23"/>
-      <c r="F116" s="23"/>
-      <c r="G116" s="23"/>
-      <c r="H116" s="23"/>
-      <c r="I116" s="33"/>
-      <c r="J116" s="34"/>
-      <c r="K116" s="17"/>
-      <c r="L116" s="18"/>
-      <c r="M116" s="16"/>
-      <c r="N116" s="18"/>
-      <c r="O116" s="17"/>
-    </row>
-    <row r="117" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A117" s="20"/>
-      <c r="B117" s="21"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="23"/>
-      <c r="F117" s="23"/>
-      <c r="G117" s="23"/>
-      <c r="H117" s="23"/>
-      <c r="I117" s="33"/>
-      <c r="J117" s="34"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="18"/>
-      <c r="M117" s="16"/>
-      <c r="N117" s="18"/>
-      <c r="O117" s="17"/>
-    </row>
-    <row r="118" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A118" s="20"/>
-      <c r="B118" s="21"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="23"/>
-      <c r="H118" s="23"/>
-      <c r="I118" s="33"/>
-      <c r="J118" s="34"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="18"/>
-      <c r="M118" s="16"/>
-      <c r="N118" s="18"/>
-      <c r="O118" s="17"/>
-    </row>
-    <row r="119" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A119" s="20"/>
-      <c r="B119" s="21"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="23"/>
-      <c r="F119" s="23"/>
-      <c r="G119" s="23"/>
-      <c r="H119" s="23"/>
-      <c r="I119" s="33"/>
-      <c r="J119" s="34"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="18"/>
-      <c r="M119" s="16"/>
-      <c r="N119" s="18"/>
-      <c r="O119" s="17"/>
-    </row>
-    <row r="120" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A120" s="20"/>
-      <c r="B120" s="21"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="23"/>
-      <c r="F120" s="23"/>
-      <c r="G120" s="23"/>
-      <c r="H120" s="23"/>
-      <c r="I120" s="33"/>
-      <c r="J120" s="34"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="16"/>
-      <c r="N120" s="18"/>
-      <c r="O120" s="17"/>
-    </row>
-    <row r="121" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A121" s="20"/>
-      <c r="B121" s="21"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="23"/>
-      <c r="G121" s="23"/>
-      <c r="H121" s="23"/>
-      <c r="I121" s="33"/>
-      <c r="J121" s="34"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="18"/>
-      <c r="M121" s="16"/>
-      <c r="N121" s="18"/>
-      <c r="O121" s="17"/>
-    </row>
-    <row r="122" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A122" s="20"/>
-      <c r="B122" s="21"/>
-      <c r="C122" s="22"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="23"/>
-      <c r="G122" s="23"/>
-      <c r="H122" s="23"/>
-      <c r="I122" s="33"/>
-      <c r="J122" s="34"/>
-      <c r="K122" s="17"/>
-      <c r="L122" s="18"/>
-      <c r="M122" s="16"/>
-      <c r="N122" s="18"/>
-      <c r="O122" s="17"/>
-    </row>
-    <row r="123" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A123" s="20"/>
-      <c r="B123" s="21"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="23"/>
-      <c r="F123" s="23"/>
-      <c r="G123" s="23"/>
-      <c r="H123" s="23"/>
-      <c r="I123" s="33"/>
-      <c r="J123" s="34"/>
-      <c r="K123" s="17"/>
-      <c r="L123" s="18"/>
-      <c r="M123" s="16"/>
-      <c r="N123" s="18"/>
-      <c r="O123" s="17"/>
-    </row>
-    <row r="124" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A124" s="14"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="44"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33"/>
-      <c r="I124" s="33"/>
-      <c r="J124" s="34"/>
-      <c r="K124" s="17"/>
-      <c r="L124" s="18"/>
-      <c r="M124" s="16"/>
-      <c r="N124" s="18"/>
-      <c r="O124" s="17"/>
-    </row>
-    <row r="125" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A125" s="14"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="44"/>
-      <c r="D125" s="33"/>
-      <c r="E125" s="33"/>
-      <c r="F125" s="33"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="33"/>
-      <c r="I125" s="33"/>
-      <c r="J125" s="34"/>
-      <c r="K125" s="17"/>
-      <c r="L125" s="18"/>
-      <c r="M125" s="16"/>
-      <c r="N125" s="18"/>
-      <c r="O125" s="17"/>
-    </row>
-    <row r="126" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A126" s="14"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="33"/>
-      <c r="H126" s="33"/>
-      <c r="I126" s="33"/>
-      <c r="J126" s="34"/>
-      <c r="K126" s="17"/>
-      <c r="L126" s="18"/>
-      <c r="M126" s="16"/>
-      <c r="N126" s="18"/>
-      <c r="O126" s="17"/>
-    </row>
-    <row r="127" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A127" s="14"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="33"/>
-      <c r="F127" s="33"/>
-      <c r="G127" s="33"/>
-      <c r="H127" s="33"/>
-      <c r="I127" s="33"/>
-      <c r="J127" s="34"/>
-      <c r="K127" s="17"/>
-      <c r="L127" s="18"/>
-      <c r="M127" s="16"/>
-      <c r="N127" s="18"/>
-      <c r="O127" s="17"/>
-    </row>
-    <row r="128" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A128" s="14"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="44"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="33"/>
-      <c r="G128" s="33"/>
-      <c r="H128" s="33"/>
-      <c r="I128" s="33"/>
-      <c r="J128" s="34"/>
-      <c r="K128" s="17"/>
-      <c r="L128" s="18"/>
-      <c r="M128" s="16"/>
-      <c r="N128" s="18"/>
-      <c r="O128" s="17"/>
-    </row>
-    <row r="129" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A129" s="14"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="33"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="33"/>
-      <c r="G129" s="33"/>
-      <c r="H129" s="33"/>
-      <c r="I129" s="33"/>
-      <c r="J129" s="34"/>
-      <c r="K129" s="17"/>
-      <c r="L129" s="18"/>
-      <c r="M129" s="16"/>
-      <c r="N129" s="18"/>
-      <c r="O129" s="17"/>
-    </row>
-    <row r="130" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A130" s="14"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="33"/>
-      <c r="E130" s="33"/>
-      <c r="F130" s="33"/>
-      <c r="G130" s="33"/>
-      <c r="H130" s="33"/>
-      <c r="I130" s="33"/>
-      <c r="J130" s="34"/>
-      <c r="K130" s="17"/>
-      <c r="L130" s="18"/>
-      <c r="M130" s="16"/>
-      <c r="N130" s="18"/>
-      <c r="O130" s="17"/>
-    </row>
-    <row r="131" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A131" s="14"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="33"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33"/>
-      <c r="G131" s="33"/>
-      <c r="H131" s="33"/>
-      <c r="I131" s="33"/>
-      <c r="J131" s="34"/>
-      <c r="K131" s="17"/>
-      <c r="L131" s="18"/>
-      <c r="M131" s="16"/>
-      <c r="N131" s="18"/>
-      <c r="O131" s="17"/>
-    </row>
-    <row r="132" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A132" s="14"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="33"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="33"/>
-      <c r="I132" s="33"/>
-      <c r="J132" s="34"/>
-      <c r="K132" s="17"/>
-      <c r="L132" s="18"/>
-      <c r="M132" s="16"/>
-      <c r="N132" s="18"/>
-      <c r="O132" s="17"/>
-    </row>
-    <row r="133" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A133" s="14"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
-      <c r="G133" s="33"/>
-      <c r="H133" s="33"/>
-      <c r="I133" s="33"/>
-      <c r="J133" s="34"/>
-      <c r="K133" s="17"/>
-      <c r="L133" s="18"/>
-      <c r="M133" s="16"/>
-      <c r="N133" s="18"/>
-      <c r="O133" s="17"/>
-    </row>
-    <row r="134" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A134" s="14"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="33"/>
-      <c r="E134" s="33"/>
-      <c r="F134" s="33"/>
-      <c r="G134" s="33"/>
-      <c r="H134" s="33"/>
-      <c r="I134" s="33"/>
-      <c r="J134" s="34"/>
-      <c r="K134" s="17"/>
-      <c r="L134" s="18"/>
-      <c r="M134" s="16"/>
-      <c r="N134" s="18"/>
-      <c r="O134" s="17"/>
-    </row>
-    <row r="135" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A135" s="14"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="33"/>
-      <c r="G135" s="33"/>
-      <c r="H135" s="33"/>
-      <c r="I135" s="33"/>
-      <c r="J135" s="34"/>
-      <c r="K135" s="17"/>
-      <c r="L135" s="18"/>
-      <c r="M135" s="16"/>
-      <c r="N135" s="18"/>
-      <c r="O135" s="17"/>
-    </row>
-    <row r="136" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A136" s="14"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="33"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="33"/>
-      <c r="H136" s="33"/>
-      <c r="I136" s="33"/>
-      <c r="J136" s="34"/>
-      <c r="K136" s="17"/>
-      <c r="L136" s="18"/>
-      <c r="M136" s="16"/>
-      <c r="N136" s="18"/>
-      <c r="O136" s="17"/>
-    </row>
-    <row r="137" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A137" s="14"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="44"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33"/>
-      <c r="I137" s="33"/>
-      <c r="J137" s="34"/>
-      <c r="K137" s="17"/>
-      <c r="L137" s="18"/>
-      <c r="M137" s="16"/>
-      <c r="N137" s="18"/>
-      <c r="O137" s="17"/>
-    </row>
-    <row r="138" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A138" s="14"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="44"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="33"/>
-      <c r="F138" s="33"/>
-      <c r="G138" s="33"/>
-      <c r="H138" s="33"/>
-      <c r="I138" s="33"/>
-      <c r="J138" s="34"/>
-      <c r="K138" s="17"/>
-      <c r="L138" s="18"/>
-      <c r="M138" s="16"/>
-      <c r="N138" s="18"/>
-      <c r="O138" s="17"/>
-    </row>
-    <row r="139" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A139" s="14"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="44"/>
-      <c r="D139" s="33"/>
-      <c r="E139" s="33"/>
-      <c r="F139" s="33"/>
-      <c r="G139" s="33"/>
-      <c r="H139" s="33"/>
-      <c r="I139" s="33"/>
-      <c r="J139" s="34"/>
-      <c r="K139" s="17"/>
-      <c r="L139" s="18"/>
-      <c r="M139" s="16"/>
-      <c r="N139" s="18"/>
-      <c r="O139" s="17"/>
-    </row>
-    <row r="140" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A140" s="14"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="44"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="33"/>
-      <c r="G140" s="33"/>
-      <c r="H140" s="33"/>
-      <c r="I140" s="33"/>
-      <c r="J140" s="34"/>
-      <c r="K140" s="17"/>
-      <c r="L140" s="18"/>
-      <c r="M140" s="16"/>
-      <c r="N140" s="18"/>
-      <c r="O140" s="17"/>
-    </row>
-    <row r="141" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A141" s="14"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="44"/>
-      <c r="D141" s="33"/>
-      <c r="E141" s="33"/>
-      <c r="F141" s="33"/>
-      <c r="G141" s="33"/>
-      <c r="H141" s="33"/>
-      <c r="I141" s="33"/>
-      <c r="J141" s="34"/>
-      <c r="K141" s="17"/>
-      <c r="L141" s="18"/>
-      <c r="M141" s="16"/>
-      <c r="N141" s="18"/>
-      <c r="O141" s="17"/>
-    </row>
-    <row r="142" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A142" s="14"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="44"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
-      <c r="F142" s="33"/>
-      <c r="G142" s="33"/>
-      <c r="H142" s="33"/>
-      <c r="I142" s="33"/>
-      <c r="J142" s="34"/>
-      <c r="K142" s="17"/>
-      <c r="L142" s="18"/>
-      <c r="M142" s="16"/>
-      <c r="N142" s="18"/>
-      <c r="O142" s="17"/>
-    </row>
-    <row r="143" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A143" s="14"/>
-      <c r="B143" s="15"/>
-      <c r="C143" s="44"/>
-      <c r="D143" s="33"/>
-      <c r="E143" s="33"/>
-      <c r="F143" s="33"/>
-      <c r="G143" s="33"/>
-      <c r="H143" s="33"/>
-      <c r="I143" s="33"/>
-      <c r="J143" s="34"/>
-      <c r="K143" s="17"/>
-      <c r="L143" s="18"/>
-      <c r="M143" s="16"/>
-      <c r="N143" s="18"/>
-      <c r="O143" s="17"/>
-    </row>
-    <row r="144" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A144" s="14"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="44"/>
-      <c r="D144" s="33"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="33"/>
-      <c r="H144" s="33"/>
-      <c r="I144" s="33"/>
-      <c r="J144" s="34"/>
-      <c r="K144" s="17"/>
-      <c r="L144" s="18"/>
-      <c r="M144" s="16"/>
-      <c r="N144" s="18"/>
-      <c r="O144" s="17"/>
-    </row>
-    <row r="145" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A145" s="14"/>
-      <c r="B145" s="15"/>
-      <c r="C145" s="44"/>
-      <c r="D145" s="33"/>
-      <c r="E145" s="33"/>
-      <c r="F145" s="33"/>
-      <c r="G145" s="33"/>
-      <c r="H145" s="33"/>
-      <c r="I145" s="33"/>
-      <c r="J145" s="34"/>
-      <c r="K145" s="17"/>
-      <c r="L145" s="18"/>
-      <c r="M145" s="16"/>
-      <c r="N145" s="18"/>
-      <c r="O145" s="17"/>
-    </row>
-    <row r="146" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A146" s="14"/>
-      <c r="B146" s="15"/>
-      <c r="C146" s="44"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33"/>
-      <c r="G146" s="33"/>
-      <c r="H146" s="33"/>
-      <c r="I146" s="33"/>
-      <c r="J146" s="34"/>
-      <c r="K146" s="17"/>
-      <c r="L146" s="18"/>
-      <c r="M146" s="16"/>
-      <c r="N146" s="18"/>
-      <c r="O146" s="17"/>
-    </row>
-    <row r="147" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A147" s="14"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="44"/>
-      <c r="D147" s="33"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33"/>
-      <c r="G147" s="33"/>
-      <c r="H147" s="33"/>
-      <c r="I147" s="33"/>
-      <c r="J147" s="34"/>
-      <c r="K147" s="17"/>
-      <c r="L147" s="18"/>
-      <c r="M147" s="16"/>
-      <c r="N147" s="18"/>
-      <c r="O147" s="17"/>
-    </row>
-    <row r="148" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A148" s="14"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="44"/>
-      <c r="D148" s="33"/>
-      <c r="E148" s="33"/>
-      <c r="F148" s="33"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="33"/>
-      <c r="I148" s="33"/>
-      <c r="J148" s="34"/>
-      <c r="K148" s="17"/>
-      <c r="L148" s="18"/>
-      <c r="M148" s="16"/>
-      <c r="N148" s="18"/>
-      <c r="O148" s="17"/>
-    </row>
-    <row r="149" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A149" s="14"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="44"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="33"/>
-      <c r="H149" s="33"/>
-      <c r="I149" s="33"/>
-      <c r="J149" s="34"/>
-      <c r="K149" s="17"/>
-      <c r="L149" s="18"/>
-      <c r="M149" s="16"/>
-      <c r="N149" s="18"/>
-      <c r="O149" s="17"/>
-    </row>
-    <row r="150" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A150" s="14"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="44"/>
-      <c r="D150" s="33"/>
-      <c r="E150" s="33"/>
-      <c r="F150" s="33"/>
-      <c r="G150" s="33"/>
-      <c r="H150" s="33"/>
-      <c r="I150" s="33"/>
-      <c r="J150" s="34"/>
-      <c r="K150" s="17"/>
-      <c r="L150" s="18"/>
-      <c r="M150" s="16"/>
-      <c r="N150" s="18"/>
-      <c r="O150" s="17"/>
-    </row>
-    <row r="151" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A151" s="14"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="44"/>
-      <c r="D151" s="33"/>
-      <c r="E151" s="33"/>
-      <c r="F151" s="33"/>
-      <c r="G151" s="33"/>
-      <c r="H151" s="33"/>
-      <c r="I151" s="33"/>
-      <c r="J151" s="34"/>
-      <c r="K151" s="17"/>
-      <c r="L151" s="18"/>
-      <c r="M151" s="16"/>
-      <c r="N151" s="18"/>
-      <c r="O151" s="17"/>
-    </row>
-    <row r="152" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A152" s="14"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="44"/>
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
-      <c r="F152" s="33"/>
-      <c r="G152" s="33"/>
-      <c r="H152" s="33"/>
-      <c r="I152" s="33"/>
-      <c r="J152" s="34"/>
-      <c r="K152" s="17"/>
-      <c r="L152" s="18"/>
-      <c r="M152" s="16"/>
-      <c r="N152" s="18"/>
-      <c r="O152" s="17"/>
-    </row>
-    <row r="153" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A153" s="14"/>
-      <c r="B153" s="15"/>
-      <c r="C153" s="44"/>
-      <c r="D153" s="33"/>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33"/>
-      <c r="G153" s="33"/>
-      <c r="H153" s="33"/>
-      <c r="I153" s="33"/>
-      <c r="J153" s="34"/>
-      <c r="K153" s="17"/>
-      <c r="L153" s="18"/>
-      <c r="M153" s="16"/>
-      <c r="N153" s="18"/>
-      <c r="O153" s="17"/>
-    </row>
-    <row r="154" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A154" s="14"/>
-      <c r="B154" s="15"/>
-      <c r="C154" s="44"/>
-      <c r="D154" s="33"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33"/>
-      <c r="G154" s="33"/>
-      <c r="H154" s="33"/>
-      <c r="I154" s="33"/>
-      <c r="J154" s="34"/>
-      <c r="K154" s="17"/>
-      <c r="L154" s="18"/>
-      <c r="M154" s="16"/>
-      <c r="N154" s="18"/>
-      <c r="O154" s="17"/>
-    </row>
-    <row r="155" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A155" s="14"/>
-      <c r="B155" s="15"/>
-      <c r="C155" s="44"/>
-      <c r="D155" s="33"/>
-      <c r="E155" s="33"/>
-      <c r="F155" s="33"/>
-      <c r="G155" s="33"/>
-      <c r="H155" s="33"/>
-      <c r="I155" s="33"/>
-      <c r="J155" s="34"/>
-      <c r="K155" s="17"/>
-      <c r="L155" s="18"/>
-      <c r="M155" s="16"/>
-      <c r="N155" s="18"/>
-      <c r="O155" s="17"/>
-    </row>
-    <row r="156" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A156" s="14"/>
-      <c r="B156" s="15"/>
-      <c r="C156" s="44"/>
-      <c r="D156" s="33"/>
-      <c r="E156" s="33"/>
-      <c r="F156" s="33"/>
-      <c r="G156" s="33"/>
-      <c r="H156" s="33"/>
-      <c r="I156" s="33"/>
-      <c r="J156" s="34"/>
-      <c r="K156" s="17"/>
-      <c r="L156" s="18"/>
-      <c r="M156" s="16"/>
-      <c r="N156" s="18"/>
-      <c r="O156" s="17"/>
-    </row>
-    <row r="157" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A157" s="14"/>
-      <c r="B157" s="15"/>
-      <c r="C157" s="44"/>
-      <c r="D157" s="33"/>
-      <c r="E157" s="33"/>
-      <c r="F157" s="33"/>
-      <c r="G157" s="33"/>
-      <c r="H157" s="33"/>
-      <c r="I157" s="33"/>
-      <c r="J157" s="34"/>
-      <c r="K157" s="17"/>
-      <c r="L157" s="18"/>
-      <c r="M157" s="16"/>
-      <c r="N157" s="18"/>
-      <c r="O157" s="17"/>
-    </row>
-    <row r="158" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A158" s="14"/>
-      <c r="B158" s="15"/>
-      <c r="C158" s="44"/>
-      <c r="D158" s="33"/>
-      <c r="E158" s="33"/>
-      <c r="F158" s="33"/>
-      <c r="G158" s="33"/>
-      <c r="H158" s="33"/>
-      <c r="I158" s="33"/>
-      <c r="J158" s="34"/>
-      <c r="K158" s="17"/>
-      <c r="L158" s="18"/>
-      <c r="M158" s="16"/>
-      <c r="N158" s="18"/>
-      <c r="O158" s="17"/>
-    </row>
-    <row r="159" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A159" s="14"/>
-      <c r="B159" s="15"/>
-      <c r="C159" s="44"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
-      <c r="F159" s="33"/>
-      <c r="G159" s="33"/>
-      <c r="H159" s="33"/>
-      <c r="I159" s="33"/>
-      <c r="J159" s="34"/>
-      <c r="K159" s="17"/>
-      <c r="L159" s="18"/>
-      <c r="M159" s="16"/>
-      <c r="N159" s="18"/>
-      <c r="O159" s="17"/>
-    </row>
-    <row r="160" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A160" s="14"/>
-      <c r="B160" s="15"/>
-      <c r="C160" s="44"/>
-      <c r="D160" s="33"/>
-      <c r="E160" s="33"/>
-      <c r="F160" s="33"/>
-      <c r="G160" s="33"/>
-      <c r="H160" s="33"/>
-      <c r="I160" s="33"/>
-      <c r="J160" s="34"/>
-      <c r="K160" s="17"/>
-      <c r="L160" s="18"/>
-      <c r="M160" s="16"/>
-      <c r="N160" s="18"/>
-      <c r="O160" s="17"/>
-    </row>
-    <row r="161" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A161" s="14"/>
-      <c r="B161" s="15"/>
-      <c r="C161" s="44"/>
-      <c r="D161" s="33"/>
-      <c r="E161" s="33"/>
-      <c r="F161" s="33"/>
-      <c r="G161" s="33"/>
-      <c r="H161" s="33"/>
-      <c r="I161" s="33"/>
-      <c r="J161" s="34"/>
-      <c r="K161" s="17"/>
-      <c r="L161" s="18"/>
-      <c r="M161" s="16"/>
-      <c r="N161" s="18"/>
-      <c r="O161" s="17"/>
-    </row>
-    <row r="162" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A162" s="14"/>
-      <c r="B162" s="15"/>
-      <c r="C162" s="44"/>
-      <c r="D162" s="33"/>
-      <c r="E162" s="33"/>
-      <c r="F162" s="33"/>
-      <c r="G162" s="33"/>
-      <c r="H162" s="33"/>
-      <c r="I162" s="33"/>
-      <c r="J162" s="34"/>
-      <c r="K162" s="17"/>
-      <c r="L162" s="18"/>
-      <c r="M162" s="16"/>
-      <c r="N162" s="18"/>
-      <c r="O162" s="17"/>
-    </row>
-    <row r="163" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A163" s="14"/>
-      <c r="B163" s="15"/>
-      <c r="C163" s="44"/>
-      <c r="D163" s="33"/>
-      <c r="E163" s="33"/>
-      <c r="F163" s="33"/>
-      <c r="G163" s="33"/>
-      <c r="H163" s="33"/>
-      <c r="I163" s="33"/>
-      <c r="J163" s="34"/>
-      <c r="K163" s="17"/>
-      <c r="L163" s="18"/>
-      <c r="M163" s="16"/>
-      <c r="N163" s="18"/>
-      <c r="O163" s="17"/>
-    </row>
-    <row r="164" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A164" s="14"/>
-      <c r="B164" s="15"/>
-      <c r="C164" s="44"/>
-      <c r="D164" s="33"/>
-      <c r="E164" s="33"/>
-      <c r="F164" s="33"/>
-      <c r="G164" s="33"/>
-      <c r="H164" s="33"/>
-      <c r="I164" s="33"/>
-      <c r="J164" s="34"/>
-      <c r="K164" s="17"/>
-      <c r="L164" s="18"/>
-      <c r="M164" s="16"/>
-      <c r="N164" s="18"/>
-      <c r="O164" s="17"/>
-    </row>
-    <row r="165" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A165" s="14"/>
-      <c r="B165" s="15"/>
-      <c r="C165" s="44"/>
-      <c r="D165" s="33"/>
-      <c r="E165" s="33"/>
-      <c r="F165" s="33"/>
-      <c r="G165" s="33"/>
-      <c r="H165" s="33"/>
-      <c r="I165" s="33"/>
-      <c r="J165" s="34"/>
-      <c r="K165" s="17"/>
-      <c r="L165" s="18"/>
-      <c r="M165" s="16"/>
-      <c r="N165" s="18"/>
-      <c r="O165" s="17"/>
-    </row>
-    <row r="166" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A166" s="14"/>
-      <c r="B166" s="15"/>
-      <c r="C166" s="44"/>
-      <c r="D166" s="33"/>
-      <c r="E166" s="33"/>
-      <c r="F166" s="33"/>
-      <c r="G166" s="33"/>
-      <c r="H166" s="33"/>
-      <c r="I166" s="33"/>
-      <c r="J166" s="34"/>
-      <c r="K166" s="17"/>
-      <c r="L166" s="18"/>
-      <c r="M166" s="16"/>
-      <c r="N166" s="18"/>
-      <c r="O166" s="17"/>
-    </row>
-    <row r="167" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A167" s="14"/>
-      <c r="B167" s="15"/>
-      <c r="C167" s="44"/>
-      <c r="D167" s="33"/>
-      <c r="E167" s="33"/>
-      <c r="F167" s="33"/>
-      <c r="G167" s="33"/>
-      <c r="H167" s="33"/>
-      <c r="I167" s="33"/>
-      <c r="J167" s="34"/>
-      <c r="K167" s="17"/>
-      <c r="L167" s="18"/>
-      <c r="M167" s="16"/>
-      <c r="N167" s="18"/>
-      <c r="O167" s="17"/>
-    </row>
-    <row r="168" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A168" s="14"/>
-      <c r="B168" s="15"/>
-      <c r="C168" s="44"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="33"/>
-      <c r="F168" s="33"/>
-      <c r="G168" s="33"/>
-      <c r="H168" s="33"/>
-      <c r="I168" s="33"/>
-      <c r="J168" s="34"/>
-      <c r="K168" s="17"/>
-      <c r="L168" s="18"/>
-      <c r="M168" s="16"/>
-      <c r="N168" s="18"/>
-      <c r="O168" s="17"/>
-    </row>
-    <row r="169" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A169" s="14"/>
-      <c r="B169" s="15"/>
-      <c r="C169" s="44"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
-      <c r="F169" s="33"/>
-      <c r="G169" s="33"/>
-      <c r="H169" s="33"/>
-      <c r="I169" s="33"/>
-      <c r="J169" s="34"/>
-      <c r="K169" s="17"/>
-      <c r="L169" s="18"/>
-      <c r="M169" s="16"/>
-      <c r="N169" s="18"/>
-      <c r="O169" s="17"/>
-    </row>
-    <row r="170" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A170" s="14"/>
-      <c r="B170" s="15"/>
-      <c r="C170" s="44"/>
-      <c r="D170" s="33"/>
-      <c r="E170" s="33"/>
-      <c r="F170" s="33"/>
-      <c r="G170" s="33"/>
-      <c r="H170" s="33"/>
-      <c r="I170" s="33"/>
-      <c r="J170" s="34"/>
-      <c r="K170" s="17"/>
-      <c r="L170" s="18"/>
-      <c r="M170" s="16"/>
-      <c r="N170" s="18"/>
-      <c r="O170" s="17"/>
-    </row>
-    <row r="171" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A171" s="14"/>
-      <c r="B171" s="15"/>
-      <c r="C171" s="44"/>
-      <c r="D171" s="33"/>
-      <c r="E171" s="33"/>
-      <c r="F171" s="33"/>
-      <c r="G171" s="33"/>
-      <c r="H171" s="33"/>
-      <c r="I171" s="33"/>
-      <c r="J171" s="34"/>
-      <c r="K171" s="17"/>
-      <c r="L171" s="18"/>
-      <c r="M171" s="16"/>
-      <c r="N171" s="18"/>
-      <c r="O171" s="17"/>
-    </row>
-    <row r="172" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A172" s="14"/>
-      <c r="B172" s="15"/>
-      <c r="C172" s="44"/>
-      <c r="D172" s="33"/>
-      <c r="E172" s="33"/>
-      <c r="F172" s="33"/>
-      <c r="G172" s="33"/>
-      <c r="H172" s="33"/>
-      <c r="I172" s="33"/>
-      <c r="J172" s="34"/>
-      <c r="K172" s="17"/>
-      <c r="L172" s="18"/>
-      <c r="M172" s="16"/>
-      <c r="N172" s="18"/>
-      <c r="O172" s="17"/>
-    </row>
-    <row r="173" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A173" s="14"/>
-      <c r="B173" s="15"/>
-      <c r="C173" s="44"/>
-      <c r="D173" s="33"/>
-      <c r="E173" s="33"/>
-      <c r="F173" s="33"/>
-      <c r="G173" s="33"/>
-      <c r="H173" s="33"/>
-      <c r="I173" s="33"/>
-      <c r="J173" s="34"/>
-      <c r="K173" s="17"/>
-      <c r="L173" s="18"/>
-      <c r="M173" s="16"/>
-      <c r="N173" s="18"/>
-      <c r="O173" s="17"/>
-    </row>
-    <row r="174" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A174" s="14"/>
-      <c r="B174" s="15"/>
-      <c r="C174" s="44"/>
-      <c r="D174" s="33"/>
-      <c r="E174" s="33"/>
-      <c r="F174" s="33"/>
-      <c r="G174" s="33"/>
-      <c r="H174" s="33"/>
-      <c r="I174" s="33"/>
-      <c r="J174" s="34"/>
-      <c r="K174" s="17"/>
-      <c r="L174" s="18"/>
-      <c r="M174" s="16"/>
-      <c r="N174" s="18"/>
-      <c r="O174" s="17"/>
-    </row>
-    <row r="175" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A175" s="14"/>
-      <c r="B175" s="15"/>
-      <c r="C175" s="44"/>
-      <c r="D175" s="33"/>
-      <c r="E175" s="33"/>
-      <c r="F175" s="33"/>
-      <c r="G175" s="33"/>
-      <c r="H175" s="33"/>
-      <c r="I175" s="33"/>
-      <c r="J175" s="34"/>
-      <c r="K175" s="17"/>
-      <c r="L175" s="18"/>
-      <c r="M175" s="16"/>
-      <c r="N175" s="18"/>
-      <c r="O175" s="17"/>
-    </row>
-    <row r="176" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A176" s="14"/>
-      <c r="B176" s="15"/>
-      <c r="C176" s="44"/>
-      <c r="D176" s="33"/>
-      <c r="E176" s="33"/>
-      <c r="F176" s="33"/>
-      <c r="G176" s="33"/>
-      <c r="H176" s="33"/>
-      <c r="I176" s="33"/>
-      <c r="J176" s="34"/>
-      <c r="K176" s="17"/>
-      <c r="L176" s="18"/>
-      <c r="M176" s="16"/>
-      <c r="N176" s="18"/>
-      <c r="O176" s="17"/>
-    </row>
-    <row r="177" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A177" s="14"/>
-      <c r="B177" s="15"/>
-      <c r="C177" s="44"/>
-      <c r="D177" s="33"/>
-      <c r="E177" s="33"/>
-      <c r="F177" s="33"/>
-      <c r="G177" s="33"/>
-      <c r="H177" s="33"/>
-      <c r="I177" s="33"/>
-      <c r="J177" s="34"/>
-      <c r="K177" s="17"/>
-      <c r="L177" s="18"/>
-      <c r="M177" s="16"/>
-      <c r="N177" s="18"/>
-      <c r="O177" s="17"/>
-    </row>
-    <row r="178" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A178" s="14"/>
-      <c r="B178" s="15"/>
-      <c r="C178" s="44"/>
-      <c r="D178" s="33"/>
-      <c r="E178" s="33"/>
-      <c r="F178" s="33"/>
-      <c r="G178" s="33"/>
-      <c r="H178" s="33"/>
-      <c r="I178" s="33"/>
-      <c r="J178" s="34"/>
-      <c r="K178" s="17"/>
-      <c r="L178" s="18"/>
-      <c r="M178" s="16"/>
-      <c r="N178" s="18"/>
-      <c r="O178" s="17"/>
-    </row>
-    <row r="179" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A179" s="14"/>
-      <c r="B179" s="15"/>
-      <c r="C179" s="44"/>
-      <c r="D179" s="33"/>
-      <c r="E179" s="33"/>
-      <c r="F179" s="33"/>
-      <c r="G179" s="33"/>
-      <c r="H179" s="33"/>
-      <c r="I179" s="33"/>
-      <c r="J179" s="34"/>
-      <c r="K179" s="17"/>
-      <c r="L179" s="18"/>
-      <c r="M179" s="16"/>
-      <c r="N179" s="18"/>
-      <c r="O179" s="17"/>
-    </row>
-    <row r="180" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A180" s="14"/>
-      <c r="B180" s="15"/>
-      <c r="C180" s="44"/>
-      <c r="D180" s="33"/>
-      <c r="E180" s="33"/>
-      <c r="F180" s="33"/>
-      <c r="G180" s="33"/>
-      <c r="H180" s="33"/>
-      <c r="I180" s="33"/>
-      <c r="J180" s="34"/>
-      <c r="K180" s="17"/>
-      <c r="L180" s="18"/>
-      <c r="M180" s="16"/>
-      <c r="N180" s="18"/>
-      <c r="O180" s="17"/>
-    </row>
-    <row r="181" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A181" s="14"/>
-      <c r="B181" s="15"/>
-      <c r="C181" s="44"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
-      <c r="F181" s="33"/>
-      <c r="G181" s="33"/>
-      <c r="H181" s="33"/>
-      <c r="I181" s="33"/>
-      <c r="J181" s="34"/>
-      <c r="K181" s="17"/>
-      <c r="L181" s="18"/>
-      <c r="M181" s="16"/>
-      <c r="N181" s="18"/>
-      <c r="O181" s="17"/>
-    </row>
-    <row r="182" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A182" s="14"/>
-      <c r="B182" s="15"/>
-      <c r="C182" s="44"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="33"/>
-      <c r="F182" s="33"/>
-      <c r="G182" s="33"/>
-      <c r="H182" s="33"/>
-      <c r="I182" s="33"/>
-      <c r="J182" s="34"/>
-      <c r="K182" s="17"/>
-      <c r="L182" s="18"/>
-      <c r="M182" s="16"/>
-      <c r="N182" s="18"/>
-      <c r="O182" s="17"/>
-    </row>
-    <row r="183" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A183" s="14"/>
-      <c r="B183" s="15"/>
-      <c r="C183" s="44"/>
-      <c r="D183" s="33"/>
-      <c r="E183" s="33"/>
-      <c r="F183" s="33"/>
-      <c r="G183" s="33"/>
-      <c r="H183" s="33"/>
-      <c r="I183" s="33"/>
-      <c r="J183" s="34"/>
-      <c r="K183" s="17"/>
-      <c r="L183" s="18"/>
-      <c r="M183" s="16"/>
-      <c r="N183" s="18"/>
-      <c r="O183" s="17"/>
-    </row>
-    <row r="184" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A184" s="14"/>
-      <c r="B184" s="15"/>
-      <c r="C184" s="44"/>
-      <c r="D184" s="33"/>
-      <c r="E184" s="33"/>
-      <c r="F184" s="33"/>
-      <c r="G184" s="33"/>
-      <c r="H184" s="33"/>
-      <c r="I184" s="33"/>
-      <c r="J184" s="34"/>
-      <c r="K184" s="17"/>
-      <c r="L184" s="18"/>
-      <c r="M184" s="16"/>
-      <c r="N184" s="18"/>
-      <c r="O184" s="17"/>
-    </row>
-    <row r="185" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A185" s="14"/>
-      <c r="B185" s="15"/>
-      <c r="C185" s="44"/>
-      <c r="D185" s="33"/>
-      <c r="E185" s="33"/>
-      <c r="F185" s="33"/>
-      <c r="G185" s="33"/>
-      <c r="H185" s="33"/>
-      <c r="I185" s="33"/>
-      <c r="J185" s="34"/>
-      <c r="K185" s="17"/>
-      <c r="L185" s="18"/>
-      <c r="M185" s="16"/>
-      <c r="N185" s="18"/>
-      <c r="O185" s="17"/>
-    </row>
-    <row r="186" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A186" s="14"/>
-      <c r="B186" s="15"/>
-      <c r="C186" s="44"/>
-      <c r="D186" s="33"/>
-      <c r="E186" s="33"/>
-      <c r="F186" s="33"/>
-      <c r="G186" s="33"/>
-      <c r="H186" s="33"/>
-      <c r="I186" s="33"/>
-      <c r="J186" s="34"/>
-      <c r="K186" s="17"/>
-      <c r="L186" s="18"/>
-      <c r="M186" s="16"/>
-      <c r="N186" s="18"/>
-      <c r="O186" s="17"/>
-    </row>
-    <row r="187" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A187" s="14"/>
-      <c r="B187" s="15"/>
-      <c r="C187" s="44"/>
-      <c r="D187" s="33"/>
-      <c r="E187" s="33"/>
-      <c r="F187" s="33"/>
-      <c r="G187" s="33"/>
-      <c r="H187" s="33"/>
-      <c r="I187" s="33"/>
-      <c r="J187" s="34"/>
-      <c r="K187" s="17"/>
-      <c r="L187" s="18"/>
-      <c r="M187" s="16"/>
-      <c r="N187" s="18"/>
-      <c r="O187" s="17"/>
-    </row>
-    <row r="188" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A188" s="14"/>
-      <c r="B188" s="15"/>
-      <c r="C188" s="44"/>
-      <c r="D188" s="33"/>
-      <c r="E188" s="33"/>
-      <c r="F188" s="33"/>
-      <c r="G188" s="33"/>
-      <c r="H188" s="33"/>
-      <c r="I188" s="33"/>
-      <c r="J188" s="34"/>
-      <c r="K188" s="17"/>
-      <c r="L188" s="18"/>
-      <c r="M188" s="16"/>
-      <c r="N188" s="18"/>
-      <c r="O188" s="17"/>
-    </row>
-    <row r="189" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A189" s="14"/>
-      <c r="B189" s="15"/>
-      <c r="C189" s="44"/>
-      <c r="D189" s="33"/>
-      <c r="E189" s="33"/>
-      <c r="F189" s="33"/>
-      <c r="G189" s="33"/>
-      <c r="H189" s="33"/>
-      <c r="I189" s="33"/>
-      <c r="J189" s="34"/>
-      <c r="K189" s="17"/>
-      <c r="L189" s="18"/>
-      <c r="M189" s="16"/>
-      <c r="N189" s="18"/>
-      <c r="O189" s="17"/>
-    </row>
-    <row r="190" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A190" s="14"/>
-      <c r="B190" s="15"/>
-      <c r="C190" s="44"/>
-      <c r="D190" s="33"/>
-      <c r="E190" s="33"/>
-      <c r="F190" s="33"/>
-      <c r="G190" s="33"/>
-      <c r="H190" s="33"/>
-      <c r="I190" s="33"/>
-      <c r="J190" s="34"/>
-      <c r="K190" s="17"/>
-      <c r="L190" s="18"/>
-      <c r="M190" s="16"/>
-      <c r="N190" s="18"/>
-      <c r="O190" s="17"/>
-    </row>
-    <row r="191" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A191" s="14"/>
-      <c r="B191" s="15"/>
-      <c r="C191" s="44"/>
-      <c r="D191" s="33"/>
-      <c r="E191" s="33"/>
-      <c r="F191" s="33"/>
-      <c r="G191" s="33"/>
-      <c r="H191" s="33"/>
-      <c r="I191" s="33"/>
-      <c r="J191" s="34"/>
-      <c r="K191" s="17"/>
-      <c r="L191" s="18"/>
-      <c r="M191" s="16"/>
-      <c r="N191" s="18"/>
-      <c r="O191" s="17"/>
-    </row>
-    <row r="192" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A192" s="14"/>
-      <c r="B192" s="15"/>
-      <c r="C192" s="44"/>
-      <c r="D192" s="33"/>
-      <c r="E192" s="33"/>
-      <c r="F192" s="33"/>
-      <c r="G192" s="33"/>
-      <c r="H192" s="33"/>
-      <c r="I192" s="33"/>
-      <c r="J192" s="34"/>
-      <c r="K192" s="17"/>
-      <c r="L192" s="18"/>
-      <c r="M192" s="16"/>
-      <c r="N192" s="18"/>
-      <c r="O192" s="17"/>
-    </row>
-    <row r="193" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A193" s="14"/>
-      <c r="B193" s="15"/>
-      <c r="C193" s="44"/>
-      <c r="D193" s="33"/>
-      <c r="E193" s="33"/>
-      <c r="F193" s="33"/>
-      <c r="G193" s="33"/>
-      <c r="H193" s="33"/>
-      <c r="I193" s="33"/>
-      <c r="J193" s="34"/>
-      <c r="K193" s="17"/>
-      <c r="L193" s="18"/>
-      <c r="M193" s="16"/>
-      <c r="N193" s="18"/>
-      <c r="O193" s="17"/>
-    </row>
-    <row r="194" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A194" s="14"/>
-      <c r="B194" s="15"/>
-      <c r="C194" s="44"/>
-      <c r="D194" s="33"/>
-      <c r="E194" s="33"/>
-      <c r="F194" s="33"/>
-      <c r="G194" s="33"/>
-      <c r="H194" s="33"/>
-      <c r="I194" s="33"/>
-      <c r="J194" s="34"/>
-      <c r="K194" s="17"/>
-      <c r="L194" s="18"/>
-      <c r="M194" s="16"/>
-      <c r="N194" s="18"/>
-      <c r="O194" s="17"/>
-    </row>
-    <row r="195" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A195" s="14"/>
-      <c r="B195" s="15"/>
-      <c r="C195" s="44"/>
-      <c r="D195" s="33"/>
-      <c r="E195" s="33"/>
-      <c r="F195" s="33"/>
-      <c r="G195" s="33"/>
-      <c r="H195" s="33"/>
-      <c r="I195" s="33"/>
-      <c r="J195" s="34"/>
-      <c r="K195" s="17"/>
-      <c r="L195" s="18"/>
-      <c r="M195" s="16"/>
-      <c r="N195" s="18"/>
-      <c r="O195" s="17"/>
-    </row>
-    <row r="196" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A196" s="14"/>
-      <c r="B196" s="15"/>
-      <c r="C196" s="44"/>
-      <c r="D196" s="33"/>
-      <c r="E196" s="33"/>
-      <c r="F196" s="33"/>
-      <c r="G196" s="33"/>
-      <c r="H196" s="33"/>
-      <c r="I196" s="33"/>
-      <c r="J196" s="34"/>
-      <c r="K196" s="17"/>
-      <c r="L196" s="18"/>
-      <c r="M196" s="16"/>
-      <c r="N196" s="18"/>
-      <c r="O196" s="17"/>
-    </row>
-    <row r="197" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A197" s="14"/>
-      <c r="B197" s="15"/>
-      <c r="C197" s="44"/>
-      <c r="D197" s="33"/>
-      <c r="E197" s="33"/>
-      <c r="F197" s="33"/>
-      <c r="G197" s="33"/>
-      <c r="H197" s="33"/>
-      <c r="I197" s="33"/>
-      <c r="J197" s="34"/>
-      <c r="K197" s="17"/>
-      <c r="L197" s="18"/>
-      <c r="M197" s="16"/>
-      <c r="N197" s="18"/>
-      <c r="O197" s="17"/>
-    </row>
-    <row r="198" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A198" s="14"/>
-      <c r="B198" s="15"/>
-      <c r="C198" s="44"/>
-      <c r="D198" s="33"/>
-      <c r="E198" s="33"/>
-      <c r="F198" s="33"/>
-      <c r="G198" s="33"/>
-      <c r="H198" s="33"/>
-      <c r="I198" s="33"/>
-      <c r="J198" s="34"/>
-      <c r="K198" s="17"/>
-      <c r="L198" s="18"/>
-      <c r="M198" s="16"/>
-      <c r="N198" s="18"/>
-      <c r="O198" s="17"/>
-    </row>
-    <row r="199" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A199" s="14"/>
-      <c r="B199" s="15"/>
-      <c r="C199" s="44"/>
-      <c r="D199" s="33"/>
-      <c r="E199" s="33"/>
-      <c r="F199" s="33"/>
-      <c r="G199" s="33"/>
-      <c r="H199" s="33"/>
-      <c r="I199" s="33"/>
-      <c r="J199" s="34"/>
-      <c r="K199" s="17"/>
-      <c r="L199" s="18"/>
-      <c r="M199" s="16"/>
-      <c r="N199" s="18"/>
-      <c r="O199" s="17"/>
-    </row>
-    <row r="200" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A200" s="14"/>
-      <c r="B200" s="15"/>
-      <c r="C200" s="44"/>
-      <c r="D200" s="33"/>
-      <c r="E200" s="33"/>
-      <c r="F200" s="33"/>
-      <c r="G200" s="33"/>
-      <c r="H200" s="33"/>
-      <c r="I200" s="33"/>
-      <c r="J200" s="34"/>
-      <c r="K200" s="17"/>
-      <c r="L200" s="18"/>
-      <c r="M200" s="16"/>
-      <c r="N200" s="18"/>
-      <c r="O200" s="17"/>
-    </row>
-    <row r="201" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A201" s="14"/>
-      <c r="B201" s="15"/>
-      <c r="C201" s="44"/>
-      <c r="D201" s="33"/>
-      <c r="E201" s="33"/>
-      <c r="F201" s="33"/>
-      <c r="G201" s="33"/>
-      <c r="H201" s="33"/>
-      <c r="I201" s="33"/>
-      <c r="J201" s="34"/>
-      <c r="K201" s="17"/>
-      <c r="L201" s="18"/>
-      <c r="M201" s="16"/>
-      <c r="N201" s="18"/>
-      <c r="O201" s="17"/>
-    </row>
-    <row r="202" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A202" s="14"/>
-      <c r="B202" s="15"/>
-      <c r="C202" s="44"/>
-      <c r="D202" s="33"/>
-      <c r="E202" s="33"/>
-      <c r="F202" s="33"/>
-      <c r="G202" s="33"/>
-      <c r="H202" s="33"/>
-      <c r="I202" s="33"/>
-      <c r="J202" s="34"/>
-      <c r="K202" s="17"/>
-      <c r="L202" s="18"/>
-      <c r="M202" s="16"/>
-      <c r="N202" s="18"/>
-      <c r="O202" s="17"/>
-    </row>
-    <row r="203" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A203" s="14"/>
-      <c r="B203" s="15"/>
-      <c r="C203" s="44"/>
-      <c r="D203" s="33"/>
-      <c r="E203" s="33"/>
-      <c r="F203" s="33"/>
-      <c r="G203" s="33"/>
-      <c r="H203" s="33"/>
-      <c r="I203" s="33"/>
-      <c r="J203" s="34"/>
-      <c r="K203" s="17"/>
-      <c r="L203" s="18"/>
-      <c r="M203" s="16"/>
-      <c r="N203" s="18"/>
-      <c r="O203" s="17"/>
-    </row>
-    <row r="204" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A204" s="14"/>
-      <c r="B204" s="15"/>
-      <c r="C204" s="44"/>
-      <c r="D204" s="33"/>
-      <c r="E204" s="33"/>
-      <c r="F204" s="33"/>
-      <c r="G204" s="33"/>
-      <c r="H204" s="33"/>
-      <c r="I204" s="33"/>
-      <c r="J204" s="34"/>
-      <c r="K204" s="17"/>
-      <c r="L204" s="18"/>
-      <c r="M204" s="16"/>
-      <c r="N204" s="18"/>
-      <c r="O204" s="17"/>
-    </row>
-    <row r="205" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A205" s="14"/>
-      <c r="B205" s="15"/>
-      <c r="C205" s="44"/>
-      <c r="D205" s="33"/>
-      <c r="E205" s="33"/>
-      <c r="F205" s="33"/>
-      <c r="G205" s="33"/>
-      <c r="H205" s="33"/>
-      <c r="I205" s="33"/>
-      <c r="J205" s="34"/>
-      <c r="K205" s="17"/>
-      <c r="L205" s="18"/>
-      <c r="M205" s="16"/>
-      <c r="N205" s="18"/>
-      <c r="O205" s="17"/>
-    </row>
-    <row r="206" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A206" s="14"/>
-      <c r="B206" s="15"/>
-      <c r="C206" s="44"/>
-      <c r="D206" s="33"/>
-      <c r="E206" s="33"/>
-      <c r="F206" s="33"/>
-      <c r="G206" s="33"/>
-      <c r="H206" s="33"/>
-      <c r="I206" s="33"/>
-      <c r="J206" s="34"/>
-      <c r="K206" s="17"/>
-      <c r="L206" s="18"/>
-      <c r="M206" s="16"/>
-      <c r="N206" s="18"/>
-      <c r="O206" s="17"/>
-    </row>
-    <row r="207" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A207" s="14"/>
-      <c r="B207" s="15"/>
-      <c r="C207" s="44"/>
-      <c r="D207" s="33"/>
-      <c r="E207" s="33"/>
-      <c r="F207" s="33"/>
-      <c r="G207" s="33"/>
-      <c r="H207" s="33"/>
-      <c r="I207" s="33"/>
-      <c r="J207" s="34"/>
-      <c r="K207" s="17"/>
-      <c r="L207" s="18"/>
-      <c r="M207" s="16"/>
-      <c r="N207" s="18"/>
-      <c r="O207" s="17"/>
-    </row>
-    <row r="208" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A208" s="14"/>
-      <c r="B208" s="15"/>
-      <c r="C208" s="44"/>
-      <c r="D208" s="33"/>
-      <c r="E208" s="33"/>
-      <c r="F208" s="33"/>
-      <c r="G208" s="33"/>
-      <c r="H208" s="33"/>
-      <c r="I208" s="33"/>
-      <c r="J208" s="34"/>
-      <c r="K208" s="17"/>
-      <c r="L208" s="18"/>
-      <c r="M208" s="16"/>
-      <c r="N208" s="18"/>
-      <c r="O208" s="17"/>
-    </row>
-    <row r="209" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A209" s="14"/>
-      <c r="B209" s="15"/>
-      <c r="C209" s="44"/>
-      <c r="D209" s="33"/>
-      <c r="E209" s="33"/>
-      <c r="F209" s="33"/>
-      <c r="G209" s="33"/>
-      <c r="H209" s="33"/>
-      <c r="I209" s="33"/>
-      <c r="J209" s="34"/>
-      <c r="K209" s="17"/>
-      <c r="L209" s="18"/>
-      <c r="M209" s="16"/>
-      <c r="N209" s="18"/>
-      <c r="O209" s="17"/>
-    </row>
-    <row r="210" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A210" s="14"/>
-      <c r="B210" s="15"/>
-      <c r="C210" s="44"/>
-      <c r="D210" s="33"/>
-      <c r="E210" s="33"/>
-      <c r="F210" s="33"/>
-      <c r="G210" s="33"/>
-      <c r="H210" s="33"/>
-      <c r="I210" s="33"/>
-      <c r="J210" s="34"/>
-      <c r="K210" s="17"/>
-      <c r="L210" s="18"/>
-      <c r="M210" s="16"/>
-      <c r="N210" s="18"/>
-      <c r="O210" s="17"/>
-    </row>
-    <row r="211" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A211" s="14"/>
-      <c r="B211" s="15"/>
-      <c r="C211" s="44"/>
-      <c r="D211" s="33"/>
-      <c r="E211" s="33"/>
-      <c r="F211" s="33"/>
-      <c r="G211" s="33"/>
-      <c r="H211" s="33"/>
-      <c r="I211" s="33"/>
-      <c r="J211" s="34"/>
-      <c r="K211" s="17"/>
-      <c r="L211" s="18"/>
-      <c r="M211" s="16"/>
-      <c r="N211" s="18"/>
-      <c r="O211" s="17"/>
-    </row>
-    <row r="212" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A212" s="14"/>
-      <c r="B212" s="15"/>
-      <c r="C212" s="44"/>
-      <c r="D212" s="33"/>
-      <c r="E212" s="33"/>
-      <c r="F212" s="33"/>
-      <c r="G212" s="33"/>
-      <c r="H212" s="33"/>
-      <c r="I212" s="33"/>
-      <c r="J212" s="34"/>
-      <c r="K212" s="17"/>
-      <c r="L212" s="18"/>
-      <c r="M212" s="16"/>
-      <c r="N212" s="18"/>
-      <c r="O212" s="17"/>
-    </row>
-    <row r="213" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A213" s="14"/>
-      <c r="B213" s="15"/>
-      <c r="C213" s="44"/>
-      <c r="D213" s="33"/>
-      <c r="E213" s="33"/>
-      <c r="F213" s="33"/>
-      <c r="G213" s="33"/>
-      <c r="H213" s="33"/>
-      <c r="I213" s="33"/>
-      <c r="J213" s="34"/>
-      <c r="K213" s="17"/>
-      <c r="L213" s="18"/>
-      <c r="M213" s="16"/>
-      <c r="N213" s="18"/>
-      <c r="O213" s="17"/>
-    </row>
-    <row r="214" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A214" s="14"/>
-      <c r="B214" s="15"/>
-      <c r="C214" s="44"/>
-      <c r="D214" s="33"/>
-      <c r="E214" s="33"/>
-      <c r="F214" s="33"/>
-      <c r="G214" s="33"/>
-      <c r="H214" s="33"/>
-      <c r="I214" s="33"/>
-      <c r="J214" s="34"/>
-      <c r="K214" s="17"/>
-      <c r="L214" s="18"/>
-      <c r="M214" s="16"/>
-      <c r="N214" s="18"/>
-      <c r="O214" s="17"/>
-    </row>
-    <row r="215" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A215" s="14"/>
-      <c r="B215" s="15"/>
-      <c r="C215" s="44"/>
-      <c r="D215" s="33"/>
-      <c r="E215" s="33"/>
-      <c r="F215" s="33"/>
-      <c r="G215" s="33"/>
-      <c r="H215" s="33"/>
-      <c r="I215" s="33"/>
-      <c r="J215" s="34"/>
-      <c r="K215" s="17"/>
-      <c r="L215" s="18"/>
-      <c r="M215" s="16"/>
-      <c r="N215" s="18"/>
-      <c r="O215" s="17"/>
-    </row>
-    <row r="216" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A216" s="14"/>
-      <c r="B216" s="15"/>
-      <c r="C216" s="44"/>
-      <c r="D216" s="33"/>
-      <c r="E216" s="33"/>
-      <c r="F216" s="33"/>
-      <c r="G216" s="33"/>
-      <c r="H216" s="33"/>
-      <c r="I216" s="33"/>
-      <c r="J216" s="34"/>
-      <c r="K216" s="17"/>
-      <c r="L216" s="18"/>
-      <c r="M216" s="16"/>
-      <c r="N216" s="18"/>
-      <c r="O216" s="17"/>
-    </row>
-    <row r="217" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A217" s="14"/>
-      <c r="B217" s="15"/>
-      <c r="C217" s="44"/>
-      <c r="D217" s="33"/>
-      <c r="E217" s="33"/>
-      <c r="F217" s="33"/>
-      <c r="G217" s="33"/>
-      <c r="H217" s="33"/>
-      <c r="I217" s="33"/>
-      <c r="J217" s="34"/>
-      <c r="K217" s="17"/>
-      <c r="L217" s="18"/>
-      <c r="M217" s="16"/>
-      <c r="N217" s="18"/>
-      <c r="O217" s="17"/>
-    </row>
-    <row r="218" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A218" s="14"/>
-      <c r="B218" s="15"/>
-      <c r="C218" s="44"/>
-      <c r="D218" s="33"/>
-      <c r="E218" s="33"/>
-      <c r="F218" s="33"/>
-      <c r="G218" s="33"/>
-      <c r="H218" s="33"/>
-      <c r="I218" s="33"/>
-      <c r="J218" s="34"/>
-      <c r="K218" s="17"/>
-      <c r="L218" s="18"/>
-      <c r="M218" s="16"/>
-      <c r="N218" s="18"/>
-      <c r="O218" s="17"/>
-    </row>
-    <row r="219" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A219" s="14"/>
-      <c r="B219" s="15"/>
-      <c r="C219" s="44"/>
-      <c r="D219" s="33"/>
-      <c r="E219" s="33"/>
-      <c r="F219" s="33"/>
-      <c r="G219" s="33"/>
-      <c r="H219" s="33"/>
-      <c r="I219" s="33"/>
-      <c r="J219" s="34"/>
-      <c r="K219" s="17"/>
-      <c r="L219" s="18"/>
-      <c r="M219" s="16"/>
-      <c r="N219" s="18"/>
-      <c r="O219" s="17"/>
-    </row>
-    <row r="220" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A220" s="14"/>
-      <c r="B220" s="15"/>
-      <c r="C220" s="44"/>
-      <c r="D220" s="33"/>
-      <c r="E220" s="33"/>
-      <c r="F220" s="33"/>
-      <c r="G220" s="33"/>
-      <c r="H220" s="33"/>
-      <c r="I220" s="33"/>
-      <c r="J220" s="34"/>
-      <c r="K220" s="17"/>
-      <c r="L220" s="18"/>
-      <c r="M220" s="16"/>
-      <c r="N220" s="18"/>
-      <c r="O220" s="17"/>
-    </row>
-    <row r="221" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A221" s="14"/>
-      <c r="B221" s="15"/>
-      <c r="C221" s="44"/>
-      <c r="D221" s="33"/>
-      <c r="E221" s="33"/>
-      <c r="F221" s="33"/>
-      <c r="G221" s="33"/>
-      <c r="H221" s="33"/>
-      <c r="I221" s="33"/>
-      <c r="J221" s="34"/>
-      <c r="K221" s="17"/>
-      <c r="L221" s="18"/>
-      <c r="M221" s="16"/>
-      <c r="N221" s="18"/>
-      <c r="O221" s="17"/>
-    </row>
-    <row r="222" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A222" s="14"/>
-      <c r="B222" s="15"/>
-      <c r="C222" s="44"/>
-      <c r="D222" s="33"/>
-      <c r="E222" s="33"/>
-      <c r="F222" s="33"/>
-      <c r="G222" s="33"/>
-      <c r="H222" s="33"/>
-      <c r="I222" s="33"/>
-      <c r="J222" s="34"/>
-      <c r="K222" s="17"/>
-      <c r="L222" s="18"/>
-      <c r="M222" s="16"/>
-      <c r="N222" s="18"/>
-      <c r="O222" s="17"/>
-    </row>
-    <row r="223" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A223" s="14"/>
-      <c r="B223" s="15"/>
-      <c r="C223" s="44"/>
-      <c r="D223" s="33"/>
-      <c r="E223" s="33"/>
-      <c r="F223" s="33"/>
-      <c r="G223" s="33"/>
-      <c r="H223" s="33"/>
-      <c r="I223" s="33"/>
-      <c r="J223" s="34"/>
-      <c r="K223" s="17"/>
-      <c r="L223" s="18"/>
-      <c r="M223" s="16"/>
-      <c r="N223" s="18"/>
-      <c r="O223" s="17"/>
-    </row>
-    <row r="224" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A224" s="14"/>
-      <c r="B224" s="15"/>
-      <c r="C224" s="44"/>
-      <c r="D224" s="33"/>
-      <c r="E224" s="33"/>
-      <c r="F224" s="33"/>
-      <c r="G224" s="33"/>
-      <c r="H224" s="33"/>
-      <c r="I224" s="33"/>
-      <c r="J224" s="34"/>
-      <c r="K224" s="17"/>
-      <c r="L224" s="18"/>
-      <c r="M224" s="16"/>
-      <c r="N224" s="18"/>
-      <c r="O224" s="17"/>
-    </row>
-    <row r="225" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A225" s="14"/>
-      <c r="B225" s="15"/>
-      <c r="C225" s="44"/>
-      <c r="D225" s="33"/>
-      <c r="E225" s="33"/>
-      <c r="F225" s="33"/>
-      <c r="G225" s="33"/>
-      <c r="H225" s="33"/>
-      <c r="I225" s="33"/>
-      <c r="J225" s="34"/>
-      <c r="K225" s="17"/>
-      <c r="L225" s="18"/>
-      <c r="M225" s="16"/>
-      <c r="N225" s="18"/>
-      <c r="O225" s="17"/>
-    </row>
-    <row r="226" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A226" s="14"/>
-      <c r="B226" s="15"/>
-      <c r="C226" s="44"/>
-      <c r="D226" s="33"/>
-      <c r="E226" s="33"/>
-      <c r="F226" s="33"/>
-      <c r="G226" s="33"/>
-      <c r="H226" s="33"/>
-      <c r="I226" s="33"/>
-      <c r="J226" s="34"/>
-      <c r="K226" s="17"/>
-      <c r="L226" s="18"/>
-      <c r="M226" s="16"/>
-      <c r="N226" s="18"/>
-      <c r="O226" s="17"/>
-    </row>
-    <row r="227" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A227" s="14"/>
-      <c r="B227" s="15"/>
-      <c r="C227" s="44"/>
-      <c r="D227" s="33"/>
-      <c r="E227" s="33"/>
-      <c r="F227" s="33"/>
-      <c r="G227" s="33"/>
-      <c r="H227" s="33"/>
-      <c r="I227" s="33"/>
-      <c r="J227" s="34"/>
-      <c r="K227" s="17"/>
-      <c r="L227" s="18"/>
-      <c r="M227" s="16"/>
-      <c r="N227" s="18"/>
-      <c r="O227" s="17"/>
-    </row>
-    <row r="228" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A228" s="14"/>
-      <c r="B228" s="15"/>
-      <c r="C228" s="44"/>
-      <c r="D228" s="33"/>
-      <c r="E228" s="33"/>
-      <c r="F228" s="33"/>
-      <c r="G228" s="33"/>
-      <c r="H228" s="33"/>
-      <c r="I228" s="33"/>
-      <c r="J228" s="34"/>
-      <c r="K228" s="17"/>
-      <c r="L228" s="18"/>
-      <c r="M228" s="16"/>
-      <c r="N228" s="18"/>
-      <c r="O228" s="17"/>
-    </row>
-    <row r="229" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A229" s="14"/>
-      <c r="B229" s="15"/>
-      <c r="C229" s="44"/>
-      <c r="D229" s="33"/>
-      <c r="E229" s="33"/>
-      <c r="F229" s="33"/>
-      <c r="G229" s="33"/>
-      <c r="H229" s="33"/>
-      <c r="I229" s="33"/>
-      <c r="J229" s="34"/>
-      <c r="K229" s="17"/>
-      <c r="L229" s="18"/>
-      <c r="M229" s="16"/>
-      <c r="N229" s="18"/>
-      <c r="O229" s="17"/>
-    </row>
-    <row r="230" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A230" s="14"/>
-      <c r="B230" s="15"/>
-      <c r="C230" s="44"/>
-      <c r="D230" s="33"/>
-      <c r="E230" s="33"/>
-      <c r="F230" s="33"/>
-      <c r="G230" s="33"/>
-      <c r="H230" s="33"/>
-      <c r="I230" s="33"/>
-      <c r="J230" s="34"/>
-      <c r="K230" s="17"/>
-      <c r="L230" s="18"/>
-      <c r="M230" s="16"/>
-      <c r="N230" s="18"/>
-      <c r="O230" s="17"/>
-    </row>
-    <row r="231" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A231" s="14"/>
-      <c r="B231" s="15"/>
-      <c r="C231" s="44"/>
-      <c r="D231" s="33"/>
-      <c r="E231" s="33"/>
-      <c r="F231" s="33"/>
-      <c r="G231" s="33"/>
-      <c r="H231" s="33"/>
-      <c r="I231" s="33"/>
-      <c r="J231" s="34"/>
-      <c r="K231" s="17"/>
-      <c r="L231" s="18"/>
-      <c r="M231" s="16"/>
-      <c r="N231" s="18"/>
-      <c r="O231" s="17"/>
-    </row>
-    <row r="232" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A232" s="14"/>
-      <c r="B232" s="15"/>
-      <c r="C232" s="44"/>
-      <c r="D232" s="33"/>
-      <c r="E232" s="33"/>
-      <c r="F232" s="33"/>
-      <c r="G232" s="33"/>
-      <c r="H232" s="33"/>
-      <c r="I232" s="33"/>
-      <c r="J232" s="34"/>
-      <c r="K232" s="17"/>
-      <c r="L232" s="18"/>
-      <c r="M232" s="16"/>
-      <c r="N232" s="18"/>
-      <c r="O232" s="17"/>
-    </row>
-    <row r="233" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A233" s="14"/>
-      <c r="B233" s="15"/>
-      <c r="C233" s="44"/>
-      <c r="D233" s="33"/>
-      <c r="E233" s="33"/>
-      <c r="F233" s="33"/>
-      <c r="G233" s="33"/>
-      <c r="H233" s="33"/>
-      <c r="I233" s="33"/>
-      <c r="J233" s="34"/>
-      <c r="K233" s="17"/>
-      <c r="L233" s="18"/>
-      <c r="M233" s="16"/>
-      <c r="N233" s="18"/>
-      <c r="O233" s="17"/>
-    </row>
-    <row r="234" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A234" s="14"/>
-      <c r="B234" s="15"/>
-      <c r="C234" s="44"/>
-      <c r="D234" s="33"/>
-      <c r="E234" s="33"/>
-      <c r="F234" s="33"/>
-      <c r="G234" s="33"/>
-      <c r="H234" s="33"/>
-      <c r="I234" s="33"/>
-      <c r="J234" s="34"/>
-      <c r="K234" s="17"/>
-      <c r="L234" s="18"/>
-      <c r="M234" s="16"/>
-      <c r="N234" s="18"/>
-      <c r="O234" s="17"/>
-    </row>
-    <row r="235" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A235" s="14"/>
-      <c r="B235" s="15"/>
-      <c r="C235" s="44"/>
-      <c r="D235" s="33"/>
-      <c r="E235" s="33"/>
-      <c r="F235" s="33"/>
-      <c r="G235" s="33"/>
-      <c r="H235" s="33"/>
-      <c r="I235" s="33"/>
-      <c r="J235" s="34"/>
-      <c r="K235" s="17"/>
-      <c r="L235" s="18"/>
-      <c r="M235" s="16"/>
-      <c r="N235" s="18"/>
-      <c r="O235" s="17"/>
-    </row>
-    <row r="236" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A236" s="14"/>
-      <c r="B236" s="15"/>
-      <c r="C236" s="44"/>
-      <c r="D236" s="33"/>
-      <c r="E236" s="33"/>
-      <c r="F236" s="33"/>
-      <c r="G236" s="33"/>
-      <c r="H236" s="33"/>
-      <c r="I236" s="33"/>
-      <c r="J236" s="34"/>
-      <c r="K236" s="17"/>
-      <c r="L236" s="18"/>
-      <c r="M236" s="16"/>
-      <c r="N236" s="18"/>
-      <c r="O236" s="17"/>
-    </row>
-    <row r="237" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A237" s="14"/>
-      <c r="B237" s="15"/>
-      <c r="C237" s="44"/>
-      <c r="D237" s="33"/>
-      <c r="E237" s="33"/>
-      <c r="F237" s="33"/>
-      <c r="G237" s="33"/>
-      <c r="H237" s="33"/>
-      <c r="I237" s="33"/>
-      <c r="J237" s="34"/>
-      <c r="K237" s="17"/>
-      <c r="L237" s="18"/>
-      <c r="M237" s="16"/>
-      <c r="N237" s="18"/>
-      <c r="O237" s="17"/>
-    </row>
-    <row r="238" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A238" s="14"/>
-      <c r="B238" s="15"/>
-      <c r="C238" s="44"/>
-      <c r="D238" s="33"/>
-      <c r="E238" s="33"/>
-      <c r="F238" s="33"/>
-      <c r="G238" s="33"/>
-      <c r="H238" s="33"/>
-      <c r="I238" s="33"/>
-      <c r="J238" s="34"/>
-      <c r="K238" s="17"/>
-      <c r="L238" s="18"/>
-      <c r="M238" s="16"/>
-      <c r="N238" s="18"/>
-      <c r="O238" s="17"/>
-    </row>
-    <row r="239" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A239" s="14"/>
-      <c r="B239" s="15"/>
-      <c r="C239" s="44"/>
-      <c r="D239" s="33"/>
-      <c r="E239" s="33"/>
-      <c r="F239" s="33"/>
-      <c r="G239" s="33"/>
-      <c r="H239" s="33"/>
-      <c r="I239" s="33"/>
-      <c r="J239" s="34"/>
-      <c r="K239" s="17"/>
-      <c r="L239" s="18"/>
-      <c r="M239" s="16"/>
-      <c r="N239" s="18"/>
-      <c r="O239" s="17"/>
-    </row>
-    <row r="240" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A240" s="14"/>
-      <c r="B240" s="15"/>
-      <c r="C240" s="44"/>
-      <c r="D240" s="33"/>
-      <c r="E240" s="33"/>
-      <c r="F240" s="33"/>
-      <c r="G240" s="33"/>
-      <c r="H240" s="33"/>
-      <c r="I240" s="33"/>
-      <c r="J240" s="34"/>
-      <c r="K240" s="17"/>
-      <c r="L240" s="18"/>
-      <c r="M240" s="16"/>
-      <c r="N240" s="18"/>
-      <c r="O240" s="17"/>
-    </row>
-    <row r="241" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A241" s="14"/>
-      <c r="B241" s="15"/>
-      <c r="C241" s="44"/>
-      <c r="D241" s="33"/>
-      <c r="E241" s="33"/>
-      <c r="F241" s="33"/>
-      <c r="G241" s="33"/>
-      <c r="H241" s="33"/>
-      <c r="I241" s="33"/>
-      <c r="J241" s="34"/>
-      <c r="K241" s="17"/>
-      <c r="L241" s="18"/>
-      <c r="M241" s="16"/>
-      <c r="N241" s="18"/>
-      <c r="O241" s="17"/>
-    </row>
-    <row r="242" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A242" s="14"/>
-      <c r="B242" s="15"/>
-      <c r="C242" s="44"/>
-      <c r="D242" s="33"/>
-      <c r="E242" s="33"/>
-      <c r="F242" s="33"/>
-      <c r="G242" s="33"/>
-      <c r="H242" s="33"/>
-      <c r="I242" s="33"/>
-      <c r="J242" s="34"/>
-      <c r="K242" s="17"/>
-      <c r="L242" s="18"/>
-      <c r="M242" s="16"/>
-      <c r="N242" s="18"/>
-      <c r="O242" s="17"/>
-    </row>
-    <row r="243" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A243" s="14"/>
-      <c r="B243" s="15"/>
-      <c r="C243" s="44"/>
-      <c r="D243" s="33"/>
-      <c r="E243" s="33"/>
-      <c r="F243" s="33"/>
-      <c r="G243" s="33"/>
-      <c r="H243" s="33"/>
-      <c r="I243" s="33"/>
-      <c r="J243" s="34"/>
-      <c r="K243" s="17"/>
-      <c r="L243" s="18"/>
-      <c r="M243" s="16"/>
-      <c r="N243" s="18"/>
-      <c r="O243" s="17"/>
-    </row>
-    <row r="244" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A244" s="14"/>
-      <c r="B244" s="15"/>
-      <c r="C244" s="44"/>
-      <c r="D244" s="33"/>
-      <c r="E244" s="33"/>
-      <c r="F244" s="33"/>
-      <c r="G244" s="33"/>
-      <c r="H244" s="33"/>
-      <c r="I244" s="33"/>
-      <c r="J244" s="34"/>
-      <c r="K244" s="17"/>
-      <c r="L244" s="18"/>
-      <c r="M244" s="16"/>
-      <c r="N244" s="18"/>
-      <c r="O244" s="17"/>
-    </row>
-    <row r="245" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A245" s="14"/>
-      <c r="B245" s="15"/>
-      <c r="C245" s="44"/>
-      <c r="D245" s="33"/>
-      <c r="E245" s="33"/>
-      <c r="F245" s="33"/>
-      <c r="G245" s="33"/>
-      <c r="H245" s="33"/>
-      <c r="I245" s="33"/>
-      <c r="J245" s="34"/>
-      <c r="K245" s="17"/>
-      <c r="L245" s="18"/>
-      <c r="M245" s="16"/>
-      <c r="N245" s="18"/>
-      <c r="O245" s="17"/>
-    </row>
-    <row r="246" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A246" s="14"/>
-      <c r="B246" s="15"/>
-      <c r="C246" s="44"/>
-      <c r="D246" s="33"/>
-      <c r="E246" s="33"/>
-      <c r="F246" s="33"/>
-      <c r="G246" s="33"/>
-      <c r="H246" s="33"/>
-      <c r="I246" s="33"/>
-      <c r="J246" s="34"/>
-      <c r="K246" s="17"/>
-      <c r="L246" s="18"/>
-      <c r="M246" s="16"/>
-      <c r="N246" s="18"/>
-      <c r="O246" s="17"/>
-    </row>
-    <row r="247" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A247" s="14"/>
-      <c r="B247" s="15"/>
-      <c r="C247" s="44"/>
-      <c r="D247" s="33"/>
-      <c r="E247" s="33"/>
-      <c r="F247" s="33"/>
-      <c r="G247" s="33"/>
-      <c r="H247" s="33"/>
-      <c r="I247" s="33"/>
-      <c r="J247" s="34"/>
-      <c r="K247" s="17"/>
-      <c r="L247" s="18"/>
-      <c r="M247" s="16"/>
-      <c r="N247" s="18"/>
-      <c r="O247" s="17"/>
-    </row>
-    <row r="248" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A248" s="14"/>
-      <c r="B248" s="15"/>
-      <c r="C248" s="44"/>
-      <c r="D248" s="33"/>
-      <c r="E248" s="33"/>
-      <c r="F248" s="33"/>
-      <c r="G248" s="33"/>
-      <c r="H248" s="33"/>
-      <c r="I248" s="33"/>
-      <c r="J248" s="34"/>
-      <c r="K248" s="17"/>
-      <c r="L248" s="18"/>
-      <c r="M248" s="16"/>
-      <c r="N248" s="18"/>
-      <c r="O248" s="17"/>
-    </row>
-    <row r="249" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A249" s="14"/>
-      <c r="B249" s="15"/>
-      <c r="C249" s="44"/>
-      <c r="D249" s="33"/>
-      <c r="E249" s="33"/>
-      <c r="F249" s="33"/>
-      <c r="G249" s="33"/>
-      <c r="H249" s="33"/>
-      <c r="I249" s="33"/>
-      <c r="J249" s="34"/>
-      <c r="K249" s="17"/>
-      <c r="L249" s="18"/>
-      <c r="M249" s="16"/>
-      <c r="N249" s="18"/>
-      <c r="O249" s="17"/>
-    </row>
-    <row r="250" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A250" s="14"/>
-      <c r="B250" s="15"/>
-      <c r="C250" s="44"/>
-      <c r="D250" s="33"/>
-      <c r="E250" s="33"/>
-      <c r="F250" s="33"/>
-      <c r="G250" s="33"/>
-      <c r="H250" s="33"/>
-      <c r="I250" s="33"/>
-      <c r="J250" s="34"/>
-      <c r="K250" s="17"/>
-      <c r="L250" s="18"/>
-      <c r="M250" s="16"/>
-      <c r="N250" s="18"/>
-      <c r="O250" s="17"/>
-    </row>
-    <row r="251" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A251" s="14"/>
-      <c r="B251" s="15"/>
-      <c r="C251" s="44"/>
-      <c r="D251" s="33"/>
-      <c r="E251" s="33"/>
-      <c r="F251" s="33"/>
-      <c r="G251" s="33"/>
-      <c r="H251" s="33"/>
-      <c r="I251" s="33"/>
-      <c r="J251" s="34"/>
-      <c r="K251" s="17"/>
-      <c r="L251" s="18"/>
-      <c r="M251" s="16"/>
-      <c r="N251" s="18"/>
-      <c r="O251" s="17"/>
-    </row>
-    <row r="252" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A252" s="14"/>
-      <c r="B252" s="15"/>
-      <c r="C252" s="44"/>
-      <c r="D252" s="33"/>
-      <c r="E252" s="33"/>
-      <c r="F252" s="33"/>
-      <c r="G252" s="33"/>
-      <c r="H252" s="33"/>
-      <c r="I252" s="33"/>
-      <c r="J252" s="34"/>
-      <c r="K252" s="17"/>
-      <c r="L252" s="18"/>
-      <c r="M252" s="16"/>
-      <c r="N252" s="18"/>
-      <c r="O252" s="17"/>
-    </row>
-    <row r="253" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A253" s="14"/>
-      <c r="B253" s="15"/>
-      <c r="C253" s="44"/>
-      <c r="D253" s="33"/>
-      <c r="E253" s="33"/>
-      <c r="F253" s="33"/>
-      <c r="G253" s="33"/>
-      <c r="H253" s="33"/>
-      <c r="I253" s="33"/>
-      <c r="J253" s="34"/>
-      <c r="K253" s="17"/>
-      <c r="L253" s="18"/>
-      <c r="M253" s="16"/>
-      <c r="N253" s="18"/>
-      <c r="O253" s="17"/>
-    </row>
-    <row r="254" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A254" s="14"/>
-      <c r="B254" s="15"/>
-      <c r="C254" s="44"/>
-      <c r="D254" s="33"/>
-      <c r="E254" s="33"/>
-      <c r="F254" s="33"/>
-      <c r="G254" s="33"/>
-      <c r="H254" s="33"/>
-      <c r="I254" s="33"/>
-      <c r="J254" s="34"/>
-      <c r="K254" s="17"/>
-      <c r="L254" s="18"/>
-      <c r="M254" s="16"/>
-      <c r="N254" s="18"/>
-      <c r="O254" s="17"/>
-    </row>
-    <row r="255" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A255" s="14"/>
-      <c r="B255" s="15"/>
-      <c r="C255" s="44"/>
-      <c r="D255" s="33"/>
-      <c r="E255" s="33"/>
-      <c r="F255" s="33"/>
-      <c r="G255" s="33"/>
-      <c r="H255" s="33"/>
-      <c r="I255" s="33"/>
-      <c r="J255" s="34"/>
-      <c r="K255" s="17"/>
-      <c r="L255" s="18"/>
-      <c r="M255" s="16"/>
-      <c r="N255" s="18"/>
-      <c r="O255" s="17"/>
-    </row>
-    <row r="256" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A256" s="14"/>
-      <c r="B256" s="15"/>
-      <c r="C256" s="44"/>
-      <c r="D256" s="33"/>
-      <c r="E256" s="33"/>
-      <c r="F256" s="33"/>
-      <c r="G256" s="33"/>
-      <c r="H256" s="33"/>
-      <c r="I256" s="33"/>
-      <c r="J256" s="34"/>
-      <c r="K256" s="17"/>
-      <c r="L256" s="18"/>
-      <c r="M256" s="16"/>
-      <c r="N256" s="18"/>
-      <c r="O256" s="17"/>
-    </row>
-    <row r="257" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A257" s="14"/>
-      <c r="B257" s="15"/>
-      <c r="C257" s="44"/>
-      <c r="D257" s="33"/>
-      <c r="E257" s="33"/>
-      <c r="F257" s="33"/>
-      <c r="G257" s="33"/>
-      <c r="H257" s="33"/>
-      <c r="I257" s="33"/>
-      <c r="J257" s="34"/>
-      <c r="K257" s="17"/>
-      <c r="L257" s="18"/>
-      <c r="M257" s="16"/>
-      <c r="N257" s="18"/>
-      <c r="O257" s="17"/>
-    </row>
-    <row r="258" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A258" s="14"/>
-      <c r="B258" s="15"/>
-      <c r="C258" s="44"/>
-      <c r="D258" s="33"/>
-      <c r="E258" s="33"/>
-      <c r="F258" s="33"/>
-      <c r="G258" s="33"/>
-      <c r="H258" s="33"/>
-      <c r="I258" s="33"/>
-      <c r="J258" s="34"/>
-      <c r="K258" s="17"/>
-      <c r="L258" s="18"/>
-      <c r="M258" s="16"/>
-      <c r="N258" s="18"/>
-      <c r="O258" s="17"/>
-    </row>
-    <row r="259" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A259" s="14"/>
-      <c r="B259" s="15"/>
-      <c r="C259" s="44"/>
-      <c r="D259" s="33"/>
-      <c r="E259" s="33"/>
-      <c r="F259" s="33"/>
-      <c r="G259" s="33"/>
-      <c r="H259" s="33"/>
-      <c r="I259" s="33"/>
-      <c r="J259" s="34"/>
-      <c r="K259" s="17"/>
-      <c r="L259" s="18"/>
-      <c r="M259" s="16"/>
-      <c r="N259" s="18"/>
-      <c r="O259" s="17"/>
-    </row>
-    <row r="260" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A260" s="14"/>
-      <c r="B260" s="15"/>
-      <c r="C260" s="44"/>
-      <c r="D260" s="33"/>
-      <c r="E260" s="33"/>
-      <c r="F260" s="33"/>
-      <c r="G260" s="33"/>
-      <c r="H260" s="33"/>
-      <c r="I260" s="33"/>
-      <c r="J260" s="34"/>
-      <c r="K260" s="17"/>
-      <c r="L260" s="18"/>
-      <c r="M260" s="16"/>
-      <c r="N260" s="18"/>
-      <c r="O260" s="17"/>
-    </row>
-    <row r="261" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A261" s="14"/>
-      <c r="B261" s="15"/>
-      <c r="C261" s="44"/>
-      <c r="D261" s="33"/>
-      <c r="E261" s="33"/>
-      <c r="F261" s="33"/>
-      <c r="G261" s="33"/>
-      <c r="H261" s="33"/>
-      <c r="I261" s="33"/>
-      <c r="J261" s="34"/>
-      <c r="K261" s="17"/>
-      <c r="L261" s="18"/>
-      <c r="M261" s="16"/>
-      <c r="N261" s="18"/>
-      <c r="O261" s="17"/>
-    </row>
-    <row r="262" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A262" s="14"/>
-      <c r="B262" s="15"/>
-      <c r="C262" s="44"/>
-      <c r="D262" s="33"/>
-      <c r="E262" s="33"/>
-      <c r="F262" s="33"/>
-      <c r="G262" s="33"/>
-      <c r="H262" s="33"/>
-      <c r="I262" s="33"/>
-      <c r="J262" s="34"/>
-      <c r="K262" s="17"/>
-      <c r="L262" s="18"/>
-      <c r="M262" s="16"/>
-      <c r="N262" s="18"/>
-      <c r="O262" s="17"/>
-    </row>
-    <row r="263" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A263" s="14"/>
-      <c r="B263" s="15"/>
-      <c r="C263" s="44"/>
-      <c r="D263" s="33"/>
-      <c r="E263" s="33"/>
-      <c r="F263" s="33"/>
-      <c r="G263" s="33"/>
-      <c r="H263" s="33"/>
-      <c r="I263" s="33"/>
-      <c r="J263" s="34"/>
-      <c r="K263" s="17"/>
-      <c r="L263" s="18"/>
-      <c r="M263" s="16"/>
-      <c r="N263" s="18"/>
-      <c r="O263" s="17"/>
-    </row>
-    <row r="264" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A264" s="14"/>
-      <c r="B264" s="15"/>
-      <c r="C264" s="44"/>
-      <c r="D264" s="33"/>
-      <c r="E264" s="33"/>
-      <c r="F264" s="33"/>
-      <c r="G264" s="33"/>
-      <c r="H264" s="33"/>
-      <c r="I264" s="33"/>
-      <c r="J264" s="34"/>
-      <c r="K264" s="17"/>
-      <c r="L264" s="18"/>
-      <c r="M264" s="16"/>
-      <c r="N264" s="18"/>
-      <c r="O264" s="17"/>
-    </row>
-    <row r="265" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A265" s="14"/>
-      <c r="B265" s="15"/>
-      <c r="C265" s="44"/>
-      <c r="D265" s="33"/>
-      <c r="E265" s="33"/>
-      <c r="F265" s="33"/>
-      <c r="G265" s="33"/>
-      <c r="H265" s="33"/>
-      <c r="I265" s="33"/>
-      <c r="J265" s="34"/>
-      <c r="K265" s="17"/>
-      <c r="L265" s="18"/>
-      <c r="M265" s="16"/>
-      <c r="N265" s="18"/>
-      <c r="O265" s="17"/>
-    </row>
-    <row r="266" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A266" s="14"/>
-      <c r="B266" s="15"/>
-      <c r="C266" s="44"/>
-      <c r="D266" s="33"/>
-      <c r="E266" s="33"/>
-      <c r="F266" s="33"/>
-      <c r="G266" s="33"/>
-      <c r="H266" s="33"/>
-      <c r="I266" s="33"/>
-      <c r="J266" s="34"/>
-      <c r="K266" s="17"/>
-      <c r="L266" s="18"/>
-      <c r="M266" s="16"/>
-      <c r="N266" s="18"/>
-      <c r="O266" s="17"/>
-    </row>
-    <row r="267" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A267" s="14"/>
-      <c r="B267" s="15"/>
-      <c r="C267" s="44"/>
-      <c r="D267" s="33"/>
-      <c r="E267" s="33"/>
-      <c r="F267" s="33"/>
-      <c r="G267" s="33"/>
-      <c r="H267" s="33"/>
-      <c r="I267" s="33"/>
-      <c r="J267" s="34"/>
-      <c r="K267" s="17"/>
-      <c r="L267" s="18"/>
-      <c r="M267" s="16"/>
-      <c r="N267" s="18"/>
-      <c r="O267" s="17"/>
-    </row>
-    <row r="268" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A268" s="14"/>
-      <c r="B268" s="15"/>
-      <c r="C268" s="44"/>
-      <c r="D268" s="33"/>
-      <c r="E268" s="33"/>
-      <c r="F268" s="33"/>
-      <c r="G268" s="33"/>
-      <c r="H268" s="33"/>
-      <c r="I268" s="33"/>
-      <c r="J268" s="34"/>
-      <c r="K268" s="17"/>
-      <c r="L268" s="18"/>
-      <c r="M268" s="16"/>
-      <c r="N268" s="18"/>
-      <c r="O268" s="17"/>
-    </row>
-    <row r="269" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A269" s="14"/>
-      <c r="B269" s="15"/>
-      <c r="C269" s="44"/>
-      <c r="D269" s="33"/>
-      <c r="E269" s="33"/>
-      <c r="F269" s="33"/>
-      <c r="G269" s="33"/>
-      <c r="H269" s="33"/>
-      <c r="I269" s="33"/>
-      <c r="J269" s="34"/>
-      <c r="K269" s="17"/>
-      <c r="L269" s="18"/>
-      <c r="M269" s="16"/>
-      <c r="N269" s="18"/>
-      <c r="O269" s="17"/>
-    </row>
-    <row r="270" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A270" s="14"/>
-      <c r="B270" s="15"/>
-      <c r="C270" s="44"/>
-      <c r="D270" s="33"/>
-      <c r="E270" s="33"/>
-      <c r="F270" s="33"/>
-      <c r="G270" s="33"/>
-      <c r="H270" s="33"/>
-      <c r="I270" s="33"/>
-      <c r="J270" s="34"/>
-      <c r="K270" s="17"/>
-      <c r="L270" s="18"/>
-      <c r="M270" s="16"/>
-      <c r="N270" s="18"/>
-      <c r="O270" s="17"/>
-    </row>
-    <row r="271" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A271" s="14"/>
-      <c r="B271" s="15"/>
-      <c r="C271" s="44"/>
-      <c r="D271" s="33"/>
-      <c r="E271" s="33"/>
-      <c r="F271" s="33"/>
-      <c r="G271" s="33"/>
-      <c r="H271" s="33"/>
-      <c r="I271" s="33"/>
-      <c r="J271" s="34"/>
-      <c r="K271" s="17"/>
-      <c r="L271" s="18"/>
-      <c r="M271" s="16"/>
-      <c r="N271" s="18"/>
-      <c r="O271" s="17"/>
-    </row>
-    <row r="272" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A272" s="14"/>
-      <c r="B272" s="15"/>
-      <c r="C272" s="44"/>
-      <c r="D272" s="33"/>
-      <c r="E272" s="33"/>
-      <c r="F272" s="33"/>
-      <c r="G272" s="33"/>
-      <c r="H272" s="33"/>
-      <c r="I272" s="33"/>
-      <c r="J272" s="34"/>
-      <c r="K272" s="17"/>
-      <c r="L272" s="18"/>
-      <c r="M272" s="16"/>
-      <c r="N272" s="18"/>
-      <c r="O272" s="17"/>
-    </row>
-    <row r="273" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A273" s="14"/>
-      <c r="B273" s="15"/>
-      <c r="C273" s="44"/>
-      <c r="D273" s="33"/>
-      <c r="E273" s="33"/>
-      <c r="F273" s="33"/>
-      <c r="G273" s="33"/>
-      <c r="H273" s="33"/>
-      <c r="I273" s="33"/>
-      <c r="J273" s="34"/>
-      <c r="K273" s="17"/>
-      <c r="L273" s="18"/>
-      <c r="M273" s="16"/>
-      <c r="N273" s="18"/>
-      <c r="O273" s="17"/>
-    </row>
-    <row r="274" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A274" s="14"/>
-      <c r="B274" s="15"/>
-      <c r="C274" s="44"/>
-      <c r="D274" s="33"/>
-      <c r="E274" s="33"/>
-      <c r="F274" s="33"/>
-      <c r="G274" s="33"/>
-      <c r="H274" s="33"/>
-      <c r="I274" s="33"/>
-      <c r="J274" s="34"/>
-      <c r="K274" s="17"/>
-      <c r="L274" s="18"/>
-      <c r="M274" s="16"/>
-      <c r="N274" s="18"/>
-      <c r="O274" s="17"/>
-    </row>
-    <row r="275" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A275" s="14"/>
-      <c r="B275" s="15"/>
-      <c r="C275" s="44"/>
-      <c r="D275" s="33"/>
-      <c r="E275" s="33"/>
-      <c r="F275" s="33"/>
-      <c r="G275" s="33"/>
-      <c r="H275" s="33"/>
-      <c r="I275" s="33"/>
-      <c r="J275" s="34"/>
-      <c r="K275" s="17"/>
-      <c r="L275" s="18"/>
-      <c r="M275" s="16"/>
-      <c r="N275" s="18"/>
-      <c r="O275" s="17"/>
-    </row>
-    <row r="276" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A276" s="14"/>
-      <c r="B276" s="15"/>
-      <c r="C276" s="44"/>
-      <c r="D276" s="33"/>
-      <c r="E276" s="33"/>
-      <c r="F276" s="33"/>
-      <c r="G276" s="33"/>
-      <c r="H276" s="33"/>
-      <c r="I276" s="33"/>
-      <c r="J276" s="34"/>
-      <c r="K276" s="17"/>
-      <c r="L276" s="18"/>
-      <c r="M276" s="16"/>
-      <c r="N276" s="18"/>
-      <c r="O276" s="17"/>
-    </row>
-    <row r="277" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A277" s="14"/>
-      <c r="B277" s="15"/>
-      <c r="C277" s="44"/>
-      <c r="D277" s="33"/>
-      <c r="E277" s="33"/>
-      <c r="F277" s="33"/>
-      <c r="G277" s="33"/>
-      <c r="H277" s="33"/>
-      <c r="I277" s="33"/>
-      <c r="J277" s="34"/>
-      <c r="K277" s="17"/>
-      <c r="L277" s="18"/>
-      <c r="M277" s="16"/>
-      <c r="N277" s="18"/>
-      <c r="O277" s="17"/>
-    </row>
-    <row r="278" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A278" s="14"/>
-      <c r="B278" s="15"/>
-      <c r="C278" s="44"/>
-      <c r="D278" s="33"/>
-      <c r="E278" s="33"/>
-      <c r="F278" s="33"/>
-      <c r="G278" s="33"/>
-      <c r="H278" s="33"/>
-      <c r="I278" s="33"/>
-      <c r="J278" s="34"/>
-      <c r="K278" s="17"/>
-      <c r="L278" s="18"/>
-      <c r="M278" s="16"/>
-      <c r="N278" s="18"/>
-      <c r="O278" s="17"/>
-    </row>
-    <row r="279" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A279" s="14"/>
-      <c r="B279" s="15"/>
-      <c r="C279" s="44"/>
-      <c r="D279" s="33"/>
-      <c r="E279" s="33"/>
-      <c r="F279" s="33"/>
-      <c r="G279" s="33"/>
-      <c r="H279" s="33"/>
-      <c r="I279" s="33"/>
-      <c r="J279" s="34"/>
-      <c r="K279" s="17"/>
-      <c r="L279" s="18"/>
-      <c r="M279" s="16"/>
-      <c r="N279" s="18"/>
-      <c r="O279" s="17"/>
-    </row>
-    <row r="280" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A280" s="14"/>
-      <c r="B280" s="15"/>
-      <c r="C280" s="44"/>
-      <c r="D280" s="33"/>
-      <c r="E280" s="33"/>
-      <c r="F280" s="33"/>
-      <c r="G280" s="33"/>
-      <c r="H280" s="33"/>
-      <c r="I280" s="33"/>
-      <c r="J280" s="34"/>
-      <c r="K280" s="17"/>
-      <c r="L280" s="18"/>
-      <c r="M280" s="16"/>
-      <c r="N280" s="18"/>
-      <c r="O280" s="17"/>
-    </row>
-    <row r="281" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A281" s="14"/>
-      <c r="B281" s="15"/>
-      <c r="C281" s="44"/>
-      <c r="D281" s="33"/>
-      <c r="E281" s="33"/>
-      <c r="F281" s="33"/>
-      <c r="G281" s="33"/>
-      <c r="H281" s="33"/>
-      <c r="I281" s="33"/>
-      <c r="J281" s="34"/>
-      <c r="K281" s="17"/>
-      <c r="L281" s="18"/>
-      <c r="M281" s="16"/>
-      <c r="N281" s="18"/>
-      <c r="O281" s="17"/>
-    </row>
-    <row r="282" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A282" s="14"/>
-      <c r="B282" s="15"/>
-      <c r="C282" s="44"/>
-      <c r="D282" s="33"/>
-      <c r="E282" s="33"/>
-      <c r="F282" s="33"/>
-      <c r="G282" s="33"/>
-      <c r="H282" s="33"/>
-      <c r="I282" s="33"/>
-      <c r="J282" s="34"/>
-      <c r="K282" s="17"/>
-      <c r="L282" s="18"/>
-      <c r="M282" s="16"/>
-      <c r="N282" s="18"/>
-      <c r="O282" s="17"/>
-    </row>
-    <row r="283" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A283" s="14"/>
-      <c r="B283" s="15"/>
-      <c r="C283" s="44"/>
-      <c r="D283" s="33"/>
-      <c r="E283" s="33"/>
-      <c r="F283" s="33"/>
-      <c r="G283" s="33"/>
-      <c r="H283" s="33"/>
-      <c r="I283" s="33"/>
-      <c r="J283" s="34"/>
-      <c r="K283" s="17"/>
-      <c r="L283" s="18"/>
-      <c r="M283" s="16"/>
-      <c r="N283" s="18"/>
-      <c r="O283" s="17"/>
-    </row>
-    <row r="284" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A284" s="14"/>
-      <c r="B284" s="15"/>
-      <c r="C284" s="44"/>
-      <c r="D284" s="33"/>
-      <c r="E284" s="33"/>
-      <c r="F284" s="33"/>
-      <c r="G284" s="33"/>
-      <c r="H284" s="33"/>
-      <c r="I284" s="33"/>
-      <c r="J284" s="34"/>
-      <c r="K284" s="17"/>
-      <c r="L284" s="18"/>
-      <c r="M284" s="16"/>
-      <c r="N284" s="18"/>
-      <c r="O284" s="17"/>
-    </row>
-    <row r="285" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A285" s="14"/>
-      <c r="B285" s="15"/>
-      <c r="C285" s="44"/>
-      <c r="D285" s="33"/>
-      <c r="E285" s="33"/>
-      <c r="F285" s="33"/>
-      <c r="G285" s="33"/>
-      <c r="H285" s="33"/>
-      <c r="I285" s="33"/>
-      <c r="J285" s="34"/>
-      <c r="K285" s="17"/>
-      <c r="L285" s="18"/>
-      <c r="M285" s="16"/>
-      <c r="N285" s="18"/>
-      <c r="O285" s="17"/>
-    </row>
-    <row r="286" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A286" s="14"/>
-      <c r="B286" s="15"/>
-      <c r="C286" s="44"/>
-      <c r="D286" s="33"/>
-      <c r="E286" s="33"/>
-      <c r="F286" s="33"/>
-      <c r="G286" s="33"/>
-      <c r="H286" s="33"/>
-      <c r="I286" s="33"/>
-      <c r="J286" s="34"/>
-      <c r="K286" s="17"/>
-      <c r="L286" s="18"/>
-      <c r="M286" s="16"/>
-      <c r="N286" s="18"/>
-      <c r="O286" s="17"/>
-    </row>
-    <row r="287" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A287" s="14"/>
-      <c r="B287" s="15"/>
-      <c r="C287" s="44"/>
-      <c r="D287" s="33"/>
-      <c r="E287" s="33"/>
-      <c r="F287" s="33"/>
-      <c r="G287" s="33"/>
-      <c r="H287" s="33"/>
-      <c r="I287" s="33"/>
-      <c r="J287" s="34"/>
-      <c r="K287" s="17"/>
-      <c r="L287" s="18"/>
-      <c r="M287" s="16"/>
-      <c r="N287" s="18"/>
-      <c r="O287" s="17"/>
-    </row>
-    <row r="288" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A288" s="14"/>
-      <c r="B288" s="15"/>
-      <c r="C288" s="44"/>
-      <c r="D288" s="33"/>
-      <c r="E288" s="33"/>
-      <c r="F288" s="33"/>
-      <c r="G288" s="33"/>
-      <c r="H288" s="33"/>
-      <c r="I288" s="33"/>
-      <c r="J288" s="34"/>
-      <c r="K288" s="17"/>
-      <c r="L288" s="18"/>
-      <c r="M288" s="16"/>
-      <c r="N288" s="18"/>
-      <c r="O288" s="17"/>
-    </row>
-    <row r="289" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A289" s="14"/>
-      <c r="B289" s="15"/>
-      <c r="C289" s="44"/>
-      <c r="D289" s="33"/>
-      <c r="E289" s="33"/>
-      <c r="F289" s="33"/>
-      <c r="G289" s="33"/>
-      <c r="H289" s="33"/>
-      <c r="I289" s="33"/>
-      <c r="J289" s="34"/>
-      <c r="K289" s="17"/>
-      <c r="L289" s="18"/>
-      <c r="M289" s="16"/>
-      <c r="N289" s="18"/>
-      <c r="O289" s="17"/>
-    </row>
-    <row r="290" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A290" s="14"/>
-      <c r="B290" s="15"/>
-      <c r="C290" s="44"/>
-      <c r="D290" s="33"/>
-      <c r="E290" s="33"/>
-      <c r="F290" s="33"/>
-      <c r="G290" s="33"/>
-      <c r="H290" s="33"/>
-      <c r="I290" s="33"/>
-      <c r="J290" s="34"/>
-      <c r="K290" s="17"/>
-      <c r="L290" s="18"/>
-      <c r="M290" s="16"/>
-      <c r="N290" s="18"/>
-      <c r="O290" s="17"/>
-    </row>
-    <row r="291" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A291" s="14"/>
-      <c r="B291" s="15"/>
-      <c r="C291" s="44"/>
-      <c r="D291" s="33"/>
-      <c r="E291" s="33"/>
-      <c r="F291" s="33"/>
-      <c r="G291" s="33"/>
-      <c r="H291" s="33"/>
-      <c r="I291" s="33"/>
-      <c r="J291" s="34"/>
-      <c r="K291" s="17"/>
-      <c r="L291" s="18"/>
-      <c r="M291" s="16"/>
-      <c r="N291" s="18"/>
-      <c r="O291" s="17"/>
-    </row>
-    <row r="292" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A292" s="14"/>
-      <c r="B292" s="15"/>
-      <c r="C292" s="44"/>
-      <c r="D292" s="33"/>
-      <c r="E292" s="33"/>
-      <c r="F292" s="33"/>
-      <c r="G292" s="33"/>
-      <c r="H292" s="33"/>
-      <c r="I292" s="33"/>
-      <c r="J292" s="34"/>
-      <c r="K292" s="17"/>
-      <c r="L292" s="18"/>
-      <c r="M292" s="16"/>
-      <c r="N292" s="18"/>
-      <c r="O292" s="17"/>
-    </row>
-    <row r="293" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A293" s="14"/>
-      <c r="B293" s="15"/>
-      <c r="C293" s="44"/>
-      <c r="D293" s="33"/>
-      <c r="E293" s="33"/>
-      <c r="F293" s="33"/>
-      <c r="G293" s="33"/>
-      <c r="H293" s="33"/>
-      <c r="I293" s="33"/>
-      <c r="J293" s="34"/>
-      <c r="K293" s="17"/>
-      <c r="L293" s="18"/>
-      <c r="M293" s="16"/>
-      <c r="N293" s="18"/>
-      <c r="O293" s="17"/>
-    </row>
-    <row r="294" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A294" s="14"/>
-      <c r="B294" s="15"/>
-      <c r="C294" s="44"/>
-      <c r="D294" s="33"/>
-      <c r="E294" s="33"/>
-      <c r="F294" s="33"/>
-      <c r="G294" s="33"/>
-      <c r="H294" s="33"/>
-      <c r="I294" s="33"/>
-      <c r="J294" s="34"/>
-      <c r="K294" s="17"/>
-      <c r="L294" s="18"/>
-      <c r="M294" s="16"/>
-      <c r="N294" s="18"/>
-      <c r="O294" s="17"/>
-    </row>
-    <row r="295" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A295" s="14"/>
-      <c r="B295" s="15"/>
-      <c r="C295" s="44"/>
-      <c r="D295" s="33"/>
-      <c r="E295" s="33"/>
-      <c r="F295" s="33"/>
-      <c r="G295" s="33"/>
-      <c r="H295" s="33"/>
-      <c r="I295" s="33"/>
-      <c r="J295" s="34"/>
-      <c r="K295" s="17"/>
-      <c r="L295" s="18"/>
-      <c r="M295" s="16"/>
-      <c r="N295" s="18"/>
-      <c r="O295" s="17"/>
-    </row>
-    <row r="296" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A296" s="14"/>
-      <c r="B296" s="15"/>
-      <c r="C296" s="44"/>
-      <c r="D296" s="33"/>
-      <c r="E296" s="33"/>
-      <c r="F296" s="33"/>
-      <c r="G296" s="33"/>
-      <c r="H296" s="33"/>
-      <c r="I296" s="33"/>
-      <c r="J296" s="34"/>
-      <c r="K296" s="17"/>
-      <c r="L296" s="18"/>
-      <c r="M296" s="16"/>
-      <c r="N296" s="18"/>
-      <c r="O296" s="17"/>
-    </row>
-    <row r="297" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A297" s="14"/>
-      <c r="B297" s="15"/>
-      <c r="C297" s="44"/>
-      <c r="D297" s="33"/>
-      <c r="E297" s="33"/>
-      <c r="F297" s="33"/>
-      <c r="G297" s="33"/>
-      <c r="H297" s="33"/>
-      <c r="I297" s="33"/>
-      <c r="J297" s="34"/>
-      <c r="K297" s="17"/>
-      <c r="L297" s="18"/>
-      <c r="M297" s="16"/>
-      <c r="N297" s="18"/>
-      <c r="O297" s="17"/>
-    </row>
-    <row r="298" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A298" s="14"/>
-      <c r="B298" s="15"/>
-      <c r="C298" s="44"/>
-      <c r="D298" s="33"/>
-      <c r="E298" s="33"/>
-      <c r="F298" s="33"/>
-      <c r="G298" s="33"/>
-      <c r="H298" s="33"/>
-      <c r="I298" s="33"/>
-      <c r="J298" s="34"/>
-      <c r="K298" s="17"/>
-      <c r="L298" s="18"/>
-      <c r="M298" s="16"/>
-      <c r="N298" s="18"/>
-      <c r="O298" s="17"/>
-    </row>
-    <row r="299" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A299" s="14"/>
-      <c r="B299" s="15"/>
-      <c r="C299" s="44"/>
-      <c r="D299" s="33"/>
-      <c r="E299" s="33"/>
-      <c r="F299" s="33"/>
-      <c r="G299" s="33"/>
-      <c r="H299" s="33"/>
-      <c r="I299" s="33"/>
-      <c r="J299" s="34"/>
-      <c r="K299" s="17"/>
-      <c r="L299" s="18"/>
-      <c r="M299" s="16"/>
-      <c r="N299" s="18"/>
-      <c r="O299" s="17"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -15294,7 +12081,7 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N109:N299 N3:N104">
+  <conditionalFormatting sqref="N109:N110 N3:N104">
     <cfRule type="beginsWith" dxfId="20" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -15305,7 +12092,7 @@
       <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N300:N1048576">
+  <conditionalFormatting sqref="N1">
     <cfRule type="beginsWith" dxfId="17" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -15327,12 +12114,12 @@
       <formula>LEFT(N105,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D299" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C110" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>target</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D110" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C299" xr:uid="{00000000-0002-0000-0100-000001000000}">
-      <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15341,7 +12128,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O287"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -15367,12 +12154,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>526</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="11" t="s">
         <v>527</v>
       </c>
@@ -15390,20 +12177,20 @@
       </c>
       <c r="J1" s="29"/>
       <c r="K1" s="17"/>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="74" t="s">
         <v>532</v>
       </c>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="93" hidden="1" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>533</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
       <c r="G2" s="12"/>
@@ -15413,10 +12200,10 @@
       </c>
       <c r="J2" s="29"/>
       <c r="K2" s="17"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
     </row>
     <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1">
       <c r="A3" s="14"/>
@@ -17674,3355 +14461,6 @@
       <c r="N90" s="18"/>
       <c r="O90" s="17"/>
     </row>
-    <row r="91" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A91" s="20"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="16"/>
-      <c r="N91" s="18"/>
-      <c r="O91" s="17"/>
-    </row>
-    <row r="92" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A92" s="20"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="16"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="17"/>
-    </row>
-    <row r="93" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A93" s="20"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="33"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="16"/>
-      <c r="N93" s="18"/>
-      <c r="O93" s="17"/>
-    </row>
-    <row r="94" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A94" s="20"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="33"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="16"/>
-      <c r="N94" s="18"/>
-      <c r="O94" s="17"/>
-    </row>
-    <row r="95" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A95" s="20"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="33"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="18"/>
-      <c r="M95" s="16"/>
-      <c r="N95" s="18"/>
-      <c r="O95" s="17"/>
-    </row>
-    <row r="96" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A96" s="20"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="33"/>
-      <c r="J96" s="34"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="16"/>
-      <c r="N96" s="18"/>
-      <c r="O96" s="17"/>
-    </row>
-    <row r="97" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A97" s="20"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="33"/>
-      <c r="J97" s="34"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="16"/>
-      <c r="N97" s="18"/>
-      <c r="O97" s="17"/>
-    </row>
-    <row r="98" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A98" s="20"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="33"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="16"/>
-      <c r="N98" s="18"/>
-      <c r="O98" s="17"/>
-    </row>
-    <row r="99" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A99" s="20"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="33"/>
-      <c r="J99" s="34"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="18"/>
-      <c r="O99" s="17"/>
-    </row>
-    <row r="100" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A100" s="20"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="33"/>
-      <c r="J100" s="34"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="16"/>
-      <c r="N100" s="18"/>
-      <c r="O100" s="17"/>
-    </row>
-    <row r="101" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A101" s="20"/>
-      <c r="B101" s="21"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="33"/>
-      <c r="J101" s="34"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="16"/>
-      <c r="N101" s="18"/>
-      <c r="O101" s="17"/>
-    </row>
-    <row r="102" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A102" s="20"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="33"/>
-      <c r="J102" s="34"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="16"/>
-      <c r="N102" s="18"/>
-      <c r="O102" s="17"/>
-    </row>
-    <row r="103" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A103" s="20"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="33"/>
-      <c r="J103" s="34"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="16"/>
-      <c r="N103" s="18"/>
-      <c r="O103" s="17"/>
-    </row>
-    <row r="104" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A104" s="20"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="33"/>
-      <c r="J104" s="34"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="18"/>
-      <c r="M104" s="16"/>
-      <c r="N104" s="18"/>
-      <c r="O104" s="17"/>
-    </row>
-    <row r="105" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A105" s="20"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="23"/>
-      <c r="H105" s="23"/>
-      <c r="I105" s="33"/>
-      <c r="J105" s="34"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="16"/>
-      <c r="N105" s="18"/>
-      <c r="O105" s="17"/>
-    </row>
-    <row r="106" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A106" s="20"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="23"/>
-      <c r="I106" s="33"/>
-      <c r="J106" s="34"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="16"/>
-      <c r="N106" s="18"/>
-      <c r="O106" s="17"/>
-    </row>
-    <row r="107" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A107" s="20"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="23"/>
-      <c r="I107" s="33"/>
-      <c r="J107" s="34"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="16"/>
-      <c r="N107" s="18"/>
-      <c r="O107" s="17"/>
-    </row>
-    <row r="108" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A108" s="20"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="23"/>
-      <c r="I108" s="33"/>
-      <c r="J108" s="34"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="16"/>
-      <c r="N108" s="18"/>
-      <c r="O108" s="17"/>
-    </row>
-    <row r="109" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A109" s="20"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="23"/>
-      <c r="H109" s="23"/>
-      <c r="I109" s="33"/>
-      <c r="J109" s="34"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="18"/>
-      <c r="M109" s="16"/>
-      <c r="N109" s="18"/>
-      <c r="O109" s="17"/>
-    </row>
-    <row r="110" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A110" s="20"/>
-      <c r="B110" s="21"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="33"/>
-      <c r="J110" s="34"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="18"/>
-      <c r="M110" s="16"/>
-      <c r="N110" s="18"/>
-      <c r="O110" s="17"/>
-    </row>
-    <row r="111" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A111" s="20"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="33"/>
-      <c r="J111" s="34"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="18"/>
-      <c r="M111" s="16"/>
-      <c r="N111" s="18"/>
-      <c r="O111" s="17"/>
-    </row>
-    <row r="112" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A112" s="14"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="44"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33"/>
-      <c r="I112" s="33"/>
-      <c r="J112" s="34"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="16"/>
-      <c r="N112" s="18"/>
-      <c r="O112" s="17"/>
-    </row>
-    <row r="113" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A113" s="14"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="44"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="33"/>
-      <c r="I113" s="33"/>
-      <c r="J113" s="34"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="16"/>
-      <c r="N113" s="18"/>
-      <c r="O113" s="17"/>
-    </row>
-    <row r="114" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A114" s="14"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="44"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="33"/>
-      <c r="I114" s="33"/>
-      <c r="J114" s="34"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="18"/>
-      <c r="M114" s="16"/>
-      <c r="N114" s="18"/>
-      <c r="O114" s="17"/>
-    </row>
-    <row r="115" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A115" s="14"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="33"/>
-      <c r="I115" s="33"/>
-      <c r="J115" s="34"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="18"/>
-      <c r="M115" s="16"/>
-      <c r="N115" s="18"/>
-      <c r="O115" s="17"/>
-    </row>
-    <row r="116" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A116" s="14"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="44"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="33"/>
-      <c r="I116" s="33"/>
-      <c r="J116" s="34"/>
-      <c r="K116" s="17"/>
-      <c r="L116" s="18"/>
-      <c r="M116" s="16"/>
-      <c r="N116" s="18"/>
-      <c r="O116" s="17"/>
-    </row>
-    <row r="117" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A117" s="14"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="44"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="33"/>
-      <c r="G117" s="33"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="33"/>
-      <c r="J117" s="34"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="18"/>
-      <c r="M117" s="16"/>
-      <c r="N117" s="18"/>
-      <c r="O117" s="17"/>
-    </row>
-    <row r="118" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A118" s="14"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="44"/>
-      <c r="D118" s="33"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33"/>
-      <c r="G118" s="33"/>
-      <c r="H118" s="33"/>
-      <c r="I118" s="33"/>
-      <c r="J118" s="34"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="18"/>
-      <c r="M118" s="16"/>
-      <c r="N118" s="18"/>
-      <c r="O118" s="17"/>
-    </row>
-    <row r="119" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A119" s="14"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="44"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="33"/>
-      <c r="I119" s="33"/>
-      <c r="J119" s="34"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="18"/>
-      <c r="M119" s="16"/>
-      <c r="N119" s="18"/>
-      <c r="O119" s="17"/>
-    </row>
-    <row r="120" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A120" s="14"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="44"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="33"/>
-      <c r="G120" s="33"/>
-      <c r="H120" s="33"/>
-      <c r="I120" s="33"/>
-      <c r="J120" s="34"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="16"/>
-      <c r="N120" s="18"/>
-      <c r="O120" s="17"/>
-    </row>
-    <row r="121" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A121" s="14"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="44"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="33"/>
-      <c r="G121" s="33"/>
-      <c r="H121" s="33"/>
-      <c r="I121" s="33"/>
-      <c r="J121" s="34"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="18"/>
-      <c r="M121" s="16"/>
-      <c r="N121" s="18"/>
-      <c r="O121" s="17"/>
-    </row>
-    <row r="122" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A122" s="14"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="44"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="33"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="33"/>
-      <c r="I122" s="33"/>
-      <c r="J122" s="34"/>
-      <c r="K122" s="17"/>
-      <c r="L122" s="18"/>
-      <c r="M122" s="16"/>
-      <c r="N122" s="18"/>
-      <c r="O122" s="17"/>
-    </row>
-    <row r="123" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A123" s="14"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="44"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33"/>
-      <c r="I123" s="33"/>
-      <c r="J123" s="34"/>
-      <c r="K123" s="17"/>
-      <c r="L123" s="18"/>
-      <c r="M123" s="16"/>
-      <c r="N123" s="18"/>
-      <c r="O123" s="17"/>
-    </row>
-    <row r="124" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A124" s="14"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="44"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33"/>
-      <c r="I124" s="33"/>
-      <c r="J124" s="34"/>
-      <c r="K124" s="17"/>
-      <c r="L124" s="18"/>
-      <c r="M124" s="16"/>
-      <c r="N124" s="18"/>
-      <c r="O124" s="17"/>
-    </row>
-    <row r="125" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A125" s="14"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="44"/>
-      <c r="D125" s="33"/>
-      <c r="E125" s="33"/>
-      <c r="F125" s="33"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="33"/>
-      <c r="I125" s="33"/>
-      <c r="J125" s="34"/>
-      <c r="K125" s="17"/>
-      <c r="L125" s="18"/>
-      <c r="M125" s="16"/>
-      <c r="N125" s="18"/>
-      <c r="O125" s="17"/>
-    </row>
-    <row r="126" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A126" s="14"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="33"/>
-      <c r="H126" s="33"/>
-      <c r="I126" s="33"/>
-      <c r="J126" s="34"/>
-      <c r="K126" s="17"/>
-      <c r="L126" s="18"/>
-      <c r="M126" s="16"/>
-      <c r="N126" s="18"/>
-      <c r="O126" s="17"/>
-    </row>
-    <row r="127" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A127" s="14"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="33"/>
-      <c r="F127" s="33"/>
-      <c r="G127" s="33"/>
-      <c r="H127" s="33"/>
-      <c r="I127" s="33"/>
-      <c r="J127" s="34"/>
-      <c r="K127" s="17"/>
-      <c r="L127" s="18"/>
-      <c r="M127" s="16"/>
-      <c r="N127" s="18"/>
-      <c r="O127" s="17"/>
-    </row>
-    <row r="128" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A128" s="14"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="44"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="33"/>
-      <c r="G128" s="33"/>
-      <c r="H128" s="33"/>
-      <c r="I128" s="33"/>
-      <c r="J128" s="34"/>
-      <c r="K128" s="17"/>
-      <c r="L128" s="18"/>
-      <c r="M128" s="16"/>
-      <c r="N128" s="18"/>
-      <c r="O128" s="17"/>
-    </row>
-    <row r="129" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A129" s="14"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="33"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="33"/>
-      <c r="G129" s="33"/>
-      <c r="H129" s="33"/>
-      <c r="I129" s="33"/>
-      <c r="J129" s="34"/>
-      <c r="K129" s="17"/>
-      <c r="L129" s="18"/>
-      <c r="M129" s="16"/>
-      <c r="N129" s="18"/>
-      <c r="O129" s="17"/>
-    </row>
-    <row r="130" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A130" s="14"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="33"/>
-      <c r="E130" s="33"/>
-      <c r="F130" s="33"/>
-      <c r="G130" s="33"/>
-      <c r="H130" s="33"/>
-      <c r="I130" s="33"/>
-      <c r="J130" s="34"/>
-      <c r="K130" s="17"/>
-      <c r="L130" s="18"/>
-      <c r="M130" s="16"/>
-      <c r="N130" s="18"/>
-      <c r="O130" s="17"/>
-    </row>
-    <row r="131" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A131" s="14"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="33"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33"/>
-      <c r="G131" s="33"/>
-      <c r="H131" s="33"/>
-      <c r="I131" s="33"/>
-      <c r="J131" s="34"/>
-      <c r="K131" s="17"/>
-      <c r="L131" s="18"/>
-      <c r="M131" s="16"/>
-      <c r="N131" s="18"/>
-      <c r="O131" s="17"/>
-    </row>
-    <row r="132" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A132" s="14"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="33"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="33"/>
-      <c r="I132" s="33"/>
-      <c r="J132" s="34"/>
-      <c r="K132" s="17"/>
-      <c r="L132" s="18"/>
-      <c r="M132" s="16"/>
-      <c r="N132" s="18"/>
-      <c r="O132" s="17"/>
-    </row>
-    <row r="133" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A133" s="14"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
-      <c r="G133" s="33"/>
-      <c r="H133" s="33"/>
-      <c r="I133" s="33"/>
-      <c r="J133" s="34"/>
-      <c r="K133" s="17"/>
-      <c r="L133" s="18"/>
-      <c r="M133" s="16"/>
-      <c r="N133" s="18"/>
-      <c r="O133" s="17"/>
-    </row>
-    <row r="134" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A134" s="14"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="33"/>
-      <c r="E134" s="33"/>
-      <c r="F134" s="33"/>
-      <c r="G134" s="33"/>
-      <c r="H134" s="33"/>
-      <c r="I134" s="33"/>
-      <c r="J134" s="34"/>
-      <c r="K134" s="17"/>
-      <c r="L134" s="18"/>
-      <c r="M134" s="16"/>
-      <c r="N134" s="18"/>
-      <c r="O134" s="17"/>
-    </row>
-    <row r="135" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A135" s="14"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="44"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="33"/>
-      <c r="G135" s="33"/>
-      <c r="H135" s="33"/>
-      <c r="I135" s="33"/>
-      <c r="J135" s="34"/>
-      <c r="K135" s="17"/>
-      <c r="L135" s="18"/>
-      <c r="M135" s="16"/>
-      <c r="N135" s="18"/>
-      <c r="O135" s="17"/>
-    </row>
-    <row r="136" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A136" s="14"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="33"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="33"/>
-      <c r="H136" s="33"/>
-      <c r="I136" s="33"/>
-      <c r="J136" s="34"/>
-      <c r="K136" s="17"/>
-      <c r="L136" s="18"/>
-      <c r="M136" s="16"/>
-      <c r="N136" s="18"/>
-      <c r="O136" s="17"/>
-    </row>
-    <row r="137" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A137" s="14"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="44"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="33"/>
-      <c r="H137" s="33"/>
-      <c r="I137" s="33"/>
-      <c r="J137" s="34"/>
-      <c r="K137" s="17"/>
-      <c r="L137" s="18"/>
-      <c r="M137" s="16"/>
-      <c r="N137" s="18"/>
-      <c r="O137" s="17"/>
-    </row>
-    <row r="138" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A138" s="14"/>
-      <c r="B138" s="15"/>
-      <c r="C138" s="44"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="33"/>
-      <c r="F138" s="33"/>
-      <c r="G138" s="33"/>
-      <c r="H138" s="33"/>
-      <c r="I138" s="33"/>
-      <c r="J138" s="34"/>
-      <c r="K138" s="17"/>
-      <c r="L138" s="18"/>
-      <c r="M138" s="16"/>
-      <c r="N138" s="18"/>
-      <c r="O138" s="17"/>
-    </row>
-    <row r="139" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A139" s="14"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="44"/>
-      <c r="D139" s="33"/>
-      <c r="E139" s="33"/>
-      <c r="F139" s="33"/>
-      <c r="G139" s="33"/>
-      <c r="H139" s="33"/>
-      <c r="I139" s="33"/>
-      <c r="J139" s="34"/>
-      <c r="K139" s="17"/>
-      <c r="L139" s="18"/>
-      <c r="M139" s="16"/>
-      <c r="N139" s="18"/>
-      <c r="O139" s="17"/>
-    </row>
-    <row r="140" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A140" s="14"/>
-      <c r="B140" s="15"/>
-      <c r="C140" s="44"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="33"/>
-      <c r="G140" s="33"/>
-      <c r="H140" s="33"/>
-      <c r="I140" s="33"/>
-      <c r="J140" s="34"/>
-      <c r="K140" s="17"/>
-      <c r="L140" s="18"/>
-      <c r="M140" s="16"/>
-      <c r="N140" s="18"/>
-      <c r="O140" s="17"/>
-    </row>
-    <row r="141" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A141" s="14"/>
-      <c r="B141" s="15"/>
-      <c r="C141" s="44"/>
-      <c r="D141" s="33"/>
-      <c r="E141" s="33"/>
-      <c r="F141" s="33"/>
-      <c r="G141" s="33"/>
-      <c r="H141" s="33"/>
-      <c r="I141" s="33"/>
-      <c r="J141" s="34"/>
-      <c r="K141" s="17"/>
-      <c r="L141" s="18"/>
-      <c r="M141" s="16"/>
-      <c r="N141" s="18"/>
-      <c r="O141" s="17"/>
-    </row>
-    <row r="142" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A142" s="14"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="44"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
-      <c r="F142" s="33"/>
-      <c r="G142" s="33"/>
-      <c r="H142" s="33"/>
-      <c r="I142" s="33"/>
-      <c r="J142" s="34"/>
-      <c r="K142" s="17"/>
-      <c r="L142" s="18"/>
-      <c r="M142" s="16"/>
-      <c r="N142" s="18"/>
-      <c r="O142" s="17"/>
-    </row>
-    <row r="143" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A143" s="14"/>
-      <c r="B143" s="15"/>
-      <c r="C143" s="44"/>
-      <c r="D143" s="33"/>
-      <c r="E143" s="33"/>
-      <c r="F143" s="33"/>
-      <c r="G143" s="33"/>
-      <c r="H143" s="33"/>
-      <c r="I143" s="33"/>
-      <c r="J143" s="34"/>
-      <c r="K143" s="17"/>
-      <c r="L143" s="18"/>
-      <c r="M143" s="16"/>
-      <c r="N143" s="18"/>
-      <c r="O143" s="17"/>
-    </row>
-    <row r="144" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A144" s="14"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="44"/>
-      <c r="D144" s="33"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="33"/>
-      <c r="H144" s="33"/>
-      <c r="I144" s="33"/>
-      <c r="J144" s="34"/>
-      <c r="K144" s="17"/>
-      <c r="L144" s="18"/>
-      <c r="M144" s="16"/>
-      <c r="N144" s="18"/>
-      <c r="O144" s="17"/>
-    </row>
-    <row r="145" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A145" s="14"/>
-      <c r="B145" s="15"/>
-      <c r="C145" s="44"/>
-      <c r="D145" s="33"/>
-      <c r="E145" s="33"/>
-      <c r="F145" s="33"/>
-      <c r="G145" s="33"/>
-      <c r="H145" s="33"/>
-      <c r="I145" s="33"/>
-      <c r="J145" s="34"/>
-      <c r="K145" s="17"/>
-      <c r="L145" s="18"/>
-      <c r="M145" s="16"/>
-      <c r="N145" s="18"/>
-      <c r="O145" s="17"/>
-    </row>
-    <row r="146" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A146" s="14"/>
-      <c r="B146" s="15"/>
-      <c r="C146" s="44"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="33"/>
-      <c r="G146" s="33"/>
-      <c r="H146" s="33"/>
-      <c r="I146" s="33"/>
-      <c r="J146" s="34"/>
-      <c r="K146" s="17"/>
-      <c r="L146" s="18"/>
-      <c r="M146" s="16"/>
-      <c r="N146" s="18"/>
-      <c r="O146" s="17"/>
-    </row>
-    <row r="147" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A147" s="14"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="44"/>
-      <c r="D147" s="33"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33"/>
-      <c r="G147" s="33"/>
-      <c r="H147" s="33"/>
-      <c r="I147" s="33"/>
-      <c r="J147" s="34"/>
-      <c r="K147" s="17"/>
-      <c r="L147" s="18"/>
-      <c r="M147" s="16"/>
-      <c r="N147" s="18"/>
-      <c r="O147" s="17"/>
-    </row>
-    <row r="148" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A148" s="14"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="44"/>
-      <c r="D148" s="33"/>
-      <c r="E148" s="33"/>
-      <c r="F148" s="33"/>
-      <c r="G148" s="33"/>
-      <c r="H148" s="33"/>
-      <c r="I148" s="33"/>
-      <c r="J148" s="34"/>
-      <c r="K148" s="17"/>
-      <c r="L148" s="18"/>
-      <c r="M148" s="16"/>
-      <c r="N148" s="18"/>
-      <c r="O148" s="17"/>
-    </row>
-    <row r="149" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A149" s="14"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="44"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33"/>
-      <c r="G149" s="33"/>
-      <c r="H149" s="33"/>
-      <c r="I149" s="33"/>
-      <c r="J149" s="34"/>
-      <c r="K149" s="17"/>
-      <c r="L149" s="18"/>
-      <c r="M149" s="16"/>
-      <c r="N149" s="18"/>
-      <c r="O149" s="17"/>
-    </row>
-    <row r="150" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A150" s="14"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="44"/>
-      <c r="D150" s="33"/>
-      <c r="E150" s="33"/>
-      <c r="F150" s="33"/>
-      <c r="G150" s="33"/>
-      <c r="H150" s="33"/>
-      <c r="I150" s="33"/>
-      <c r="J150" s="34"/>
-      <c r="K150" s="17"/>
-      <c r="L150" s="18"/>
-      <c r="M150" s="16"/>
-      <c r="N150" s="18"/>
-      <c r="O150" s="17"/>
-    </row>
-    <row r="151" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A151" s="14"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="44"/>
-      <c r="D151" s="33"/>
-      <c r="E151" s="33"/>
-      <c r="F151" s="33"/>
-      <c r="G151" s="33"/>
-      <c r="H151" s="33"/>
-      <c r="I151" s="33"/>
-      <c r="J151" s="34"/>
-      <c r="K151" s="17"/>
-      <c r="L151" s="18"/>
-      <c r="M151" s="16"/>
-      <c r="N151" s="18"/>
-      <c r="O151" s="17"/>
-    </row>
-    <row r="152" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A152" s="14"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="44"/>
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
-      <c r="F152" s="33"/>
-      <c r="G152" s="33"/>
-      <c r="H152" s="33"/>
-      <c r="I152" s="33"/>
-      <c r="J152" s="34"/>
-      <c r="K152" s="17"/>
-      <c r="L152" s="18"/>
-      <c r="M152" s="16"/>
-      <c r="N152" s="18"/>
-      <c r="O152" s="17"/>
-    </row>
-    <row r="153" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A153" s="14"/>
-      <c r="B153" s="15"/>
-      <c r="C153" s="44"/>
-      <c r="D153" s="33"/>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33"/>
-      <c r="G153" s="33"/>
-      <c r="H153" s="33"/>
-      <c r="I153" s="33"/>
-      <c r="J153" s="34"/>
-      <c r="K153" s="17"/>
-      <c r="L153" s="18"/>
-      <c r="M153" s="16"/>
-      <c r="N153" s="18"/>
-      <c r="O153" s="17"/>
-    </row>
-    <row r="154" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A154" s="14"/>
-      <c r="B154" s="15"/>
-      <c r="C154" s="44"/>
-      <c r="D154" s="33"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33"/>
-      <c r="G154" s="33"/>
-      <c r="H154" s="33"/>
-      <c r="I154" s="33"/>
-      <c r="J154" s="34"/>
-      <c r="K154" s="17"/>
-      <c r="L154" s="18"/>
-      <c r="M154" s="16"/>
-      <c r="N154" s="18"/>
-      <c r="O154" s="17"/>
-    </row>
-    <row r="155" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A155" s="14"/>
-      <c r="B155" s="15"/>
-      <c r="C155" s="44"/>
-      <c r="D155" s="33"/>
-      <c r="E155" s="33"/>
-      <c r="F155" s="33"/>
-      <c r="G155" s="33"/>
-      <c r="H155" s="33"/>
-      <c r="I155" s="33"/>
-      <c r="J155" s="34"/>
-      <c r="K155" s="17"/>
-      <c r="L155" s="18"/>
-      <c r="M155" s="16"/>
-      <c r="N155" s="18"/>
-      <c r="O155" s="17"/>
-    </row>
-    <row r="156" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A156" s="14"/>
-      <c r="B156" s="15"/>
-      <c r="C156" s="44"/>
-      <c r="D156" s="33"/>
-      <c r="E156" s="33"/>
-      <c r="F156" s="33"/>
-      <c r="G156" s="33"/>
-      <c r="H156" s="33"/>
-      <c r="I156" s="33"/>
-      <c r="J156" s="34"/>
-      <c r="K156" s="17"/>
-      <c r="L156" s="18"/>
-      <c r="M156" s="16"/>
-      <c r="N156" s="18"/>
-      <c r="O156" s="17"/>
-    </row>
-    <row r="157" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A157" s="14"/>
-      <c r="B157" s="15"/>
-      <c r="C157" s="44"/>
-      <c r="D157" s="33"/>
-      <c r="E157" s="33"/>
-      <c r="F157" s="33"/>
-      <c r="G157" s="33"/>
-      <c r="H157" s="33"/>
-      <c r="I157" s="33"/>
-      <c r="J157" s="34"/>
-      <c r="K157" s="17"/>
-      <c r="L157" s="18"/>
-      <c r="M157" s="16"/>
-      <c r="N157" s="18"/>
-      <c r="O157" s="17"/>
-    </row>
-    <row r="158" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A158" s="14"/>
-      <c r="B158" s="15"/>
-      <c r="C158" s="44"/>
-      <c r="D158" s="33"/>
-      <c r="E158" s="33"/>
-      <c r="F158" s="33"/>
-      <c r="G158" s="33"/>
-      <c r="H158" s="33"/>
-      <c r="I158" s="33"/>
-      <c r="J158" s="34"/>
-      <c r="K158" s="17"/>
-      <c r="L158" s="18"/>
-      <c r="M158" s="16"/>
-      <c r="N158" s="18"/>
-      <c r="O158" s="17"/>
-    </row>
-    <row r="159" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A159" s="14"/>
-      <c r="B159" s="15"/>
-      <c r="C159" s="44"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
-      <c r="F159" s="33"/>
-      <c r="G159" s="33"/>
-      <c r="H159" s="33"/>
-      <c r="I159" s="33"/>
-      <c r="J159" s="34"/>
-      <c r="K159" s="17"/>
-      <c r="L159" s="18"/>
-      <c r="M159" s="16"/>
-      <c r="N159" s="18"/>
-      <c r="O159" s="17"/>
-    </row>
-    <row r="160" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A160" s="14"/>
-      <c r="B160" s="15"/>
-      <c r="C160" s="44"/>
-      <c r="D160" s="33"/>
-      <c r="E160" s="33"/>
-      <c r="F160" s="33"/>
-      <c r="G160" s="33"/>
-      <c r="H160" s="33"/>
-      <c r="I160" s="33"/>
-      <c r="J160" s="34"/>
-      <c r="K160" s="17"/>
-      <c r="L160" s="18"/>
-      <c r="M160" s="16"/>
-      <c r="N160" s="18"/>
-      <c r="O160" s="17"/>
-    </row>
-    <row r="161" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A161" s="14"/>
-      <c r="B161" s="15"/>
-      <c r="C161" s="44"/>
-      <c r="D161" s="33"/>
-      <c r="E161" s="33"/>
-      <c r="F161" s="33"/>
-      <c r="G161" s="33"/>
-      <c r="H161" s="33"/>
-      <c r="I161" s="33"/>
-      <c r="J161" s="34"/>
-      <c r="K161" s="17"/>
-      <c r="L161" s="18"/>
-      <c r="M161" s="16"/>
-      <c r="N161" s="18"/>
-      <c r="O161" s="17"/>
-    </row>
-    <row r="162" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A162" s="14"/>
-      <c r="B162" s="15"/>
-      <c r="C162" s="44"/>
-      <c r="D162" s="33"/>
-      <c r="E162" s="33"/>
-      <c r="F162" s="33"/>
-      <c r="G162" s="33"/>
-      <c r="H162" s="33"/>
-      <c r="I162" s="33"/>
-      <c r="J162" s="34"/>
-      <c r="K162" s="17"/>
-      <c r="L162" s="18"/>
-      <c r="M162" s="16"/>
-      <c r="N162" s="18"/>
-      <c r="O162" s="17"/>
-    </row>
-    <row r="163" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A163" s="14"/>
-      <c r="B163" s="15"/>
-      <c r="C163" s="44"/>
-      <c r="D163" s="33"/>
-      <c r="E163" s="33"/>
-      <c r="F163" s="33"/>
-      <c r="G163" s="33"/>
-      <c r="H163" s="33"/>
-      <c r="I163" s="33"/>
-      <c r="J163" s="34"/>
-      <c r="K163" s="17"/>
-      <c r="L163" s="18"/>
-      <c r="M163" s="16"/>
-      <c r="N163" s="18"/>
-      <c r="O163" s="17"/>
-    </row>
-    <row r="164" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A164" s="14"/>
-      <c r="B164" s="15"/>
-      <c r="C164" s="44"/>
-      <c r="D164" s="33"/>
-      <c r="E164" s="33"/>
-      <c r="F164" s="33"/>
-      <c r="G164" s="33"/>
-      <c r="H164" s="33"/>
-      <c r="I164" s="33"/>
-      <c r="J164" s="34"/>
-      <c r="K164" s="17"/>
-      <c r="L164" s="18"/>
-      <c r="M164" s="16"/>
-      <c r="N164" s="18"/>
-      <c r="O164" s="17"/>
-    </row>
-    <row r="165" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A165" s="14"/>
-      <c r="B165" s="15"/>
-      <c r="C165" s="44"/>
-      <c r="D165" s="33"/>
-      <c r="E165" s="33"/>
-      <c r="F165" s="33"/>
-      <c r="G165" s="33"/>
-      <c r="H165" s="33"/>
-      <c r="I165" s="33"/>
-      <c r="J165" s="34"/>
-      <c r="K165" s="17"/>
-      <c r="L165" s="18"/>
-      <c r="M165" s="16"/>
-      <c r="N165" s="18"/>
-      <c r="O165" s="17"/>
-    </row>
-    <row r="166" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A166" s="14"/>
-      <c r="B166" s="15"/>
-      <c r="C166" s="44"/>
-      <c r="D166" s="33"/>
-      <c r="E166" s="33"/>
-      <c r="F166" s="33"/>
-      <c r="G166" s="33"/>
-      <c r="H166" s="33"/>
-      <c r="I166" s="33"/>
-      <c r="J166" s="34"/>
-      <c r="K166" s="17"/>
-      <c r="L166" s="18"/>
-      <c r="M166" s="16"/>
-      <c r="N166" s="18"/>
-      <c r="O166" s="17"/>
-    </row>
-    <row r="167" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A167" s="14"/>
-      <c r="B167" s="15"/>
-      <c r="C167" s="44"/>
-      <c r="D167" s="33"/>
-      <c r="E167" s="33"/>
-      <c r="F167" s="33"/>
-      <c r="G167" s="33"/>
-      <c r="H167" s="33"/>
-      <c r="I167" s="33"/>
-      <c r="J167" s="34"/>
-      <c r="K167" s="17"/>
-      <c r="L167" s="18"/>
-      <c r="M167" s="16"/>
-      <c r="N167" s="18"/>
-      <c r="O167" s="17"/>
-    </row>
-    <row r="168" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A168" s="14"/>
-      <c r="B168" s="15"/>
-      <c r="C168" s="44"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="33"/>
-      <c r="F168" s="33"/>
-      <c r="G168" s="33"/>
-      <c r="H168" s="33"/>
-      <c r="I168" s="33"/>
-      <c r="J168" s="34"/>
-      <c r="K168" s="17"/>
-      <c r="L168" s="18"/>
-      <c r="M168" s="16"/>
-      <c r="N168" s="18"/>
-      <c r="O168" s="17"/>
-    </row>
-    <row r="169" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A169" s="14"/>
-      <c r="B169" s="15"/>
-      <c r="C169" s="44"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
-      <c r="F169" s="33"/>
-      <c r="G169" s="33"/>
-      <c r="H169" s="33"/>
-      <c r="I169" s="33"/>
-      <c r="J169" s="34"/>
-      <c r="K169" s="17"/>
-      <c r="L169" s="18"/>
-      <c r="M169" s="16"/>
-      <c r="N169" s="18"/>
-      <c r="O169" s="17"/>
-    </row>
-    <row r="170" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A170" s="14"/>
-      <c r="B170" s="15"/>
-      <c r="C170" s="44"/>
-      <c r="D170" s="33"/>
-      <c r="E170" s="33"/>
-      <c r="F170" s="33"/>
-      <c r="G170" s="33"/>
-      <c r="H170" s="33"/>
-      <c r="I170" s="33"/>
-      <c r="J170" s="34"/>
-      <c r="K170" s="17"/>
-      <c r="L170" s="18"/>
-      <c r="M170" s="16"/>
-      <c r="N170" s="18"/>
-      <c r="O170" s="17"/>
-    </row>
-    <row r="171" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A171" s="14"/>
-      <c r="B171" s="15"/>
-      <c r="C171" s="44"/>
-      <c r="D171" s="33"/>
-      <c r="E171" s="33"/>
-      <c r="F171" s="33"/>
-      <c r="G171" s="33"/>
-      <c r="H171" s="33"/>
-      <c r="I171" s="33"/>
-      <c r="J171" s="34"/>
-      <c r="K171" s="17"/>
-      <c r="L171" s="18"/>
-      <c r="M171" s="16"/>
-      <c r="N171" s="18"/>
-      <c r="O171" s="17"/>
-    </row>
-    <row r="172" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A172" s="14"/>
-      <c r="B172" s="15"/>
-      <c r="C172" s="44"/>
-      <c r="D172" s="33"/>
-      <c r="E172" s="33"/>
-      <c r="F172" s="33"/>
-      <c r="G172" s="33"/>
-      <c r="H172" s="33"/>
-      <c r="I172" s="33"/>
-      <c r="J172" s="34"/>
-      <c r="K172" s="17"/>
-      <c r="L172" s="18"/>
-      <c r="M172" s="16"/>
-      <c r="N172" s="18"/>
-      <c r="O172" s="17"/>
-    </row>
-    <row r="173" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A173" s="14"/>
-      <c r="B173" s="15"/>
-      <c r="C173" s="44"/>
-      <c r="D173" s="33"/>
-      <c r="E173" s="33"/>
-      <c r="F173" s="33"/>
-      <c r="G173" s="33"/>
-      <c r="H173" s="33"/>
-      <c r="I173" s="33"/>
-      <c r="J173" s="34"/>
-      <c r="K173" s="17"/>
-      <c r="L173" s="18"/>
-      <c r="M173" s="16"/>
-      <c r="N173" s="18"/>
-      <c r="O173" s="17"/>
-    </row>
-    <row r="174" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A174" s="14"/>
-      <c r="B174" s="15"/>
-      <c r="C174" s="44"/>
-      <c r="D174" s="33"/>
-      <c r="E174" s="33"/>
-      <c r="F174" s="33"/>
-      <c r="G174" s="33"/>
-      <c r="H174" s="33"/>
-      <c r="I174" s="33"/>
-      <c r="J174" s="34"/>
-      <c r="K174" s="17"/>
-      <c r="L174" s="18"/>
-      <c r="M174" s="16"/>
-      <c r="N174" s="18"/>
-      <c r="O174" s="17"/>
-    </row>
-    <row r="175" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A175" s="14"/>
-      <c r="B175" s="15"/>
-      <c r="C175" s="44"/>
-      <c r="D175" s="33"/>
-      <c r="E175" s="33"/>
-      <c r="F175" s="33"/>
-      <c r="G175" s="33"/>
-      <c r="H175" s="33"/>
-      <c r="I175" s="33"/>
-      <c r="J175" s="34"/>
-      <c r="K175" s="17"/>
-      <c r="L175" s="18"/>
-      <c r="M175" s="16"/>
-      <c r="N175" s="18"/>
-      <c r="O175" s="17"/>
-    </row>
-    <row r="176" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A176" s="14"/>
-      <c r="B176" s="15"/>
-      <c r="C176" s="44"/>
-      <c r="D176" s="33"/>
-      <c r="E176" s="33"/>
-      <c r="F176" s="33"/>
-      <c r="G176" s="33"/>
-      <c r="H176" s="33"/>
-      <c r="I176" s="33"/>
-      <c r="J176" s="34"/>
-      <c r="K176" s="17"/>
-      <c r="L176" s="18"/>
-      <c r="M176" s="16"/>
-      <c r="N176" s="18"/>
-      <c r="O176" s="17"/>
-    </row>
-    <row r="177" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A177" s="14"/>
-      <c r="B177" s="15"/>
-      <c r="C177" s="44"/>
-      <c r="D177" s="33"/>
-      <c r="E177" s="33"/>
-      <c r="F177" s="33"/>
-      <c r="G177" s="33"/>
-      <c r="H177" s="33"/>
-      <c r="I177" s="33"/>
-      <c r="J177" s="34"/>
-      <c r="K177" s="17"/>
-      <c r="L177" s="18"/>
-      <c r="M177" s="16"/>
-      <c r="N177" s="18"/>
-      <c r="O177" s="17"/>
-    </row>
-    <row r="178" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A178" s="14"/>
-      <c r="B178" s="15"/>
-      <c r="C178" s="44"/>
-      <c r="D178" s="33"/>
-      <c r="E178" s="33"/>
-      <c r="F178" s="33"/>
-      <c r="G178" s="33"/>
-      <c r="H178" s="33"/>
-      <c r="I178" s="33"/>
-      <c r="J178" s="34"/>
-      <c r="K178" s="17"/>
-      <c r="L178" s="18"/>
-      <c r="M178" s="16"/>
-      <c r="N178" s="18"/>
-      <c r="O178" s="17"/>
-    </row>
-    <row r="179" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A179" s="14"/>
-      <c r="B179" s="15"/>
-      <c r="C179" s="44"/>
-      <c r="D179" s="33"/>
-      <c r="E179" s="33"/>
-      <c r="F179" s="33"/>
-      <c r="G179" s="33"/>
-      <c r="H179" s="33"/>
-      <c r="I179" s="33"/>
-      <c r="J179" s="34"/>
-      <c r="K179" s="17"/>
-      <c r="L179" s="18"/>
-      <c r="M179" s="16"/>
-      <c r="N179" s="18"/>
-      <c r="O179" s="17"/>
-    </row>
-    <row r="180" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A180" s="14"/>
-      <c r="B180" s="15"/>
-      <c r="C180" s="44"/>
-      <c r="D180" s="33"/>
-      <c r="E180" s="33"/>
-      <c r="F180" s="33"/>
-      <c r="G180" s="33"/>
-      <c r="H180" s="33"/>
-      <c r="I180" s="33"/>
-      <c r="J180" s="34"/>
-      <c r="K180" s="17"/>
-      <c r="L180" s="18"/>
-      <c r="M180" s="16"/>
-      <c r="N180" s="18"/>
-      <c r="O180" s="17"/>
-    </row>
-    <row r="181" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A181" s="14"/>
-      <c r="B181" s="15"/>
-      <c r="C181" s="44"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
-      <c r="F181" s="33"/>
-      <c r="G181" s="33"/>
-      <c r="H181" s="33"/>
-      <c r="I181" s="33"/>
-      <c r="J181" s="34"/>
-      <c r="K181" s="17"/>
-      <c r="L181" s="18"/>
-      <c r="M181" s="16"/>
-      <c r="N181" s="18"/>
-      <c r="O181" s="17"/>
-    </row>
-    <row r="182" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A182" s="14"/>
-      <c r="B182" s="15"/>
-      <c r="C182" s="44"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="33"/>
-      <c r="F182" s="33"/>
-      <c r="G182" s="33"/>
-      <c r="H182" s="33"/>
-      <c r="I182" s="33"/>
-      <c r="J182" s="34"/>
-      <c r="K182" s="17"/>
-      <c r="L182" s="18"/>
-      <c r="M182" s="16"/>
-      <c r="N182" s="18"/>
-      <c r="O182" s="17"/>
-    </row>
-    <row r="183" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A183" s="14"/>
-      <c r="B183" s="15"/>
-      <c r="C183" s="44"/>
-      <c r="D183" s="33"/>
-      <c r="E183" s="33"/>
-      <c r="F183" s="33"/>
-      <c r="G183" s="33"/>
-      <c r="H183" s="33"/>
-      <c r="I183" s="33"/>
-      <c r="J183" s="34"/>
-      <c r="K183" s="17"/>
-      <c r="L183" s="18"/>
-      <c r="M183" s="16"/>
-      <c r="N183" s="18"/>
-      <c r="O183" s="17"/>
-    </row>
-    <row r="184" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A184" s="14"/>
-      <c r="B184" s="15"/>
-      <c r="C184" s="44"/>
-      <c r="D184" s="33"/>
-      <c r="E184" s="33"/>
-      <c r="F184" s="33"/>
-      <c r="G184" s="33"/>
-      <c r="H184" s="33"/>
-      <c r="I184" s="33"/>
-      <c r="J184" s="34"/>
-      <c r="K184" s="17"/>
-      <c r="L184" s="18"/>
-      <c r="M184" s="16"/>
-      <c r="N184" s="18"/>
-      <c r="O184" s="17"/>
-    </row>
-    <row r="185" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A185" s="14"/>
-      <c r="B185" s="15"/>
-      <c r="C185" s="44"/>
-      <c r="D185" s="33"/>
-      <c r="E185" s="33"/>
-      <c r="F185" s="33"/>
-      <c r="G185" s="33"/>
-      <c r="H185" s="33"/>
-      <c r="I185" s="33"/>
-      <c r="J185" s="34"/>
-      <c r="K185" s="17"/>
-      <c r="L185" s="18"/>
-      <c r="M185" s="16"/>
-      <c r="N185" s="18"/>
-      <c r="O185" s="17"/>
-    </row>
-    <row r="186" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A186" s="14"/>
-      <c r="B186" s="15"/>
-      <c r="C186" s="44"/>
-      <c r="D186" s="33"/>
-      <c r="E186" s="33"/>
-      <c r="F186" s="33"/>
-      <c r="G186" s="33"/>
-      <c r="H186" s="33"/>
-      <c r="I186" s="33"/>
-      <c r="J186" s="34"/>
-      <c r="K186" s="17"/>
-      <c r="L186" s="18"/>
-      <c r="M186" s="16"/>
-      <c r="N186" s="18"/>
-      <c r="O186" s="17"/>
-    </row>
-    <row r="187" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A187" s="14"/>
-      <c r="B187" s="15"/>
-      <c r="C187" s="44"/>
-      <c r="D187" s="33"/>
-      <c r="E187" s="33"/>
-      <c r="F187" s="33"/>
-      <c r="G187" s="33"/>
-      <c r="H187" s="33"/>
-      <c r="I187" s="33"/>
-      <c r="J187" s="34"/>
-      <c r="K187" s="17"/>
-      <c r="L187" s="18"/>
-      <c r="M187" s="16"/>
-      <c r="N187" s="18"/>
-      <c r="O187" s="17"/>
-    </row>
-    <row r="188" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A188" s="14"/>
-      <c r="B188" s="15"/>
-      <c r="C188" s="44"/>
-      <c r="D188" s="33"/>
-      <c r="E188" s="33"/>
-      <c r="F188" s="33"/>
-      <c r="G188" s="33"/>
-      <c r="H188" s="33"/>
-      <c r="I188" s="33"/>
-      <c r="J188" s="34"/>
-      <c r="K188" s="17"/>
-      <c r="L188" s="18"/>
-      <c r="M188" s="16"/>
-      <c r="N188" s="18"/>
-      <c r="O188" s="17"/>
-    </row>
-    <row r="189" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A189" s="14"/>
-      <c r="B189" s="15"/>
-      <c r="C189" s="44"/>
-      <c r="D189" s="33"/>
-      <c r="E189" s="33"/>
-      <c r="F189" s="33"/>
-      <c r="G189" s="33"/>
-      <c r="H189" s="33"/>
-      <c r="I189" s="33"/>
-      <c r="J189" s="34"/>
-      <c r="K189" s="17"/>
-      <c r="L189" s="18"/>
-      <c r="M189" s="16"/>
-      <c r="N189" s="18"/>
-      <c r="O189" s="17"/>
-    </row>
-    <row r="190" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A190" s="14"/>
-      <c r="B190" s="15"/>
-      <c r="C190" s="44"/>
-      <c r="D190" s="33"/>
-      <c r="E190" s="33"/>
-      <c r="F190" s="33"/>
-      <c r="G190" s="33"/>
-      <c r="H190" s="33"/>
-      <c r="I190" s="33"/>
-      <c r="J190" s="34"/>
-      <c r="K190" s="17"/>
-      <c r="L190" s="18"/>
-      <c r="M190" s="16"/>
-      <c r="N190" s="18"/>
-      <c r="O190" s="17"/>
-    </row>
-    <row r="191" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A191" s="14"/>
-      <c r="B191" s="15"/>
-      <c r="C191" s="44"/>
-      <c r="D191" s="33"/>
-      <c r="E191" s="33"/>
-      <c r="F191" s="33"/>
-      <c r="G191" s="33"/>
-      <c r="H191" s="33"/>
-      <c r="I191" s="33"/>
-      <c r="J191" s="34"/>
-      <c r="K191" s="17"/>
-      <c r="L191" s="18"/>
-      <c r="M191" s="16"/>
-      <c r="N191" s="18"/>
-      <c r="O191" s="17"/>
-    </row>
-    <row r="192" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A192" s="14"/>
-      <c r="B192" s="15"/>
-      <c r="C192" s="44"/>
-      <c r="D192" s="33"/>
-      <c r="E192" s="33"/>
-      <c r="F192" s="33"/>
-      <c r="G192" s="33"/>
-      <c r="H192" s="33"/>
-      <c r="I192" s="33"/>
-      <c r="J192" s="34"/>
-      <c r="K192" s="17"/>
-      <c r="L192" s="18"/>
-      <c r="M192" s="16"/>
-      <c r="N192" s="18"/>
-      <c r="O192" s="17"/>
-    </row>
-    <row r="193" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A193" s="14"/>
-      <c r="B193" s="15"/>
-      <c r="C193" s="44"/>
-      <c r="D193" s="33"/>
-      <c r="E193" s="33"/>
-      <c r="F193" s="33"/>
-      <c r="G193" s="33"/>
-      <c r="H193" s="33"/>
-      <c r="I193" s="33"/>
-      <c r="J193" s="34"/>
-      <c r="K193" s="17"/>
-      <c r="L193" s="18"/>
-      <c r="M193" s="16"/>
-      <c r="N193" s="18"/>
-      <c r="O193" s="17"/>
-    </row>
-    <row r="194" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A194" s="14"/>
-      <c r="B194" s="15"/>
-      <c r="C194" s="44"/>
-      <c r="D194" s="33"/>
-      <c r="E194" s="33"/>
-      <c r="F194" s="33"/>
-      <c r="G194" s="33"/>
-      <c r="H194" s="33"/>
-      <c r="I194" s="33"/>
-      <c r="J194" s="34"/>
-      <c r="K194" s="17"/>
-      <c r="L194" s="18"/>
-      <c r="M194" s="16"/>
-      <c r="N194" s="18"/>
-      <c r="O194" s="17"/>
-    </row>
-    <row r="195" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A195" s="14"/>
-      <c r="B195" s="15"/>
-      <c r="C195" s="44"/>
-      <c r="D195" s="33"/>
-      <c r="E195" s="33"/>
-      <c r="F195" s="33"/>
-      <c r="G195" s="33"/>
-      <c r="H195" s="33"/>
-      <c r="I195" s="33"/>
-      <c r="J195" s="34"/>
-      <c r="K195" s="17"/>
-      <c r="L195" s="18"/>
-      <c r="M195" s="16"/>
-      <c r="N195" s="18"/>
-      <c r="O195" s="17"/>
-    </row>
-    <row r="196" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A196" s="14"/>
-      <c r="B196" s="15"/>
-      <c r="C196" s="44"/>
-      <c r="D196" s="33"/>
-      <c r="E196" s="33"/>
-      <c r="F196" s="33"/>
-      <c r="G196" s="33"/>
-      <c r="H196" s="33"/>
-      <c r="I196" s="33"/>
-      <c r="J196" s="34"/>
-      <c r="K196" s="17"/>
-      <c r="L196" s="18"/>
-      <c r="M196" s="16"/>
-      <c r="N196" s="18"/>
-      <c r="O196" s="17"/>
-    </row>
-    <row r="197" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A197" s="14"/>
-      <c r="B197" s="15"/>
-      <c r="C197" s="44"/>
-      <c r="D197" s="33"/>
-      <c r="E197" s="33"/>
-      <c r="F197" s="33"/>
-      <c r="G197" s="33"/>
-      <c r="H197" s="33"/>
-      <c r="I197" s="33"/>
-      <c r="J197" s="34"/>
-      <c r="K197" s="17"/>
-      <c r="L197" s="18"/>
-      <c r="M197" s="16"/>
-      <c r="N197" s="18"/>
-      <c r="O197" s="17"/>
-    </row>
-    <row r="198" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A198" s="14"/>
-      <c r="B198" s="15"/>
-      <c r="C198" s="44"/>
-      <c r="D198" s="33"/>
-      <c r="E198" s="33"/>
-      <c r="F198" s="33"/>
-      <c r="G198" s="33"/>
-      <c r="H198" s="33"/>
-      <c r="I198" s="33"/>
-      <c r="J198" s="34"/>
-      <c r="K198" s="17"/>
-      <c r="L198" s="18"/>
-      <c r="M198" s="16"/>
-      <c r="N198" s="18"/>
-      <c r="O198" s="17"/>
-    </row>
-    <row r="199" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A199" s="14"/>
-      <c r="B199" s="15"/>
-      <c r="C199" s="44"/>
-      <c r="D199" s="33"/>
-      <c r="E199" s="33"/>
-      <c r="F199" s="33"/>
-      <c r="G199" s="33"/>
-      <c r="H199" s="33"/>
-      <c r="I199" s="33"/>
-      <c r="J199" s="34"/>
-      <c r="K199" s="17"/>
-      <c r="L199" s="18"/>
-      <c r="M199" s="16"/>
-      <c r="N199" s="18"/>
-      <c r="O199" s="17"/>
-    </row>
-    <row r="200" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A200" s="14"/>
-      <c r="B200" s="15"/>
-      <c r="C200" s="44"/>
-      <c r="D200" s="33"/>
-      <c r="E200" s="33"/>
-      <c r="F200" s="33"/>
-      <c r="G200" s="33"/>
-      <c r="H200" s="33"/>
-      <c r="I200" s="33"/>
-      <c r="J200" s="34"/>
-      <c r="K200" s="17"/>
-      <c r="L200" s="18"/>
-      <c r="M200" s="16"/>
-      <c r="N200" s="18"/>
-      <c r="O200" s="17"/>
-    </row>
-    <row r="201" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A201" s="14"/>
-      <c r="B201" s="15"/>
-      <c r="C201" s="44"/>
-      <c r="D201" s="33"/>
-      <c r="E201" s="33"/>
-      <c r="F201" s="33"/>
-      <c r="G201" s="33"/>
-      <c r="H201" s="33"/>
-      <c r="I201" s="33"/>
-      <c r="J201" s="34"/>
-      <c r="K201" s="17"/>
-      <c r="L201" s="18"/>
-      <c r="M201" s="16"/>
-      <c r="N201" s="18"/>
-      <c r="O201" s="17"/>
-    </row>
-    <row r="202" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A202" s="14"/>
-      <c r="B202" s="15"/>
-      <c r="C202" s="44"/>
-      <c r="D202" s="33"/>
-      <c r="E202" s="33"/>
-      <c r="F202" s="33"/>
-      <c r="G202" s="33"/>
-      <c r="H202" s="33"/>
-      <c r="I202" s="33"/>
-      <c r="J202" s="34"/>
-      <c r="K202" s="17"/>
-      <c r="L202" s="18"/>
-      <c r="M202" s="16"/>
-      <c r="N202" s="18"/>
-      <c r="O202" s="17"/>
-    </row>
-    <row r="203" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A203" s="14"/>
-      <c r="B203" s="15"/>
-      <c r="C203" s="44"/>
-      <c r="D203" s="33"/>
-      <c r="E203" s="33"/>
-      <c r="F203" s="33"/>
-      <c r="G203" s="33"/>
-      <c r="H203" s="33"/>
-      <c r="I203" s="33"/>
-      <c r="J203" s="34"/>
-      <c r="K203" s="17"/>
-      <c r="L203" s="18"/>
-      <c r="M203" s="16"/>
-      <c r="N203" s="18"/>
-      <c r="O203" s="17"/>
-    </row>
-    <row r="204" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A204" s="14"/>
-      <c r="B204" s="15"/>
-      <c r="C204" s="44"/>
-      <c r="D204" s="33"/>
-      <c r="E204" s="33"/>
-      <c r="F204" s="33"/>
-      <c r="G204" s="33"/>
-      <c r="H204" s="33"/>
-      <c r="I204" s="33"/>
-      <c r="J204" s="34"/>
-      <c r="K204" s="17"/>
-      <c r="L204" s="18"/>
-      <c r="M204" s="16"/>
-      <c r="N204" s="18"/>
-      <c r="O204" s="17"/>
-    </row>
-    <row r="205" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A205" s="14"/>
-      <c r="B205" s="15"/>
-      <c r="C205" s="44"/>
-      <c r="D205" s="33"/>
-      <c r="E205" s="33"/>
-      <c r="F205" s="33"/>
-      <c r="G205" s="33"/>
-      <c r="H205" s="33"/>
-      <c r="I205" s="33"/>
-      <c r="J205" s="34"/>
-      <c r="K205" s="17"/>
-      <c r="L205" s="18"/>
-      <c r="M205" s="16"/>
-      <c r="N205" s="18"/>
-      <c r="O205" s="17"/>
-    </row>
-    <row r="206" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A206" s="14"/>
-      <c r="B206" s="15"/>
-      <c r="C206" s="44"/>
-      <c r="D206" s="33"/>
-      <c r="E206" s="33"/>
-      <c r="F206" s="33"/>
-      <c r="G206" s="33"/>
-      <c r="H206" s="33"/>
-      <c r="I206" s="33"/>
-      <c r="J206" s="34"/>
-      <c r="K206" s="17"/>
-      <c r="L206" s="18"/>
-      <c r="M206" s="16"/>
-      <c r="N206" s="18"/>
-      <c r="O206" s="17"/>
-    </row>
-    <row r="207" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A207" s="14"/>
-      <c r="B207" s="15"/>
-      <c r="C207" s="44"/>
-      <c r="D207" s="33"/>
-      <c r="E207" s="33"/>
-      <c r="F207" s="33"/>
-      <c r="G207" s="33"/>
-      <c r="H207" s="33"/>
-      <c r="I207" s="33"/>
-      <c r="J207" s="34"/>
-      <c r="K207" s="17"/>
-      <c r="L207" s="18"/>
-      <c r="M207" s="16"/>
-      <c r="N207" s="18"/>
-      <c r="O207" s="17"/>
-    </row>
-    <row r="208" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A208" s="14"/>
-      <c r="B208" s="15"/>
-      <c r="C208" s="44"/>
-      <c r="D208" s="33"/>
-      <c r="E208" s="33"/>
-      <c r="F208" s="33"/>
-      <c r="G208" s="33"/>
-      <c r="H208" s="33"/>
-      <c r="I208" s="33"/>
-      <c r="J208" s="34"/>
-      <c r="K208" s="17"/>
-      <c r="L208" s="18"/>
-      <c r="M208" s="16"/>
-      <c r="N208" s="18"/>
-      <c r="O208" s="17"/>
-    </row>
-    <row r="209" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A209" s="14"/>
-      <c r="B209" s="15"/>
-      <c r="C209" s="44"/>
-      <c r="D209" s="33"/>
-      <c r="E209" s="33"/>
-      <c r="F209" s="33"/>
-      <c r="G209" s="33"/>
-      <c r="H209" s="33"/>
-      <c r="I209" s="33"/>
-      <c r="J209" s="34"/>
-      <c r="K209" s="17"/>
-      <c r="L209" s="18"/>
-      <c r="M209" s="16"/>
-      <c r="N209" s="18"/>
-      <c r="O209" s="17"/>
-    </row>
-    <row r="210" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A210" s="14"/>
-      <c r="B210" s="15"/>
-      <c r="C210" s="44"/>
-      <c r="D210" s="33"/>
-      <c r="E210" s="33"/>
-      <c r="F210" s="33"/>
-      <c r="G210" s="33"/>
-      <c r="H210" s="33"/>
-      <c r="I210" s="33"/>
-      <c r="J210" s="34"/>
-      <c r="K210" s="17"/>
-      <c r="L210" s="18"/>
-      <c r="M210" s="16"/>
-      <c r="N210" s="18"/>
-      <c r="O210" s="17"/>
-    </row>
-    <row r="211" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A211" s="14"/>
-      <c r="B211" s="15"/>
-      <c r="C211" s="44"/>
-      <c r="D211" s="33"/>
-      <c r="E211" s="33"/>
-      <c r="F211" s="33"/>
-      <c r="G211" s="33"/>
-      <c r="H211" s="33"/>
-      <c r="I211" s="33"/>
-      <c r="J211" s="34"/>
-      <c r="K211" s="17"/>
-      <c r="L211" s="18"/>
-      <c r="M211" s="16"/>
-      <c r="N211" s="18"/>
-      <c r="O211" s="17"/>
-    </row>
-    <row r="212" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A212" s="14"/>
-      <c r="B212" s="15"/>
-      <c r="C212" s="44"/>
-      <c r="D212" s="33"/>
-      <c r="E212" s="33"/>
-      <c r="F212" s="33"/>
-      <c r="G212" s="33"/>
-      <c r="H212" s="33"/>
-      <c r="I212" s="33"/>
-      <c r="J212" s="34"/>
-      <c r="K212" s="17"/>
-      <c r="L212" s="18"/>
-      <c r="M212" s="16"/>
-      <c r="N212" s="18"/>
-      <c r="O212" s="17"/>
-    </row>
-    <row r="213" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A213" s="14"/>
-      <c r="B213" s="15"/>
-      <c r="C213" s="44"/>
-      <c r="D213" s="33"/>
-      <c r="E213" s="33"/>
-      <c r="F213" s="33"/>
-      <c r="G213" s="33"/>
-      <c r="H213" s="33"/>
-      <c r="I213" s="33"/>
-      <c r="J213" s="34"/>
-      <c r="K213" s="17"/>
-      <c r="L213" s="18"/>
-      <c r="M213" s="16"/>
-      <c r="N213" s="18"/>
-      <c r="O213" s="17"/>
-    </row>
-    <row r="214" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A214" s="14"/>
-      <c r="B214" s="15"/>
-      <c r="C214" s="44"/>
-      <c r="D214" s="33"/>
-      <c r="E214" s="33"/>
-      <c r="F214" s="33"/>
-      <c r="G214" s="33"/>
-      <c r="H214" s="33"/>
-      <c r="I214" s="33"/>
-      <c r="J214" s="34"/>
-      <c r="K214" s="17"/>
-      <c r="L214" s="18"/>
-      <c r="M214" s="16"/>
-      <c r="N214" s="18"/>
-      <c r="O214" s="17"/>
-    </row>
-    <row r="215" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A215" s="14"/>
-      <c r="B215" s="15"/>
-      <c r="C215" s="44"/>
-      <c r="D215" s="33"/>
-      <c r="E215" s="33"/>
-      <c r="F215" s="33"/>
-      <c r="G215" s="33"/>
-      <c r="H215" s="33"/>
-      <c r="I215" s="33"/>
-      <c r="J215" s="34"/>
-      <c r="K215" s="17"/>
-      <c r="L215" s="18"/>
-      <c r="M215" s="16"/>
-      <c r="N215" s="18"/>
-      <c r="O215" s="17"/>
-    </row>
-    <row r="216" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A216" s="14"/>
-      <c r="B216" s="15"/>
-      <c r="C216" s="44"/>
-      <c r="D216" s="33"/>
-      <c r="E216" s="33"/>
-      <c r="F216" s="33"/>
-      <c r="G216" s="33"/>
-      <c r="H216" s="33"/>
-      <c r="I216" s="33"/>
-      <c r="J216" s="34"/>
-      <c r="K216" s="17"/>
-      <c r="L216" s="18"/>
-      <c r="M216" s="16"/>
-      <c r="N216" s="18"/>
-      <c r="O216" s="17"/>
-    </row>
-    <row r="217" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A217" s="14"/>
-      <c r="B217" s="15"/>
-      <c r="C217" s="44"/>
-      <c r="D217" s="33"/>
-      <c r="E217" s="33"/>
-      <c r="F217" s="33"/>
-      <c r="G217" s="33"/>
-      <c r="H217" s="33"/>
-      <c r="I217" s="33"/>
-      <c r="J217" s="34"/>
-      <c r="K217" s="17"/>
-      <c r="L217" s="18"/>
-      <c r="M217" s="16"/>
-      <c r="N217" s="18"/>
-      <c r="O217" s="17"/>
-    </row>
-    <row r="218" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A218" s="14"/>
-      <c r="B218" s="15"/>
-      <c r="C218" s="44"/>
-      <c r="D218" s="33"/>
-      <c r="E218" s="33"/>
-      <c r="F218" s="33"/>
-      <c r="G218" s="33"/>
-      <c r="H218" s="33"/>
-      <c r="I218" s="33"/>
-      <c r="J218" s="34"/>
-      <c r="K218" s="17"/>
-      <c r="L218" s="18"/>
-      <c r="M218" s="16"/>
-      <c r="N218" s="18"/>
-      <c r="O218" s="17"/>
-    </row>
-    <row r="219" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A219" s="14"/>
-      <c r="B219" s="15"/>
-      <c r="C219" s="44"/>
-      <c r="D219" s="33"/>
-      <c r="E219" s="33"/>
-      <c r="F219" s="33"/>
-      <c r="G219" s="33"/>
-      <c r="H219" s="33"/>
-      <c r="I219" s="33"/>
-      <c r="J219" s="34"/>
-      <c r="K219" s="17"/>
-      <c r="L219" s="18"/>
-      <c r="M219" s="16"/>
-      <c r="N219" s="18"/>
-      <c r="O219" s="17"/>
-    </row>
-    <row r="220" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A220" s="14"/>
-      <c r="B220" s="15"/>
-      <c r="C220" s="44"/>
-      <c r="D220" s="33"/>
-      <c r="E220" s="33"/>
-      <c r="F220" s="33"/>
-      <c r="G220" s="33"/>
-      <c r="H220" s="33"/>
-      <c r="I220" s="33"/>
-      <c r="J220" s="34"/>
-      <c r="K220" s="17"/>
-      <c r="L220" s="18"/>
-      <c r="M220" s="16"/>
-      <c r="N220" s="18"/>
-      <c r="O220" s="17"/>
-    </row>
-    <row r="221" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A221" s="14"/>
-      <c r="B221" s="15"/>
-      <c r="C221" s="44"/>
-      <c r="D221" s="33"/>
-      <c r="E221" s="33"/>
-      <c r="F221" s="33"/>
-      <c r="G221" s="33"/>
-      <c r="H221" s="33"/>
-      <c r="I221" s="33"/>
-      <c r="J221" s="34"/>
-      <c r="K221" s="17"/>
-      <c r="L221" s="18"/>
-      <c r="M221" s="16"/>
-      <c r="N221" s="18"/>
-      <c r="O221" s="17"/>
-    </row>
-    <row r="222" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A222" s="14"/>
-      <c r="B222" s="15"/>
-      <c r="C222" s="44"/>
-      <c r="D222" s="33"/>
-      <c r="E222" s="33"/>
-      <c r="F222" s="33"/>
-      <c r="G222" s="33"/>
-      <c r="H222" s="33"/>
-      <c r="I222" s="33"/>
-      <c r="J222" s="34"/>
-      <c r="K222" s="17"/>
-      <c r="L222" s="18"/>
-      <c r="M222" s="16"/>
-      <c r="N222" s="18"/>
-      <c r="O222" s="17"/>
-    </row>
-    <row r="223" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A223" s="14"/>
-      <c r="B223" s="15"/>
-      <c r="C223" s="44"/>
-      <c r="D223" s="33"/>
-      <c r="E223" s="33"/>
-      <c r="F223" s="33"/>
-      <c r="G223" s="33"/>
-      <c r="H223" s="33"/>
-      <c r="I223" s="33"/>
-      <c r="J223" s="34"/>
-      <c r="K223" s="17"/>
-      <c r="L223" s="18"/>
-      <c r="M223" s="16"/>
-      <c r="N223" s="18"/>
-      <c r="O223" s="17"/>
-    </row>
-    <row r="224" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A224" s="14"/>
-      <c r="B224" s="15"/>
-      <c r="C224" s="44"/>
-      <c r="D224" s="33"/>
-      <c r="E224" s="33"/>
-      <c r="F224" s="33"/>
-      <c r="G224" s="33"/>
-      <c r="H224" s="33"/>
-      <c r="I224" s="33"/>
-      <c r="J224" s="34"/>
-      <c r="K224" s="17"/>
-      <c r="L224" s="18"/>
-      <c r="M224" s="16"/>
-      <c r="N224" s="18"/>
-      <c r="O224" s="17"/>
-    </row>
-    <row r="225" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A225" s="14"/>
-      <c r="B225" s="15"/>
-      <c r="C225" s="44"/>
-      <c r="D225" s="33"/>
-      <c r="E225" s="33"/>
-      <c r="F225" s="33"/>
-      <c r="G225" s="33"/>
-      <c r="H225" s="33"/>
-      <c r="I225" s="33"/>
-      <c r="J225" s="34"/>
-      <c r="K225" s="17"/>
-      <c r="L225" s="18"/>
-      <c r="M225" s="16"/>
-      <c r="N225" s="18"/>
-      <c r="O225" s="17"/>
-    </row>
-    <row r="226" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A226" s="14"/>
-      <c r="B226" s="15"/>
-      <c r="C226" s="44"/>
-      <c r="D226" s="33"/>
-      <c r="E226" s="33"/>
-      <c r="F226" s="33"/>
-      <c r="G226" s="33"/>
-      <c r="H226" s="33"/>
-      <c r="I226" s="33"/>
-      <c r="J226" s="34"/>
-      <c r="K226" s="17"/>
-      <c r="L226" s="18"/>
-      <c r="M226" s="16"/>
-      <c r="N226" s="18"/>
-      <c r="O226" s="17"/>
-    </row>
-    <row r="227" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A227" s="14"/>
-      <c r="B227" s="15"/>
-      <c r="C227" s="44"/>
-      <c r="D227" s="33"/>
-      <c r="E227" s="33"/>
-      <c r="F227" s="33"/>
-      <c r="G227" s="33"/>
-      <c r="H227" s="33"/>
-      <c r="I227" s="33"/>
-      <c r="J227" s="34"/>
-      <c r="K227" s="17"/>
-      <c r="L227" s="18"/>
-      <c r="M227" s="16"/>
-      <c r="N227" s="18"/>
-      <c r="O227" s="17"/>
-    </row>
-    <row r="228" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A228" s="14"/>
-      <c r="B228" s="15"/>
-      <c r="C228" s="44"/>
-      <c r="D228" s="33"/>
-      <c r="E228" s="33"/>
-      <c r="F228" s="33"/>
-      <c r="G228" s="33"/>
-      <c r="H228" s="33"/>
-      <c r="I228" s="33"/>
-      <c r="J228" s="34"/>
-      <c r="K228" s="17"/>
-      <c r="L228" s="18"/>
-      <c r="M228" s="16"/>
-      <c r="N228" s="18"/>
-      <c r="O228" s="17"/>
-    </row>
-    <row r="229" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A229" s="14"/>
-      <c r="B229" s="15"/>
-      <c r="C229" s="44"/>
-      <c r="D229" s="33"/>
-      <c r="E229" s="33"/>
-      <c r="F229" s="33"/>
-      <c r="G229" s="33"/>
-      <c r="H229" s="33"/>
-      <c r="I229" s="33"/>
-      <c r="J229" s="34"/>
-      <c r="K229" s="17"/>
-      <c r="L229" s="18"/>
-      <c r="M229" s="16"/>
-      <c r="N229" s="18"/>
-      <c r="O229" s="17"/>
-    </row>
-    <row r="230" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A230" s="14"/>
-      <c r="B230" s="15"/>
-      <c r="C230" s="44"/>
-      <c r="D230" s="33"/>
-      <c r="E230" s="33"/>
-      <c r="F230" s="33"/>
-      <c r="G230" s="33"/>
-      <c r="H230" s="33"/>
-      <c r="I230" s="33"/>
-      <c r="J230" s="34"/>
-      <c r="K230" s="17"/>
-      <c r="L230" s="18"/>
-      <c r="M230" s="16"/>
-      <c r="N230" s="18"/>
-      <c r="O230" s="17"/>
-    </row>
-    <row r="231" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A231" s="14"/>
-      <c r="B231" s="15"/>
-      <c r="C231" s="44"/>
-      <c r="D231" s="33"/>
-      <c r="E231" s="33"/>
-      <c r="F231" s="33"/>
-      <c r="G231" s="33"/>
-      <c r="H231" s="33"/>
-      <c r="I231" s="33"/>
-      <c r="J231" s="34"/>
-      <c r="K231" s="17"/>
-      <c r="L231" s="18"/>
-      <c r="M231" s="16"/>
-      <c r="N231" s="18"/>
-      <c r="O231" s="17"/>
-    </row>
-    <row r="232" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A232" s="14"/>
-      <c r="B232" s="15"/>
-      <c r="C232" s="44"/>
-      <c r="D232" s="33"/>
-      <c r="E232" s="33"/>
-      <c r="F232" s="33"/>
-      <c r="G232" s="33"/>
-      <c r="H232" s="33"/>
-      <c r="I232" s="33"/>
-      <c r="J232" s="34"/>
-      <c r="K232" s="17"/>
-      <c r="L232" s="18"/>
-      <c r="M232" s="16"/>
-      <c r="N232" s="18"/>
-      <c r="O232" s="17"/>
-    </row>
-    <row r="233" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A233" s="14"/>
-      <c r="B233" s="15"/>
-      <c r="C233" s="44"/>
-      <c r="D233" s="33"/>
-      <c r="E233" s="33"/>
-      <c r="F233" s="33"/>
-      <c r="G233" s="33"/>
-      <c r="H233" s="33"/>
-      <c r="I233" s="33"/>
-      <c r="J233" s="34"/>
-      <c r="K233" s="17"/>
-      <c r="L233" s="18"/>
-      <c r="M233" s="16"/>
-      <c r="N233" s="18"/>
-      <c r="O233" s="17"/>
-    </row>
-    <row r="234" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A234" s="14"/>
-      <c r="B234" s="15"/>
-      <c r="C234" s="44"/>
-      <c r="D234" s="33"/>
-      <c r="E234" s="33"/>
-      <c r="F234" s="33"/>
-      <c r="G234" s="33"/>
-      <c r="H234" s="33"/>
-      <c r="I234" s="33"/>
-      <c r="J234" s="34"/>
-      <c r="K234" s="17"/>
-      <c r="L234" s="18"/>
-      <c r="M234" s="16"/>
-      <c r="N234" s="18"/>
-      <c r="O234" s="17"/>
-    </row>
-    <row r="235" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A235" s="14"/>
-      <c r="B235" s="15"/>
-      <c r="C235" s="44"/>
-      <c r="D235" s="33"/>
-      <c r="E235" s="33"/>
-      <c r="F235" s="33"/>
-      <c r="G235" s="33"/>
-      <c r="H235" s="33"/>
-      <c r="I235" s="33"/>
-      <c r="J235" s="34"/>
-      <c r="K235" s="17"/>
-      <c r="L235" s="18"/>
-      <c r="M235" s="16"/>
-      <c r="N235" s="18"/>
-      <c r="O235" s="17"/>
-    </row>
-    <row r="236" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A236" s="14"/>
-      <c r="B236" s="15"/>
-      <c r="C236" s="44"/>
-      <c r="D236" s="33"/>
-      <c r="E236" s="33"/>
-      <c r="F236" s="33"/>
-      <c r="G236" s="33"/>
-      <c r="H236" s="33"/>
-      <c r="I236" s="33"/>
-      <c r="J236" s="34"/>
-      <c r="K236" s="17"/>
-      <c r="L236" s="18"/>
-      <c r="M236" s="16"/>
-      <c r="N236" s="18"/>
-      <c r="O236" s="17"/>
-    </row>
-    <row r="237" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A237" s="14"/>
-      <c r="B237" s="15"/>
-      <c r="C237" s="44"/>
-      <c r="D237" s="33"/>
-      <c r="E237" s="33"/>
-      <c r="F237" s="33"/>
-      <c r="G237" s="33"/>
-      <c r="H237" s="33"/>
-      <c r="I237" s="33"/>
-      <c r="J237" s="34"/>
-      <c r="K237" s="17"/>
-      <c r="L237" s="18"/>
-      <c r="M237" s="16"/>
-      <c r="N237" s="18"/>
-      <c r="O237" s="17"/>
-    </row>
-    <row r="238" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A238" s="14"/>
-      <c r="B238" s="15"/>
-      <c r="C238" s="44"/>
-      <c r="D238" s="33"/>
-      <c r="E238" s="33"/>
-      <c r="F238" s="33"/>
-      <c r="G238" s="33"/>
-      <c r="H238" s="33"/>
-      <c r="I238" s="33"/>
-      <c r="J238" s="34"/>
-      <c r="K238" s="17"/>
-      <c r="L238" s="18"/>
-      <c r="M238" s="16"/>
-      <c r="N238" s="18"/>
-      <c r="O238" s="17"/>
-    </row>
-    <row r="239" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A239" s="14"/>
-      <c r="B239" s="15"/>
-      <c r="C239" s="44"/>
-      <c r="D239" s="33"/>
-      <c r="E239" s="33"/>
-      <c r="F239" s="33"/>
-      <c r="G239" s="33"/>
-      <c r="H239" s="33"/>
-      <c r="I239" s="33"/>
-      <c r="J239" s="34"/>
-      <c r="K239" s="17"/>
-      <c r="L239" s="18"/>
-      <c r="M239" s="16"/>
-      <c r="N239" s="18"/>
-      <c r="O239" s="17"/>
-    </row>
-    <row r="240" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A240" s="14"/>
-      <c r="B240" s="15"/>
-      <c r="C240" s="44"/>
-      <c r="D240" s="33"/>
-      <c r="E240" s="33"/>
-      <c r="F240" s="33"/>
-      <c r="G240" s="33"/>
-      <c r="H240" s="33"/>
-      <c r="I240" s="33"/>
-      <c r="J240" s="34"/>
-      <c r="K240" s="17"/>
-      <c r="L240" s="18"/>
-      <c r="M240" s="16"/>
-      <c r="N240" s="18"/>
-      <c r="O240" s="17"/>
-    </row>
-    <row r="241" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A241" s="14"/>
-      <c r="B241" s="15"/>
-      <c r="C241" s="44"/>
-      <c r="D241" s="33"/>
-      <c r="E241" s="33"/>
-      <c r="F241" s="33"/>
-      <c r="G241" s="33"/>
-      <c r="H241" s="33"/>
-      <c r="I241" s="33"/>
-      <c r="J241" s="34"/>
-      <c r="K241" s="17"/>
-      <c r="L241" s="18"/>
-      <c r="M241" s="16"/>
-      <c r="N241" s="18"/>
-      <c r="O241" s="17"/>
-    </row>
-    <row r="242" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A242" s="14"/>
-      <c r="B242" s="15"/>
-      <c r="C242" s="44"/>
-      <c r="D242" s="33"/>
-      <c r="E242" s="33"/>
-      <c r="F242" s="33"/>
-      <c r="G242" s="33"/>
-      <c r="H242" s="33"/>
-      <c r="I242" s="33"/>
-      <c r="J242" s="34"/>
-      <c r="K242" s="17"/>
-      <c r="L242" s="18"/>
-      <c r="M242" s="16"/>
-      <c r="N242" s="18"/>
-      <c r="O242" s="17"/>
-    </row>
-    <row r="243" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A243" s="14"/>
-      <c r="B243" s="15"/>
-      <c r="C243" s="44"/>
-      <c r="D243" s="33"/>
-      <c r="E243" s="33"/>
-      <c r="F243" s="33"/>
-      <c r="G243" s="33"/>
-      <c r="H243" s="33"/>
-      <c r="I243" s="33"/>
-      <c r="J243" s="34"/>
-      <c r="K243" s="17"/>
-      <c r="L243" s="18"/>
-      <c r="M243" s="16"/>
-      <c r="N243" s="18"/>
-      <c r="O243" s="17"/>
-    </row>
-    <row r="244" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A244" s="14"/>
-      <c r="B244" s="15"/>
-      <c r="C244" s="44"/>
-      <c r="D244" s="33"/>
-      <c r="E244" s="33"/>
-      <c r="F244" s="33"/>
-      <c r="G244" s="33"/>
-      <c r="H244" s="33"/>
-      <c r="I244" s="33"/>
-      <c r="J244" s="34"/>
-      <c r="K244" s="17"/>
-      <c r="L244" s="18"/>
-      <c r="M244" s="16"/>
-      <c r="N244" s="18"/>
-      <c r="O244" s="17"/>
-    </row>
-    <row r="245" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A245" s="14"/>
-      <c r="B245" s="15"/>
-      <c r="C245" s="44"/>
-      <c r="D245" s="33"/>
-      <c r="E245" s="33"/>
-      <c r="F245" s="33"/>
-      <c r="G245" s="33"/>
-      <c r="H245" s="33"/>
-      <c r="I245" s="33"/>
-      <c r="J245" s="34"/>
-      <c r="K245" s="17"/>
-      <c r="L245" s="18"/>
-      <c r="M245" s="16"/>
-      <c r="N245" s="18"/>
-      <c r="O245" s="17"/>
-    </row>
-    <row r="246" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A246" s="14"/>
-      <c r="B246" s="15"/>
-      <c r="C246" s="44"/>
-      <c r="D246" s="33"/>
-      <c r="E246" s="33"/>
-      <c r="F246" s="33"/>
-      <c r="G246" s="33"/>
-      <c r="H246" s="33"/>
-      <c r="I246" s="33"/>
-      <c r="J246" s="34"/>
-      <c r="K246" s="17"/>
-      <c r="L246" s="18"/>
-      <c r="M246" s="16"/>
-      <c r="N246" s="18"/>
-      <c r="O246" s="17"/>
-    </row>
-    <row r="247" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A247" s="14"/>
-      <c r="B247" s="15"/>
-      <c r="C247" s="44"/>
-      <c r="D247" s="33"/>
-      <c r="E247" s="33"/>
-      <c r="F247" s="33"/>
-      <c r="G247" s="33"/>
-      <c r="H247" s="33"/>
-      <c r="I247" s="33"/>
-      <c r="J247" s="34"/>
-      <c r="K247" s="17"/>
-      <c r="L247" s="18"/>
-      <c r="M247" s="16"/>
-      <c r="N247" s="18"/>
-      <c r="O247" s="17"/>
-    </row>
-    <row r="248" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A248" s="14"/>
-      <c r="B248" s="15"/>
-      <c r="C248" s="44"/>
-      <c r="D248" s="33"/>
-      <c r="E248" s="33"/>
-      <c r="F248" s="33"/>
-      <c r="G248" s="33"/>
-      <c r="H248" s="33"/>
-      <c r="I248" s="33"/>
-      <c r="J248" s="34"/>
-      <c r="K248" s="17"/>
-      <c r="L248" s="18"/>
-      <c r="M248" s="16"/>
-      <c r="N248" s="18"/>
-      <c r="O248" s="17"/>
-    </row>
-    <row r="249" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A249" s="14"/>
-      <c r="B249" s="15"/>
-      <c r="C249" s="44"/>
-      <c r="D249" s="33"/>
-      <c r="E249" s="33"/>
-      <c r="F249" s="33"/>
-      <c r="G249" s="33"/>
-      <c r="H249" s="33"/>
-      <c r="I249" s="33"/>
-      <c r="J249" s="34"/>
-      <c r="K249" s="17"/>
-      <c r="L249" s="18"/>
-      <c r="M249" s="16"/>
-      <c r="N249" s="18"/>
-      <c r="O249" s="17"/>
-    </row>
-    <row r="250" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A250" s="14"/>
-      <c r="B250" s="15"/>
-      <c r="C250" s="44"/>
-      <c r="D250" s="33"/>
-      <c r="E250" s="33"/>
-      <c r="F250" s="33"/>
-      <c r="G250" s="33"/>
-      <c r="H250" s="33"/>
-      <c r="I250" s="33"/>
-      <c r="J250" s="34"/>
-      <c r="K250" s="17"/>
-      <c r="L250" s="18"/>
-      <c r="M250" s="16"/>
-      <c r="N250" s="18"/>
-      <c r="O250" s="17"/>
-    </row>
-    <row r="251" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A251" s="14"/>
-      <c r="B251" s="15"/>
-      <c r="C251" s="44"/>
-      <c r="D251" s="33"/>
-      <c r="E251" s="33"/>
-      <c r="F251" s="33"/>
-      <c r="G251" s="33"/>
-      <c r="H251" s="33"/>
-      <c r="I251" s="33"/>
-      <c r="J251" s="34"/>
-      <c r="K251" s="17"/>
-      <c r="L251" s="18"/>
-      <c r="M251" s="16"/>
-      <c r="N251" s="18"/>
-      <c r="O251" s="17"/>
-    </row>
-    <row r="252" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A252" s="14"/>
-      <c r="B252" s="15"/>
-      <c r="C252" s="44"/>
-      <c r="D252" s="33"/>
-      <c r="E252" s="33"/>
-      <c r="F252" s="33"/>
-      <c r="G252" s="33"/>
-      <c r="H252" s="33"/>
-      <c r="I252" s="33"/>
-      <c r="J252" s="34"/>
-      <c r="K252" s="17"/>
-      <c r="L252" s="18"/>
-      <c r="M252" s="16"/>
-      <c r="N252" s="18"/>
-      <c r="O252" s="17"/>
-    </row>
-    <row r="253" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A253" s="14"/>
-      <c r="B253" s="15"/>
-      <c r="C253" s="44"/>
-      <c r="D253" s="33"/>
-      <c r="E253" s="33"/>
-      <c r="F253" s="33"/>
-      <c r="G253" s="33"/>
-      <c r="H253" s="33"/>
-      <c r="I253" s="33"/>
-      <c r="J253" s="34"/>
-      <c r="K253" s="17"/>
-      <c r="L253" s="18"/>
-      <c r="M253" s="16"/>
-      <c r="N253" s="18"/>
-      <c r="O253" s="17"/>
-    </row>
-    <row r="254" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A254" s="14"/>
-      <c r="B254" s="15"/>
-      <c r="C254" s="44"/>
-      <c r="D254" s="33"/>
-      <c r="E254" s="33"/>
-      <c r="F254" s="33"/>
-      <c r="G254" s="33"/>
-      <c r="H254" s="33"/>
-      <c r="I254" s="33"/>
-      <c r="J254" s="34"/>
-      <c r="K254" s="17"/>
-      <c r="L254" s="18"/>
-      <c r="M254" s="16"/>
-      <c r="N254" s="18"/>
-      <c r="O254" s="17"/>
-    </row>
-    <row r="255" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A255" s="14"/>
-      <c r="B255" s="15"/>
-      <c r="C255" s="44"/>
-      <c r="D255" s="33"/>
-      <c r="E255" s="33"/>
-      <c r="F255" s="33"/>
-      <c r="G255" s="33"/>
-      <c r="H255" s="33"/>
-      <c r="I255" s="33"/>
-      <c r="J255" s="34"/>
-      <c r="K255" s="17"/>
-      <c r="L255" s="18"/>
-      <c r="M255" s="16"/>
-      <c r="N255" s="18"/>
-      <c r="O255" s="17"/>
-    </row>
-    <row r="256" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A256" s="14"/>
-      <c r="B256" s="15"/>
-      <c r="C256" s="44"/>
-      <c r="D256" s="33"/>
-      <c r="E256" s="33"/>
-      <c r="F256" s="33"/>
-      <c r="G256" s="33"/>
-      <c r="H256" s="33"/>
-      <c r="I256" s="33"/>
-      <c r="J256" s="34"/>
-      <c r="K256" s="17"/>
-      <c r="L256" s="18"/>
-      <c r="M256" s="16"/>
-      <c r="N256" s="18"/>
-      <c r="O256" s="17"/>
-    </row>
-    <row r="257" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A257" s="14"/>
-      <c r="B257" s="15"/>
-      <c r="C257" s="44"/>
-      <c r="D257" s="33"/>
-      <c r="E257" s="33"/>
-      <c r="F257" s="33"/>
-      <c r="G257" s="33"/>
-      <c r="H257" s="33"/>
-      <c r="I257" s="33"/>
-      <c r="J257" s="34"/>
-      <c r="K257" s="17"/>
-      <c r="L257" s="18"/>
-      <c r="M257" s="16"/>
-      <c r="N257" s="18"/>
-      <c r="O257" s="17"/>
-    </row>
-    <row r="258" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A258" s="14"/>
-      <c r="B258" s="15"/>
-      <c r="C258" s="44"/>
-      <c r="D258" s="33"/>
-      <c r="E258" s="33"/>
-      <c r="F258" s="33"/>
-      <c r="G258" s="33"/>
-      <c r="H258" s="33"/>
-      <c r="I258" s="33"/>
-      <c r="J258" s="34"/>
-      <c r="K258" s="17"/>
-      <c r="L258" s="18"/>
-      <c r="M258" s="16"/>
-      <c r="N258" s="18"/>
-      <c r="O258" s="17"/>
-    </row>
-    <row r="259" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A259" s="14"/>
-      <c r="B259" s="15"/>
-      <c r="C259" s="44"/>
-      <c r="D259" s="33"/>
-      <c r="E259" s="33"/>
-      <c r="F259" s="33"/>
-      <c r="G259" s="33"/>
-      <c r="H259" s="33"/>
-      <c r="I259" s="33"/>
-      <c r="J259" s="34"/>
-      <c r="K259" s="17"/>
-      <c r="L259" s="18"/>
-      <c r="M259" s="16"/>
-      <c r="N259" s="18"/>
-      <c r="O259" s="17"/>
-    </row>
-    <row r="260" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A260" s="14"/>
-      <c r="B260" s="15"/>
-      <c r="C260" s="44"/>
-      <c r="D260" s="33"/>
-      <c r="E260" s="33"/>
-      <c r="F260" s="33"/>
-      <c r="G260" s="33"/>
-      <c r="H260" s="33"/>
-      <c r="I260" s="33"/>
-      <c r="J260" s="34"/>
-      <c r="K260" s="17"/>
-      <c r="L260" s="18"/>
-      <c r="M260" s="16"/>
-      <c r="N260" s="18"/>
-      <c r="O260" s="17"/>
-    </row>
-    <row r="261" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A261" s="14"/>
-      <c r="B261" s="15"/>
-      <c r="C261" s="44"/>
-      <c r="D261" s="33"/>
-      <c r="E261" s="33"/>
-      <c r="F261" s="33"/>
-      <c r="G261" s="33"/>
-      <c r="H261" s="33"/>
-      <c r="I261" s="33"/>
-      <c r="J261" s="34"/>
-      <c r="K261" s="17"/>
-      <c r="L261" s="18"/>
-      <c r="M261" s="16"/>
-      <c r="N261" s="18"/>
-      <c r="O261" s="17"/>
-    </row>
-    <row r="262" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A262" s="14"/>
-      <c r="B262" s="15"/>
-      <c r="C262" s="44"/>
-      <c r="D262" s="33"/>
-      <c r="E262" s="33"/>
-      <c r="F262" s="33"/>
-      <c r="G262" s="33"/>
-      <c r="H262" s="33"/>
-      <c r="I262" s="33"/>
-      <c r="J262" s="34"/>
-      <c r="K262" s="17"/>
-      <c r="L262" s="18"/>
-      <c r="M262" s="16"/>
-      <c r="N262" s="18"/>
-      <c r="O262" s="17"/>
-    </row>
-    <row r="263" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A263" s="14"/>
-      <c r="B263" s="15"/>
-      <c r="C263" s="44"/>
-      <c r="D263" s="33"/>
-      <c r="E263" s="33"/>
-      <c r="F263" s="33"/>
-      <c r="G263" s="33"/>
-      <c r="H263" s="33"/>
-      <c r="I263" s="33"/>
-      <c r="J263" s="34"/>
-      <c r="K263" s="17"/>
-      <c r="L263" s="18"/>
-      <c r="M263" s="16"/>
-      <c r="N263" s="18"/>
-      <c r="O263" s="17"/>
-    </row>
-    <row r="264" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A264" s="14"/>
-      <c r="B264" s="15"/>
-      <c r="C264" s="44"/>
-      <c r="D264" s="33"/>
-      <c r="E264" s="33"/>
-      <c r="F264" s="33"/>
-      <c r="G264" s="33"/>
-      <c r="H264" s="33"/>
-      <c r="I264" s="33"/>
-      <c r="J264" s="34"/>
-      <c r="K264" s="17"/>
-      <c r="L264" s="18"/>
-      <c r="M264" s="16"/>
-      <c r="N264" s="18"/>
-      <c r="O264" s="17"/>
-    </row>
-    <row r="265" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A265" s="14"/>
-      <c r="B265" s="15"/>
-      <c r="C265" s="44"/>
-      <c r="D265" s="33"/>
-      <c r="E265" s="33"/>
-      <c r="F265" s="33"/>
-      <c r="G265" s="33"/>
-      <c r="H265" s="33"/>
-      <c r="I265" s="33"/>
-      <c r="J265" s="34"/>
-      <c r="K265" s="17"/>
-      <c r="L265" s="18"/>
-      <c r="M265" s="16"/>
-      <c r="N265" s="18"/>
-      <c r="O265" s="17"/>
-    </row>
-    <row r="266" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A266" s="14"/>
-      <c r="B266" s="15"/>
-      <c r="C266" s="44"/>
-      <c r="D266" s="33"/>
-      <c r="E266" s="33"/>
-      <c r="F266" s="33"/>
-      <c r="G266" s="33"/>
-      <c r="H266" s="33"/>
-      <c r="I266" s="33"/>
-      <c r="J266" s="34"/>
-      <c r="K266" s="17"/>
-      <c r="L266" s="18"/>
-      <c r="M266" s="16"/>
-      <c r="N266" s="18"/>
-      <c r="O266" s="17"/>
-    </row>
-    <row r="267" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A267" s="14"/>
-      <c r="B267" s="15"/>
-      <c r="C267" s="44"/>
-      <c r="D267" s="33"/>
-      <c r="E267" s="33"/>
-      <c r="F267" s="33"/>
-      <c r="G267" s="33"/>
-      <c r="H267" s="33"/>
-      <c r="I267" s="33"/>
-      <c r="J267" s="34"/>
-      <c r="K267" s="17"/>
-      <c r="L267" s="18"/>
-      <c r="M267" s="16"/>
-      <c r="N267" s="18"/>
-      <c r="O267" s="17"/>
-    </row>
-    <row r="268" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A268" s="14"/>
-      <c r="B268" s="15"/>
-      <c r="C268" s="44"/>
-      <c r="D268" s="33"/>
-      <c r="E268" s="33"/>
-      <c r="F268" s="33"/>
-      <c r="G268" s="33"/>
-      <c r="H268" s="33"/>
-      <c r="I268" s="33"/>
-      <c r="J268" s="34"/>
-      <c r="K268" s="17"/>
-      <c r="L268" s="18"/>
-      <c r="M268" s="16"/>
-      <c r="N268" s="18"/>
-      <c r="O268" s="17"/>
-    </row>
-    <row r="269" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A269" s="14"/>
-      <c r="B269" s="15"/>
-      <c r="C269" s="44"/>
-      <c r="D269" s="33"/>
-      <c r="E269" s="33"/>
-      <c r="F269" s="33"/>
-      <c r="G269" s="33"/>
-      <c r="H269" s="33"/>
-      <c r="I269" s="33"/>
-      <c r="J269" s="34"/>
-      <c r="K269" s="17"/>
-      <c r="L269" s="18"/>
-      <c r="M269" s="16"/>
-      <c r="N269" s="18"/>
-      <c r="O269" s="17"/>
-    </row>
-    <row r="270" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A270" s="14"/>
-      <c r="B270" s="15"/>
-      <c r="C270" s="44"/>
-      <c r="D270" s="33"/>
-      <c r="E270" s="33"/>
-      <c r="F270" s="33"/>
-      <c r="G270" s="33"/>
-      <c r="H270" s="33"/>
-      <c r="I270" s="33"/>
-      <c r="J270" s="34"/>
-      <c r="K270" s="17"/>
-      <c r="L270" s="18"/>
-      <c r="M270" s="16"/>
-      <c r="N270" s="18"/>
-      <c r="O270" s="17"/>
-    </row>
-    <row r="271" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A271" s="14"/>
-      <c r="B271" s="15"/>
-      <c r="C271" s="44"/>
-      <c r="D271" s="33"/>
-      <c r="E271" s="33"/>
-      <c r="F271" s="33"/>
-      <c r="G271" s="33"/>
-      <c r="H271" s="33"/>
-      <c r="I271" s="33"/>
-      <c r="J271" s="34"/>
-      <c r="K271" s="17"/>
-      <c r="L271" s="18"/>
-      <c r="M271" s="16"/>
-      <c r="N271" s="18"/>
-      <c r="O271" s="17"/>
-    </row>
-    <row r="272" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A272" s="14"/>
-      <c r="B272" s="15"/>
-      <c r="C272" s="44"/>
-      <c r="D272" s="33"/>
-      <c r="E272" s="33"/>
-      <c r="F272" s="33"/>
-      <c r="G272" s="33"/>
-      <c r="H272" s="33"/>
-      <c r="I272" s="33"/>
-      <c r="J272" s="34"/>
-      <c r="K272" s="17"/>
-      <c r="L272" s="18"/>
-      <c r="M272" s="16"/>
-      <c r="N272" s="18"/>
-      <c r="O272" s="17"/>
-    </row>
-    <row r="273" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A273" s="14"/>
-      <c r="B273" s="15"/>
-      <c r="C273" s="44"/>
-      <c r="D273" s="33"/>
-      <c r="E273" s="33"/>
-      <c r="F273" s="33"/>
-      <c r="G273" s="33"/>
-      <c r="H273" s="33"/>
-      <c r="I273" s="33"/>
-      <c r="J273" s="34"/>
-      <c r="K273" s="17"/>
-      <c r="L273" s="18"/>
-      <c r="M273" s="16"/>
-      <c r="N273" s="18"/>
-      <c r="O273" s="17"/>
-    </row>
-    <row r="274" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A274" s="14"/>
-      <c r="B274" s="15"/>
-      <c r="C274" s="44"/>
-      <c r="D274" s="33"/>
-      <c r="E274" s="33"/>
-      <c r="F274" s="33"/>
-      <c r="G274" s="33"/>
-      <c r="H274" s="33"/>
-      <c r="I274" s="33"/>
-      <c r="J274" s="34"/>
-      <c r="K274" s="17"/>
-      <c r="L274" s="18"/>
-      <c r="M274" s="16"/>
-      <c r="N274" s="18"/>
-      <c r="O274" s="17"/>
-    </row>
-    <row r="275" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A275" s="14"/>
-      <c r="B275" s="15"/>
-      <c r="C275" s="44"/>
-      <c r="D275" s="33"/>
-      <c r="E275" s="33"/>
-      <c r="F275" s="33"/>
-      <c r="G275" s="33"/>
-      <c r="H275" s="33"/>
-      <c r="I275" s="33"/>
-      <c r="J275" s="34"/>
-      <c r="K275" s="17"/>
-      <c r="L275" s="18"/>
-      <c r="M275" s="16"/>
-      <c r="N275" s="18"/>
-      <c r="O275" s="17"/>
-    </row>
-    <row r="276" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A276" s="14"/>
-      <c r="B276" s="15"/>
-      <c r="C276" s="44"/>
-      <c r="D276" s="33"/>
-      <c r="E276" s="33"/>
-      <c r="F276" s="33"/>
-      <c r="G276" s="33"/>
-      <c r="H276" s="33"/>
-      <c r="I276" s="33"/>
-      <c r="J276" s="34"/>
-      <c r="K276" s="17"/>
-      <c r="L276" s="18"/>
-      <c r="M276" s="16"/>
-      <c r="N276" s="18"/>
-      <c r="O276" s="17"/>
-    </row>
-    <row r="277" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A277" s="14"/>
-      <c r="B277" s="15"/>
-      <c r="C277" s="44"/>
-      <c r="D277" s="33"/>
-      <c r="E277" s="33"/>
-      <c r="F277" s="33"/>
-      <c r="G277" s="33"/>
-      <c r="H277" s="33"/>
-      <c r="I277" s="33"/>
-      <c r="J277" s="34"/>
-      <c r="K277" s="17"/>
-      <c r="L277" s="18"/>
-      <c r="M277" s="16"/>
-      <c r="N277" s="18"/>
-      <c r="O277" s="17"/>
-    </row>
-    <row r="278" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A278" s="14"/>
-      <c r="B278" s="15"/>
-      <c r="C278" s="44"/>
-      <c r="D278" s="33"/>
-      <c r="E278" s="33"/>
-      <c r="F278" s="33"/>
-      <c r="G278" s="33"/>
-      <c r="H278" s="33"/>
-      <c r="I278" s="33"/>
-      <c r="J278" s="34"/>
-      <c r="K278" s="17"/>
-      <c r="L278" s="18"/>
-      <c r="M278" s="16"/>
-      <c r="N278" s="18"/>
-      <c r="O278" s="17"/>
-    </row>
-    <row r="279" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A279" s="14"/>
-      <c r="B279" s="15"/>
-      <c r="C279" s="44"/>
-      <c r="D279" s="33"/>
-      <c r="E279" s="33"/>
-      <c r="F279" s="33"/>
-      <c r="G279" s="33"/>
-      <c r="H279" s="33"/>
-      <c r="I279" s="33"/>
-      <c r="J279" s="34"/>
-      <c r="K279" s="17"/>
-      <c r="L279" s="18"/>
-      <c r="M279" s="16"/>
-      <c r="N279" s="18"/>
-      <c r="O279" s="17"/>
-    </row>
-    <row r="280" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A280" s="14"/>
-      <c r="B280" s="15"/>
-      <c r="C280" s="44"/>
-      <c r="D280" s="33"/>
-      <c r="E280" s="33"/>
-      <c r="F280" s="33"/>
-      <c r="G280" s="33"/>
-      <c r="H280" s="33"/>
-      <c r="I280" s="33"/>
-      <c r="J280" s="34"/>
-      <c r="K280" s="17"/>
-      <c r="L280" s="18"/>
-      <c r="M280" s="16"/>
-      <c r="N280" s="18"/>
-      <c r="O280" s="17"/>
-    </row>
-    <row r="281" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A281" s="14"/>
-      <c r="B281" s="15"/>
-      <c r="C281" s="44"/>
-      <c r="D281" s="33"/>
-      <c r="E281" s="33"/>
-      <c r="F281" s="33"/>
-      <c r="G281" s="33"/>
-      <c r="H281" s="33"/>
-      <c r="I281" s="33"/>
-      <c r="J281" s="34"/>
-      <c r="K281" s="17"/>
-      <c r="L281" s="18"/>
-      <c r="M281" s="16"/>
-      <c r="N281" s="18"/>
-      <c r="O281" s="17"/>
-    </row>
-    <row r="282" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A282" s="14"/>
-      <c r="B282" s="15"/>
-      <c r="C282" s="44"/>
-      <c r="D282" s="33"/>
-      <c r="E282" s="33"/>
-      <c r="F282" s="33"/>
-      <c r="G282" s="33"/>
-      <c r="H282" s="33"/>
-      <c r="I282" s="33"/>
-      <c r="J282" s="34"/>
-      <c r="K282" s="17"/>
-      <c r="L282" s="18"/>
-      <c r="M282" s="16"/>
-      <c r="N282" s="18"/>
-      <c r="O282" s="17"/>
-    </row>
-    <row r="283" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A283" s="14"/>
-      <c r="B283" s="15"/>
-      <c r="C283" s="44"/>
-      <c r="D283" s="33"/>
-      <c r="E283" s="33"/>
-      <c r="F283" s="33"/>
-      <c r="G283" s="33"/>
-      <c r="H283" s="33"/>
-      <c r="I283" s="33"/>
-      <c r="J283" s="34"/>
-      <c r="K283" s="17"/>
-      <c r="L283" s="18"/>
-      <c r="M283" s="16"/>
-      <c r="N283" s="18"/>
-      <c r="O283" s="17"/>
-    </row>
-    <row r="284" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A284" s="14"/>
-      <c r="B284" s="15"/>
-      <c r="C284" s="44"/>
-      <c r="D284" s="33"/>
-      <c r="E284" s="33"/>
-      <c r="F284" s="33"/>
-      <c r="G284" s="33"/>
-      <c r="H284" s="33"/>
-      <c r="I284" s="33"/>
-      <c r="J284" s="34"/>
-      <c r="K284" s="17"/>
-      <c r="L284" s="18"/>
-      <c r="M284" s="16"/>
-      <c r="N284" s="18"/>
-      <c r="O284" s="17"/>
-    </row>
-    <row r="285" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A285" s="14"/>
-      <c r="B285" s="15"/>
-      <c r="C285" s="44"/>
-      <c r="D285" s="33"/>
-      <c r="E285" s="33"/>
-      <c r="F285" s="33"/>
-      <c r="G285" s="33"/>
-      <c r="H285" s="33"/>
-      <c r="I285" s="33"/>
-      <c r="J285" s="34"/>
-      <c r="K285" s="17"/>
-      <c r="L285" s="18"/>
-      <c r="M285" s="16"/>
-      <c r="N285" s="18"/>
-      <c r="O285" s="17"/>
-    </row>
-    <row r="286" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A286" s="14"/>
-      <c r="B286" s="15"/>
-      <c r="C286" s="44"/>
-      <c r="D286" s="33"/>
-      <c r="E286" s="33"/>
-      <c r="F286" s="33"/>
-      <c r="G286" s="33"/>
-      <c r="H286" s="33"/>
-      <c r="I286" s="33"/>
-      <c r="J286" s="34"/>
-      <c r="K286" s="17"/>
-      <c r="L286" s="18"/>
-      <c r="M286" s="16"/>
-      <c r="N286" s="18"/>
-      <c r="O286" s="17"/>
-    </row>
-    <row r="287" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A287" s="14"/>
-      <c r="B287" s="15"/>
-      <c r="C287" s="44"/>
-      <c r="D287" s="33"/>
-      <c r="E287" s="33"/>
-      <c r="F287" s="33"/>
-      <c r="G287" s="33"/>
-      <c r="H287" s="33"/>
-      <c r="I287" s="33"/>
-      <c r="J287" s="34"/>
-      <c r="K287" s="17"/>
-      <c r="L287" s="18"/>
-      <c r="M287" s="16"/>
-      <c r="N287" s="18"/>
-      <c r="O287" s="17"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -21031,7 +14469,7 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N88:N287">
+  <conditionalFormatting sqref="N88:N90">
     <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N88,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -21042,7 +14480,7 @@
       <formula>LEFT(N88,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N87 N288:N1048576">
+  <conditionalFormatting sqref="N1 N3:N87">
     <cfRule type="beginsWith" dxfId="8" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -21054,10 +14492,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15 C16 C17 C18 C21 C22 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C65 C66 C67 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C5:C7 C8:C14 C19:C20 C23:C24 C25:C26 C27:C28 C63:C64 C68:C69 C80:C287" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15 C16 C17 C18 C21 C22 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C65 C66 C67 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C5:C7 C8:C14 C19:C20 C23:C24 C25:C26 C27:C28 C63:C64 C68:C69 C80:C90" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15 D16 D17 D18 D21 D22 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D98 D99 D100 D101 D5:D7 D8:D12 D13:D14 D19:D20 D23:D24 D25:D26 D68:D69 D82:D94 D95:D97 D102:D121 D122:D287" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D90" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -21067,11 +14505,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O324"/>
+  <dimension ref="A1:O150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -21093,12 +14531,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>526</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="11" t="s">
         <v>527</v>
       </c>
@@ -21116,20 +14554,20 @@
       </c>
       <c r="J1" s="29"/>
       <c r="K1" s="17"/>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="74" t="s">
         <v>532</v>
       </c>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="99.95" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="76" t="s">
         <v>933</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
       <c r="G2" s="12"/>
@@ -21139,10 +14577,10 @@
       </c>
       <c r="J2" s="29"/>
       <c r="K2" s="17"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
     </row>
     <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1">
       <c r="A3" s="14"/>
@@ -23926,7 +17364,7 @@
     </row>
     <row r="109" spans="1:15" s="60" customFormat="1" ht="90">
       <c r="A109" s="20"/>
-      <c r="B109" s="79" t="s">
+      <c r="B109" s="71" t="s">
         <v>1075</v>
       </c>
       <c r="C109" s="22" t="s">
@@ -23953,7 +17391,7 @@
     </row>
     <row r="110" spans="1:15" s="60" customFormat="1" ht="90">
       <c r="A110" s="20"/>
-      <c r="B110" s="79" t="s">
+      <c r="B110" s="71" t="s">
         <v>1076</v>
       </c>
       <c r="C110" s="22" t="s">
@@ -24932,2950 +18370,6 @@
       <c r="N150" s="18"/>
       <c r="O150" s="17"/>
     </row>
-    <row r="151" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A151" s="14"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="44"/>
-      <c r="D151" s="33"/>
-      <c r="E151" s="33"/>
-      <c r="F151" s="33"/>
-      <c r="G151" s="33"/>
-      <c r="H151" s="33"/>
-      <c r="I151" s="33"/>
-      <c r="J151" s="34"/>
-      <c r="K151" s="17"/>
-      <c r="L151" s="18"/>
-      <c r="M151" s="16"/>
-      <c r="N151" s="18"/>
-      <c r="O151" s="17"/>
-    </row>
-    <row r="152" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A152" s="14"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="44"/>
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
-      <c r="F152" s="33"/>
-      <c r="G152" s="33"/>
-      <c r="H152" s="33"/>
-      <c r="I152" s="33"/>
-      <c r="J152" s="34"/>
-      <c r="K152" s="17"/>
-      <c r="L152" s="18"/>
-      <c r="M152" s="16"/>
-      <c r="N152" s="18"/>
-      <c r="O152" s="17"/>
-    </row>
-    <row r="153" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A153" s="14"/>
-      <c r="B153" s="15"/>
-      <c r="C153" s="44"/>
-      <c r="D153" s="33"/>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33"/>
-      <c r="G153" s="33"/>
-      <c r="H153" s="33"/>
-      <c r="I153" s="33"/>
-      <c r="J153" s="34"/>
-      <c r="K153" s="17"/>
-      <c r="L153" s="18"/>
-      <c r="M153" s="16"/>
-      <c r="N153" s="18"/>
-      <c r="O153" s="17"/>
-    </row>
-    <row r="154" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A154" s="14"/>
-      <c r="B154" s="15"/>
-      <c r="C154" s="44"/>
-      <c r="D154" s="33"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33"/>
-      <c r="G154" s="33"/>
-      <c r="H154" s="33"/>
-      <c r="I154" s="33"/>
-      <c r="J154" s="34"/>
-      <c r="K154" s="17"/>
-      <c r="L154" s="18"/>
-      <c r="M154" s="16"/>
-      <c r="N154" s="18"/>
-      <c r="O154" s="17"/>
-    </row>
-    <row r="155" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A155" s="14"/>
-      <c r="B155" s="15"/>
-      <c r="C155" s="44"/>
-      <c r="D155" s="33"/>
-      <c r="E155" s="33"/>
-      <c r="F155" s="33"/>
-      <c r="G155" s="33"/>
-      <c r="H155" s="33"/>
-      <c r="I155" s="33"/>
-      <c r="J155" s="34"/>
-      <c r="K155" s="17"/>
-      <c r="L155" s="18"/>
-      <c r="M155" s="16"/>
-      <c r="N155" s="18"/>
-      <c r="O155" s="17"/>
-    </row>
-    <row r="156" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A156" s="14"/>
-      <c r="B156" s="15"/>
-      <c r="C156" s="44"/>
-      <c r="D156" s="33"/>
-      <c r="E156" s="33"/>
-      <c r="F156" s="33"/>
-      <c r="G156" s="33"/>
-      <c r="H156" s="33"/>
-      <c r="I156" s="33"/>
-      <c r="J156" s="34"/>
-      <c r="K156" s="17"/>
-      <c r="L156" s="18"/>
-      <c r="M156" s="16"/>
-      <c r="N156" s="18"/>
-      <c r="O156" s="17"/>
-    </row>
-    <row r="157" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A157" s="14"/>
-      <c r="B157" s="15"/>
-      <c r="C157" s="44"/>
-      <c r="D157" s="33"/>
-      <c r="E157" s="33"/>
-      <c r="F157" s="33"/>
-      <c r="G157" s="33"/>
-      <c r="H157" s="33"/>
-      <c r="I157" s="33"/>
-      <c r="J157" s="34"/>
-      <c r="K157" s="17"/>
-      <c r="L157" s="18"/>
-      <c r="M157" s="16"/>
-      <c r="N157" s="18"/>
-      <c r="O157" s="17"/>
-    </row>
-    <row r="158" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A158" s="14"/>
-      <c r="B158" s="15"/>
-      <c r="C158" s="44"/>
-      <c r="D158" s="33"/>
-      <c r="E158" s="33"/>
-      <c r="F158" s="33"/>
-      <c r="G158" s="33"/>
-      <c r="H158" s="33"/>
-      <c r="I158" s="33"/>
-      <c r="J158" s="34"/>
-      <c r="K158" s="17"/>
-      <c r="L158" s="18"/>
-      <c r="M158" s="16"/>
-      <c r="N158" s="18"/>
-      <c r="O158" s="17"/>
-    </row>
-    <row r="159" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A159" s="14"/>
-      <c r="B159" s="15"/>
-      <c r="C159" s="44"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
-      <c r="F159" s="33"/>
-      <c r="G159" s="33"/>
-      <c r="H159" s="33"/>
-      <c r="I159" s="33"/>
-      <c r="J159" s="34"/>
-      <c r="K159" s="17"/>
-      <c r="L159" s="18"/>
-      <c r="M159" s="16"/>
-      <c r="N159" s="18"/>
-      <c r="O159" s="17"/>
-    </row>
-    <row r="160" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A160" s="14"/>
-      <c r="B160" s="15"/>
-      <c r="C160" s="44"/>
-      <c r="D160" s="33"/>
-      <c r="E160" s="33"/>
-      <c r="F160" s="33"/>
-      <c r="G160" s="33"/>
-      <c r="H160" s="33"/>
-      <c r="I160" s="33"/>
-      <c r="J160" s="34"/>
-      <c r="K160" s="17"/>
-      <c r="L160" s="18"/>
-      <c r="M160" s="16"/>
-      <c r="N160" s="18"/>
-      <c r="O160" s="17"/>
-    </row>
-    <row r="161" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A161" s="14"/>
-      <c r="B161" s="15"/>
-      <c r="C161" s="44"/>
-      <c r="D161" s="33"/>
-      <c r="E161" s="33"/>
-      <c r="F161" s="33"/>
-      <c r="G161" s="33"/>
-      <c r="H161" s="33"/>
-      <c r="I161" s="33"/>
-      <c r="J161" s="34"/>
-      <c r="K161" s="17"/>
-      <c r="L161" s="18"/>
-      <c r="M161" s="16"/>
-      <c r="N161" s="18"/>
-      <c r="O161" s="17"/>
-    </row>
-    <row r="162" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A162" s="14"/>
-      <c r="B162" s="15"/>
-      <c r="C162" s="44"/>
-      <c r="D162" s="33"/>
-      <c r="E162" s="33"/>
-      <c r="F162" s="33"/>
-      <c r="G162" s="33"/>
-      <c r="H162" s="33"/>
-      <c r="I162" s="33"/>
-      <c r="J162" s="34"/>
-      <c r="K162" s="17"/>
-      <c r="L162" s="18"/>
-      <c r="M162" s="16"/>
-      <c r="N162" s="18"/>
-      <c r="O162" s="17"/>
-    </row>
-    <row r="163" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A163" s="14"/>
-      <c r="B163" s="15"/>
-      <c r="C163" s="44"/>
-      <c r="D163" s="33"/>
-      <c r="E163" s="33"/>
-      <c r="F163" s="33"/>
-      <c r="G163" s="33"/>
-      <c r="H163" s="33"/>
-      <c r="I163" s="33"/>
-      <c r="J163" s="34"/>
-      <c r="K163" s="17"/>
-      <c r="L163" s="18"/>
-      <c r="M163" s="16"/>
-      <c r="N163" s="18"/>
-      <c r="O163" s="17"/>
-    </row>
-    <row r="164" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A164" s="14"/>
-      <c r="B164" s="15"/>
-      <c r="C164" s="44"/>
-      <c r="D164" s="33"/>
-      <c r="E164" s="33"/>
-      <c r="F164" s="33"/>
-      <c r="G164" s="33"/>
-      <c r="H164" s="33"/>
-      <c r="I164" s="33"/>
-      <c r="J164" s="34"/>
-      <c r="K164" s="17"/>
-      <c r="L164" s="18"/>
-      <c r="M164" s="16"/>
-      <c r="N164" s="18"/>
-      <c r="O164" s="17"/>
-    </row>
-    <row r="165" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A165" s="14"/>
-      <c r="B165" s="15"/>
-      <c r="C165" s="44"/>
-      <c r="D165" s="33"/>
-      <c r="E165" s="33"/>
-      <c r="F165" s="33"/>
-      <c r="G165" s="33"/>
-      <c r="H165" s="33"/>
-      <c r="I165" s="33"/>
-      <c r="J165" s="34"/>
-      <c r="K165" s="17"/>
-      <c r="L165" s="18"/>
-      <c r="M165" s="16"/>
-      <c r="N165" s="18"/>
-      <c r="O165" s="17"/>
-    </row>
-    <row r="166" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A166" s="14"/>
-      <c r="B166" s="15"/>
-      <c r="C166" s="44"/>
-      <c r="D166" s="33"/>
-      <c r="E166" s="33"/>
-      <c r="F166" s="33"/>
-      <c r="G166" s="33"/>
-      <c r="H166" s="33"/>
-      <c r="I166" s="33"/>
-      <c r="J166" s="34"/>
-      <c r="K166" s="17"/>
-      <c r="L166" s="18"/>
-      <c r="M166" s="16"/>
-      <c r="N166" s="18"/>
-      <c r="O166" s="17"/>
-    </row>
-    <row r="167" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A167" s="14"/>
-      <c r="B167" s="15"/>
-      <c r="C167" s="44"/>
-      <c r="D167" s="33"/>
-      <c r="E167" s="33"/>
-      <c r="F167" s="33"/>
-      <c r="G167" s="33"/>
-      <c r="H167" s="33"/>
-      <c r="I167" s="33"/>
-      <c r="J167" s="34"/>
-      <c r="K167" s="17"/>
-      <c r="L167" s="18"/>
-      <c r="M167" s="16"/>
-      <c r="N167" s="18"/>
-      <c r="O167" s="17"/>
-    </row>
-    <row r="168" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A168" s="14"/>
-      <c r="B168" s="15"/>
-      <c r="C168" s="44"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="33"/>
-      <c r="F168" s="33"/>
-      <c r="G168" s="33"/>
-      <c r="H168" s="33"/>
-      <c r="I168" s="33"/>
-      <c r="J168" s="34"/>
-      <c r="K168" s="17"/>
-      <c r="L168" s="18"/>
-      <c r="M168" s="16"/>
-      <c r="N168" s="18"/>
-      <c r="O168" s="17"/>
-    </row>
-    <row r="169" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A169" s="14"/>
-      <c r="B169" s="15"/>
-      <c r="C169" s="44"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
-      <c r="F169" s="33"/>
-      <c r="G169" s="33"/>
-      <c r="H169" s="33"/>
-      <c r="I169" s="33"/>
-      <c r="J169" s="34"/>
-      <c r="K169" s="17"/>
-      <c r="L169" s="18"/>
-      <c r="M169" s="16"/>
-      <c r="N169" s="18"/>
-      <c r="O169" s="17"/>
-    </row>
-    <row r="170" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A170" s="14"/>
-      <c r="B170" s="15"/>
-      <c r="C170" s="44"/>
-      <c r="D170" s="33"/>
-      <c r="E170" s="33"/>
-      <c r="F170" s="33"/>
-      <c r="G170" s="33"/>
-      <c r="H170" s="33"/>
-      <c r="I170" s="33"/>
-      <c r="J170" s="34"/>
-      <c r="K170" s="17"/>
-      <c r="L170" s="18"/>
-      <c r="M170" s="16"/>
-      <c r="N170" s="18"/>
-      <c r="O170" s="17"/>
-    </row>
-    <row r="171" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A171" s="14"/>
-      <c r="B171" s="15"/>
-      <c r="C171" s="44"/>
-      <c r="D171" s="33"/>
-      <c r="E171" s="33"/>
-      <c r="F171" s="33"/>
-      <c r="G171" s="33"/>
-      <c r="H171" s="33"/>
-      <c r="I171" s="33"/>
-      <c r="J171" s="34"/>
-      <c r="K171" s="17"/>
-      <c r="L171" s="18"/>
-      <c r="M171" s="16"/>
-      <c r="N171" s="18"/>
-      <c r="O171" s="17"/>
-    </row>
-    <row r="172" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A172" s="14"/>
-      <c r="B172" s="15"/>
-      <c r="C172" s="44"/>
-      <c r="D172" s="33"/>
-      <c r="E172" s="33"/>
-      <c r="F172" s="33"/>
-      <c r="G172" s="33"/>
-      <c r="H172" s="33"/>
-      <c r="I172" s="33"/>
-      <c r="J172" s="34"/>
-      <c r="K172" s="17"/>
-      <c r="L172" s="18"/>
-      <c r="M172" s="16"/>
-      <c r="N172" s="18"/>
-      <c r="O172" s="17"/>
-    </row>
-    <row r="173" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A173" s="14"/>
-      <c r="B173" s="15"/>
-      <c r="C173" s="44"/>
-      <c r="D173" s="33"/>
-      <c r="E173" s="33"/>
-      <c r="F173" s="33"/>
-      <c r="G173" s="33"/>
-      <c r="H173" s="33"/>
-      <c r="I173" s="33"/>
-      <c r="J173" s="34"/>
-      <c r="K173" s="17"/>
-      <c r="L173" s="18"/>
-      <c r="M173" s="16"/>
-      <c r="N173" s="18"/>
-      <c r="O173" s="17"/>
-    </row>
-    <row r="174" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A174" s="14"/>
-      <c r="B174" s="15"/>
-      <c r="C174" s="44"/>
-      <c r="D174" s="33"/>
-      <c r="E174" s="33"/>
-      <c r="F174" s="33"/>
-      <c r="G174" s="33"/>
-      <c r="H174" s="33"/>
-      <c r="I174" s="33"/>
-      <c r="J174" s="34"/>
-      <c r="K174" s="17"/>
-      <c r="L174" s="18"/>
-      <c r="M174" s="16"/>
-      <c r="N174" s="18"/>
-      <c r="O174" s="17"/>
-    </row>
-    <row r="175" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A175" s="14"/>
-      <c r="B175" s="15"/>
-      <c r="C175" s="44"/>
-      <c r="D175" s="33"/>
-      <c r="E175" s="33"/>
-      <c r="F175" s="33"/>
-      <c r="G175" s="33"/>
-      <c r="H175" s="33"/>
-      <c r="I175" s="33"/>
-      <c r="J175" s="34"/>
-      <c r="K175" s="17"/>
-      <c r="L175" s="18"/>
-      <c r="M175" s="16"/>
-      <c r="N175" s="18"/>
-      <c r="O175" s="17"/>
-    </row>
-    <row r="176" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A176" s="14"/>
-      <c r="B176" s="15"/>
-      <c r="C176" s="44"/>
-      <c r="D176" s="33"/>
-      <c r="E176" s="33"/>
-      <c r="F176" s="33"/>
-      <c r="G176" s="33"/>
-      <c r="H176" s="33"/>
-      <c r="I176" s="33"/>
-      <c r="J176" s="34"/>
-      <c r="K176" s="17"/>
-      <c r="L176" s="18"/>
-      <c r="M176" s="16"/>
-      <c r="N176" s="18"/>
-      <c r="O176" s="17"/>
-    </row>
-    <row r="177" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A177" s="14"/>
-      <c r="B177" s="15"/>
-      <c r="C177" s="44"/>
-      <c r="D177" s="33"/>
-      <c r="E177" s="33"/>
-      <c r="F177" s="33"/>
-      <c r="G177" s="33"/>
-      <c r="H177" s="33"/>
-      <c r="I177" s="33"/>
-      <c r="J177" s="34"/>
-      <c r="K177" s="17"/>
-      <c r="L177" s="18"/>
-      <c r="M177" s="16"/>
-      <c r="N177" s="18"/>
-      <c r="O177" s="17"/>
-    </row>
-    <row r="178" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A178" s="14"/>
-      <c r="B178" s="15"/>
-      <c r="C178" s="44"/>
-      <c r="D178" s="33"/>
-      <c r="E178" s="33"/>
-      <c r="F178" s="33"/>
-      <c r="G178" s="33"/>
-      <c r="H178" s="33"/>
-      <c r="I178" s="33"/>
-      <c r="J178" s="34"/>
-      <c r="K178" s="17"/>
-      <c r="L178" s="18"/>
-      <c r="M178" s="16"/>
-      <c r="N178" s="18"/>
-      <c r="O178" s="17"/>
-    </row>
-    <row r="179" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A179" s="14"/>
-      <c r="B179" s="15"/>
-      <c r="C179" s="44"/>
-      <c r="D179" s="33"/>
-      <c r="E179" s="33"/>
-      <c r="F179" s="33"/>
-      <c r="G179" s="33"/>
-      <c r="H179" s="33"/>
-      <c r="I179" s="33"/>
-      <c r="J179" s="34"/>
-      <c r="K179" s="17"/>
-      <c r="L179" s="18"/>
-      <c r="M179" s="16"/>
-      <c r="N179" s="18"/>
-      <c r="O179" s="17"/>
-    </row>
-    <row r="180" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A180" s="14"/>
-      <c r="B180" s="15"/>
-      <c r="C180" s="44"/>
-      <c r="D180" s="33"/>
-      <c r="E180" s="33"/>
-      <c r="F180" s="33"/>
-      <c r="G180" s="33"/>
-      <c r="H180" s="33"/>
-      <c r="I180" s="33"/>
-      <c r="J180" s="34"/>
-      <c r="K180" s="17"/>
-      <c r="L180" s="18"/>
-      <c r="M180" s="16"/>
-      <c r="N180" s="18"/>
-      <c r="O180" s="17"/>
-    </row>
-    <row r="181" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A181" s="14"/>
-      <c r="B181" s="15"/>
-      <c r="C181" s="44"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
-      <c r="F181" s="33"/>
-      <c r="G181" s="33"/>
-      <c r="H181" s="33"/>
-      <c r="I181" s="33"/>
-      <c r="J181" s="34"/>
-      <c r="K181" s="17"/>
-      <c r="L181" s="18"/>
-      <c r="M181" s="16"/>
-      <c r="N181" s="18"/>
-      <c r="O181" s="17"/>
-    </row>
-    <row r="182" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A182" s="14"/>
-      <c r="B182" s="15"/>
-      <c r="C182" s="44"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="33"/>
-      <c r="F182" s="33"/>
-      <c r="G182" s="33"/>
-      <c r="H182" s="33"/>
-      <c r="I182" s="33"/>
-      <c r="J182" s="34"/>
-      <c r="K182" s="17"/>
-      <c r="L182" s="18"/>
-      <c r="M182" s="16"/>
-      <c r="N182" s="18"/>
-      <c r="O182" s="17"/>
-    </row>
-    <row r="183" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A183" s="14"/>
-      <c r="B183" s="15"/>
-      <c r="C183" s="44"/>
-      <c r="D183" s="33"/>
-      <c r="E183" s="33"/>
-      <c r="F183" s="33"/>
-      <c r="G183" s="33"/>
-      <c r="H183" s="33"/>
-      <c r="I183" s="33"/>
-      <c r="J183" s="34"/>
-      <c r="K183" s="17"/>
-      <c r="L183" s="18"/>
-      <c r="M183" s="16"/>
-      <c r="N183" s="18"/>
-      <c r="O183" s="17"/>
-    </row>
-    <row r="184" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A184" s="14"/>
-      <c r="B184" s="15"/>
-      <c r="C184" s="44"/>
-      <c r="D184" s="33"/>
-      <c r="E184" s="33"/>
-      <c r="F184" s="33"/>
-      <c r="G184" s="33"/>
-      <c r="H184" s="33"/>
-      <c r="I184" s="33"/>
-      <c r="J184" s="34"/>
-      <c r="K184" s="17"/>
-      <c r="L184" s="18"/>
-      <c r="M184" s="16"/>
-      <c r="N184" s="18"/>
-      <c r="O184" s="17"/>
-    </row>
-    <row r="185" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A185" s="14"/>
-      <c r="B185" s="15"/>
-      <c r="C185" s="44"/>
-      <c r="D185" s="33"/>
-      <c r="E185" s="33"/>
-      <c r="F185" s="33"/>
-      <c r="G185" s="33"/>
-      <c r="H185" s="33"/>
-      <c r="I185" s="33"/>
-      <c r="J185" s="34"/>
-      <c r="K185" s="17"/>
-      <c r="L185" s="18"/>
-      <c r="M185" s="16"/>
-      <c r="N185" s="18"/>
-      <c r="O185" s="17"/>
-    </row>
-    <row r="186" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A186" s="14"/>
-      <c r="B186" s="15"/>
-      <c r="C186" s="44"/>
-      <c r="D186" s="33"/>
-      <c r="E186" s="33"/>
-      <c r="F186" s="33"/>
-      <c r="G186" s="33"/>
-      <c r="H186" s="33"/>
-      <c r="I186" s="33"/>
-      <c r="J186" s="34"/>
-      <c r="K186" s="17"/>
-      <c r="L186" s="18"/>
-      <c r="M186" s="16"/>
-      <c r="N186" s="18"/>
-      <c r="O186" s="17"/>
-    </row>
-    <row r="187" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A187" s="14"/>
-      <c r="B187" s="15"/>
-      <c r="C187" s="44"/>
-      <c r="D187" s="33"/>
-      <c r="E187" s="33"/>
-      <c r="F187" s="33"/>
-      <c r="G187" s="33"/>
-      <c r="H187" s="33"/>
-      <c r="I187" s="33"/>
-      <c r="J187" s="34"/>
-      <c r="K187" s="17"/>
-      <c r="L187" s="18"/>
-      <c r="M187" s="16"/>
-      <c r="N187" s="18"/>
-      <c r="O187" s="17"/>
-    </row>
-    <row r="188" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A188" s="14"/>
-      <c r="B188" s="15"/>
-      <c r="C188" s="44"/>
-      <c r="D188" s="33"/>
-      <c r="E188" s="33"/>
-      <c r="F188" s="33"/>
-      <c r="G188" s="33"/>
-      <c r="H188" s="33"/>
-      <c r="I188" s="33"/>
-      <c r="J188" s="34"/>
-      <c r="K188" s="17"/>
-      <c r="L188" s="18"/>
-      <c r="M188" s="16"/>
-      <c r="N188" s="18"/>
-      <c r="O188" s="17"/>
-    </row>
-    <row r="189" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A189" s="14"/>
-      <c r="B189" s="15"/>
-      <c r="C189" s="44"/>
-      <c r="D189" s="33"/>
-      <c r="E189" s="33"/>
-      <c r="F189" s="33"/>
-      <c r="G189" s="33"/>
-      <c r="H189" s="33"/>
-      <c r="I189" s="33"/>
-      <c r="J189" s="34"/>
-      <c r="K189" s="17"/>
-      <c r="L189" s="18"/>
-      <c r="M189" s="16"/>
-      <c r="N189" s="18"/>
-      <c r="O189" s="17"/>
-    </row>
-    <row r="190" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A190" s="14"/>
-      <c r="B190" s="15"/>
-      <c r="C190" s="44"/>
-      <c r="D190" s="33"/>
-      <c r="E190" s="33"/>
-      <c r="F190" s="33"/>
-      <c r="G190" s="33"/>
-      <c r="H190" s="33"/>
-      <c r="I190" s="33"/>
-      <c r="J190" s="34"/>
-      <c r="K190" s="17"/>
-      <c r="L190" s="18"/>
-      <c r="M190" s="16"/>
-      <c r="N190" s="18"/>
-      <c r="O190" s="17"/>
-    </row>
-    <row r="191" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A191" s="14"/>
-      <c r="B191" s="15"/>
-      <c r="C191" s="44"/>
-      <c r="D191" s="33"/>
-      <c r="E191" s="33"/>
-      <c r="F191" s="33"/>
-      <c r="G191" s="33"/>
-      <c r="H191" s="33"/>
-      <c r="I191" s="33"/>
-      <c r="J191" s="34"/>
-      <c r="K191" s="17"/>
-      <c r="L191" s="18"/>
-      <c r="M191" s="16"/>
-      <c r="N191" s="18"/>
-      <c r="O191" s="17"/>
-    </row>
-    <row r="192" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A192" s="14"/>
-      <c r="B192" s="15"/>
-      <c r="C192" s="44"/>
-      <c r="D192" s="33"/>
-      <c r="E192" s="33"/>
-      <c r="F192" s="33"/>
-      <c r="G192" s="33"/>
-      <c r="H192" s="33"/>
-      <c r="I192" s="33"/>
-      <c r="J192" s="34"/>
-      <c r="K192" s="17"/>
-      <c r="L192" s="18"/>
-      <c r="M192" s="16"/>
-      <c r="N192" s="18"/>
-      <c r="O192" s="17"/>
-    </row>
-    <row r="193" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A193" s="14"/>
-      <c r="B193" s="15"/>
-      <c r="C193" s="44"/>
-      <c r="D193" s="33"/>
-      <c r="E193" s="33"/>
-      <c r="F193" s="33"/>
-      <c r="G193" s="33"/>
-      <c r="H193" s="33"/>
-      <c r="I193" s="33"/>
-      <c r="J193" s="34"/>
-      <c r="K193" s="17"/>
-      <c r="L193" s="18"/>
-      <c r="M193" s="16"/>
-      <c r="N193" s="18"/>
-      <c r="O193" s="17"/>
-    </row>
-    <row r="194" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A194" s="14"/>
-      <c r="B194" s="15"/>
-      <c r="C194" s="44"/>
-      <c r="D194" s="33"/>
-      <c r="E194" s="33"/>
-      <c r="F194" s="33"/>
-      <c r="G194" s="33"/>
-      <c r="H194" s="33"/>
-      <c r="I194" s="33"/>
-      <c r="J194" s="34"/>
-      <c r="K194" s="17"/>
-      <c r="L194" s="18"/>
-      <c r="M194" s="16"/>
-      <c r="N194" s="18"/>
-      <c r="O194" s="17"/>
-    </row>
-    <row r="195" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A195" s="14"/>
-      <c r="B195" s="15"/>
-      <c r="C195" s="44"/>
-      <c r="D195" s="33"/>
-      <c r="E195" s="33"/>
-      <c r="F195" s="33"/>
-      <c r="G195" s="33"/>
-      <c r="H195" s="33"/>
-      <c r="I195" s="33"/>
-      <c r="J195" s="34"/>
-      <c r="K195" s="17"/>
-      <c r="L195" s="18"/>
-      <c r="M195" s="16"/>
-      <c r="N195" s="18"/>
-      <c r="O195" s="17"/>
-    </row>
-    <row r="196" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A196" s="14"/>
-      <c r="B196" s="15"/>
-      <c r="C196" s="44"/>
-      <c r="D196" s="33"/>
-      <c r="E196" s="33"/>
-      <c r="F196" s="33"/>
-      <c r="G196" s="33"/>
-      <c r="H196" s="33"/>
-      <c r="I196" s="33"/>
-      <c r="J196" s="34"/>
-      <c r="K196" s="17"/>
-      <c r="L196" s="18"/>
-      <c r="M196" s="16"/>
-      <c r="N196" s="18"/>
-      <c r="O196" s="17"/>
-    </row>
-    <row r="197" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A197" s="14"/>
-      <c r="B197" s="15"/>
-      <c r="C197" s="44"/>
-      <c r="D197" s="33"/>
-      <c r="E197" s="33"/>
-      <c r="F197" s="33"/>
-      <c r="G197" s="33"/>
-      <c r="H197" s="33"/>
-      <c r="I197" s="33"/>
-      <c r="J197" s="34"/>
-      <c r="K197" s="17"/>
-      <c r="L197" s="18"/>
-      <c r="M197" s="16"/>
-      <c r="N197" s="18"/>
-      <c r="O197" s="17"/>
-    </row>
-    <row r="198" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A198" s="14"/>
-      <c r="B198" s="15"/>
-      <c r="C198" s="44"/>
-      <c r="D198" s="33"/>
-      <c r="E198" s="33"/>
-      <c r="F198" s="33"/>
-      <c r="G198" s="33"/>
-      <c r="H198" s="33"/>
-      <c r="I198" s="33"/>
-      <c r="J198" s="34"/>
-      <c r="K198" s="17"/>
-      <c r="L198" s="18"/>
-      <c r="M198" s="16"/>
-      <c r="N198" s="18"/>
-      <c r="O198" s="17"/>
-    </row>
-    <row r="199" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A199" s="14"/>
-      <c r="B199" s="15"/>
-      <c r="C199" s="44"/>
-      <c r="D199" s="33"/>
-      <c r="E199" s="33"/>
-      <c r="F199" s="33"/>
-      <c r="G199" s="33"/>
-      <c r="H199" s="33"/>
-      <c r="I199" s="33"/>
-      <c r="J199" s="34"/>
-      <c r="K199" s="17"/>
-      <c r="L199" s="18"/>
-      <c r="M199" s="16"/>
-      <c r="N199" s="18"/>
-      <c r="O199" s="17"/>
-    </row>
-    <row r="200" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A200" s="14"/>
-      <c r="B200" s="15"/>
-      <c r="C200" s="44"/>
-      <c r="D200" s="33"/>
-      <c r="E200" s="33"/>
-      <c r="F200" s="33"/>
-      <c r="G200" s="33"/>
-      <c r="H200" s="33"/>
-      <c r="I200" s="33"/>
-      <c r="J200" s="34"/>
-      <c r="K200" s="17"/>
-      <c r="L200" s="18"/>
-      <c r="M200" s="16"/>
-      <c r="N200" s="18"/>
-      <c r="O200" s="17"/>
-    </row>
-    <row r="201" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A201" s="14"/>
-      <c r="B201" s="15"/>
-      <c r="C201" s="44"/>
-      <c r="D201" s="33"/>
-      <c r="E201" s="33"/>
-      <c r="F201" s="33"/>
-      <c r="G201" s="33"/>
-      <c r="H201" s="33"/>
-      <c r="I201" s="33"/>
-      <c r="J201" s="34"/>
-      <c r="K201" s="17"/>
-      <c r="L201" s="18"/>
-      <c r="M201" s="16"/>
-      <c r="N201" s="18"/>
-      <c r="O201" s="17"/>
-    </row>
-    <row r="202" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A202" s="14"/>
-      <c r="B202" s="15"/>
-      <c r="C202" s="44"/>
-      <c r="D202" s="33"/>
-      <c r="E202" s="33"/>
-      <c r="F202" s="33"/>
-      <c r="G202" s="33"/>
-      <c r="H202" s="33"/>
-      <c r="I202" s="33"/>
-      <c r="J202" s="34"/>
-      <c r="K202" s="17"/>
-      <c r="L202" s="18"/>
-      <c r="M202" s="16"/>
-      <c r="N202" s="18"/>
-      <c r="O202" s="17"/>
-    </row>
-    <row r="203" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A203" s="14"/>
-      <c r="B203" s="15"/>
-      <c r="C203" s="44"/>
-      <c r="D203" s="33"/>
-      <c r="E203" s="33"/>
-      <c r="F203" s="33"/>
-      <c r="G203" s="33"/>
-      <c r="H203" s="33"/>
-      <c r="I203" s="33"/>
-      <c r="J203" s="34"/>
-      <c r="K203" s="17"/>
-      <c r="L203" s="18"/>
-      <c r="M203" s="16"/>
-      <c r="N203" s="18"/>
-      <c r="O203" s="17"/>
-    </row>
-    <row r="204" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A204" s="14"/>
-      <c r="B204" s="15"/>
-      <c r="C204" s="44"/>
-      <c r="D204" s="33"/>
-      <c r="E204" s="33"/>
-      <c r="F204" s="33"/>
-      <c r="G204" s="33"/>
-      <c r="H204" s="33"/>
-      <c r="I204" s="33"/>
-      <c r="J204" s="34"/>
-      <c r="K204" s="17"/>
-      <c r="L204" s="18"/>
-      <c r="M204" s="16"/>
-      <c r="N204" s="18"/>
-      <c r="O204" s="17"/>
-    </row>
-    <row r="205" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A205" s="14"/>
-      <c r="B205" s="15"/>
-      <c r="C205" s="44"/>
-      <c r="D205" s="33"/>
-      <c r="E205" s="33"/>
-      <c r="F205" s="33"/>
-      <c r="G205" s="33"/>
-      <c r="H205" s="33"/>
-      <c r="I205" s="33"/>
-      <c r="J205" s="34"/>
-      <c r="K205" s="17"/>
-      <c r="L205" s="18"/>
-      <c r="M205" s="16"/>
-      <c r="N205" s="18"/>
-      <c r="O205" s="17"/>
-    </row>
-    <row r="206" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A206" s="14"/>
-      <c r="B206" s="15"/>
-      <c r="C206" s="44"/>
-      <c r="D206" s="33"/>
-      <c r="E206" s="33"/>
-      <c r="F206" s="33"/>
-      <c r="G206" s="33"/>
-      <c r="H206" s="33"/>
-      <c r="I206" s="33"/>
-      <c r="J206" s="34"/>
-      <c r="K206" s="17"/>
-      <c r="L206" s="18"/>
-      <c r="M206" s="16"/>
-      <c r="N206" s="18"/>
-      <c r="O206" s="17"/>
-    </row>
-    <row r="207" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A207" s="14"/>
-      <c r="B207" s="15"/>
-      <c r="C207" s="44"/>
-      <c r="D207" s="33"/>
-      <c r="E207" s="33"/>
-      <c r="F207" s="33"/>
-      <c r="G207" s="33"/>
-      <c r="H207" s="33"/>
-      <c r="I207" s="33"/>
-      <c r="J207" s="34"/>
-      <c r="K207" s="17"/>
-      <c r="L207" s="18"/>
-      <c r="M207" s="16"/>
-      <c r="N207" s="18"/>
-      <c r="O207" s="17"/>
-    </row>
-    <row r="208" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A208" s="14"/>
-      <c r="B208" s="15"/>
-      <c r="C208" s="44"/>
-      <c r="D208" s="33"/>
-      <c r="E208" s="33"/>
-      <c r="F208" s="33"/>
-      <c r="G208" s="33"/>
-      <c r="H208" s="33"/>
-      <c r="I208" s="33"/>
-      <c r="J208" s="34"/>
-      <c r="K208" s="17"/>
-      <c r="L208" s="18"/>
-      <c r="M208" s="16"/>
-      <c r="N208" s="18"/>
-      <c r="O208" s="17"/>
-    </row>
-    <row r="209" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A209" s="14"/>
-      <c r="B209" s="15"/>
-      <c r="C209" s="44"/>
-      <c r="D209" s="33"/>
-      <c r="E209" s="33"/>
-      <c r="F209" s="33"/>
-      <c r="G209" s="33"/>
-      <c r="H209" s="33"/>
-      <c r="I209" s="33"/>
-      <c r="J209" s="34"/>
-      <c r="K209" s="17"/>
-      <c r="L209" s="18"/>
-      <c r="M209" s="16"/>
-      <c r="N209" s="18"/>
-      <c r="O209" s="17"/>
-    </row>
-    <row r="210" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A210" s="14"/>
-      <c r="B210" s="15"/>
-      <c r="C210" s="44"/>
-      <c r="D210" s="33"/>
-      <c r="E210" s="33"/>
-      <c r="F210" s="33"/>
-      <c r="G210" s="33"/>
-      <c r="H210" s="33"/>
-      <c r="I210" s="33"/>
-      <c r="J210" s="34"/>
-      <c r="K210" s="17"/>
-      <c r="L210" s="18"/>
-      <c r="M210" s="16"/>
-      <c r="N210" s="18"/>
-      <c r="O210" s="17"/>
-    </row>
-    <row r="211" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A211" s="14"/>
-      <c r="B211" s="15"/>
-      <c r="C211" s="44"/>
-      <c r="D211" s="33"/>
-      <c r="E211" s="33"/>
-      <c r="F211" s="33"/>
-      <c r="G211" s="33"/>
-      <c r="H211" s="33"/>
-      <c r="I211" s="33"/>
-      <c r="J211" s="34"/>
-      <c r="K211" s="17"/>
-      <c r="L211" s="18"/>
-      <c r="M211" s="16"/>
-      <c r="N211" s="18"/>
-      <c r="O211" s="17"/>
-    </row>
-    <row r="212" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A212" s="14"/>
-      <c r="B212" s="15"/>
-      <c r="C212" s="44"/>
-      <c r="D212" s="33"/>
-      <c r="E212" s="33"/>
-      <c r="F212" s="33"/>
-      <c r="G212" s="33"/>
-      <c r="H212" s="33"/>
-      <c r="I212" s="33"/>
-      <c r="J212" s="34"/>
-      <c r="K212" s="17"/>
-      <c r="L212" s="18"/>
-      <c r="M212" s="16"/>
-      <c r="N212" s="18"/>
-      <c r="O212" s="17"/>
-    </row>
-    <row r="213" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A213" s="14"/>
-      <c r="B213" s="15"/>
-      <c r="C213" s="44"/>
-      <c r="D213" s="33"/>
-      <c r="E213" s="33"/>
-      <c r="F213" s="33"/>
-      <c r="G213" s="33"/>
-      <c r="H213" s="33"/>
-      <c r="I213" s="33"/>
-      <c r="J213" s="34"/>
-      <c r="K213" s="17"/>
-      <c r="L213" s="18"/>
-      <c r="M213" s="16"/>
-      <c r="N213" s="18"/>
-      <c r="O213" s="17"/>
-    </row>
-    <row r="214" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A214" s="14"/>
-      <c r="B214" s="15"/>
-      <c r="C214" s="44"/>
-      <c r="D214" s="33"/>
-      <c r="E214" s="33"/>
-      <c r="F214" s="33"/>
-      <c r="G214" s="33"/>
-      <c r="H214" s="33"/>
-      <c r="I214" s="33"/>
-      <c r="J214" s="34"/>
-      <c r="K214" s="17"/>
-      <c r="L214" s="18"/>
-      <c r="M214" s="16"/>
-      <c r="N214" s="18"/>
-      <c r="O214" s="17"/>
-    </row>
-    <row r="215" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A215" s="14"/>
-      <c r="B215" s="15"/>
-      <c r="C215" s="44"/>
-      <c r="D215" s="33"/>
-      <c r="E215" s="33"/>
-      <c r="F215" s="33"/>
-      <c r="G215" s="33"/>
-      <c r="H215" s="33"/>
-      <c r="I215" s="33"/>
-      <c r="J215" s="34"/>
-      <c r="K215" s="17"/>
-      <c r="L215" s="18"/>
-      <c r="M215" s="16"/>
-      <c r="N215" s="18"/>
-      <c r="O215" s="17"/>
-    </row>
-    <row r="216" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A216" s="14"/>
-      <c r="B216" s="15"/>
-      <c r="C216" s="44"/>
-      <c r="D216" s="33"/>
-      <c r="E216" s="33"/>
-      <c r="F216" s="33"/>
-      <c r="G216" s="33"/>
-      <c r="H216" s="33"/>
-      <c r="I216" s="33"/>
-      <c r="J216" s="34"/>
-      <c r="K216" s="17"/>
-      <c r="L216" s="18"/>
-      <c r="M216" s="16"/>
-      <c r="N216" s="18"/>
-      <c r="O216" s="17"/>
-    </row>
-    <row r="217" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A217" s="14"/>
-      <c r="B217" s="15"/>
-      <c r="C217" s="44"/>
-      <c r="D217" s="33"/>
-      <c r="E217" s="33"/>
-      <c r="F217" s="33"/>
-      <c r="G217" s="33"/>
-      <c r="H217" s="33"/>
-      <c r="I217" s="33"/>
-      <c r="J217" s="34"/>
-      <c r="K217" s="17"/>
-      <c r="L217" s="18"/>
-      <c r="M217" s="16"/>
-      <c r="N217" s="18"/>
-      <c r="O217" s="17"/>
-    </row>
-    <row r="218" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A218" s="14"/>
-      <c r="B218" s="15"/>
-      <c r="C218" s="44"/>
-      <c r="D218" s="33"/>
-      <c r="E218" s="33"/>
-      <c r="F218" s="33"/>
-      <c r="G218" s="33"/>
-      <c r="H218" s="33"/>
-      <c r="I218" s="33"/>
-      <c r="J218" s="34"/>
-      <c r="K218" s="17"/>
-      <c r="L218" s="18"/>
-      <c r="M218" s="16"/>
-      <c r="N218" s="18"/>
-      <c r="O218" s="17"/>
-    </row>
-    <row r="219" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A219" s="14"/>
-      <c r="B219" s="15"/>
-      <c r="C219" s="44"/>
-      <c r="D219" s="33"/>
-      <c r="E219" s="33"/>
-      <c r="F219" s="33"/>
-      <c r="G219" s="33"/>
-      <c r="H219" s="33"/>
-      <c r="I219" s="33"/>
-      <c r="J219" s="34"/>
-      <c r="K219" s="17"/>
-      <c r="L219" s="18"/>
-      <c r="M219" s="16"/>
-      <c r="N219" s="18"/>
-      <c r="O219" s="17"/>
-    </row>
-    <row r="220" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A220" s="14"/>
-      <c r="B220" s="15"/>
-      <c r="C220" s="44"/>
-      <c r="D220" s="33"/>
-      <c r="E220" s="33"/>
-      <c r="F220" s="33"/>
-      <c r="G220" s="33"/>
-      <c r="H220" s="33"/>
-      <c r="I220" s="33"/>
-      <c r="J220" s="34"/>
-      <c r="K220" s="17"/>
-      <c r="L220" s="18"/>
-      <c r="M220" s="16"/>
-      <c r="N220" s="18"/>
-      <c r="O220" s="17"/>
-    </row>
-    <row r="221" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A221" s="14"/>
-      <c r="B221" s="15"/>
-      <c r="C221" s="44"/>
-      <c r="D221" s="33"/>
-      <c r="E221" s="33"/>
-      <c r="F221" s="33"/>
-      <c r="G221" s="33"/>
-      <c r="H221" s="33"/>
-      <c r="I221" s="33"/>
-      <c r="J221" s="34"/>
-      <c r="K221" s="17"/>
-      <c r="L221" s="18"/>
-      <c r="M221" s="16"/>
-      <c r="N221" s="18"/>
-      <c r="O221" s="17"/>
-    </row>
-    <row r="222" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A222" s="14"/>
-      <c r="B222" s="15"/>
-      <c r="C222" s="44"/>
-      <c r="D222" s="33"/>
-      <c r="E222" s="33"/>
-      <c r="F222" s="33"/>
-      <c r="G222" s="33"/>
-      <c r="H222" s="33"/>
-      <c r="I222" s="33"/>
-      <c r="J222" s="34"/>
-      <c r="K222" s="17"/>
-      <c r="L222" s="18"/>
-      <c r="M222" s="16"/>
-      <c r="N222" s="18"/>
-      <c r="O222" s="17"/>
-    </row>
-    <row r="223" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A223" s="14"/>
-      <c r="B223" s="15"/>
-      <c r="C223" s="44"/>
-      <c r="D223" s="33"/>
-      <c r="E223" s="33"/>
-      <c r="F223" s="33"/>
-      <c r="G223" s="33"/>
-      <c r="H223" s="33"/>
-      <c r="I223" s="33"/>
-      <c r="J223" s="34"/>
-      <c r="K223" s="17"/>
-      <c r="L223" s="18"/>
-      <c r="M223" s="16"/>
-      <c r="N223" s="18"/>
-      <c r="O223" s="17"/>
-    </row>
-    <row r="224" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A224" s="14"/>
-      <c r="B224" s="15"/>
-      <c r="C224" s="44"/>
-      <c r="D224" s="33"/>
-      <c r="E224" s="33"/>
-      <c r="F224" s="33"/>
-      <c r="G224" s="33"/>
-      <c r="H224" s="33"/>
-      <c r="I224" s="33"/>
-      <c r="J224" s="34"/>
-      <c r="K224" s="17"/>
-      <c r="L224" s="18"/>
-      <c r="M224" s="16"/>
-      <c r="N224" s="18"/>
-      <c r="O224" s="17"/>
-    </row>
-    <row r="225" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A225" s="14"/>
-      <c r="B225" s="15"/>
-      <c r="C225" s="44"/>
-      <c r="D225" s="33"/>
-      <c r="E225" s="33"/>
-      <c r="F225" s="33"/>
-      <c r="G225" s="33"/>
-      <c r="H225" s="33"/>
-      <c r="I225" s="33"/>
-      <c r="J225" s="34"/>
-      <c r="K225" s="17"/>
-      <c r="L225" s="18"/>
-      <c r="M225" s="16"/>
-      <c r="N225" s="18"/>
-      <c r="O225" s="17"/>
-    </row>
-    <row r="226" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A226" s="14"/>
-      <c r="B226" s="15"/>
-      <c r="C226" s="44"/>
-      <c r="D226" s="33"/>
-      <c r="E226" s="33"/>
-      <c r="F226" s="33"/>
-      <c r="G226" s="33"/>
-      <c r="H226" s="33"/>
-      <c r="I226" s="33"/>
-      <c r="J226" s="34"/>
-      <c r="K226" s="17"/>
-      <c r="L226" s="18"/>
-      <c r="M226" s="16"/>
-      <c r="N226" s="18"/>
-      <c r="O226" s="17"/>
-    </row>
-    <row r="227" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A227" s="14"/>
-      <c r="B227" s="15"/>
-      <c r="C227" s="44"/>
-      <c r="D227" s="33"/>
-      <c r="E227" s="33"/>
-      <c r="F227" s="33"/>
-      <c r="G227" s="33"/>
-      <c r="H227" s="33"/>
-      <c r="I227" s="33"/>
-      <c r="J227" s="34"/>
-      <c r="K227" s="17"/>
-      <c r="L227" s="18"/>
-      <c r="M227" s="16"/>
-      <c r="N227" s="18"/>
-      <c r="O227" s="17"/>
-    </row>
-    <row r="228" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A228" s="14"/>
-      <c r="B228" s="15"/>
-      <c r="C228" s="44"/>
-      <c r="D228" s="33"/>
-      <c r="E228" s="33"/>
-      <c r="F228" s="33"/>
-      <c r="G228" s="33"/>
-      <c r="H228" s="33"/>
-      <c r="I228" s="33"/>
-      <c r="J228" s="34"/>
-      <c r="K228" s="17"/>
-      <c r="L228" s="18"/>
-      <c r="M228" s="16"/>
-      <c r="N228" s="18"/>
-      <c r="O228" s="17"/>
-    </row>
-    <row r="229" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A229" s="14"/>
-      <c r="B229" s="15"/>
-      <c r="C229" s="44"/>
-      <c r="D229" s="33"/>
-      <c r="E229" s="33"/>
-      <c r="F229" s="33"/>
-      <c r="G229" s="33"/>
-      <c r="H229" s="33"/>
-      <c r="I229" s="33"/>
-      <c r="J229" s="34"/>
-      <c r="K229" s="17"/>
-      <c r="L229" s="18"/>
-      <c r="M229" s="16"/>
-      <c r="N229" s="18"/>
-      <c r="O229" s="17"/>
-    </row>
-    <row r="230" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A230" s="14"/>
-      <c r="B230" s="15"/>
-      <c r="C230" s="44"/>
-      <c r="D230" s="33"/>
-      <c r="E230" s="33"/>
-      <c r="F230" s="33"/>
-      <c r="G230" s="33"/>
-      <c r="H230" s="33"/>
-      <c r="I230" s="33"/>
-      <c r="J230" s="34"/>
-      <c r="K230" s="17"/>
-      <c r="L230" s="18"/>
-      <c r="M230" s="16"/>
-      <c r="N230" s="18"/>
-      <c r="O230" s="17"/>
-    </row>
-    <row r="231" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A231" s="14"/>
-      <c r="B231" s="15"/>
-      <c r="C231" s="44"/>
-      <c r="D231" s="33"/>
-      <c r="E231" s="33"/>
-      <c r="F231" s="33"/>
-      <c r="G231" s="33"/>
-      <c r="H231" s="33"/>
-      <c r="I231" s="33"/>
-      <c r="J231" s="34"/>
-      <c r="K231" s="17"/>
-      <c r="L231" s="18"/>
-      <c r="M231" s="16"/>
-      <c r="N231" s="18"/>
-      <c r="O231" s="17"/>
-    </row>
-    <row r="232" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A232" s="14"/>
-      <c r="B232" s="15"/>
-      <c r="C232" s="44"/>
-      <c r="D232" s="33"/>
-      <c r="E232" s="33"/>
-      <c r="F232" s="33"/>
-      <c r="G232" s="33"/>
-      <c r="H232" s="33"/>
-      <c r="I232" s="33"/>
-      <c r="J232" s="34"/>
-      <c r="K232" s="17"/>
-      <c r="L232" s="18"/>
-      <c r="M232" s="16"/>
-      <c r="N232" s="18"/>
-      <c r="O232" s="17"/>
-    </row>
-    <row r="233" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A233" s="14"/>
-      <c r="B233" s="15"/>
-      <c r="C233" s="44"/>
-      <c r="D233" s="33"/>
-      <c r="E233" s="33"/>
-      <c r="F233" s="33"/>
-      <c r="G233" s="33"/>
-      <c r="H233" s="33"/>
-      <c r="I233" s="33"/>
-      <c r="J233" s="34"/>
-      <c r="K233" s="17"/>
-      <c r="L233" s="18"/>
-      <c r="M233" s="16"/>
-      <c r="N233" s="18"/>
-      <c r="O233" s="17"/>
-    </row>
-    <row r="234" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A234" s="14"/>
-      <c r="B234" s="15"/>
-      <c r="C234" s="44"/>
-      <c r="D234" s="33"/>
-      <c r="E234" s="33"/>
-      <c r="F234" s="33"/>
-      <c r="G234" s="33"/>
-      <c r="H234" s="33"/>
-      <c r="I234" s="33"/>
-      <c r="J234" s="34"/>
-      <c r="K234" s="17"/>
-      <c r="L234" s="18"/>
-      <c r="M234" s="16"/>
-      <c r="N234" s="18"/>
-      <c r="O234" s="17"/>
-    </row>
-    <row r="235" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A235" s="14"/>
-      <c r="B235" s="15"/>
-      <c r="C235" s="44"/>
-      <c r="D235" s="33"/>
-      <c r="E235" s="33"/>
-      <c r="F235" s="33"/>
-      <c r="G235" s="33"/>
-      <c r="H235" s="33"/>
-      <c r="I235" s="33"/>
-      <c r="J235" s="34"/>
-      <c r="K235" s="17"/>
-      <c r="L235" s="18"/>
-      <c r="M235" s="16"/>
-      <c r="N235" s="18"/>
-      <c r="O235" s="17"/>
-    </row>
-    <row r="236" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A236" s="14"/>
-      <c r="B236" s="15"/>
-      <c r="C236" s="44"/>
-      <c r="D236" s="33"/>
-      <c r="E236" s="33"/>
-      <c r="F236" s="33"/>
-      <c r="G236" s="33"/>
-      <c r="H236" s="33"/>
-      <c r="I236" s="33"/>
-      <c r="J236" s="34"/>
-      <c r="K236" s="17"/>
-      <c r="L236" s="18"/>
-      <c r="M236" s="16"/>
-      <c r="N236" s="18"/>
-      <c r="O236" s="17"/>
-    </row>
-    <row r="237" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A237" s="14"/>
-      <c r="B237" s="15"/>
-      <c r="C237" s="44"/>
-      <c r="D237" s="33"/>
-      <c r="E237" s="33"/>
-      <c r="F237" s="33"/>
-      <c r="G237" s="33"/>
-      <c r="H237" s="33"/>
-      <c r="I237" s="33"/>
-      <c r="J237" s="34"/>
-      <c r="K237" s="17"/>
-      <c r="L237" s="18"/>
-      <c r="M237" s="16"/>
-      <c r="N237" s="18"/>
-      <c r="O237" s="17"/>
-    </row>
-    <row r="238" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A238" s="14"/>
-      <c r="B238" s="15"/>
-      <c r="C238" s="44"/>
-      <c r="D238" s="33"/>
-      <c r="E238" s="33"/>
-      <c r="F238" s="33"/>
-      <c r="G238" s="33"/>
-      <c r="H238" s="33"/>
-      <c r="I238" s="33"/>
-      <c r="J238" s="34"/>
-      <c r="K238" s="17"/>
-      <c r="L238" s="18"/>
-      <c r="M238" s="16"/>
-      <c r="N238" s="18"/>
-      <c r="O238" s="17"/>
-    </row>
-    <row r="239" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A239" s="14"/>
-      <c r="B239" s="15"/>
-      <c r="C239" s="44"/>
-      <c r="D239" s="33"/>
-      <c r="E239" s="33"/>
-      <c r="F239" s="33"/>
-      <c r="G239" s="33"/>
-      <c r="H239" s="33"/>
-      <c r="I239" s="33"/>
-      <c r="J239" s="34"/>
-      <c r="K239" s="17"/>
-      <c r="L239" s="18"/>
-      <c r="M239" s="16"/>
-      <c r="N239" s="18"/>
-      <c r="O239" s="17"/>
-    </row>
-    <row r="240" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A240" s="14"/>
-      <c r="B240" s="15"/>
-      <c r="C240" s="44"/>
-      <c r="D240" s="33"/>
-      <c r="E240" s="33"/>
-      <c r="F240" s="33"/>
-      <c r="G240" s="33"/>
-      <c r="H240" s="33"/>
-      <c r="I240" s="33"/>
-      <c r="J240" s="34"/>
-      <c r="K240" s="17"/>
-      <c r="L240" s="18"/>
-      <c r="M240" s="16"/>
-      <c r="N240" s="18"/>
-      <c r="O240" s="17"/>
-    </row>
-    <row r="241" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A241" s="14"/>
-      <c r="B241" s="15"/>
-      <c r="C241" s="44"/>
-      <c r="D241" s="33"/>
-      <c r="E241" s="33"/>
-      <c r="F241" s="33"/>
-      <c r="G241" s="33"/>
-      <c r="H241" s="33"/>
-      <c r="I241" s="33"/>
-      <c r="J241" s="34"/>
-      <c r="K241" s="17"/>
-      <c r="L241" s="18"/>
-      <c r="M241" s="16"/>
-      <c r="N241" s="18"/>
-      <c r="O241" s="17"/>
-    </row>
-    <row r="242" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A242" s="14"/>
-      <c r="B242" s="15"/>
-      <c r="C242" s="44"/>
-      <c r="D242" s="33"/>
-      <c r="E242" s="33"/>
-      <c r="F242" s="33"/>
-      <c r="G242" s="33"/>
-      <c r="H242" s="33"/>
-      <c r="I242" s="33"/>
-      <c r="J242" s="34"/>
-      <c r="K242" s="17"/>
-      <c r="L242" s="18"/>
-      <c r="M242" s="16"/>
-      <c r="N242" s="18"/>
-      <c r="O242" s="17"/>
-    </row>
-    <row r="243" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A243" s="14"/>
-      <c r="B243" s="15"/>
-      <c r="C243" s="44"/>
-      <c r="D243" s="33"/>
-      <c r="E243" s="33"/>
-      <c r="F243" s="33"/>
-      <c r="G243" s="33"/>
-      <c r="H243" s="33"/>
-      <c r="I243" s="33"/>
-      <c r="J243" s="34"/>
-      <c r="K243" s="17"/>
-      <c r="L243" s="18"/>
-      <c r="M243" s="16"/>
-      <c r="N243" s="18"/>
-      <c r="O243" s="17"/>
-    </row>
-    <row r="244" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A244" s="14"/>
-      <c r="B244" s="15"/>
-      <c r="C244" s="44"/>
-      <c r="D244" s="33"/>
-      <c r="E244" s="33"/>
-      <c r="F244" s="33"/>
-      <c r="G244" s="33"/>
-      <c r="H244" s="33"/>
-      <c r="I244" s="33"/>
-      <c r="J244" s="34"/>
-      <c r="K244" s="17"/>
-      <c r="L244" s="18"/>
-      <c r="M244" s="16"/>
-      <c r="N244" s="18"/>
-      <c r="O244" s="17"/>
-    </row>
-    <row r="245" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A245" s="14"/>
-      <c r="B245" s="15"/>
-      <c r="C245" s="44"/>
-      <c r="D245" s="33"/>
-      <c r="E245" s="33"/>
-      <c r="F245" s="33"/>
-      <c r="G245" s="33"/>
-      <c r="H245" s="33"/>
-      <c r="I245" s="33"/>
-      <c r="J245" s="34"/>
-      <c r="K245" s="17"/>
-      <c r="L245" s="18"/>
-      <c r="M245" s="16"/>
-      <c r="N245" s="18"/>
-      <c r="O245" s="17"/>
-    </row>
-    <row r="246" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A246" s="14"/>
-      <c r="B246" s="15"/>
-      <c r="C246" s="44"/>
-      <c r="D246" s="33"/>
-      <c r="E246" s="33"/>
-      <c r="F246" s="33"/>
-      <c r="G246" s="33"/>
-      <c r="H246" s="33"/>
-      <c r="I246" s="33"/>
-      <c r="J246" s="34"/>
-      <c r="K246" s="17"/>
-      <c r="L246" s="18"/>
-      <c r="M246" s="16"/>
-      <c r="N246" s="18"/>
-      <c r="O246" s="17"/>
-    </row>
-    <row r="247" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A247" s="14"/>
-      <c r="B247" s="15"/>
-      <c r="C247" s="44"/>
-      <c r="D247" s="33"/>
-      <c r="E247" s="33"/>
-      <c r="F247" s="33"/>
-      <c r="G247" s="33"/>
-      <c r="H247" s="33"/>
-      <c r="I247" s="33"/>
-      <c r="J247" s="34"/>
-      <c r="K247" s="17"/>
-      <c r="L247" s="18"/>
-      <c r="M247" s="16"/>
-      <c r="N247" s="18"/>
-      <c r="O247" s="17"/>
-    </row>
-    <row r="248" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A248" s="14"/>
-      <c r="B248" s="15"/>
-      <c r="C248" s="44"/>
-      <c r="D248" s="33"/>
-      <c r="E248" s="33"/>
-      <c r="F248" s="33"/>
-      <c r="G248" s="33"/>
-      <c r="H248" s="33"/>
-      <c r="I248" s="33"/>
-      <c r="J248" s="34"/>
-      <c r="K248" s="17"/>
-      <c r="L248" s="18"/>
-      <c r="M248" s="16"/>
-      <c r="N248" s="18"/>
-      <c r="O248" s="17"/>
-    </row>
-    <row r="249" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A249" s="14"/>
-      <c r="B249" s="15"/>
-      <c r="C249" s="44"/>
-      <c r="D249" s="33"/>
-      <c r="E249" s="33"/>
-      <c r="F249" s="33"/>
-      <c r="G249" s="33"/>
-      <c r="H249" s="33"/>
-      <c r="I249" s="33"/>
-      <c r="J249" s="34"/>
-      <c r="K249" s="17"/>
-      <c r="L249" s="18"/>
-      <c r="M249" s="16"/>
-      <c r="N249" s="18"/>
-      <c r="O249" s="17"/>
-    </row>
-    <row r="250" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A250" s="14"/>
-      <c r="B250" s="15"/>
-      <c r="C250" s="44"/>
-      <c r="D250" s="33"/>
-      <c r="E250" s="33"/>
-      <c r="F250" s="33"/>
-      <c r="G250" s="33"/>
-      <c r="H250" s="33"/>
-      <c r="I250" s="33"/>
-      <c r="J250" s="34"/>
-      <c r="K250" s="17"/>
-      <c r="L250" s="18"/>
-      <c r="M250" s="16"/>
-      <c r="N250" s="18"/>
-      <c r="O250" s="17"/>
-    </row>
-    <row r="251" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A251" s="14"/>
-      <c r="B251" s="15"/>
-      <c r="C251" s="44"/>
-      <c r="D251" s="33"/>
-      <c r="E251" s="33"/>
-      <c r="F251" s="33"/>
-      <c r="G251" s="33"/>
-      <c r="H251" s="33"/>
-      <c r="I251" s="33"/>
-      <c r="J251" s="34"/>
-      <c r="K251" s="17"/>
-      <c r="L251" s="18"/>
-      <c r="M251" s="16"/>
-      <c r="N251" s="18"/>
-      <c r="O251" s="17"/>
-    </row>
-    <row r="252" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A252" s="14"/>
-      <c r="B252" s="15"/>
-      <c r="C252" s="44"/>
-      <c r="D252" s="33"/>
-      <c r="E252" s="33"/>
-      <c r="F252" s="33"/>
-      <c r="G252" s="33"/>
-      <c r="H252" s="33"/>
-      <c r="I252" s="33"/>
-      <c r="J252" s="34"/>
-      <c r="K252" s="17"/>
-      <c r="L252" s="18"/>
-      <c r="M252" s="16"/>
-      <c r="N252" s="18"/>
-      <c r="O252" s="17"/>
-    </row>
-    <row r="253" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A253" s="14"/>
-      <c r="B253" s="15"/>
-      <c r="C253" s="44"/>
-      <c r="D253" s="33"/>
-      <c r="E253" s="33"/>
-      <c r="F253" s="33"/>
-      <c r="G253" s="33"/>
-      <c r="H253" s="33"/>
-      <c r="I253" s="33"/>
-      <c r="J253" s="34"/>
-      <c r="K253" s="17"/>
-      <c r="L253" s="18"/>
-      <c r="M253" s="16"/>
-      <c r="N253" s="18"/>
-      <c r="O253" s="17"/>
-    </row>
-    <row r="254" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A254" s="14"/>
-      <c r="B254" s="15"/>
-      <c r="C254" s="44"/>
-      <c r="D254" s="33"/>
-      <c r="E254" s="33"/>
-      <c r="F254" s="33"/>
-      <c r="G254" s="33"/>
-      <c r="H254" s="33"/>
-      <c r="I254" s="33"/>
-      <c r="J254" s="34"/>
-      <c r="K254" s="17"/>
-      <c r="L254" s="18"/>
-      <c r="M254" s="16"/>
-      <c r="N254" s="18"/>
-      <c r="O254" s="17"/>
-    </row>
-    <row r="255" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A255" s="14"/>
-      <c r="B255" s="15"/>
-      <c r="C255" s="44"/>
-      <c r="D255" s="33"/>
-      <c r="E255" s="33"/>
-      <c r="F255" s="33"/>
-      <c r="G255" s="33"/>
-      <c r="H255" s="33"/>
-      <c r="I255" s="33"/>
-      <c r="J255" s="34"/>
-      <c r="K255" s="17"/>
-      <c r="L255" s="18"/>
-      <c r="M255" s="16"/>
-      <c r="N255" s="18"/>
-      <c r="O255" s="17"/>
-    </row>
-    <row r="256" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A256" s="14"/>
-      <c r="B256" s="15"/>
-      <c r="C256" s="44"/>
-      <c r="D256" s="33"/>
-      <c r="E256" s="33"/>
-      <c r="F256" s="33"/>
-      <c r="G256" s="33"/>
-      <c r="H256" s="33"/>
-      <c r="I256" s="33"/>
-      <c r="J256" s="34"/>
-      <c r="K256" s="17"/>
-      <c r="L256" s="18"/>
-      <c r="M256" s="16"/>
-      <c r="N256" s="18"/>
-      <c r="O256" s="17"/>
-    </row>
-    <row r="257" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A257" s="14"/>
-      <c r="B257" s="15"/>
-      <c r="C257" s="44"/>
-      <c r="D257" s="33"/>
-      <c r="E257" s="33"/>
-      <c r="F257" s="33"/>
-      <c r="G257" s="33"/>
-      <c r="H257" s="33"/>
-      <c r="I257" s="33"/>
-      <c r="J257" s="34"/>
-      <c r="K257" s="17"/>
-      <c r="L257" s="18"/>
-      <c r="M257" s="16"/>
-      <c r="N257" s="18"/>
-      <c r="O257" s="17"/>
-    </row>
-    <row r="258" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A258" s="14"/>
-      <c r="B258" s="15"/>
-      <c r="C258" s="44"/>
-      <c r="D258" s="33"/>
-      <c r="E258" s="33"/>
-      <c r="F258" s="33"/>
-      <c r="G258" s="33"/>
-      <c r="H258" s="33"/>
-      <c r="I258" s="33"/>
-      <c r="J258" s="34"/>
-      <c r="K258" s="17"/>
-      <c r="L258" s="18"/>
-      <c r="M258" s="16"/>
-      <c r="N258" s="18"/>
-      <c r="O258" s="17"/>
-    </row>
-    <row r="259" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A259" s="14"/>
-      <c r="B259" s="15"/>
-      <c r="C259" s="44"/>
-      <c r="D259" s="33"/>
-      <c r="E259" s="33"/>
-      <c r="F259" s="33"/>
-      <c r="G259" s="33"/>
-      <c r="H259" s="33"/>
-      <c r="I259" s="33"/>
-      <c r="J259" s="34"/>
-      <c r="K259" s="17"/>
-      <c r="L259" s="18"/>
-      <c r="M259" s="16"/>
-      <c r="N259" s="18"/>
-      <c r="O259" s="17"/>
-    </row>
-    <row r="260" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A260" s="14"/>
-      <c r="B260" s="15"/>
-      <c r="C260" s="44"/>
-      <c r="D260" s="33"/>
-      <c r="E260" s="33"/>
-      <c r="F260" s="33"/>
-      <c r="G260" s="33"/>
-      <c r="H260" s="33"/>
-      <c r="I260" s="33"/>
-      <c r="J260" s="34"/>
-      <c r="K260" s="17"/>
-      <c r="L260" s="18"/>
-      <c r="M260" s="16"/>
-      <c r="N260" s="18"/>
-      <c r="O260" s="17"/>
-    </row>
-    <row r="261" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A261" s="14"/>
-      <c r="B261" s="15"/>
-      <c r="C261" s="44"/>
-      <c r="D261" s="33"/>
-      <c r="E261" s="33"/>
-      <c r="F261" s="33"/>
-      <c r="G261" s="33"/>
-      <c r="H261" s="33"/>
-      <c r="I261" s="33"/>
-      <c r="J261" s="34"/>
-      <c r="K261" s="17"/>
-      <c r="L261" s="18"/>
-      <c r="M261" s="16"/>
-      <c r="N261" s="18"/>
-      <c r="O261" s="17"/>
-    </row>
-    <row r="262" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A262" s="14"/>
-      <c r="B262" s="15"/>
-      <c r="C262" s="44"/>
-      <c r="D262" s="33"/>
-      <c r="E262" s="33"/>
-      <c r="F262" s="33"/>
-      <c r="G262" s="33"/>
-      <c r="H262" s="33"/>
-      <c r="I262" s="33"/>
-      <c r="J262" s="34"/>
-      <c r="K262" s="17"/>
-      <c r="L262" s="18"/>
-      <c r="M262" s="16"/>
-      <c r="N262" s="18"/>
-      <c r="O262" s="17"/>
-    </row>
-    <row r="263" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A263" s="14"/>
-      <c r="B263" s="15"/>
-      <c r="C263" s="44"/>
-      <c r="D263" s="33"/>
-      <c r="E263" s="33"/>
-      <c r="F263" s="33"/>
-      <c r="G263" s="33"/>
-      <c r="H263" s="33"/>
-      <c r="I263" s="33"/>
-      <c r="J263" s="34"/>
-      <c r="K263" s="17"/>
-      <c r="L263" s="18"/>
-      <c r="M263" s="16"/>
-      <c r="N263" s="18"/>
-      <c r="O263" s="17"/>
-    </row>
-    <row r="264" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A264" s="14"/>
-      <c r="B264" s="15"/>
-      <c r="C264" s="44"/>
-      <c r="D264" s="33"/>
-      <c r="E264" s="33"/>
-      <c r="F264" s="33"/>
-      <c r="G264" s="33"/>
-      <c r="H264" s="33"/>
-      <c r="I264" s="33"/>
-      <c r="J264" s="34"/>
-      <c r="K264" s="17"/>
-      <c r="L264" s="18"/>
-      <c r="M264" s="16"/>
-      <c r="N264" s="18"/>
-      <c r="O264" s="17"/>
-    </row>
-    <row r="265" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A265" s="14"/>
-      <c r="B265" s="15"/>
-      <c r="C265" s="44"/>
-      <c r="D265" s="33"/>
-      <c r="E265" s="33"/>
-      <c r="F265" s="33"/>
-      <c r="G265" s="33"/>
-      <c r="H265" s="33"/>
-      <c r="I265" s="33"/>
-      <c r="J265" s="34"/>
-      <c r="K265" s="17"/>
-      <c r="L265" s="18"/>
-      <c r="M265" s="16"/>
-      <c r="N265" s="18"/>
-      <c r="O265" s="17"/>
-    </row>
-    <row r="266" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A266" s="14"/>
-      <c r="B266" s="15"/>
-      <c r="C266" s="44"/>
-      <c r="D266" s="33"/>
-      <c r="E266" s="33"/>
-      <c r="F266" s="33"/>
-      <c r="G266" s="33"/>
-      <c r="H266" s="33"/>
-      <c r="I266" s="33"/>
-      <c r="J266" s="34"/>
-      <c r="K266" s="17"/>
-      <c r="L266" s="18"/>
-      <c r="M266" s="16"/>
-      <c r="N266" s="18"/>
-      <c r="O266" s="17"/>
-    </row>
-    <row r="267" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A267" s="14"/>
-      <c r="B267" s="15"/>
-      <c r="C267" s="44"/>
-      <c r="D267" s="33"/>
-      <c r="E267" s="33"/>
-      <c r="F267" s="33"/>
-      <c r="G267" s="33"/>
-      <c r="H267" s="33"/>
-      <c r="I267" s="33"/>
-      <c r="J267" s="34"/>
-      <c r="K267" s="17"/>
-      <c r="L267" s="18"/>
-      <c r="M267" s="16"/>
-      <c r="N267" s="18"/>
-      <c r="O267" s="17"/>
-    </row>
-    <row r="268" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A268" s="14"/>
-      <c r="B268" s="15"/>
-      <c r="C268" s="44"/>
-      <c r="D268" s="33"/>
-      <c r="E268" s="33"/>
-      <c r="F268" s="33"/>
-      <c r="G268" s="33"/>
-      <c r="H268" s="33"/>
-      <c r="I268" s="33"/>
-      <c r="J268" s="34"/>
-      <c r="K268" s="17"/>
-      <c r="L268" s="18"/>
-      <c r="M268" s="16"/>
-      <c r="N268" s="18"/>
-      <c r="O268" s="17"/>
-    </row>
-    <row r="269" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A269" s="14"/>
-      <c r="B269" s="15"/>
-      <c r="C269" s="44"/>
-      <c r="D269" s="33"/>
-      <c r="E269" s="33"/>
-      <c r="F269" s="33"/>
-      <c r="G269" s="33"/>
-      <c r="H269" s="33"/>
-      <c r="I269" s="33"/>
-      <c r="J269" s="34"/>
-      <c r="K269" s="17"/>
-      <c r="L269" s="18"/>
-      <c r="M269" s="16"/>
-      <c r="N269" s="18"/>
-      <c r="O269" s="17"/>
-    </row>
-    <row r="270" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A270" s="14"/>
-      <c r="B270" s="15"/>
-      <c r="C270" s="44"/>
-      <c r="D270" s="33"/>
-      <c r="E270" s="33"/>
-      <c r="F270" s="33"/>
-      <c r="G270" s="33"/>
-      <c r="H270" s="33"/>
-      <c r="I270" s="33"/>
-      <c r="J270" s="34"/>
-      <c r="K270" s="17"/>
-      <c r="L270" s="18"/>
-      <c r="M270" s="16"/>
-      <c r="N270" s="18"/>
-      <c r="O270" s="17"/>
-    </row>
-    <row r="271" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A271" s="14"/>
-      <c r="B271" s="15"/>
-      <c r="C271" s="44"/>
-      <c r="D271" s="33"/>
-      <c r="E271" s="33"/>
-      <c r="F271" s="33"/>
-      <c r="G271" s="33"/>
-      <c r="H271" s="33"/>
-      <c r="I271" s="33"/>
-      <c r="J271" s="34"/>
-      <c r="K271" s="17"/>
-      <c r="L271" s="18"/>
-      <c r="M271" s="16"/>
-      <c r="N271" s="18"/>
-      <c r="O271" s="17"/>
-    </row>
-    <row r="272" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A272" s="14"/>
-      <c r="B272" s="15"/>
-      <c r="C272" s="44"/>
-      <c r="D272" s="33"/>
-      <c r="E272" s="33"/>
-      <c r="F272" s="33"/>
-      <c r="G272" s="33"/>
-      <c r="H272" s="33"/>
-      <c r="I272" s="33"/>
-      <c r="J272" s="34"/>
-      <c r="K272" s="17"/>
-      <c r="L272" s="18"/>
-      <c r="M272" s="16"/>
-      <c r="N272" s="18"/>
-      <c r="O272" s="17"/>
-    </row>
-    <row r="273" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A273" s="14"/>
-      <c r="B273" s="15"/>
-      <c r="C273" s="44"/>
-      <c r="D273" s="33"/>
-      <c r="E273" s="33"/>
-      <c r="F273" s="33"/>
-      <c r="G273" s="33"/>
-      <c r="H273" s="33"/>
-      <c r="I273" s="33"/>
-      <c r="J273" s="34"/>
-      <c r="K273" s="17"/>
-      <c r="L273" s="18"/>
-      <c r="M273" s="16"/>
-      <c r="N273" s="18"/>
-      <c r="O273" s="17"/>
-    </row>
-    <row r="274" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A274" s="14"/>
-      <c r="B274" s="15"/>
-      <c r="C274" s="44"/>
-      <c r="D274" s="33"/>
-      <c r="E274" s="33"/>
-      <c r="F274" s="33"/>
-      <c r="G274" s="33"/>
-      <c r="H274" s="33"/>
-      <c r="I274" s="33"/>
-      <c r="J274" s="34"/>
-      <c r="K274" s="17"/>
-      <c r="L274" s="18"/>
-      <c r="M274" s="16"/>
-      <c r="N274" s="18"/>
-      <c r="O274" s="17"/>
-    </row>
-    <row r="275" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A275" s="14"/>
-      <c r="B275" s="15"/>
-      <c r="C275" s="44"/>
-      <c r="D275" s="33"/>
-      <c r="E275" s="33"/>
-      <c r="F275" s="33"/>
-      <c r="G275" s="33"/>
-      <c r="H275" s="33"/>
-      <c r="I275" s="33"/>
-      <c r="J275" s="34"/>
-      <c r="K275" s="17"/>
-      <c r="L275" s="18"/>
-      <c r="M275" s="16"/>
-      <c r="N275" s="18"/>
-      <c r="O275" s="17"/>
-    </row>
-    <row r="276" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A276" s="14"/>
-      <c r="B276" s="15"/>
-      <c r="C276" s="44"/>
-      <c r="D276" s="33"/>
-      <c r="E276" s="33"/>
-      <c r="F276" s="33"/>
-      <c r="G276" s="33"/>
-      <c r="H276" s="33"/>
-      <c r="I276" s="33"/>
-      <c r="J276" s="34"/>
-      <c r="K276" s="17"/>
-      <c r="L276" s="18"/>
-      <c r="M276" s="16"/>
-      <c r="N276" s="18"/>
-      <c r="O276" s="17"/>
-    </row>
-    <row r="277" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A277" s="14"/>
-      <c r="B277" s="15"/>
-      <c r="C277" s="44"/>
-      <c r="D277" s="33"/>
-      <c r="E277" s="33"/>
-      <c r="F277" s="33"/>
-      <c r="G277" s="33"/>
-      <c r="H277" s="33"/>
-      <c r="I277" s="33"/>
-      <c r="J277" s="34"/>
-      <c r="K277" s="17"/>
-      <c r="L277" s="18"/>
-      <c r="M277" s="16"/>
-      <c r="N277" s="18"/>
-      <c r="O277" s="17"/>
-    </row>
-    <row r="278" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A278" s="14"/>
-      <c r="B278" s="15"/>
-      <c r="C278" s="44"/>
-      <c r="D278" s="33"/>
-      <c r="E278" s="33"/>
-      <c r="F278" s="33"/>
-      <c r="G278" s="33"/>
-      <c r="H278" s="33"/>
-      <c r="I278" s="33"/>
-      <c r="J278" s="34"/>
-      <c r="K278" s="17"/>
-      <c r="L278" s="18"/>
-      <c r="M278" s="16"/>
-      <c r="N278" s="18"/>
-      <c r="O278" s="17"/>
-    </row>
-    <row r="279" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A279" s="14"/>
-      <c r="B279" s="15"/>
-      <c r="C279" s="44"/>
-      <c r="D279" s="33"/>
-      <c r="E279" s="33"/>
-      <c r="F279" s="33"/>
-      <c r="G279" s="33"/>
-      <c r="H279" s="33"/>
-      <c r="I279" s="33"/>
-      <c r="J279" s="34"/>
-      <c r="K279" s="17"/>
-      <c r="L279" s="18"/>
-      <c r="M279" s="16"/>
-      <c r="N279" s="18"/>
-      <c r="O279" s="17"/>
-    </row>
-    <row r="280" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A280" s="14"/>
-      <c r="B280" s="15"/>
-      <c r="C280" s="44"/>
-      <c r="D280" s="33"/>
-      <c r="E280" s="33"/>
-      <c r="F280" s="33"/>
-      <c r="G280" s="33"/>
-      <c r="H280" s="33"/>
-      <c r="I280" s="33"/>
-      <c r="J280" s="34"/>
-      <c r="K280" s="17"/>
-      <c r="L280" s="18"/>
-      <c r="M280" s="16"/>
-      <c r="N280" s="18"/>
-      <c r="O280" s="17"/>
-    </row>
-    <row r="281" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A281" s="14"/>
-      <c r="B281" s="15"/>
-      <c r="C281" s="44"/>
-      <c r="D281" s="33"/>
-      <c r="E281" s="33"/>
-      <c r="F281" s="33"/>
-      <c r="G281" s="33"/>
-      <c r="H281" s="33"/>
-      <c r="I281" s="33"/>
-      <c r="J281" s="34"/>
-      <c r="K281" s="17"/>
-      <c r="L281" s="18"/>
-      <c r="M281" s="16"/>
-      <c r="N281" s="18"/>
-      <c r="O281" s="17"/>
-    </row>
-    <row r="282" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A282" s="14"/>
-      <c r="B282" s="15"/>
-      <c r="C282" s="44"/>
-      <c r="D282" s="33"/>
-      <c r="E282" s="33"/>
-      <c r="F282" s="33"/>
-      <c r="G282" s="33"/>
-      <c r="H282" s="33"/>
-      <c r="I282" s="33"/>
-      <c r="J282" s="34"/>
-      <c r="K282" s="17"/>
-      <c r="L282" s="18"/>
-      <c r="M282" s="16"/>
-      <c r="N282" s="18"/>
-      <c r="O282" s="17"/>
-    </row>
-    <row r="283" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A283" s="14"/>
-      <c r="B283" s="15"/>
-      <c r="C283" s="44"/>
-      <c r="D283" s="33"/>
-      <c r="E283" s="33"/>
-      <c r="F283" s="33"/>
-      <c r="G283" s="33"/>
-      <c r="H283" s="33"/>
-      <c r="I283" s="33"/>
-      <c r="J283" s="34"/>
-      <c r="K283" s="17"/>
-      <c r="L283" s="18"/>
-      <c r="M283" s="16"/>
-      <c r="N283" s="18"/>
-      <c r="O283" s="17"/>
-    </row>
-    <row r="284" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A284" s="14"/>
-      <c r="B284" s="15"/>
-      <c r="C284" s="44"/>
-      <c r="D284" s="33"/>
-      <c r="E284" s="33"/>
-      <c r="F284" s="33"/>
-      <c r="G284" s="33"/>
-      <c r="H284" s="33"/>
-      <c r="I284" s="33"/>
-      <c r="J284" s="34"/>
-      <c r="K284" s="17"/>
-      <c r="L284" s="18"/>
-      <c r="M284" s="16"/>
-      <c r="N284" s="18"/>
-      <c r="O284" s="17"/>
-    </row>
-    <row r="285" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A285" s="14"/>
-      <c r="B285" s="15"/>
-      <c r="C285" s="44"/>
-      <c r="D285" s="33"/>
-      <c r="E285" s="33"/>
-      <c r="F285" s="33"/>
-      <c r="G285" s="33"/>
-      <c r="H285" s="33"/>
-      <c r="I285" s="33"/>
-      <c r="J285" s="34"/>
-      <c r="K285" s="17"/>
-      <c r="L285" s="18"/>
-      <c r="M285" s="16"/>
-      <c r="N285" s="18"/>
-      <c r="O285" s="17"/>
-    </row>
-    <row r="286" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A286" s="14"/>
-      <c r="B286" s="15"/>
-      <c r="C286" s="44"/>
-      <c r="D286" s="33"/>
-      <c r="E286" s="33"/>
-      <c r="F286" s="33"/>
-      <c r="G286" s="33"/>
-      <c r="H286" s="33"/>
-      <c r="I286" s="33"/>
-      <c r="J286" s="34"/>
-      <c r="K286" s="17"/>
-      <c r="L286" s="18"/>
-      <c r="M286" s="16"/>
-      <c r="N286" s="18"/>
-      <c r="O286" s="17"/>
-    </row>
-    <row r="287" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A287" s="14"/>
-      <c r="B287" s="15"/>
-      <c r="C287" s="44"/>
-      <c r="D287" s="33"/>
-      <c r="E287" s="33"/>
-      <c r="F287" s="33"/>
-      <c r="G287" s="33"/>
-      <c r="H287" s="33"/>
-      <c r="I287" s="33"/>
-      <c r="J287" s="34"/>
-      <c r="K287" s="17"/>
-      <c r="L287" s="18"/>
-      <c r="M287" s="16"/>
-      <c r="N287" s="18"/>
-      <c r="O287" s="17"/>
-    </row>
-    <row r="288" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A288" s="14"/>
-      <c r="B288" s="15"/>
-      <c r="C288" s="44"/>
-      <c r="D288" s="33"/>
-      <c r="E288" s="33"/>
-      <c r="F288" s="33"/>
-      <c r="G288" s="33"/>
-      <c r="H288" s="33"/>
-      <c r="I288" s="33"/>
-      <c r="J288" s="34"/>
-      <c r="K288" s="17"/>
-      <c r="L288" s="18"/>
-      <c r="M288" s="16"/>
-      <c r="N288" s="18"/>
-      <c r="O288" s="17"/>
-    </row>
-    <row r="289" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A289" s="14"/>
-      <c r="B289" s="15"/>
-      <c r="C289" s="44"/>
-      <c r="D289" s="33"/>
-      <c r="E289" s="33"/>
-      <c r="F289" s="33"/>
-      <c r="G289" s="33"/>
-      <c r="H289" s="33"/>
-      <c r="I289" s="33"/>
-      <c r="J289" s="34"/>
-      <c r="K289" s="17"/>
-      <c r="L289" s="18"/>
-      <c r="M289" s="16"/>
-      <c r="N289" s="18"/>
-      <c r="O289" s="17"/>
-    </row>
-    <row r="290" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A290" s="14"/>
-      <c r="B290" s="15"/>
-      <c r="C290" s="44"/>
-      <c r="D290" s="33"/>
-      <c r="E290" s="33"/>
-      <c r="F290" s="33"/>
-      <c r="G290" s="33"/>
-      <c r="H290" s="33"/>
-      <c r="I290" s="33"/>
-      <c r="J290" s="34"/>
-      <c r="K290" s="17"/>
-      <c r="L290" s="18"/>
-      <c r="M290" s="16"/>
-      <c r="N290" s="18"/>
-      <c r="O290" s="17"/>
-    </row>
-    <row r="291" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A291" s="14"/>
-      <c r="B291" s="15"/>
-      <c r="C291" s="44"/>
-      <c r="D291" s="33"/>
-      <c r="E291" s="33"/>
-      <c r="F291" s="33"/>
-      <c r="G291" s="33"/>
-      <c r="H291" s="33"/>
-      <c r="I291" s="33"/>
-      <c r="J291" s="34"/>
-      <c r="K291" s="17"/>
-      <c r="L291" s="18"/>
-      <c r="M291" s="16"/>
-      <c r="N291" s="18"/>
-      <c r="O291" s="17"/>
-    </row>
-    <row r="292" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A292" s="14"/>
-      <c r="B292" s="15"/>
-      <c r="C292" s="44"/>
-      <c r="D292" s="33"/>
-      <c r="E292" s="33"/>
-      <c r="F292" s="33"/>
-      <c r="G292" s="33"/>
-      <c r="H292" s="33"/>
-      <c r="I292" s="33"/>
-      <c r="J292" s="34"/>
-      <c r="K292" s="17"/>
-      <c r="L292" s="18"/>
-      <c r="M292" s="16"/>
-      <c r="N292" s="18"/>
-      <c r="O292" s="17"/>
-    </row>
-    <row r="293" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A293" s="14"/>
-      <c r="B293" s="15"/>
-      <c r="C293" s="44"/>
-      <c r="D293" s="33"/>
-      <c r="E293" s="33"/>
-      <c r="F293" s="33"/>
-      <c r="G293" s="33"/>
-      <c r="H293" s="33"/>
-      <c r="I293" s="33"/>
-      <c r="J293" s="34"/>
-      <c r="K293" s="17"/>
-      <c r="L293" s="18"/>
-      <c r="M293" s="16"/>
-      <c r="N293" s="18"/>
-      <c r="O293" s="17"/>
-    </row>
-    <row r="294" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A294" s="14"/>
-      <c r="B294" s="15"/>
-      <c r="C294" s="44"/>
-      <c r="D294" s="33"/>
-      <c r="E294" s="33"/>
-      <c r="F294" s="33"/>
-      <c r="G294" s="33"/>
-      <c r="H294" s="33"/>
-      <c r="I294" s="33"/>
-      <c r="J294" s="34"/>
-      <c r="K294" s="17"/>
-      <c r="L294" s="18"/>
-      <c r="M294" s="16"/>
-      <c r="N294" s="18"/>
-      <c r="O294" s="17"/>
-    </row>
-    <row r="295" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A295" s="14"/>
-      <c r="B295" s="15"/>
-      <c r="C295" s="44"/>
-      <c r="D295" s="33"/>
-      <c r="E295" s="33"/>
-      <c r="F295" s="33"/>
-      <c r="G295" s="33"/>
-      <c r="H295" s="33"/>
-      <c r="I295" s="33"/>
-      <c r="J295" s="34"/>
-      <c r="K295" s="17"/>
-      <c r="L295" s="18"/>
-      <c r="M295" s="16"/>
-      <c r="N295" s="18"/>
-      <c r="O295" s="17"/>
-    </row>
-    <row r="296" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A296" s="14"/>
-      <c r="B296" s="15"/>
-      <c r="C296" s="44"/>
-      <c r="D296" s="33"/>
-      <c r="E296" s="33"/>
-      <c r="F296" s="33"/>
-      <c r="G296" s="33"/>
-      <c r="H296" s="33"/>
-      <c r="I296" s="33"/>
-      <c r="J296" s="34"/>
-      <c r="K296" s="17"/>
-      <c r="L296" s="18"/>
-      <c r="M296" s="16"/>
-      <c r="N296" s="18"/>
-      <c r="O296" s="17"/>
-    </row>
-    <row r="297" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A297" s="14"/>
-      <c r="B297" s="15"/>
-      <c r="C297" s="44"/>
-      <c r="D297" s="33"/>
-      <c r="E297" s="33"/>
-      <c r="F297" s="33"/>
-      <c r="G297" s="33"/>
-      <c r="H297" s="33"/>
-      <c r="I297" s="33"/>
-      <c r="J297" s="34"/>
-      <c r="K297" s="17"/>
-      <c r="L297" s="18"/>
-      <c r="M297" s="16"/>
-      <c r="N297" s="18"/>
-      <c r="O297" s="17"/>
-    </row>
-    <row r="298" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A298" s="14"/>
-      <c r="B298" s="15"/>
-      <c r="C298" s="44"/>
-      <c r="D298" s="33"/>
-      <c r="E298" s="33"/>
-      <c r="F298" s="33"/>
-      <c r="G298" s="33"/>
-      <c r="H298" s="33"/>
-      <c r="I298" s="33"/>
-      <c r="J298" s="34"/>
-      <c r="K298" s="17"/>
-      <c r="L298" s="18"/>
-      <c r="M298" s="16"/>
-      <c r="N298" s="18"/>
-      <c r="O298" s="17"/>
-    </row>
-    <row r="299" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A299" s="14"/>
-      <c r="B299" s="15"/>
-      <c r="C299" s="44"/>
-      <c r="D299" s="33"/>
-      <c r="E299" s="33"/>
-      <c r="F299" s="33"/>
-      <c r="G299" s="33"/>
-      <c r="H299" s="33"/>
-      <c r="I299" s="33"/>
-      <c r="J299" s="34"/>
-      <c r="K299" s="17"/>
-      <c r="L299" s="18"/>
-      <c r="M299" s="16"/>
-      <c r="N299" s="18"/>
-      <c r="O299" s="17"/>
-    </row>
-    <row r="300" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A300" s="14"/>
-      <c r="B300" s="15"/>
-      <c r="C300" s="44"/>
-      <c r="D300" s="33"/>
-      <c r="E300" s="33"/>
-      <c r="F300" s="33"/>
-      <c r="G300" s="33"/>
-      <c r="H300" s="33"/>
-      <c r="I300" s="33"/>
-      <c r="J300" s="34"/>
-      <c r="K300" s="17"/>
-      <c r="L300" s="18"/>
-      <c r="M300" s="16"/>
-      <c r="N300" s="18"/>
-      <c r="O300" s="17"/>
-    </row>
-    <row r="301" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A301" s="14"/>
-      <c r="B301" s="15"/>
-      <c r="C301" s="44"/>
-      <c r="D301" s="33"/>
-      <c r="E301" s="33"/>
-      <c r="F301" s="33"/>
-      <c r="G301" s="33"/>
-      <c r="H301" s="33"/>
-      <c r="I301" s="33"/>
-      <c r="J301" s="34"/>
-      <c r="K301" s="17"/>
-      <c r="L301" s="18"/>
-      <c r="M301" s="16"/>
-      <c r="N301" s="18"/>
-      <c r="O301" s="17"/>
-    </row>
-    <row r="302" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A302" s="14"/>
-      <c r="B302" s="15"/>
-      <c r="C302" s="44"/>
-      <c r="D302" s="33"/>
-      <c r="E302" s="33"/>
-      <c r="F302" s="33"/>
-      <c r="G302" s="33"/>
-      <c r="H302" s="33"/>
-      <c r="I302" s="33"/>
-      <c r="J302" s="34"/>
-      <c r="K302" s="17"/>
-      <c r="L302" s="18"/>
-      <c r="M302" s="16"/>
-      <c r="N302" s="18"/>
-      <c r="O302" s="17"/>
-    </row>
-    <row r="303" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A303" s="14"/>
-      <c r="B303" s="15"/>
-      <c r="C303" s="44"/>
-      <c r="D303" s="33"/>
-      <c r="E303" s="33"/>
-      <c r="F303" s="33"/>
-      <c r="G303" s="33"/>
-      <c r="H303" s="33"/>
-      <c r="I303" s="33"/>
-      <c r="J303" s="34"/>
-      <c r="K303" s="17"/>
-      <c r="L303" s="18"/>
-      <c r="M303" s="16"/>
-      <c r="N303" s="18"/>
-      <c r="O303" s="17"/>
-    </row>
-    <row r="304" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A304" s="14"/>
-      <c r="B304" s="15"/>
-      <c r="C304" s="44"/>
-      <c r="D304" s="33"/>
-      <c r="E304" s="33"/>
-      <c r="F304" s="33"/>
-      <c r="G304" s="33"/>
-      <c r="H304" s="33"/>
-      <c r="I304" s="33"/>
-      <c r="J304" s="34"/>
-      <c r="K304" s="17"/>
-      <c r="L304" s="18"/>
-      <c r="M304" s="16"/>
-      <c r="N304" s="18"/>
-      <c r="O304" s="17"/>
-    </row>
-    <row r="305" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A305" s="14"/>
-      <c r="B305" s="15"/>
-      <c r="C305" s="44"/>
-      <c r="D305" s="33"/>
-      <c r="E305" s="33"/>
-      <c r="F305" s="33"/>
-      <c r="G305" s="33"/>
-      <c r="H305" s="33"/>
-      <c r="I305" s="33"/>
-      <c r="J305" s="34"/>
-      <c r="K305" s="17"/>
-      <c r="L305" s="18"/>
-      <c r="M305" s="16"/>
-      <c r="N305" s="18"/>
-      <c r="O305" s="17"/>
-    </row>
-    <row r="306" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A306" s="14"/>
-      <c r="B306" s="15"/>
-      <c r="C306" s="44"/>
-      <c r="D306" s="33"/>
-      <c r="E306" s="33"/>
-      <c r="F306" s="33"/>
-      <c r="G306" s="33"/>
-      <c r="H306" s="33"/>
-      <c r="I306" s="33"/>
-      <c r="J306" s="34"/>
-      <c r="K306" s="17"/>
-      <c r="L306" s="18"/>
-      <c r="M306" s="16"/>
-      <c r="N306" s="18"/>
-      <c r="O306" s="17"/>
-    </row>
-    <row r="307" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A307" s="14"/>
-      <c r="B307" s="15"/>
-      <c r="C307" s="44"/>
-      <c r="D307" s="33"/>
-      <c r="E307" s="33"/>
-      <c r="F307" s="33"/>
-      <c r="G307" s="33"/>
-      <c r="H307" s="33"/>
-      <c r="I307" s="33"/>
-      <c r="J307" s="34"/>
-      <c r="K307" s="17"/>
-      <c r="L307" s="18"/>
-      <c r="M307" s="16"/>
-      <c r="N307" s="18"/>
-      <c r="O307" s="17"/>
-    </row>
-    <row r="308" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A308" s="14"/>
-      <c r="B308" s="15"/>
-      <c r="C308" s="44"/>
-      <c r="D308" s="33"/>
-      <c r="E308" s="33"/>
-      <c r="F308" s="33"/>
-      <c r="G308" s="33"/>
-      <c r="H308" s="33"/>
-      <c r="I308" s="33"/>
-      <c r="J308" s="34"/>
-      <c r="K308" s="17"/>
-      <c r="L308" s="18"/>
-      <c r="M308" s="16"/>
-      <c r="N308" s="18"/>
-      <c r="O308" s="17"/>
-    </row>
-    <row r="309" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A309" s="14"/>
-      <c r="B309" s="15"/>
-      <c r="C309" s="44"/>
-      <c r="D309" s="33"/>
-      <c r="E309" s="33"/>
-      <c r="F309" s="33"/>
-      <c r="G309" s="33"/>
-      <c r="H309" s="33"/>
-      <c r="I309" s="33"/>
-      <c r="J309" s="34"/>
-      <c r="K309" s="17"/>
-      <c r="L309" s="18"/>
-      <c r="M309" s="16"/>
-      <c r="N309" s="18"/>
-      <c r="O309" s="17"/>
-    </row>
-    <row r="310" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A310" s="14"/>
-      <c r="B310" s="15"/>
-      <c r="C310" s="44"/>
-      <c r="D310" s="33"/>
-      <c r="E310" s="33"/>
-      <c r="F310" s="33"/>
-      <c r="G310" s="33"/>
-      <c r="H310" s="33"/>
-      <c r="I310" s="33"/>
-      <c r="J310" s="34"/>
-      <c r="K310" s="17"/>
-      <c r="L310" s="18"/>
-      <c r="M310" s="16"/>
-      <c r="N310" s="18"/>
-      <c r="O310" s="17"/>
-    </row>
-    <row r="311" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A311" s="14"/>
-      <c r="B311" s="15"/>
-      <c r="C311" s="44"/>
-      <c r="D311" s="33"/>
-      <c r="E311" s="33"/>
-      <c r="F311" s="33"/>
-      <c r="G311" s="33"/>
-      <c r="H311" s="33"/>
-      <c r="I311" s="33"/>
-      <c r="J311" s="34"/>
-      <c r="K311" s="17"/>
-      <c r="L311" s="18"/>
-      <c r="M311" s="16"/>
-      <c r="N311" s="18"/>
-      <c r="O311" s="17"/>
-    </row>
-    <row r="312" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A312" s="14"/>
-      <c r="B312" s="15"/>
-      <c r="C312" s="44"/>
-      <c r="D312" s="33"/>
-      <c r="E312" s="33"/>
-      <c r="F312" s="33"/>
-      <c r="G312" s="33"/>
-      <c r="H312" s="33"/>
-      <c r="I312" s="33"/>
-      <c r="J312" s="34"/>
-      <c r="K312" s="17"/>
-      <c r="L312" s="18"/>
-      <c r="M312" s="16"/>
-      <c r="N312" s="18"/>
-      <c r="O312" s="17"/>
-    </row>
-    <row r="313" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A313" s="14"/>
-      <c r="B313" s="15"/>
-      <c r="C313" s="44"/>
-      <c r="D313" s="33"/>
-      <c r="E313" s="33"/>
-      <c r="F313" s="33"/>
-      <c r="G313" s="33"/>
-      <c r="H313" s="33"/>
-      <c r="I313" s="33"/>
-      <c r="J313" s="34"/>
-      <c r="K313" s="17"/>
-      <c r="L313" s="18"/>
-      <c r="M313" s="16"/>
-      <c r="N313" s="18"/>
-      <c r="O313" s="17"/>
-    </row>
-    <row r="314" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A314" s="14"/>
-      <c r="B314" s="15"/>
-      <c r="C314" s="44"/>
-      <c r="D314" s="33"/>
-      <c r="E314" s="33"/>
-      <c r="F314" s="33"/>
-      <c r="G314" s="33"/>
-      <c r="H314" s="33"/>
-      <c r="I314" s="33"/>
-      <c r="J314" s="34"/>
-      <c r="K314" s="17"/>
-      <c r="L314" s="18"/>
-      <c r="M314" s="16"/>
-      <c r="N314" s="18"/>
-      <c r="O314" s="17"/>
-    </row>
-    <row r="315" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A315" s="14"/>
-      <c r="B315" s="15"/>
-      <c r="C315" s="44"/>
-      <c r="D315" s="33"/>
-      <c r="E315" s="33"/>
-      <c r="F315" s="33"/>
-      <c r="G315" s="33"/>
-      <c r="H315" s="33"/>
-      <c r="I315" s="33"/>
-      <c r="J315" s="34"/>
-      <c r="K315" s="17"/>
-      <c r="L315" s="18"/>
-      <c r="M315" s="16"/>
-      <c r="N315" s="18"/>
-      <c r="O315" s="17"/>
-    </row>
-    <row r="316" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A316" s="14"/>
-      <c r="B316" s="15"/>
-      <c r="C316" s="44"/>
-      <c r="D316" s="33"/>
-      <c r="E316" s="33"/>
-      <c r="F316" s="33"/>
-      <c r="G316" s="33"/>
-      <c r="H316" s="33"/>
-      <c r="I316" s="33"/>
-      <c r="J316" s="34"/>
-      <c r="K316" s="17"/>
-      <c r="L316" s="18"/>
-      <c r="M316" s="16"/>
-      <c r="N316" s="18"/>
-      <c r="O316" s="17"/>
-    </row>
-    <row r="317" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A317" s="14"/>
-      <c r="B317" s="15"/>
-      <c r="C317" s="44"/>
-      <c r="D317" s="33"/>
-      <c r="E317" s="33"/>
-      <c r="F317" s="33"/>
-      <c r="G317" s="33"/>
-      <c r="H317" s="33"/>
-      <c r="I317" s="33"/>
-      <c r="J317" s="34"/>
-      <c r="K317" s="17"/>
-      <c r="L317" s="18"/>
-      <c r="M317" s="16"/>
-      <c r="N317" s="18"/>
-      <c r="O317" s="17"/>
-    </row>
-    <row r="318" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A318" s="14"/>
-      <c r="B318" s="15"/>
-      <c r="C318" s="44"/>
-      <c r="D318" s="33"/>
-      <c r="E318" s="33"/>
-      <c r="F318" s="33"/>
-      <c r="G318" s="33"/>
-      <c r="H318" s="33"/>
-      <c r="I318" s="33"/>
-      <c r="J318" s="34"/>
-      <c r="K318" s="17"/>
-      <c r="L318" s="18"/>
-      <c r="M318" s="16"/>
-      <c r="N318" s="18"/>
-      <c r="O318" s="17"/>
-    </row>
-    <row r="319" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A319" s="14"/>
-      <c r="B319" s="15"/>
-      <c r="C319" s="44"/>
-      <c r="D319" s="33"/>
-      <c r="E319" s="33"/>
-      <c r="F319" s="33"/>
-      <c r="G319" s="33"/>
-      <c r="H319" s="33"/>
-      <c r="I319" s="33"/>
-      <c r="J319" s="34"/>
-      <c r="K319" s="17"/>
-      <c r="L319" s="18"/>
-      <c r="M319" s="16"/>
-      <c r="N319" s="18"/>
-      <c r="O319" s="17"/>
-    </row>
-    <row r="320" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A320" s="14"/>
-      <c r="B320" s="15"/>
-      <c r="C320" s="44"/>
-      <c r="D320" s="33"/>
-      <c r="E320" s="33"/>
-      <c r="F320" s="33"/>
-      <c r="G320" s="33"/>
-      <c r="H320" s="33"/>
-      <c r="I320" s="33"/>
-      <c r="J320" s="34"/>
-      <c r="K320" s="17"/>
-      <c r="L320" s="18"/>
-      <c r="M320" s="16"/>
-      <c r="N320" s="18"/>
-      <c r="O320" s="17"/>
-    </row>
-    <row r="321" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A321" s="14"/>
-      <c r="B321" s="15"/>
-      <c r="C321" s="44"/>
-      <c r="D321" s="33"/>
-      <c r="E321" s="33"/>
-      <c r="F321" s="33"/>
-      <c r="G321" s="33"/>
-      <c r="H321" s="33"/>
-      <c r="I321" s="33"/>
-      <c r="J321" s="34"/>
-      <c r="K321" s="17"/>
-      <c r="L321" s="18"/>
-      <c r="M321" s="16"/>
-      <c r="N321" s="18"/>
-      <c r="O321" s="17"/>
-    </row>
-    <row r="322" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A322" s="14"/>
-      <c r="B322" s="15"/>
-      <c r="C322" s="44"/>
-      <c r="D322" s="33"/>
-      <c r="E322" s="33"/>
-      <c r="F322" s="33"/>
-      <c r="G322" s="33"/>
-      <c r="H322" s="33"/>
-      <c r="I322" s="33"/>
-      <c r="J322" s="34"/>
-      <c r="K322" s="17"/>
-      <c r="L322" s="18"/>
-      <c r="M322" s="16"/>
-      <c r="N322" s="18"/>
-      <c r="O322" s="17"/>
-    </row>
-    <row r="323" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A323" s="14"/>
-      <c r="B323" s="15"/>
-      <c r="C323" s="44"/>
-      <c r="D323" s="33"/>
-      <c r="E323" s="33"/>
-      <c r="F323" s="33"/>
-      <c r="G323" s="33"/>
-      <c r="H323" s="33"/>
-      <c r="I323" s="33"/>
-      <c r="J323" s="34"/>
-      <c r="K323" s="17"/>
-      <c r="L323" s="18"/>
-      <c r="M323" s="16"/>
-      <c r="N323" s="18"/>
-      <c r="O323" s="17"/>
-    </row>
-    <row r="324" spans="1:15">
-      <c r="C324" s="44"/>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -27884,7 +18378,7 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N3:N323">
+  <conditionalFormatting sqref="N3:N150">
     <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -27895,7 +18389,7 @@
       <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N324:N1048576">
+  <conditionalFormatting sqref="N1">
     <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -27906,10 +18400,7 @@
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D73:D323" xr:uid="{84205658-1E0A-DE49-B48E-626DA84BCDCE}">
-      <formula1>INDIRECT(C74)</formula1>
-    </dataValidation>
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D65 D5:D62" xr:uid="{D2ACC809-68EB-0344-A848-70E45E08C27F}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
@@ -27928,8 +18419,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D69" xr:uid="{A155C7C4-EDCC-BB4F-A149-A402BD643C1C}">
       <formula1>INDIRECT(C78)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C324" xr:uid="{8AAE10CF-040C-204E-A2F8-D62F54761EC6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C150" xr:uid="{8AAE10CF-040C-204E-A2F8-D62F54761EC6}">
       <formula1>target</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D73:D150" xr:uid="{84205658-1E0A-DE49-B48E-626DA84BCDCE}">
+      <formula1>INDIRECT(C74)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions1.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions1.xlsx
@@ -4,27 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="12540" windowWidth="28125"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="TEXT" sheetId="5" r:id="rId2"/>
-    <sheet name="LIST" sheetId="6" r:id="rId3"/>
-    <sheet name="CSV" sheetId="2" r:id="rId4"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="TEXT" r:id="rId2" sheetId="5"/>
+    <sheet name="LIST" r:id="rId3" sheetId="6"/>
+    <sheet name="CSV" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">CSV!$A$4:$J$141</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">CSV!$A$4:$J$141</definedName>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -44,22 +44,22 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="1164">
   <si>
     <t>target</t>
   </si>
@@ -2923,7 +2923,8 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">[LIST(${svList}) =&gt; </t>
+      <t xml:space="preserve">[LIST(${svList}) =&gt;
+ </t>
     </r>
     <r>
       <rPr>
@@ -2933,7 +2934,8 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>saveItems(0=svItem3,1=svItem1,2=svItem2,6=svItem4)</t>
+      <t xml:space="preserve">saveItems(0=svItem3,1=svItem1,2=svItem2,6=svItem4)
+</t>
     </r>
     <r>
       <rPr>
@@ -2942,7 +2944,8 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> last]</t>
+      <t xml:space="preserve"> last
+]</t>
     </r>
   </si>
   <si>
@@ -6846,18 +6849,24 @@
 ]</t>
     </r>
   </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="58">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7145,8 +7154,115 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7351,6 +7467,142 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -7490,423 +7742,474 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="29" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="23" numFmtId="176">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="23" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="23" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="23" numFmtId="44">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="23" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="7" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="30" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="29" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="32" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="29" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="28" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="6" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="31" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="19" fontId="33" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="29" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="19" fontId="35" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="27" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="34" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="29" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="29" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="29" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="29" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="29" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="29" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="29" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="29" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="84">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="49" xfId="10">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="10">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="15" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
+    <cellStyle builtinId="10" name="Note" xfId="9"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -7970,7 +8273,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="00F8F7F9"/>
@@ -7992,10 +8295,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -8159,21 +8462,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -8190,7 +8493,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -8243,20 +8546,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1:AG151"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8336,28 +8639,25 @@
         <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8386,7 +8686,7 @@
         <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>1163</v>
       </c>
       <c r="K2" t="s">
         <v>42</v>
@@ -8437,28 +8737,25 @@
         <v>57</v>
       </c>
       <c r="AA2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8484,7 +8781,7 @@
         <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
         <v>73</v>
@@ -8529,28 +8826,25 @@
         <v>86</v>
       </c>
       <c r="AA3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8573,7 +8867,7 @@
         <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
         <v>101</v>
@@ -8618,28 +8912,25 @@
         <v>114</v>
       </c>
       <c r="AA4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AB4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD4" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="AE4" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="AF4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8662,7 +8953,7 @@
         <v>126</v>
       </c>
       <c r="J5" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
         <v>128</v>
@@ -8695,28 +8986,25 @@
         <v>137</v>
       </c>
       <c r="AA5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AB5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AC5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AE5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8739,7 +9027,7 @@
         <v>150</v>
       </c>
       <c r="J6" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="K6" t="s">
         <v>152</v>
@@ -8769,28 +9057,25 @@
         <v>160</v>
       </c>
       <c r="AA6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AB6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AD6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AE6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -8806,6 +9091,9 @@
       <c r="I7" t="s">
         <v>171</v>
       </c>
+      <c r="J7" t="s">
+        <v>151</v>
+      </c>
       <c r="K7" t="s">
         <v>172</v>
       </c>
@@ -8834,28 +9122,25 @@
         <v>178</v>
       </c>
       <c r="AA7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AB7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AC7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AD7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AE7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF7" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG7" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8899,28 +9184,25 @@
         <v>198</v>
       </c>
       <c r="AA8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AB8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AC8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AD8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AE8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF8" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -8961,22 +9243,19 @@
         <v>217</v>
       </c>
       <c r="AA9" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB9" t="s">
         <v>219</v>
       </c>
+      <c r="AC9" t="s">
+        <v>220</v>
+      </c>
       <c r="AD9" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE9" t="s">
         <v>221</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -9008,27 +9287,24 @@
         <v>230</v>
       </c>
       <c r="AA10" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB10" t="s">
         <v>232</v>
       </c>
+      <c r="AC10" t="s">
+        <v>233</v>
+      </c>
       <c r="AD10" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE10" t="s">
         <v>234</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>236</v>
+        <v>1162</v>
       </c>
       <c r="H11" t="s">
         <v>237</v>
@@ -9052,24 +9328,21 @@
         <v>243</v>
       </c>
       <c r="AA11" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB11" t="s">
         <v>245</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>246</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="H12" t="s">
         <v>249</v>
@@ -9093,24 +9366,21 @@
         <v>255</v>
       </c>
       <c r="AA12" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB12" t="s">
         <v>257</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>258</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="H13" t="s">
         <v>260</v>
@@ -9134,24 +9404,21 @@
         <v>266</v>
       </c>
       <c r="AA13" t="s">
-        <v>267</v>
-      </c>
-      <c r="AB13" t="s">
         <v>268</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>269</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
         <v>272</v>
@@ -9172,24 +9439,21 @@
         <v>277</v>
       </c>
       <c r="AA14" t="s">
-        <v>278</v>
-      </c>
-      <c r="AB14" t="s">
         <v>279</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>280</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="H15" t="s">
         <v>283</v>
@@ -9210,24 +9474,21 @@
         <v>288</v>
       </c>
       <c r="AA15" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB15" t="s">
         <v>290</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>291</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H16" t="s">
         <v>294</v>
@@ -9248,24 +9509,21 @@
         <v>299</v>
       </c>
       <c r="AA16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB16" t="s">
         <v>301</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>302</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="H17" t="s">
         <v>305</v>
@@ -9280,24 +9538,21 @@
         <v>308</v>
       </c>
       <c r="AA17" t="s">
-        <v>309</v>
-      </c>
-      <c r="AB17" t="s">
         <v>310</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>311</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="H18" t="s">
         <v>314</v>
@@ -9312,21 +9567,18 @@
         <v>317</v>
       </c>
       <c r="AA18" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB18" t="s">
         <v>319</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H19" t="s">
         <v>322</v>
@@ -9335,21 +9587,18 @@
         <v>323</v>
       </c>
       <c r="AA19" t="s">
-        <v>324</v>
-      </c>
-      <c r="AB19" t="s">
         <v>325</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H20" t="s">
         <v>328</v>
@@ -9358,21 +9607,18 @@
         <v>329</v>
       </c>
       <c r="AA20" t="s">
-        <v>330</v>
-      </c>
-      <c r="AB20" t="s">
         <v>331</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H21" t="s">
         <v>334</v>
@@ -9381,21 +9627,18 @@
         <v>335</v>
       </c>
       <c r="AA21" t="s">
-        <v>336</v>
-      </c>
-      <c r="AB21" t="s">
         <v>337</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H22" t="s">
         <v>340</v>
@@ -9404,21 +9647,18 @@
         <v>341</v>
       </c>
       <c r="AA22" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB22" t="s">
         <v>343</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H23" t="s">
         <v>346</v>
@@ -9427,21 +9667,18 @@
         <v>347</v>
       </c>
       <c r="AA23" t="s">
-        <v>348</v>
-      </c>
-      <c r="AB23" t="s">
         <v>349</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H24" t="s">
         <v>352</v>
@@ -9450,21 +9687,18 @@
         <v>353</v>
       </c>
       <c r="AA24" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB24" t="s">
         <v>355</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H25" t="s">
         <v>358</v>
@@ -9473,21 +9707,18 @@
         <v>359</v>
       </c>
       <c r="AA25" t="s">
-        <v>360</v>
-      </c>
-      <c r="AB25" t="s">
         <v>361</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H26" t="s">
         <v>364</v>
@@ -9496,21 +9727,18 @@
         <v>365</v>
       </c>
       <c r="AA26" t="s">
-        <v>366</v>
-      </c>
-      <c r="AB26" t="s">
         <v>367</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H27" t="s">
         <v>370</v>
@@ -9519,21 +9747,18 @@
         <v>371</v>
       </c>
       <c r="AA27" t="s">
-        <v>372</v>
-      </c>
-      <c r="AB27" t="s">
         <v>373</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H28" t="s">
         <v>376</v>
@@ -9542,18 +9767,15 @@
         <v>377</v>
       </c>
       <c r="AA28" t="s">
-        <v>378</v>
-      </c>
-      <c r="AB28" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H29" t="s">
         <v>381</v>
@@ -9562,18 +9784,15 @@
         <v>382</v>
       </c>
       <c r="AA29" t="s">
-        <v>383</v>
-      </c>
-      <c r="AB29" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H30" t="s">
         <v>386</v>
@@ -9582,18 +9801,15 @@
         <v>387</v>
       </c>
       <c r="AA30" t="s">
-        <v>388</v>
-      </c>
-      <c r="AB30" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H31" t="s">
         <v>391</v>
@@ -9602,915 +9818,891 @@
         <v>392</v>
       </c>
       <c r="AA31" t="s">
-        <v>393</v>
-      </c>
-      <c r="AB31" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H32" t="s">
         <v>396</v>
       </c>
       <c r="AA32" t="s">
-        <v>397</v>
-      </c>
-      <c r="AB32" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
+    <row r="33">
       <c r="F33" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H33" t="s">
         <v>400</v>
       </c>
       <c r="AA33" t="s">
-        <v>401</v>
-      </c>
-      <c r="AB33" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="34" spans="6:28">
+    <row r="34">
       <c r="F34" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="H34" t="s">
         <v>404</v>
       </c>
       <c r="AA34" t="s">
-        <v>405</v>
-      </c>
-      <c r="AB34" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="35" spans="6:28">
+    <row r="35">
       <c r="F35" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H35" t="s">
         <v>408</v>
       </c>
       <c r="AA35" t="s">
-        <v>409</v>
-      </c>
-      <c r="AB35" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="36" spans="6:28">
+    <row r="36">
       <c r="F36" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H36" t="s">
         <v>412</v>
       </c>
       <c r="AA36" t="s">
-        <v>413</v>
-      </c>
-      <c r="AB36" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="37" spans="6:28">
+    <row r="37">
       <c r="F37" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H37" t="s">
         <v>416</v>
       </c>
       <c r="AA37" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB37" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="38" spans="6:28">
+    <row r="38">
       <c r="F38" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H38" t="s">
         <v>420</v>
       </c>
       <c r="AA38" t="s">
-        <v>421</v>
-      </c>
-      <c r="AB38" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="39" spans="6:28">
+    <row r="39">
       <c r="F39" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H39" t="s">
         <v>424</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="40" spans="6:28">
+    <row r="40">
       <c r="F40" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H40" t="s">
         <v>427</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="41" spans="6:28">
+    <row r="41">
       <c r="F41" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H41" t="s">
         <v>430</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="42" spans="6:28">
+    <row r="42">
       <c r="F42" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H42" t="s">
         <v>433</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="43" spans="6:28">
+    <row r="43">
       <c r="F43" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H43" t="s">
         <v>436</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="44" spans="6:28">
+    <row r="44">
       <c r="F44" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H44" t="s">
         <v>439</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="45" spans="8:28">
+    <row r="45">
+      <c r="F45" t="s">
+        <v>438</v>
+      </c>
       <c r="H45" t="s">
         <v>441</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="46" spans="8:28">
+    <row r="46">
       <c r="H46" t="s">
         <v>443</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="47" spans="8:28">
+    <row r="47">
       <c r="H47" t="s">
         <v>445</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="48" spans="8:28">
+    <row r="48">
       <c r="H48" t="s">
         <v>447</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="49" spans="8:28">
+    <row r="49">
       <c r="H49" t="s">
         <v>449</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="50" spans="8:28">
+    <row r="50">
       <c r="H50" t="s">
         <v>451</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="51" spans="8:28">
+    <row r="51">
       <c r="H51" t="s">
         <v>453</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="52" spans="8:28">
+    <row r="52">
       <c r="H52" t="s">
         <v>455</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="53" spans="8:28">
+    <row r="53">
       <c r="H53" t="s">
         <v>457</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="54" spans="8:28">
+    <row r="54">
       <c r="H54" t="s">
         <v>459</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="55" spans="8:28">
+    <row r="55">
       <c r="H55" t="s">
         <v>461</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="56" spans="8:28">
+    <row r="56">
       <c r="H56" t="s">
         <v>463</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="57" spans="8:28">
+    <row r="57">
       <c r="H57" t="s">
         <v>465</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="58" spans="8:28">
+    <row r="58">
       <c r="H58" t="s">
         <v>467</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="59" spans="8:28">
+    <row r="59">
       <c r="H59" t="s">
         <v>469</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="60" spans="8:28">
+    <row r="60">
       <c r="H60" t="s">
         <v>471</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="61" spans="8:28">
+    <row r="61">
       <c r="H61" t="s">
         <v>473</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="62" spans="8:28">
+    <row r="62">
       <c r="H62" t="s">
         <v>475</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="63" spans="8:28">
+    <row r="63">
       <c r="H63" t="s">
         <v>477</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="64" spans="8:28">
+    <row r="64">
       <c r="H64" t="s">
         <v>479</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="65" spans="8:28">
+    <row r="65">
       <c r="H65" t="s">
         <v>481</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="66" spans="8:28">
+    <row r="66">
       <c r="H66" t="s">
         <v>483</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="67" spans="8:28">
+    <row r="67">
       <c r="H67" t="s">
         <v>485</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="68" spans="8:28">
+    <row r="68">
       <c r="H68" t="s">
         <v>487</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="69" spans="8:28">
+    <row r="69">
       <c r="H69" t="s">
         <v>489</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="70" spans="8:28">
+    <row r="70">
       <c r="H70" t="s">
         <v>491</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="71" spans="8:28">
+    <row r="71">
       <c r="H71" t="s">
         <v>493</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="72" spans="8:28">
+    <row r="72">
       <c r="H72" t="s">
         <v>495</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="73" spans="8:28">
+    <row r="73">
       <c r="H73" t="s">
         <v>497</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="74" spans="8:28">
+    <row r="74">
       <c r="H74" t="s">
         <v>499</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="8:28">
+    <row r="75">
       <c r="H75" t="s">
         <v>501</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="76" spans="8:28">
+    <row r="76">
       <c r="H76" t="s">
         <v>503</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="77" spans="8:28">
+    <row r="77">
       <c r="H77" t="s">
         <v>505</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="78" spans="8:28">
+    <row r="78">
       <c r="H78" t="s">
         <v>507</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="79" spans="8:28">
+    <row r="79">
       <c r="H79" t="s">
         <v>509</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="80" spans="8:28">
+    <row r="80">
       <c r="H80" t="s">
         <v>511</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="81" spans="8:28">
+    <row r="81">
       <c r="H81" t="s">
         <v>513</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="82" spans="8:28">
+    <row r="82">
       <c r="H82" t="s">
         <v>515</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="83" spans="8:28">
+    <row r="83">
       <c r="H83" t="s">
         <v>517</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="84" spans="8:28">
+    <row r="84">
       <c r="H84" t="s">
         <v>519</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="85" spans="8:28">
+    <row r="85">
       <c r="H85" t="s">
         <v>521</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="86" spans="8:28">
+    <row r="86">
       <c r="H86" t="s">
         <v>523</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="87" spans="8:28">
+    <row r="87">
       <c r="H87" t="s">
         <v>525</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="88" spans="8:28">
+    <row r="88">
       <c r="H88" t="s">
         <v>527</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="89" spans="8:28">
+    <row r="89">
       <c r="H89" t="s">
         <v>529</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="90" spans="8:28">
+    <row r="90">
       <c r="H90" t="s">
         <v>531</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="91" spans="8:28">
+    <row r="91">
       <c r="H91" t="s">
         <v>533</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="92" spans="8:28">
+    <row r="92">
       <c r="H92" t="s">
         <v>535</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="93" spans="8:28">
+    <row r="93">
       <c r="H93" t="s">
         <v>537</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="94" spans="8:28">
+    <row r="94">
       <c r="H94" t="s">
         <v>539</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="95" spans="8:28">
+    <row r="95">
       <c r="H95" t="s">
         <v>541</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="96" spans="8:28">
+    <row r="96">
       <c r="H96" t="s">
         <v>543</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="97" spans="8:28">
+    <row r="97">
       <c r="H97" t="s">
         <v>545</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="98" spans="8:28">
+    <row r="98">
       <c r="H98" t="s">
         <v>547</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="99" spans="28:28">
-      <c r="AB99" t="s">
+    <row r="99">
+      <c r="AA99" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="100" spans="28:28">
-      <c r="AB100" t="s">
+    <row r="100">
+      <c r="AA100" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="101" spans="28:28">
-      <c r="AB101" t="s">
+    <row r="101">
+      <c r="AA101" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="102" spans="28:28">
-      <c r="AB102" t="s">
+    <row r="102">
+      <c r="AA102" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="103" spans="28:28">
-      <c r="AB103" t="s">
+    <row r="103">
+      <c r="AA103" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="104" spans="28:28">
-      <c r="AB104" t="s">
+    <row r="104">
+      <c r="AA104" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="105" spans="28:28">
-      <c r="AB105" t="s">
+    <row r="105">
+      <c r="AA105" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="106" spans="28:28">
-      <c r="AB106" t="s">
+    <row r="106">
+      <c r="AA106" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="107" spans="28:28">
-      <c r="AB107" t="s">
+    <row r="107">
+      <c r="AA107" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="108" spans="28:28">
-      <c r="AB108" t="s">
+    <row r="108">
+      <c r="AA108" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="109" spans="28:28">
-      <c r="AB109" t="s">
+    <row r="109">
+      <c r="AA109" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="110" spans="28:28">
-      <c r="AB110" t="s">
+    <row r="110">
+      <c r="AA110" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="111" spans="28:28">
-      <c r="AB111" t="s">
+    <row r="111">
+      <c r="AA111" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="112" spans="28:28">
-      <c r="AB112" t="s">
+    <row r="112">
+      <c r="AA112" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="113" spans="28:28">
-      <c r="AB113" t="s">
+    <row r="113">
+      <c r="AA113" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="114" spans="28:28">
-      <c r="AB114" t="s">
+    <row r="114">
+      <c r="AA114" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="115" spans="28:28">
-      <c r="AB115" t="s">
+    <row r="115">
+      <c r="AA115" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="116" spans="28:28">
-      <c r="AB116" t="s">
+    <row r="116">
+      <c r="AA116" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="117" spans="28:28">
-      <c r="AB117" t="s">
+    <row r="117">
+      <c r="AA117" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="118" spans="28:28">
-      <c r="AB118" t="s">
+    <row r="118">
+      <c r="AA118" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="119" spans="28:28">
-      <c r="AB119" t="s">
+    <row r="119">
+      <c r="AA119" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="120" spans="28:28">
-      <c r="AB120" t="s">
+    <row r="120">
+      <c r="AA120" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="121" spans="28:28">
-      <c r="AB121" t="s">
+    <row r="121">
+      <c r="AA121" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="122" spans="28:28">
-      <c r="AB122" t="s">
+    <row r="122">
+      <c r="AA122" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="123" spans="28:28">
-      <c r="AB123" t="s">
+    <row r="123">
+      <c r="AA123" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="124" spans="28:28">
-      <c r="AB124" t="s">
+    <row r="124">
+      <c r="AA124" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="125" spans="28:28">
-      <c r="AB125" t="s">
+    <row r="125">
+      <c r="AA125" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="126" spans="28:28">
-      <c r="AB126" t="s">
+    <row r="126">
+      <c r="AA126" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="127" spans="28:28">
-      <c r="AB127" t="s">
+    <row r="127">
+      <c r="AA127" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="128" spans="28:28">
-      <c r="AB128" t="s">
+    <row r="128">
+      <c r="AA128" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="129" spans="28:28">
-      <c r="AB129" t="s">
+    <row r="129">
+      <c r="AA129" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="130" spans="28:28">
-      <c r="AB130" t="s">
+    <row r="130">
+      <c r="AA130" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="131" spans="28:28">
-      <c r="AB131" t="s">
+    <row r="131">
+      <c r="AA131" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="132" spans="28:28">
-      <c r="AB132" t="s">
+    <row r="132">
+      <c r="AA132" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="133" spans="28:28">
-      <c r="AB133" t="s">
+    <row r="133">
+      <c r="AA133" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="134" spans="28:28">
-      <c r="AB134" t="s">
+    <row r="134">
+      <c r="AA134" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="135" spans="28:28">
-      <c r="AB135" t="s">
+    <row r="135">
+      <c r="AA135" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="136" spans="28:28">
-      <c r="AB136" t="s">
+    <row r="136">
+      <c r="AA136" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="137" spans="28:28">
-      <c r="AB137" t="s">
+    <row r="137">
+      <c r="AA137" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="138" spans="28:28">
-      <c r="AB138" t="s">
+    <row r="138">
+      <c r="AA138" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="139" spans="28:28">
-      <c r="AB139" t="s">
+    <row r="139">
+      <c r="AA139" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="140" spans="28:28">
-      <c r="AB140" t="s">
+    <row r="140">
+      <c r="AA140" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="141" spans="28:28">
-      <c r="AB141" t="s">
+    <row r="141">
+      <c r="AA141" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="142" spans="28:28">
-      <c r="AB142" t="s">
+    <row r="142">
+      <c r="AA142" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="143" spans="28:28">
-      <c r="AB143" t="s">
+    <row r="143">
+      <c r="AA143" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="144" spans="28:28">
-      <c r="AB144" t="s">
+    <row r="144">
+      <c r="AA144" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="145" spans="28:28">
-      <c r="AB145" t="s">
+    <row r="145">
+      <c r="AA145" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="146" spans="28:28">
-      <c r="AB146" t="s">
+    <row r="146">
+      <c r="AA146" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="147" spans="28:28">
-      <c r="AB147" t="s">
+    <row r="147">
+      <c r="AA147" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="148" spans="28:28">
-      <c r="AB148" t="s">
+    <row r="148">
+      <c r="AA148" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="149" spans="28:28">
-      <c r="AB149" t="s">
+    <row r="149">
+      <c r="AA149" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="150" spans="28:28">
-      <c r="AB150" t="s">
+    <row r="150">
+      <c r="AA150" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="151" spans="28:28">
-      <c r="AB151" t="s">
+    <row r="151">
+      <c r="AA151" t="s">
         <v>601</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:O136"/>
+  <dimension ref="A1:P136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A100" ySplit="4"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B116" pane="bottomLeft" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="31.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="42.375" style="6" customWidth="1"/>
-    <col min="7" max="9" width="20" style="6" customWidth="1"/>
-    <col min="10" max="10" width="20" style="7" customWidth="1"/>
-    <col min="11" max="11" width="1.625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="12" style="9" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="10" customWidth="1"/>
-    <col min="14" max="14" width="19" style="9" customWidth="1"/>
-    <col min="15" max="15" width="49.875" style="8" customWidth="1"/>
-    <col min="16" max="16384" width="10.875" style="11"/>
+    <col min="1" max="1" customWidth="true" style="3" width="24.125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="4" width="29.75" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="5" width="9.5" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="6" width="31.5" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="6" width="23.5" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="6" width="42.375" collapsed="false"/>
+    <col min="7" max="9" customWidth="true" style="6" width="20.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="7" width="20.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="8" width="1.625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="9" width="12.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="10" width="12.5" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="9" width="19.0" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="8" width="49.875" collapsed="false"/>
+    <col min="16" max="16384" style="11" width="10.875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15">
       <c r="A1" s="12" t="s">
         <v>602</v>
       </c>
@@ -10541,7 +10733,7 @@
       <c r="N1" s="14"/>
       <c r="O1" s="36"/>
     </row>
-    <row r="2" ht="62.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="62.1" r="2" spans="1:15">
       <c r="A2" s="15" t="s">
         <v>609</v>
       </c>
@@ -10562,7 +10754,7 @@
       <c r="N2" s="38"/>
       <c r="O2" s="38"/>
     </row>
-    <row r="3" ht="11.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="11.1" r="3" spans="1:15">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
@@ -10579,7 +10771,7 @@
       <c r="N3" s="23"/>
       <c r="O3" s="22"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="1" spans="1:15">
       <c r="A4" s="24" t="s">
         <v>611</v>
       </c>
@@ -10624,7 +10816,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="5" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="5" spans="1:15">
       <c r="A5" s="25" t="s">
         <v>624</v>
       </c>
@@ -10651,7 +10843,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="6" spans="1:15">
       <c r="A6" s="25"/>
       <c r="B6" s="26"/>
       <c r="C6" s="58" t="s">
@@ -10676,7 +10868,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="7" spans="1:15">
       <c r="A7" s="25" t="s">
         <v>629</v>
       </c>
@@ -10703,7 +10895,7 @@
       <c r="N7" s="23"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="8" spans="1:15">
       <c r="A8" s="25"/>
       <c r="B8" s="26"/>
       <c r="C8" s="58" t="s">
@@ -10728,7 +10920,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="22"/>
     </row>
-    <row r="9" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="9" spans="1:15">
       <c r="A9" s="25" t="s">
         <v>632</v>
       </c>
@@ -10755,7 +10947,7 @@
       <c r="N9" s="23"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="10" spans="1:15">
       <c r="A10" s="25"/>
       <c r="B10" s="26"/>
       <c r="C10" s="58" t="s">
@@ -10780,7 +10972,7 @@
       <c r="N10" s="23"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="11" spans="1:15">
       <c r="A11" s="25" t="s">
         <v>636</v>
       </c>
@@ -10807,7 +10999,7 @@
       <c r="N11" s="23"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="12" spans="1:15">
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
       <c r="C12" s="58" t="s">
@@ -10832,7 +11024,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="13" spans="1:15">
       <c r="A13" s="25" t="s">
         <v>639</v>
       </c>
@@ -10859,7 +11051,7 @@
       <c r="N13" s="23"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="14" spans="1:15">
       <c r="A14" s="25"/>
       <c r="B14" s="26"/>
       <c r="C14" s="58" t="s">
@@ -10884,7 +11076,7 @@
       <c r="N14" s="23"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="15" spans="1:15">
       <c r="A15" s="25" t="s">
         <v>642</v>
       </c>
@@ -10911,7 +11103,7 @@
       <c r="N15" s="23"/>
       <c r="O15" s="22"/>
     </row>
-    <row r="16" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="16" spans="1:15">
       <c r="A16" s="25"/>
       <c r="B16" s="26"/>
       <c r="C16" s="58" t="s">
@@ -10936,7 +11128,7 @@
       <c r="N16" s="23"/>
       <c r="O16" s="22"/>
     </row>
-    <row r="17" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15">
       <c r="A17" s="25" t="s">
         <v>645</v>
       </c>
@@ -10963,7 +11155,7 @@
       <c r="N17" s="23"/>
       <c r="O17" s="22"/>
     </row>
-    <row r="18" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="18" spans="1:15">
       <c r="A18" s="25"/>
       <c r="B18" s="26"/>
       <c r="C18" s="58" t="s">
@@ -10988,7 +11180,7 @@
       <c r="N18" s="23"/>
       <c r="O18" s="22"/>
     </row>
-    <row r="19" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="19" spans="1:15">
       <c r="A19" s="25" t="s">
         <v>649</v>
       </c>
@@ -11015,7 +11207,7 @@
       <c r="N19" s="23"/>
       <c r="O19" s="22"/>
     </row>
-    <row r="20" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15">
       <c r="A20" s="25"/>
       <c r="B20" s="26"/>
       <c r="C20" s="58" t="s">
@@ -11040,7 +11232,7 @@
       <c r="N20" s="23"/>
       <c r="O20" s="22"/>
     </row>
-    <row r="21" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15">
       <c r="A21" s="25" t="s">
         <v>652</v>
       </c>
@@ -11067,7 +11259,7 @@
       <c r="N21" s="23"/>
       <c r="O21" s="22"/>
     </row>
-    <row r="22" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15">
       <c r="A22" s="25"/>
       <c r="B22" s="26"/>
       <c r="C22" s="58" t="s">
@@ -11092,7 +11284,7 @@
       <c r="N22" s="23"/>
       <c r="O22" s="22"/>
     </row>
-    <row r="23" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15">
       <c r="A23" s="25" t="s">
         <v>656</v>
       </c>
@@ -11119,7 +11311,7 @@
       <c r="N23" s="23"/>
       <c r="O23" s="22"/>
     </row>
-    <row r="24" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15">
       <c r="A24" s="25"/>
       <c r="B24" s="26"/>
       <c r="C24" s="58" t="s">
@@ -11144,7 +11336,7 @@
       <c r="N24" s="23"/>
       <c r="O24" s="22"/>
     </row>
-    <row r="25" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15">
       <c r="A25" s="25" t="s">
         <v>660</v>
       </c>
@@ -11171,7 +11363,7 @@
       <c r="N25" s="23"/>
       <c r="O25" s="22"/>
     </row>
-    <row r="26" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="26" spans="1:15">
       <c r="A26" s="25"/>
       <c r="B26" s="26"/>
       <c r="C26" s="58" t="s">
@@ -11196,7 +11388,7 @@
       <c r="N26" s="23"/>
       <c r="O26" s="22"/>
     </row>
-    <row r="27" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="27" spans="1:15">
       <c r="A27" s="25" t="s">
         <v>663</v>
       </c>
@@ -11223,7 +11415,7 @@
       <c r="N27" s="23"/>
       <c r="O27" s="22"/>
     </row>
-    <row r="28" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15">
       <c r="A28" s="25"/>
       <c r="B28" s="26"/>
       <c r="C28" s="58" t="s">
@@ -11248,7 +11440,7 @@
       <c r="N28" s="23"/>
       <c r="O28" s="22"/>
     </row>
-    <row r="29" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15">
       <c r="A29" s="25" t="s">
         <v>667</v>
       </c>
@@ -11275,7 +11467,7 @@
       <c r="N29" s="23"/>
       <c r="O29" s="22"/>
     </row>
-    <row r="30" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15">
       <c r="A30" s="25"/>
       <c r="B30" s="26"/>
       <c r="C30" s="58" t="s">
@@ -11300,7 +11492,7 @@
       <c r="N30" s="23"/>
       <c r="O30" s="22"/>
     </row>
-    <row r="31" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15">
       <c r="A31" s="25"/>
       <c r="B31" s="26"/>
       <c r="C31" s="58" t="s">
@@ -11325,7 +11517,7 @@
       <c r="N31" s="23"/>
       <c r="O31" s="22"/>
     </row>
-    <row r="32" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15">
       <c r="A32" s="25" t="s">
         <v>673</v>
       </c>
@@ -11352,7 +11544,7 @@
       <c r="N32" s="23"/>
       <c r="O32" s="22"/>
     </row>
-    <row r="33" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="58" t="s">
@@ -11377,7 +11569,7 @@
       <c r="N33" s="23"/>
       <c r="O33" s="22"/>
     </row>
-    <row r="34" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15">
       <c r="A34" s="25" t="s">
         <v>676</v>
       </c>
@@ -11404,7 +11596,7 @@
       <c r="N34" s="23"/>
       <c r="O34" s="22"/>
     </row>
-    <row r="35" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15">
       <c r="A35" s="25"/>
       <c r="B35" s="26"/>
       <c r="C35" s="58" t="s">
@@ -11429,7 +11621,7 @@
       <c r="N35" s="23"/>
       <c r="O35" s="22"/>
     </row>
-    <row r="36" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15">
       <c r="A36" s="25" t="s">
         <v>679</v>
       </c>
@@ -11456,7 +11648,7 @@
       <c r="N36" s="23"/>
       <c r="O36" s="22"/>
     </row>
-    <row r="37" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15">
       <c r="A37" s="25"/>
       <c r="B37" s="26"/>
       <c r="C37" s="58" t="s">
@@ -11481,7 +11673,7 @@
       <c r="N37" s="23"/>
       <c r="O37" s="22"/>
     </row>
-    <row r="38" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15">
       <c r="A38" s="25"/>
       <c r="B38" s="26"/>
       <c r="C38" s="58" t="s">
@@ -11506,7 +11698,7 @@
       <c r="N38" s="23"/>
       <c r="O38" s="22"/>
     </row>
-    <row r="39" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="39" spans="1:15">
       <c r="A39" s="25" t="s">
         <v>685</v>
       </c>
@@ -11533,7 +11725,7 @@
       <c r="N39" s="23"/>
       <c r="O39" s="22"/>
     </row>
-    <row r="40" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="40" spans="1:15">
       <c r="A40" s="25"/>
       <c r="B40" s="26"/>
       <c r="C40" s="58" t="s">
@@ -11558,7 +11750,7 @@
       <c r="N40" s="23"/>
       <c r="O40" s="22"/>
     </row>
-    <row r="41" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="41" spans="1:15">
       <c r="A41" s="25" t="s">
         <v>688</v>
       </c>
@@ -11585,7 +11777,7 @@
       <c r="N41" s="23"/>
       <c r="O41" s="22"/>
     </row>
-    <row r="42" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15">
       <c r="A42" s="25"/>
       <c r="B42" s="26"/>
       <c r="C42" s="58" t="s">
@@ -11610,7 +11802,7 @@
       <c r="N42" s="23"/>
       <c r="O42" s="22"/>
     </row>
-    <row r="43" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15">
       <c r="A43" s="25" t="s">
         <v>691</v>
       </c>
@@ -11637,7 +11829,7 @@
       <c r="N43" s="23"/>
       <c r="O43" s="22"/>
     </row>
-    <row r="44" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15">
       <c r="A44" s="25"/>
       <c r="B44" s="26"/>
       <c r="C44" s="58" t="s">
@@ -11662,7 +11854,7 @@
       <c r="N44" s="23"/>
       <c r="O44" s="22"/>
     </row>
-    <row r="45" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15">
       <c r="A45" s="25" t="s">
         <v>694</v>
       </c>
@@ -11689,7 +11881,7 @@
       <c r="N45" s="23"/>
       <c r="O45" s="22"/>
     </row>
-    <row r="46" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="46" spans="1:15">
       <c r="A46" s="25"/>
       <c r="B46" s="26"/>
       <c r="C46" s="58" t="s">
@@ -11714,7 +11906,7 @@
       <c r="N46" s="23"/>
       <c r="O46" s="22"/>
     </row>
-    <row r="47" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="47" spans="1:15">
       <c r="A47" s="25"/>
       <c r="B47" s="26"/>
       <c r="C47" s="58" t="s">
@@ -11739,7 +11931,7 @@
       <c r="N47" s="23"/>
       <c r="O47" s="22"/>
     </row>
-    <row r="48" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="48" spans="1:15">
       <c r="A48" s="25"/>
       <c r="B48" s="26"/>
       <c r="C48" s="58" t="s">
@@ -11764,7 +11956,7 @@
       <c r="N48" s="23"/>
       <c r="O48" s="22"/>
     </row>
-    <row r="49" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="49" spans="1:15">
       <c r="A49" s="25" t="s">
         <v>697</v>
       </c>
@@ -11791,7 +11983,7 @@
       <c r="N49" s="23"/>
       <c r="O49" s="22"/>
     </row>
-    <row r="50" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="50" spans="1:15">
       <c r="A50" s="25"/>
       <c r="B50" s="26"/>
       <c r="C50" s="58" t="s">
@@ -11816,7 +12008,7 @@
       <c r="N50" s="23"/>
       <c r="O50" s="22"/>
     </row>
-    <row r="51" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="51" spans="1:15">
       <c r="A51" s="25" t="s">
         <v>701</v>
       </c>
@@ -11843,7 +12035,7 @@
       <c r="N51" s="23"/>
       <c r="O51" s="22"/>
     </row>
-    <row r="52" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="52" spans="1:15">
       <c r="A52" s="25"/>
       <c r="B52" s="26"/>
       <c r="C52" s="58" t="s">
@@ -11868,7 +12060,7 @@
       <c r="N52" s="23"/>
       <c r="O52" s="22"/>
     </row>
-    <row r="53" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="53" spans="1:15">
       <c r="A53" s="25"/>
       <c r="B53" s="26"/>
       <c r="C53" s="58" t="s">
@@ -11893,7 +12085,7 @@
       <c r="N53" s="23"/>
       <c r="O53" s="22"/>
     </row>
-    <row r="54" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="54" spans="1:15">
       <c r="A54" s="25" t="s">
         <v>17</v>
       </c>
@@ -11920,7 +12112,7 @@
       <c r="N54" s="23"/>
       <c r="O54" s="22"/>
     </row>
-    <row r="55" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="55" spans="1:15">
       <c r="A55" s="25"/>
       <c r="B55" s="26"/>
       <c r="C55" s="58" t="s">
@@ -11945,7 +12137,7 @@
       <c r="N55" s="23"/>
       <c r="O55" s="22"/>
     </row>
-    <row r="56" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="56" spans="1:15">
       <c r="A56" s="25"/>
       <c r="B56" s="26"/>
       <c r="C56" s="58" t="s">
@@ -11970,7 +12162,7 @@
       <c r="N56" s="23"/>
       <c r="O56" s="22"/>
     </row>
-    <row r="57" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="57" spans="1:15">
       <c r="A57" s="25"/>
       <c r="B57" s="26"/>
       <c r="C57" s="58" t="s">
@@ -11995,7 +12187,7 @@
       <c r="N57" s="23"/>
       <c r="O57" s="22"/>
     </row>
-    <row r="58" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="58" spans="1:15">
       <c r="A58" s="25"/>
       <c r="B58" s="26"/>
       <c r="C58" s="58" t="s">
@@ -12020,7 +12212,7 @@
       <c r="N58" s="23"/>
       <c r="O58" s="22"/>
     </row>
-    <row r="59" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="59" spans="1:15">
       <c r="A59" s="25" t="s">
         <v>712</v>
       </c>
@@ -12047,7 +12239,7 @@
       <c r="N59" s="23"/>
       <c r="O59" s="22"/>
     </row>
-    <row r="60" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="60" spans="1:15">
       <c r="A60" s="25"/>
       <c r="B60" s="26"/>
       <c r="C60" s="58" t="s">
@@ -12072,7 +12264,7 @@
       <c r="N60" s="23"/>
       <c r="O60" s="22"/>
     </row>
-    <row r="61" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="61" spans="1:15">
       <c r="A61" s="25" t="s">
         <v>716</v>
       </c>
@@ -12099,7 +12291,7 @@
       <c r="N61" s="23"/>
       <c r="O61" s="22"/>
     </row>
-    <row r="62" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="62" spans="1:15">
       <c r="A62" s="25"/>
       <c r="B62" s="26"/>
       <c r="C62" s="58" t="s">
@@ -12124,7 +12316,7 @@
       <c r="N62" s="23"/>
       <c r="O62" s="22"/>
     </row>
-    <row r="63" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="63" spans="1:15">
       <c r="A63" s="25" t="s">
         <v>720</v>
       </c>
@@ -12151,7 +12343,7 @@
       <c r="N63" s="23"/>
       <c r="O63" s="22"/>
     </row>
-    <row r="64" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="64" spans="1:15">
       <c r="A64" s="25"/>
       <c r="B64" s="26"/>
       <c r="C64" s="58" t="s">
@@ -12176,7 +12368,7 @@
       <c r="N64" s="23"/>
       <c r="O64" s="22"/>
     </row>
-    <row r="65" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="65" spans="1:15">
       <c r="A65" s="25"/>
       <c r="B65" s="26"/>
       <c r="C65" s="58" t="s">
@@ -12201,7 +12393,7 @@
       <c r="N65" s="23"/>
       <c r="O65" s="22"/>
     </row>
-    <row r="66" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="66" spans="1:15">
       <c r="A66" s="25" t="s">
         <v>724</v>
       </c>
@@ -12228,7 +12420,7 @@
       <c r="N66" s="23"/>
       <c r="O66" s="22"/>
     </row>
-    <row r="67" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="67" spans="1:15">
       <c r="A67" s="25"/>
       <c r="B67" s="26"/>
       <c r="C67" s="58" t="s">
@@ -12253,7 +12445,7 @@
       <c r="N67" s="23"/>
       <c r="O67" s="22"/>
     </row>
-    <row r="68" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="68" spans="1:15">
       <c r="A68" s="25"/>
       <c r="B68" s="26"/>
       <c r="C68" s="58" t="s">
@@ -12278,7 +12470,7 @@
       <c r="N68" s="23"/>
       <c r="O68" s="22"/>
     </row>
-    <row r="69" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="69" spans="1:15">
       <c r="A69" s="25"/>
       <c r="B69" s="26"/>
       <c r="C69" s="58" t="s">
@@ -12303,7 +12495,7 @@
       <c r="N69" s="23"/>
       <c r="O69" s="22"/>
     </row>
-    <row r="70" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="70" spans="1:15">
       <c r="A70" s="25" t="s">
         <v>730</v>
       </c>
@@ -12330,7 +12522,7 @@
       <c r="N70" s="23"/>
       <c r="O70" s="22"/>
     </row>
-    <row r="71" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="71" spans="1:15">
       <c r="A71" s="25"/>
       <c r="B71" s="59"/>
       <c r="C71" s="58" t="s">
@@ -12355,7 +12547,7 @@
       <c r="N71" s="23"/>
       <c r="O71" s="22"/>
     </row>
-    <row r="72" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="72" spans="1:15">
       <c r="A72" s="25"/>
       <c r="B72" s="26"/>
       <c r="C72" s="58" t="s">
@@ -12380,7 +12572,7 @@
       <c r="N72" s="23"/>
       <c r="O72" s="22"/>
     </row>
-    <row r="73" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="73" spans="1:15">
       <c r="A73" s="25"/>
       <c r="B73" s="59"/>
       <c r="C73" s="58" t="s">
@@ -12405,7 +12597,7 @@
       <c r="N73" s="23"/>
       <c r="O73" s="22"/>
     </row>
-    <row r="74" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="74" spans="1:15">
       <c r="A74" s="25" t="s">
         <v>736</v>
       </c>
@@ -12432,7 +12624,7 @@
       <c r="N74" s="23"/>
       <c r="O74" s="22"/>
     </row>
-    <row r="75" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="75" spans="1:15">
       <c r="A75" s="25"/>
       <c r="B75" s="26"/>
       <c r="C75" s="58" t="s">
@@ -12457,7 +12649,7 @@
       <c r="N75" s="23"/>
       <c r="O75" s="22"/>
     </row>
-    <row r="76" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="76" spans="1:15">
       <c r="A76" s="25" t="s">
         <v>740</v>
       </c>
@@ -12484,7 +12676,7 @@
       <c r="N76" s="23"/>
       <c r="O76" s="22"/>
     </row>
-    <row r="77" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="77" spans="1:15">
       <c r="A77" s="25"/>
       <c r="B77" s="26"/>
       <c r="C77" s="58" t="s">
@@ -12509,7 +12701,7 @@
       <c r="N77" s="23"/>
       <c r="O77" s="22"/>
     </row>
-    <row r="78" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="78" spans="1:15">
       <c r="A78" s="25" t="s">
         <v>742</v>
       </c>
@@ -12536,7 +12728,7 @@
       <c r="N78" s="23"/>
       <c r="O78" s="22"/>
     </row>
-    <row r="79" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="79" spans="1:15">
       <c r="A79" s="25"/>
       <c r="B79" s="26"/>
       <c r="C79" s="58" t="s">
@@ -12561,7 +12753,7 @@
       <c r="N79" s="23"/>
       <c r="O79" s="22"/>
     </row>
-    <row r="80" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="80" spans="1:15">
       <c r="A80" s="25" t="s">
         <v>6</v>
       </c>
@@ -12588,7 +12780,7 @@
       <c r="N80" s="23"/>
       <c r="O80" s="22"/>
     </row>
-    <row r="81" ht="25.5" spans="1:15">
+    <row ht="25.5" r="81" spans="1:15">
       <c r="A81" s="25"/>
       <c r="B81" s="26"/>
       <c r="C81" s="58" t="s">
@@ -12613,7 +12805,7 @@
       <c r="N81" s="23"/>
       <c r="O81" s="22"/>
     </row>
-    <row r="82" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="82" spans="1:15">
       <c r="A82" s="25"/>
       <c r="B82" s="26"/>
       <c r="C82" s="58" t="s">
@@ -12638,7 +12830,7 @@
       <c r="N82" s="23"/>
       <c r="O82" s="22"/>
     </row>
-    <row r="83" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="83" spans="1:15">
       <c r="A83" s="25"/>
       <c r="B83" s="26"/>
       <c r="C83" s="58" t="s">
@@ -12661,7 +12853,7 @@
       <c r="N83" s="23"/>
       <c r="O83" s="22"/>
     </row>
-    <row r="84" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="84" spans="1:15">
       <c r="A84" s="25" t="s">
         <v>13</v>
       </c>
@@ -12688,7 +12880,7 @@
       <c r="N84" s="23"/>
       <c r="O84" s="22"/>
     </row>
-    <row r="85" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="85" spans="1:15">
       <c r="A85" s="25"/>
       <c r="B85" s="26"/>
       <c r="C85" s="58" t="s">
@@ -12713,7 +12905,7 @@
       <c r="N85" s="23"/>
       <c r="O85" s="22"/>
     </row>
-    <row r="86" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="86" spans="1:15">
       <c r="A86" s="25"/>
       <c r="B86" s="26"/>
       <c r="C86" s="58" t="s">
@@ -12738,7 +12930,7 @@
       <c r="N86" s="23"/>
       <c r="O86" s="22"/>
     </row>
-    <row r="87" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="87" spans="1:15">
       <c r="A87" s="25" t="s">
         <v>32</v>
       </c>
@@ -12765,7 +12957,7 @@
       <c r="N87" s="23"/>
       <c r="O87" s="22"/>
     </row>
-    <row r="88" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="88" spans="1:15">
       <c r="A88" s="25"/>
       <c r="B88" s="26"/>
       <c r="C88" s="58" t="s">
@@ -12790,7 +12982,7 @@
       <c r="N88" s="23"/>
       <c r="O88" s="22"/>
     </row>
-    <row r="89" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="89" spans="1:15">
       <c r="A89" s="25"/>
       <c r="B89" s="26"/>
       <c r="C89" s="58" t="s">
@@ -12815,7 +13007,7 @@
       <c r="N89" s="23"/>
       <c r="O89" s="22"/>
     </row>
-    <row r="90" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="90" spans="1:15">
       <c r="A90" s="25"/>
       <c r="B90" s="26"/>
       <c r="C90" s="58" t="s">
@@ -12840,7 +13032,7 @@
       <c r="N90" s="23"/>
       <c r="O90" s="22"/>
     </row>
-    <row r="91" ht="76.5" spans="1:15">
+    <row ht="76.5" r="91" spans="1:15">
       <c r="A91" s="25"/>
       <c r="B91" s="26"/>
       <c r="C91" s="58" t="s">
@@ -12865,7 +13057,7 @@
       <c r="N91" s="23"/>
       <c r="O91" s="22"/>
     </row>
-    <row r="92" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="92" spans="1:15">
       <c r="A92" s="25" t="s">
         <v>763</v>
       </c>
@@ -12892,7 +13084,7 @@
       <c r="N92" s="23"/>
       <c r="O92" s="22"/>
     </row>
-    <row r="93" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="93" spans="1:15">
       <c r="A93" s="25"/>
       <c r="B93" s="26"/>
       <c r="C93" s="27" t="s">
@@ -12917,7 +13109,7 @@
       <c r="N93" s="23"/>
       <c r="O93" s="22"/>
     </row>
-    <row r="94" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="94" spans="1:15">
       <c r="A94" s="25" t="s">
         <v>767</v>
       </c>
@@ -12944,7 +13136,7 @@
       <c r="N94" s="23"/>
       <c r="O94" s="22"/>
     </row>
-    <row r="95" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="95" spans="1:15">
       <c r="A95" s="25"/>
       <c r="B95" s="26"/>
       <c r="C95" s="58" t="s">
@@ -12969,7 +13161,7 @@
       <c r="N95" s="23"/>
       <c r="O95" s="22"/>
     </row>
-    <row r="96" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="96" spans="1:15">
       <c r="A96" s="25"/>
       <c r="B96" s="26"/>
       <c r="C96" s="58" t="s">
@@ -12994,7 +13186,7 @@
       <c r="N96" s="23"/>
       <c r="O96" s="22"/>
     </row>
-    <row r="97" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="97" spans="1:15">
       <c r="A97" s="25"/>
       <c r="B97" s="26"/>
       <c r="C97" s="27" t="s">
@@ -13019,7 +13211,7 @@
       <c r="N97" s="23"/>
       <c r="O97" s="22"/>
     </row>
-    <row r="98" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="98" spans="1:15">
       <c r="A98" s="25" t="s">
         <v>771</v>
       </c>
@@ -13046,7 +13238,7 @@
       <c r="N98" s="23"/>
       <c r="O98" s="22"/>
     </row>
-    <row r="99" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="99" spans="1:15">
       <c r="A99" s="25"/>
       <c r="B99" s="26"/>
       <c r="C99" s="27" t="s">
@@ -13071,7 +13263,7 @@
       <c r="N99" s="23"/>
       <c r="O99" s="22"/>
     </row>
-    <row r="100" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="100" spans="1:15">
       <c r="A100" s="19" t="s">
         <v>773</v>
       </c>
@@ -13098,7 +13290,7 @@
       <c r="N100" s="23"/>
       <c r="O100" s="22"/>
     </row>
-    <row r="101" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="101" spans="1:15">
       <c r="A101" s="19"/>
       <c r="B101" s="20"/>
       <c r="C101" s="52" t="s">
@@ -13123,7 +13315,7 @@
       <c r="N101" s="23"/>
       <c r="O101" s="22"/>
     </row>
-    <row r="102" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="102" spans="1:15">
       <c r="A102" s="20"/>
       <c r="B102" s="20"/>
       <c r="C102" s="52" t="s">
@@ -13148,7 +13340,7 @@
       <c r="N102" s="23"/>
       <c r="O102" s="22"/>
     </row>
-    <row r="103" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="103" spans="1:15">
       <c r="A103" s="25"/>
       <c r="B103" s="20"/>
       <c r="C103" s="52" t="s">
@@ -13173,7 +13365,7 @@
       <c r="N103" s="23"/>
       <c r="O103" s="22"/>
     </row>
-    <row r="104" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="104" spans="1:15">
       <c r="A104" s="25"/>
       <c r="B104" s="20"/>
       <c r="C104" s="52" t="s">
@@ -13198,7 +13390,7 @@
       <c r="N104" s="23"/>
       <c r="O104" s="22"/>
     </row>
-    <row r="105" s="11" customFormat="1" ht="23.1" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="23.1" r="105" s="11" spans="1:15">
       <c r="A105" s="19" t="s">
         <v>782</v>
       </c>
@@ -13225,7 +13417,7 @@
       <c r="N105" s="23"/>
       <c r="O105" s="22"/>
     </row>
-    <row r="106" s="11" customFormat="1" ht="75" spans="1:15">
+    <row customFormat="1" ht="75" r="106" s="11" spans="1:15">
       <c r="A106" s="19"/>
       <c r="B106" s="20"/>
       <c r="C106" s="52" t="s">
@@ -13252,7 +13444,7 @@
       <c r="N106" s="23"/>
       <c r="O106" s="22"/>
     </row>
-    <row r="107" s="11" customFormat="1" ht="75" spans="1:15">
+    <row customFormat="1" ht="75" r="107" s="11" spans="1:15">
       <c r="A107" s="19"/>
       <c r="B107" s="20"/>
       <c r="C107" s="52" t="s">
@@ -13277,7 +13469,7 @@
       <c r="N107" s="23"/>
       <c r="O107" s="22"/>
     </row>
-    <row r="108" s="11" customFormat="1" ht="21" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="21" r="108" s="11" spans="1:15">
       <c r="A108" s="19"/>
       <c r="B108" s="20"/>
       <c r="C108" s="52" t="s">
@@ -13302,7 +13494,7 @@
       <c r="N108" s="23"/>
       <c r="O108" s="22"/>
     </row>
-    <row r="109" ht="21" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="21" r="109" spans="1:15">
       <c r="A109" s="25" t="s">
         <v>791</v>
       </c>
@@ -13329,7 +13521,7 @@
       <c r="N109" s="23"/>
       <c r="O109" s="22"/>
     </row>
-    <row r="110" ht="21" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="21" r="110" spans="1:15">
       <c r="A110" s="25"/>
       <c r="B110" s="26"/>
       <c r="C110" s="27" t="s">
@@ -13354,7 +13546,9 @@
       <c r="N110" s="23"/>
       <c r="O110" s="22"/>
     </row>
-    <row r="111" ht="21" customHeight="1" spans="3:6">
+    <row customHeight="1" ht="21" r="111" spans="3:6">
+      <c r="A111"/>
+      <c r="B111"/>
       <c r="C111" s="5" t="s">
         <v>5</v>
       </c>
@@ -13367,8 +13561,16 @@
       <c r="F111" s="28" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="112" ht="21" customHeight="1" spans="3:6">
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+    </row>
+    <row customHeight="1" ht="21" r="112" spans="3:6">
+      <c r="A112"/>
+      <c r="B112"/>
       <c r="C112" s="5" t="s">
         <v>5</v>
       </c>
@@ -13381,11 +13583,18 @@
       <c r="F112" s="28" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="113" ht="21" customHeight="1" spans="1:6">
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+    </row>
+    <row customHeight="1" ht="21" r="113" spans="1:6">
       <c r="A113" s="3" t="s">
         <v>800</v>
       </c>
+      <c r="B113"/>
       <c r="C113" s="5" t="s">
         <v>5</v>
       </c>
@@ -13398,8 +13607,15 @@
       <c r="F113" s="6" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="114" ht="21" customHeight="1" spans="2:6">
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+    </row>
+    <row customHeight="1" ht="21" r="114" spans="2:6">
+      <c r="A114"/>
       <c r="B114" s="4" t="s">
         <v>803</v>
       </c>
@@ -13415,8 +13631,15 @@
       <c r="F114" s="6" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="115" ht="21" customHeight="1" spans="2:6">
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+    </row>
+    <row customHeight="1" ht="21" r="115" spans="2:6">
+      <c r="A115"/>
       <c r="B115" s="4" t="s">
         <v>806</v>
       </c>
@@ -13432,30 +13655,36 @@
       <c r="F115" s="6" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="116" ht="21" customHeight="1"/>
-    <row r="117" ht="21" customHeight="1"/>
-    <row r="118" ht="21" customHeight="1"/>
-    <row r="119" ht="21" customHeight="1"/>
-    <row r="120" ht="21" customHeight="1"/>
-    <row r="121" ht="21" customHeight="1"/>
-    <row r="122" ht="21" customHeight="1"/>
-    <row r="123" ht="21" customHeight="1"/>
-    <row r="124" ht="21" customHeight="1"/>
-    <row r="125" ht="21" customHeight="1"/>
-    <row r="126" ht="21" customHeight="1"/>
-    <row r="127" ht="21" customHeight="1"/>
-    <row r="128" ht="21" customHeight="1"/>
-    <row r="129" ht="21" customHeight="1"/>
-    <row r="130" ht="21" customHeight="1"/>
-    <row r="131" ht="21" customHeight="1"/>
-    <row r="132" ht="21" customHeight="1"/>
-    <row r="133" ht="21" customHeight="1"/>
-    <row r="134" ht="21" customHeight="1"/>
-    <row r="135" ht="21" customHeight="1"/>
-    <row r="136" ht="21" customHeight="1"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+    </row>
+    <row customHeight="1" ht="21" r="116"/>
+    <row customHeight="1" ht="21" r="117"/>
+    <row customHeight="1" ht="21" r="118"/>
+    <row customHeight="1" ht="21" r="119"/>
+    <row customHeight="1" ht="21" r="120"/>
+    <row customHeight="1" ht="21" r="121"/>
+    <row customHeight="1" ht="21" r="122"/>
+    <row customHeight="1" ht="21" r="123"/>
+    <row customHeight="1" ht="21" r="124"/>
+    <row customHeight="1" ht="21" r="125"/>
+    <row customHeight="1" ht="21" r="126"/>
+    <row customHeight="1" ht="21" r="127"/>
+    <row customHeight="1" ht="21" r="128"/>
+    <row customHeight="1" ht="21" r="129"/>
+    <row customHeight="1" ht="21" r="130"/>
+    <row customHeight="1" ht="21" r="131"/>
+    <row customHeight="1" ht="21" r="132"/>
+    <row customHeight="1" ht="21" r="133"/>
+    <row customHeight="1" ht="21" r="134"/>
+    <row customHeight="1" ht="21" r="135"/>
+    <row customHeight="1" ht="21" r="136"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -13463,82 +13692,82 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1">
-    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="7" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="8" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N105:N108">
-    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="3" operator="equal" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N105,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="4" operator="equal" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N105,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="5" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="5" operator="equal" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N105,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N109:N110 N3:N104">
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N3,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C110">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C110" type="list">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D110">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D110" type="list">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:P90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A81" ySplit="4"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B85" pane="bottomLeft" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="31.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="43.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="42.125" style="6" customWidth="1"/>
-    <col min="7" max="9" width="20" style="6" customWidth="1"/>
-    <col min="10" max="10" width="20" style="7" customWidth="1"/>
-    <col min="11" max="11" width="1.625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="12" style="9" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="10" customWidth="1"/>
-    <col min="14" max="14" width="19" style="9" customWidth="1"/>
-    <col min="15" max="15" width="49.875" style="8" customWidth="1"/>
-    <col min="16" max="16384" width="10.875" style="11"/>
+    <col min="1" max="1" customWidth="true" style="3" width="16.375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="4" width="16.375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="5" width="10.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="6" width="31.5" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="6" width="43.625" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="6" width="52.625" collapsed="false"/>
+    <col min="7" max="9" customWidth="true" style="6" width="20.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="7" width="20.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="8" width="1.625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="9" width="12.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="10" width="12.5" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="9" width="19.0" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="8" width="49.875" collapsed="false"/>
+    <col min="16" max="16384" style="11" width="10.875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15">
       <c r="A1" s="12" t="s">
         <v>602</v>
       </c>
@@ -13569,7 +13798,7 @@
       <c r="N1" s="14"/>
       <c r="O1" s="36"/>
     </row>
-    <row r="2" ht="93" hidden="1" customHeight="1" spans="1:15">
+    <row customHeight="1" hidden="1" ht="93" r="2" spans="1:15">
       <c r="A2" s="15" t="s">
         <v>609</v>
       </c>
@@ -13590,7 +13819,7 @@
       <c r="N2" s="38"/>
       <c r="O2" s="38"/>
     </row>
-    <row r="3" ht="9.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="9.95" r="3" spans="1:15">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
@@ -13607,7 +13836,7 @@
       <c r="N3" s="23"/>
       <c r="O3" s="22"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="1" spans="1:15">
       <c r="A4" s="24" t="s">
         <v>611</v>
       </c>
@@ -13652,7 +13881,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="5" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="5" spans="1:15">
       <c r="A5" s="25" t="s">
         <v>697</v>
       </c>
@@ -13681,7 +13910,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="6" spans="1:15">
       <c r="A6" s="25"/>
       <c r="B6" s="26"/>
       <c r="C6" s="27" t="s">
@@ -13706,7 +13935,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="7" spans="1:15">
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
       <c r="C7" s="27" t="s">
@@ -13731,7 +13960,7 @@
       <c r="N7" s="23"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="8" spans="1:15">
       <c r="A8" s="25" t="s">
         <v>814</v>
       </c>
@@ -13760,7 +13989,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="22"/>
     </row>
-    <row r="9" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="9" spans="1:15">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="27" t="s">
@@ -13785,7 +14014,7 @@
       <c r="N9" s="23"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="10" spans="1:15">
       <c r="A10" s="25" t="s">
         <v>817</v>
       </c>
@@ -13814,7 +14043,7 @@
       <c r="N10" s="23"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="11" spans="1:15">
       <c r="A11" s="25"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27" t="s">
@@ -13839,7 +14068,7 @@
       <c r="N11" s="23"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="12" spans="1:15">
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
       <c r="C12" s="27" t="s">
@@ -13864,7 +14093,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="13" spans="1:15">
       <c r="A13" s="25"/>
       <c r="B13" s="26"/>
       <c r="C13" s="27" t="s">
@@ -13889,7 +14118,7 @@
       <c r="N13" s="23"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="14" spans="1:15">
       <c r="A14" s="25"/>
       <c r="B14" s="26"/>
       <c r="C14" s="27" t="s">
@@ -13914,7 +14143,7 @@
       <c r="N14" s="23"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="15" spans="1:15">
       <c r="A15" s="25" t="s">
         <v>660</v>
       </c>
@@ -13943,7 +14172,7 @@
       <c r="N15" s="23"/>
       <c r="O15" s="22"/>
     </row>
-    <row r="16" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="16" spans="1:15">
       <c r="A16" s="25"/>
       <c r="B16" s="26"/>
       <c r="C16" s="27" t="s">
@@ -13968,7 +14197,7 @@
       <c r="N16" s="23"/>
       <c r="O16" s="22"/>
     </row>
-    <row r="17" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15">
       <c r="A17" s="25" t="s">
         <v>829</v>
       </c>
@@ -13997,7 +14226,7 @@
       <c r="N17" s="23"/>
       <c r="O17" s="22"/>
     </row>
-    <row r="18" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="18" spans="1:15">
       <c r="A18" s="25"/>
       <c r="B18" s="26"/>
       <c r="C18" s="27" t="s">
@@ -14022,7 +14251,7 @@
       <c r="N18" s="23"/>
       <c r="O18" s="22"/>
     </row>
-    <row r="19" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="19" spans="1:15">
       <c r="A19" s="25" t="s">
         <v>833</v>
       </c>
@@ -14051,7 +14280,7 @@
       <c r="N19" s="23"/>
       <c r="O19" s="22"/>
     </row>
-    <row r="20" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15">
       <c r="A20" s="25"/>
       <c r="B20" s="26"/>
       <c r="C20" s="27" t="s">
@@ -14076,7 +14305,7 @@
       <c r="N20" s="23"/>
       <c r="O20" s="22"/>
     </row>
-    <row r="21" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15">
       <c r="A21" s="25" t="s">
         <v>652</v>
       </c>
@@ -14105,7 +14334,7 @@
       <c r="N21" s="23"/>
       <c r="O21" s="22"/>
     </row>
-    <row r="22" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15">
       <c r="A22" s="25"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27" t="s">
@@ -14130,7 +14359,7 @@
       <c r="N22" s="23"/>
       <c r="O22" s="22"/>
     </row>
-    <row r="23" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15">
       <c r="A23" s="25" t="s">
         <v>839</v>
       </c>
@@ -14159,7 +14388,7 @@
       <c r="N23" s="23"/>
       <c r="O23" s="22"/>
     </row>
-    <row r="24" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15">
       <c r="A24" s="25"/>
       <c r="B24" s="26"/>
       <c r="C24" s="27" t="s">
@@ -14184,7 +14413,7 @@
       <c r="N24" s="23"/>
       <c r="O24" s="22"/>
     </row>
-    <row r="25" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15">
       <c r="A25" s="31" t="s">
         <v>842</v>
       </c>
@@ -14213,7 +14442,7 @@
       <c r="N25" s="23"/>
       <c r="O25" s="22"/>
     </row>
-    <row r="26" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="26" spans="1:15">
       <c r="A26" s="25"/>
       <c r="B26" s="26"/>
       <c r="C26" s="27" t="s">
@@ -14238,7 +14467,7 @@
       <c r="N26" s="23"/>
       <c r="O26" s="22"/>
     </row>
-    <row r="27" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="27" spans="1:15">
       <c r="A27" s="25" t="s">
         <v>639</v>
       </c>
@@ -14267,7 +14496,7 @@
       <c r="N27" s="23"/>
       <c r="O27" s="22"/>
     </row>
-    <row r="28" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15">
       <c r="A28" s="25"/>
       <c r="B28" s="26"/>
       <c r="C28" s="27" t="s">
@@ -14292,7 +14521,7 @@
       <c r="N28" s="23"/>
       <c r="O28" s="22"/>
     </row>
-    <row r="29" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15">
       <c r="A29" s="25" t="s">
         <v>847</v>
       </c>
@@ -14321,7 +14550,7 @@
       <c r="N29" s="23"/>
       <c r="O29" s="22"/>
     </row>
-    <row r="30" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15">
       <c r="A30" s="25"/>
       <c r="B30" s="26"/>
       <c r="C30" s="27" t="s">
@@ -14346,7 +14575,7 @@
       <c r="N30" s="23"/>
       <c r="O30" s="22"/>
     </row>
-    <row r="31" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15">
       <c r="A31" s="25"/>
       <c r="B31" s="26"/>
       <c r="C31" s="27" t="s">
@@ -14371,7 +14600,7 @@
       <c r="N31" s="23"/>
       <c r="O31" s="22"/>
     </row>
-    <row r="32" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15">
       <c r="A32" s="25" t="s">
         <v>853</v>
       </c>
@@ -14400,7 +14629,7 @@
       <c r="N32" s="23"/>
       <c r="O32" s="22"/>
     </row>
-    <row r="33" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="27" t="s">
@@ -14425,7 +14654,7 @@
       <c r="N33" s="23"/>
       <c r="O33" s="22"/>
     </row>
-    <row r="34" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15">
       <c r="A34" s="25" t="s">
         <v>856</v>
       </c>
@@ -14454,7 +14683,7 @@
       <c r="N34" s="23"/>
       <c r="O34" s="22"/>
     </row>
-    <row r="35" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15">
       <c r="A35" s="25"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27" t="s">
@@ -14479,7 +14708,7 @@
       <c r="N35" s="23"/>
       <c r="O35" s="22"/>
     </row>
-    <row r="36" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="27" t="s">
@@ -14504,7 +14733,7 @@
       <c r="N36" s="23"/>
       <c r="O36" s="22"/>
     </row>
-    <row r="37" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15">
       <c r="A37" s="25" t="s">
         <v>860</v>
       </c>
@@ -14533,7 +14762,7 @@
       <c r="N37" s="23"/>
       <c r="O37" s="22"/>
     </row>
-    <row r="38" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15">
       <c r="A38" s="53"/>
       <c r="B38" s="54"/>
       <c r="C38" s="27" t="s">
@@ -14558,7 +14787,7 @@
       <c r="N38" s="23"/>
       <c r="O38" s="22"/>
     </row>
-    <row r="39" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="39" spans="1:15">
       <c r="A39" s="25" t="s">
         <v>656</v>
       </c>
@@ -14587,7 +14816,7 @@
       <c r="N39" s="23"/>
       <c r="O39" s="22"/>
     </row>
-    <row r="40" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="40" spans="1:15">
       <c r="A40" s="25"/>
       <c r="B40" s="26"/>
       <c r="C40" s="27" t="s">
@@ -14612,7 +14841,7 @@
       <c r="N40" s="23"/>
       <c r="O40" s="22"/>
     </row>
-    <row r="41" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="41" spans="1:15">
       <c r="A41" s="25" t="s">
         <v>864</v>
       </c>
@@ -14641,7 +14870,7 @@
       <c r="N41" s="23"/>
       <c r="O41" s="22"/>
     </row>
-    <row r="42" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15">
       <c r="A42" s="25"/>
       <c r="B42" s="26"/>
       <c r="C42" s="27" t="s">
@@ -14666,7 +14895,7 @@
       <c r="N42" s="23"/>
       <c r="O42" s="22"/>
     </row>
-    <row r="43" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15">
       <c r="A43" s="25" t="s">
         <v>867</v>
       </c>
@@ -14695,7 +14924,7 @@
       <c r="N43" s="23"/>
       <c r="O43" s="22"/>
     </row>
-    <row r="44" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15">
       <c r="A44" s="25"/>
       <c r="B44" s="26"/>
       <c r="C44" s="27" t="s">
@@ -14720,7 +14949,7 @@
       <c r="N44" s="23"/>
       <c r="O44" s="22"/>
     </row>
-    <row r="45" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15">
       <c r="A45" s="25" t="s">
         <v>763</v>
       </c>
@@ -14749,7 +14978,7 @@
       <c r="N45" s="23"/>
       <c r="O45" s="22"/>
     </row>
-    <row r="46" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="46" spans="1:15">
       <c r="A46" s="25"/>
       <c r="B46" s="26"/>
       <c r="C46" s="27" t="s">
@@ -14774,7 +15003,7 @@
       <c r="N46" s="23"/>
       <c r="O46" s="22"/>
     </row>
-    <row r="47" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="47" spans="1:15">
       <c r="A47" s="25" t="s">
         <v>716</v>
       </c>
@@ -14803,7 +15032,7 @@
       <c r="N47" s="23"/>
       <c r="O47" s="22"/>
     </row>
-    <row r="48" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="48" spans="1:15">
       <c r="A48" s="25"/>
       <c r="B48" s="26"/>
       <c r="C48" s="27" t="s">
@@ -14828,7 +15057,7 @@
       <c r="N48" s="23"/>
       <c r="O48" s="22"/>
     </row>
-    <row r="49" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="49" spans="1:15">
       <c r="A49" s="55" t="s">
         <v>632</v>
       </c>
@@ -14857,7 +15086,7 @@
       <c r="N49" s="23"/>
       <c r="O49" s="22"/>
     </row>
-    <row r="50" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="50" spans="1:15">
       <c r="A50" s="25"/>
       <c r="B50" s="26"/>
       <c r="C50" s="27" t="s">
@@ -14882,7 +15111,7 @@
       <c r="N50" s="23"/>
       <c r="O50" s="22"/>
     </row>
-    <row r="51" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="51" spans="1:15">
       <c r="A51" s="25" t="s">
         <v>877</v>
       </c>
@@ -14911,7 +15140,7 @@
       <c r="N51" s="23"/>
       <c r="O51" s="22"/>
     </row>
-    <row r="52" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="52" spans="1:15">
       <c r="A52" s="25"/>
       <c r="B52" s="26"/>
       <c r="C52" s="27" t="s">
@@ -14936,7 +15165,7 @@
       <c r="N52" s="23"/>
       <c r="O52" s="22"/>
     </row>
-    <row r="53" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="53" spans="1:15">
       <c r="A53" s="25" t="s">
         <v>636</v>
       </c>
@@ -14965,7 +15194,7 @@
       <c r="N53" s="23"/>
       <c r="O53" s="22"/>
     </row>
-    <row r="54" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="54" spans="1:15">
       <c r="A54" s="25"/>
       <c r="B54" s="26"/>
       <c r="C54" s="27" t="s">
@@ -14990,7 +15219,7 @@
       <c r="N54" s="23"/>
       <c r="O54" s="22"/>
     </row>
-    <row r="55" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="55" spans="1:15">
       <c r="A55" s="25" t="s">
         <v>884</v>
       </c>
@@ -15019,7 +15248,7 @@
       <c r="N55" s="23"/>
       <c r="O55" s="22"/>
     </row>
-    <row r="56" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="56" spans="1:15">
       <c r="A56" s="25"/>
       <c r="B56" s="26"/>
       <c r="C56" s="27" t="s">
@@ -15044,7 +15273,7 @@
       <c r="N56" s="23"/>
       <c r="O56" s="22"/>
     </row>
-    <row r="57" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="57" spans="1:15">
       <c r="A57" s="44" t="s">
         <v>694</v>
       </c>
@@ -15073,7 +15302,7 @@
       <c r="N57" s="23"/>
       <c r="O57" s="22"/>
     </row>
-    <row r="58" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="58" spans="1:15">
       <c r="A58" s="25"/>
       <c r="B58" s="26"/>
       <c r="C58" s="27" t="s">
@@ -15098,7 +15327,7 @@
       <c r="N58" s="23"/>
       <c r="O58" s="22"/>
     </row>
-    <row r="59" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="59" spans="1:15">
       <c r="A59" s="25" t="s">
         <v>891</v>
       </c>
@@ -15127,7 +15356,7 @@
       <c r="N59" s="23"/>
       <c r="O59" s="22"/>
     </row>
-    <row r="60" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="60" spans="1:15">
       <c r="A60" s="55"/>
       <c r="B60" s="56"/>
       <c r="C60" s="27" t="s">
@@ -15152,7 +15381,7 @@
       <c r="N60" s="23"/>
       <c r="O60" s="22"/>
     </row>
-    <row r="61" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="61" spans="1:15">
       <c r="A61" s="25" t="s">
         <v>895</v>
       </c>
@@ -15181,7 +15410,7 @@
       <c r="N61" s="23"/>
       <c r="O61" s="22"/>
     </row>
-    <row r="62" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="62" spans="1:15">
       <c r="A62" s="25"/>
       <c r="B62" s="26"/>
       <c r="C62" s="27" t="s">
@@ -15206,7 +15435,7 @@
       <c r="N62" s="23"/>
       <c r="O62" s="22"/>
     </row>
-    <row r="63" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="63" spans="1:15">
       <c r="A63" s="25" t="s">
         <v>898</v>
       </c>
@@ -15235,7 +15464,7 @@
       <c r="N63" s="23"/>
       <c r="O63" s="22"/>
     </row>
-    <row r="64" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="64" spans="1:15">
       <c r="A64" s="25"/>
       <c r="B64" s="26"/>
       <c r="C64" s="27" t="s">
@@ -15260,7 +15489,7 @@
       <c r="N64" s="23"/>
       <c r="O64" s="22"/>
     </row>
-    <row r="65" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="65" spans="1:15">
       <c r="A65" s="25" t="s">
         <v>679</v>
       </c>
@@ -15289,7 +15518,7 @@
       <c r="N65" s="23"/>
       <c r="O65" s="22"/>
     </row>
-    <row r="66" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="66" spans="1:15">
       <c r="A66" s="25"/>
       <c r="B66" s="26"/>
       <c r="C66" s="27" t="s">
@@ -15314,7 +15543,7 @@
       <c r="N66" s="23"/>
       <c r="O66" s="22"/>
     </row>
-    <row r="67" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="67" spans="1:15">
       <c r="A67" s="25"/>
       <c r="B67" s="26"/>
       <c r="C67" s="27" t="s">
@@ -15339,7 +15568,7 @@
       <c r="N67" s="23"/>
       <c r="O67" s="22"/>
     </row>
-    <row r="68" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="68" spans="1:15">
       <c r="A68" s="25" t="s">
         <v>904</v>
       </c>
@@ -15368,7 +15597,7 @@
       <c r="N68" s="23"/>
       <c r="O68" s="22"/>
     </row>
-    <row r="69" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="69" spans="1:15">
       <c r="A69" s="25"/>
       <c r="B69" s="26"/>
       <c r="C69" s="27" t="s">
@@ -15393,7 +15622,7 @@
       <c r="N69" s="23"/>
       <c r="O69" s="22"/>
     </row>
-    <row r="70" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="70" spans="1:15">
       <c r="A70" s="25" t="s">
         <v>906</v>
       </c>
@@ -15422,7 +15651,7 @@
       <c r="N70" s="23"/>
       <c r="O70" s="22"/>
     </row>
-    <row r="71" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="71" spans="1:15">
       <c r="A71" s="25"/>
       <c r="B71" s="26"/>
       <c r="C71" s="27" t="s">
@@ -15447,7 +15676,7 @@
       <c r="N71" s="23"/>
       <c r="O71" s="22"/>
     </row>
-    <row r="72" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="72" spans="1:15">
       <c r="A72" s="25" t="s">
         <v>771</v>
       </c>
@@ -15476,7 +15705,7 @@
       <c r="N72" s="23"/>
       <c r="O72" s="22"/>
     </row>
-    <row r="73" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="73" spans="1:15">
       <c r="A73" s="25"/>
       <c r="B73" s="26"/>
       <c r="C73" s="27" t="s">
@@ -15501,7 +15730,7 @@
       <c r="N73" s="23"/>
       <c r="O73" s="22"/>
     </row>
-    <row r="74" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="74" spans="1:15">
       <c r="A74" s="25"/>
       <c r="B74" s="26"/>
       <c r="C74" s="27" t="s">
@@ -15526,7 +15755,7 @@
       <c r="N74" s="23"/>
       <c r="O74" s="22"/>
     </row>
-    <row r="75" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="75" spans="1:15">
       <c r="A75" s="25" t="s">
         <v>911</v>
       </c>
@@ -15555,7 +15784,7 @@
       <c r="N75" s="23"/>
       <c r="O75" s="22"/>
     </row>
-    <row r="76" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="76" spans="1:15">
       <c r="A76" s="25"/>
       <c r="B76" s="26"/>
       <c r="C76" s="27" t="s">
@@ -15580,7 +15809,7 @@
       <c r="N76" s="23"/>
       <c r="O76" s="22"/>
     </row>
-    <row r="77" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="77" spans="1:15">
       <c r="A77" s="25"/>
       <c r="B77" s="26"/>
       <c r="C77" s="27" t="s">
@@ -15605,7 +15834,7 @@
       <c r="N77" s="23"/>
       <c r="O77" s="22"/>
     </row>
-    <row r="78" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="78" spans="1:15">
       <c r="A78" s="25" t="s">
         <v>914</v>
       </c>
@@ -15634,7 +15863,7 @@
       <c r="N78" s="23"/>
       <c r="O78" s="22"/>
     </row>
-    <row r="79" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="79" spans="1:15">
       <c r="A79" s="25"/>
       <c r="B79" s="26"/>
       <c r="C79" s="27" t="s">
@@ -15659,7 +15888,7 @@
       <c r="N79" s="23"/>
       <c r="O79" s="22"/>
     </row>
-    <row r="80" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="80" spans="1:15">
       <c r="A80" s="25" t="s">
         <v>916</v>
       </c>
@@ -15686,7 +15915,7 @@
       <c r="N80" s="23"/>
       <c r="O80" s="22"/>
     </row>
-    <row r="81" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="81" spans="1:15">
       <c r="A81" s="25"/>
       <c r="B81" s="26"/>
       <c r="C81" s="27" t="s">
@@ -15711,7 +15940,7 @@
       <c r="N81" s="23"/>
       <c r="O81" s="22"/>
     </row>
-    <row r="82" ht="23.1" customHeight="1" spans="1:15">
+    <row ht="75" r="82" spans="1:15">
       <c r="A82" s="25"/>
       <c r="B82" s="26"/>
       <c r="C82" s="27" t="s">
@@ -15723,7 +15952,7 @@
       <c r="E82" s="28" t="s">
         <v>921</v>
       </c>
-      <c r="F82" s="28" t="s">
+      <c r="F82" s="29" t="s">
         <v>922</v>
       </c>
       <c r="G82" s="28"/>
@@ -15736,7 +15965,7 @@
       <c r="N82" s="23"/>
       <c r="O82" s="22"/>
     </row>
-    <row r="83" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="83" spans="1:15">
       <c r="A83" s="25"/>
       <c r="B83" s="26"/>
       <c r="C83" s="27" t="s">
@@ -15761,7 +15990,7 @@
       <c r="N83" s="23"/>
       <c r="O83" s="22"/>
     </row>
-    <row r="84" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="84" spans="1:15">
       <c r="A84" s="25"/>
       <c r="B84" s="26"/>
       <c r="C84" s="27" t="s">
@@ -15786,7 +16015,7 @@
       <c r="N84" s="23"/>
       <c r="O84" s="22"/>
     </row>
-    <row r="85" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="85" spans="1:15">
       <c r="A85" s="25"/>
       <c r="B85" s="26"/>
       <c r="C85" s="27" t="s">
@@ -15811,7 +16040,7 @@
       <c r="N85" s="23"/>
       <c r="O85" s="22"/>
     </row>
-    <row r="86" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="86" spans="1:15">
       <c r="A86" s="25"/>
       <c r="B86" s="26"/>
       <c r="C86" s="27" t="s">
@@ -15836,7 +16065,7 @@
       <c r="N86" s="23"/>
       <c r="O86" s="22"/>
     </row>
-    <row r="87" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="87" spans="1:15">
       <c r="A87" s="25"/>
       <c r="B87" s="26"/>
       <c r="C87" s="27" t="s">
@@ -15859,7 +16088,7 @@
       <c r="N87" s="23"/>
       <c r="O87" s="22"/>
     </row>
-    <row r="88" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="88" spans="1:15">
       <c r="A88" s="25"/>
       <c r="B88" s="26"/>
       <c r="C88" s="27"/>
@@ -15876,7 +16105,7 @@
       <c r="N88" s="23"/>
       <c r="O88" s="22"/>
     </row>
-    <row r="89" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="89" spans="1:15">
       <c r="A89" s="25"/>
       <c r="B89" s="26"/>
       <c r="C89" s="27"/>
@@ -15893,7 +16122,7 @@
       <c r="N89" s="23"/>
       <c r="O89" s="22"/>
     </row>
-    <row r="90" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="90" spans="1:15">
       <c r="A90" s="25"/>
       <c r="B90" s="26"/>
       <c r="C90" s="27"/>
@@ -15911,7 +16140,7 @@
       <c r="O90" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -15919,70 +16148,70 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N88:N90">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N88,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N88,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N88,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N87">
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15 C16 C17 C18 C21 C22 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C65 C66 C67 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C5:C7 C8:C14 C19:C20 C23:C24 C25:C26 C27:C28 C63:C64 C68:C69 C80:C90">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C15 C16 C17 C18 C21 C22 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C65 C66 C67 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C5:C7 C8:C14 C19:C20 C23:C24 C25:C26 C27:C28 C63:C64 C68:C69 C80:C90" type="list">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D90">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D90" type="list">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:O150"/>
+  <dimension ref="A1:P150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.125" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.625" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.625" style="6" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="114.625" style="6" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="65.875" style="6" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="20" style="6" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="7" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="8" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="9" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="10" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="9" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="8" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="11" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="67.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="35.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="5" width="9.625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="6" width="29.625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="6" width="114.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="6" width="65.875" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="6" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="7" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="8" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="9" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="10" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="9" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="8" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="11" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15">
       <c r="A1" s="12" t="s">
         <v>602</v>
       </c>
@@ -16013,7 +16242,7 @@
       <c r="N1" s="14"/>
       <c r="O1" s="36"/>
     </row>
-    <row r="2" ht="99.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="99.95" r="2" spans="1:15">
       <c r="A2" s="15" t="s">
         <v>932</v>
       </c>
@@ -16034,7 +16263,7 @@
       <c r="N2" s="38"/>
       <c r="O2" s="38"/>
     </row>
-    <row r="3" ht="9.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="9.95" r="3" spans="1:15">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
@@ -16051,7 +16280,7 @@
       <c r="N3" s="23"/>
       <c r="O3" s="22"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="1" spans="1:15">
       <c r="A4" s="24" t="s">
         <v>611</v>
       </c>
@@ -16096,7 +16325,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="5" s="2" spans="1:15">
       <c r="A5" s="25" t="s">
         <v>933</v>
       </c>
@@ -16125,7 +16354,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="195" spans="1:15">
+    <row customFormat="1" ht="195" r="6" s="2" spans="1:15">
       <c r="A6" s="25"/>
       <c r="B6" s="26"/>
       <c r="C6" s="27" t="s">
@@ -16150,7 +16379,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="7" s="2" spans="1:15">
       <c r="A7" s="25" t="s">
         <v>938</v>
       </c>
@@ -16179,7 +16408,7 @@
       <c r="N7" s="23"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="8" s="2" spans="1:15">
       <c r="A8" s="25"/>
       <c r="B8" s="26"/>
       <c r="C8" s="27" t="s">
@@ -16204,7 +16433,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="22"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="9" s="2" spans="1:15">
       <c r="A9" s="25" t="s">
         <v>940</v>
       </c>
@@ -16233,7 +16462,7 @@
       <c r="N9" s="23"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="10" s="2" spans="1:15">
       <c r="A10" s="25"/>
       <c r="B10" s="26"/>
       <c r="C10" s="27" t="s">
@@ -16258,7 +16487,7 @@
       <c r="N10" s="23"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="11" s="2" spans="1:15">
       <c r="A11" s="25"/>
       <c r="B11" s="26"/>
       <c r="C11" s="27" t="s">
@@ -16283,7 +16512,7 @@
       <c r="N11" s="23"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="12" s="2" spans="1:15">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
         <v>945</v>
@@ -16310,7 +16539,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="135" spans="1:15">
+    <row customFormat="1" ht="135" r="13" s="2" spans="1:15">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
         <v>945</v>
@@ -16337,7 +16566,7 @@
       <c r="N13" s="23"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="14" s="2" spans="1:15">
       <c r="A14" s="25" t="s">
         <v>950</v>
       </c>
@@ -16366,7 +16595,7 @@
       <c r="N14" s="23"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="15" s="2" spans="1:15">
       <c r="A15" s="25"/>
       <c r="B15" s="26"/>
       <c r="C15" s="27" t="s">
@@ -16391,7 +16620,7 @@
       <c r="N15" s="23"/>
       <c r="O15" s="22"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="16" s="2" spans="1:15">
       <c r="A16" s="25"/>
       <c r="B16" s="26"/>
       <c r="C16" s="27" t="s">
@@ -16414,7 +16643,7 @@
       <c r="N16" s="23"/>
       <c r="O16" s="22"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="17" s="2" spans="1:15">
       <c r="A17" s="25" t="s">
         <v>652</v>
       </c>
@@ -16443,7 +16672,7 @@
       <c r="N17" s="23"/>
       <c r="O17" s="22"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="60" spans="1:15">
+    <row customFormat="1" ht="60" r="18" s="2" spans="1:15">
       <c r="A18" s="25"/>
       <c r="B18" s="26"/>
       <c r="C18" s="27" t="s">
@@ -16468,7 +16697,7 @@
       <c r="N18" s="23"/>
       <c r="O18" s="22"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="19" s="2" spans="1:15">
       <c r="A19" s="25" t="s">
         <v>957</v>
       </c>
@@ -16497,7 +16726,7 @@
       <c r="N19" s="23"/>
       <c r="O19" s="22"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="20" s="2" spans="1:15">
       <c r="A20" s="25"/>
       <c r="B20" s="26"/>
       <c r="C20" s="27" t="s">
@@ -16522,7 +16751,7 @@
       <c r="N20" s="23"/>
       <c r="O20" s="22"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="21" s="2" spans="1:15">
       <c r="A21" s="25"/>
       <c r="B21" s="26"/>
       <c r="C21" s="27" t="s">
@@ -16547,7 +16776,7 @@
       <c r="N21" s="23"/>
       <c r="O21" s="22"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="22" s="2" spans="1:15">
       <c r="A22" s="25"/>
       <c r="B22" s="26"/>
       <c r="C22" s="27" t="s">
@@ -16570,7 +16799,7 @@
       <c r="N22" s="23"/>
       <c r="O22" s="22"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="23" s="2" spans="1:15">
       <c r="A23" s="25" t="s">
         <v>963</v>
       </c>
@@ -16599,7 +16828,7 @@
       <c r="N23" s="23"/>
       <c r="O23" s="22"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="24" s="2" spans="1:15">
       <c r="A24" s="25"/>
       <c r="B24" s="26"/>
       <c r="C24" s="27" t="s">
@@ -16624,7 +16853,7 @@
       <c r="N24" s="23"/>
       <c r="O24" s="22"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="135" spans="1:15">
+    <row customFormat="1" ht="135" r="25" s="2" spans="1:15">
       <c r="A25" s="25"/>
       <c r="B25" s="26"/>
       <c r="C25" s="27" t="s">
@@ -16649,7 +16878,7 @@
       <c r="N25" s="23"/>
       <c r="O25" s="22"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="26" s="2" spans="1:15">
       <c r="A26" s="25" t="s">
         <v>969</v>
       </c>
@@ -16678,7 +16907,7 @@
       <c r="N26" s="23"/>
       <c r="O26" s="22"/>
     </row>
-    <row r="27" s="2" customFormat="1" ht="60" spans="1:15">
+    <row customFormat="1" ht="60" r="27" s="2" spans="1:15">
       <c r="A27" s="25"/>
       <c r="B27" s="26"/>
       <c r="C27" s="27" t="s">
@@ -16703,7 +16932,7 @@
       <c r="N27" s="23"/>
       <c r="O27" s="22"/>
     </row>
-    <row r="28" s="2" customFormat="1" ht="60" spans="1:15">
+    <row customFormat="1" ht="60" r="28" s="2" spans="1:15">
       <c r="A28" s="25"/>
       <c r="B28" s="26"/>
       <c r="C28" s="27" t="s">
@@ -16728,7 +16957,7 @@
       <c r="N28" s="23"/>
       <c r="O28" s="22"/>
     </row>
-    <row r="29" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="29" s="2" spans="1:15">
       <c r="A29" s="25" t="s">
         <v>974</v>
       </c>
@@ -16757,7 +16986,7 @@
       <c r="N29" s="23"/>
       <c r="O29" s="22"/>
     </row>
-    <row r="30" s="2" customFormat="1" ht="102" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="102" r="30" s="2" spans="1:15">
       <c r="A30" s="25"/>
       <c r="B30" s="26"/>
       <c r="C30" s="27" t="s">
@@ -16782,7 +17011,7 @@
       <c r="N30" s="23"/>
       <c r="O30" s="22"/>
     </row>
-    <row r="31" s="2" customFormat="1" ht="87" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="87" r="31" s="2" spans="1:15">
       <c r="A31" s="25"/>
       <c r="B31" s="26"/>
       <c r="C31" s="27" t="s">
@@ -16807,7 +17036,7 @@
       <c r="N31" s="23"/>
       <c r="O31" s="22"/>
     </row>
-    <row r="32" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="32" s="2" spans="1:15">
       <c r="A32" s="25" t="s">
         <v>981</v>
       </c>
@@ -16836,7 +17065,7 @@
       <c r="N32" s="23"/>
       <c r="O32" s="22"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="75" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="75" r="33" s="2" spans="1:15">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="27" t="s">
@@ -16861,7 +17090,7 @@
       <c r="N33" s="23"/>
       <c r="O33" s="22"/>
     </row>
-    <row r="34" s="2" customFormat="1" ht="30" spans="1:15">
+    <row customFormat="1" ht="30" r="34" s="2" spans="1:15">
       <c r="A34" s="25"/>
       <c r="B34" s="26"/>
       <c r="C34" s="27" t="s">
@@ -16886,7 +17115,7 @@
       <c r="N34" s="23"/>
       <c r="O34" s="22"/>
     </row>
-    <row r="35" s="2" customFormat="1" ht="75" spans="1:15">
+    <row customFormat="1" ht="75" r="35" s="2" spans="1:15">
       <c r="A35" s="25"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27" t="s">
@@ -16911,7 +17140,7 @@
       <c r="N35" s="23"/>
       <c r="O35" s="22"/>
     </row>
-    <row r="36" s="2" customFormat="1" ht="75" spans="1:15">
+    <row customFormat="1" ht="75" r="36" s="2" spans="1:15">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="27" t="s">
@@ -16936,7 +17165,7 @@
       <c r="N36" s="23"/>
       <c r="O36" s="22"/>
     </row>
-    <row r="37" s="2" customFormat="1" ht="75" spans="1:15">
+    <row customFormat="1" ht="75" r="37" s="2" spans="1:15">
       <c r="A37" s="25"/>
       <c r="B37" s="26"/>
       <c r="C37" s="27" t="s">
@@ -16961,7 +17190,7 @@
       <c r="N37" s="23"/>
       <c r="O37" s="22"/>
     </row>
-    <row r="38" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="38" s="2" spans="1:15">
       <c r="A38" s="31" t="s">
         <v>988</v>
       </c>
@@ -16990,7 +17219,7 @@
       <c r="N38" s="23"/>
       <c r="O38" s="22"/>
     </row>
-    <row r="39" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="39" s="2" spans="1:15">
       <c r="A39" s="25"/>
       <c r="B39" s="26"/>
       <c r="C39" s="27" t="s">
@@ -17015,7 +17244,7 @@
       <c r="N39" s="23"/>
       <c r="O39" s="22"/>
     </row>
-    <row r="40" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="40" s="2" spans="1:15">
       <c r="A40" s="25"/>
       <c r="B40" s="26"/>
       <c r="C40" s="27" t="s">
@@ -17040,7 +17269,7 @@
       <c r="N40" s="23"/>
       <c r="O40" s="22"/>
     </row>
-    <row r="41" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="41" s="2" spans="1:15">
       <c r="A41" s="25"/>
       <c r="B41" s="26"/>
       <c r="C41" s="27" t="s">
@@ -17065,7 +17294,7 @@
       <c r="N41" s="23"/>
       <c r="O41" s="22"/>
     </row>
-    <row r="42" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="42" s="2" spans="1:15">
       <c r="A42" s="25" t="s">
         <v>994</v>
       </c>
@@ -17094,7 +17323,7 @@
       <c r="N42" s="23"/>
       <c r="O42" s="22"/>
     </row>
-    <row r="43" s="2" customFormat="1" ht="165" spans="1:15">
+    <row customFormat="1" ht="165" r="43" s="2" spans="1:15">
       <c r="A43" s="25"/>
       <c r="B43" s="26"/>
       <c r="C43" s="27" t="s">
@@ -17119,7 +17348,7 @@
       <c r="N43" s="23"/>
       <c r="O43" s="22"/>
     </row>
-    <row r="44" s="2" customFormat="1" ht="105" spans="1:15">
+    <row customFormat="1" ht="105" r="44" s="2" spans="1:15">
       <c r="A44" s="25" t="s">
         <v>13</v>
       </c>
@@ -17148,7 +17377,7 @@
       <c r="N44" s="23"/>
       <c r="O44" s="22"/>
     </row>
-    <row r="45" s="2" customFormat="1" ht="409.5" spans="1:15">
+    <row customFormat="1" ht="409.5" r="45" s="2" spans="1:15">
       <c r="A45" s="25"/>
       <c r="B45" s="26"/>
       <c r="C45" s="27" t="s">
@@ -17173,7 +17402,7 @@
       <c r="N45" s="23"/>
       <c r="O45" s="22"/>
     </row>
-    <row r="46" s="2" customFormat="1" ht="409.5" spans="1:15">
+    <row customFormat="1" ht="409.5" r="46" s="2" spans="1:15">
       <c r="A46" s="25"/>
       <c r="B46" s="26"/>
       <c r="C46" s="27" t="s">
@@ -17198,7 +17427,7 @@
       <c r="N46" s="23"/>
       <c r="O46" s="22"/>
     </row>
-    <row r="47" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="47" s="2" spans="1:15">
       <c r="A47" s="25" t="s">
         <v>656</v>
       </c>
@@ -17227,7 +17456,7 @@
       <c r="N47" s="23"/>
       <c r="O47" s="22"/>
     </row>
-    <row r="48" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="48" s="2" spans="1:15">
       <c r="A48" s="25"/>
       <c r="B48" s="26"/>
       <c r="C48" s="27" t="s">
@@ -17252,7 +17481,7 @@
       <c r="N48" s="23"/>
       <c r="O48" s="22"/>
     </row>
-    <row r="49" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="49" s="2" spans="1:15">
       <c r="A49" s="25"/>
       <c r="B49" s="26"/>
       <c r="C49" s="27" t="s">
@@ -17277,7 +17506,7 @@
       <c r="N49" s="23"/>
       <c r="O49" s="22"/>
     </row>
-    <row r="50" s="2" customFormat="1" ht="75" spans="1:15">
+    <row customFormat="1" ht="75" r="50" s="2" spans="1:15">
       <c r="A50" s="25" t="s">
         <v>1005</v>
       </c>
@@ -17306,7 +17535,7 @@
       <c r="N50" s="23"/>
       <c r="O50" s="22"/>
     </row>
-    <row r="51" s="2" customFormat="1" ht="75" spans="1:15">
+    <row customFormat="1" ht="75" r="51" s="2" spans="1:15">
       <c r="A51" s="25"/>
       <c r="B51" s="26"/>
       <c r="C51" s="27" t="s">
@@ -17331,7 +17560,7 @@
       <c r="N51" s="23"/>
       <c r="O51" s="22"/>
     </row>
-    <row r="52" s="2" customFormat="1" ht="75" spans="1:15">
+    <row customFormat="1" ht="75" r="52" s="2" spans="1:15">
       <c r="A52" s="25"/>
       <c r="B52" s="26"/>
       <c r="C52" s="27" t="s">
@@ -17356,7 +17585,7 @@
       <c r="N52" s="23"/>
       <c r="O52" s="22"/>
     </row>
-    <row r="53" s="2" customFormat="1" ht="75" spans="1:15">
+    <row customFormat="1" ht="75" r="53" s="2" spans="1:15">
       <c r="A53" s="25"/>
       <c r="B53" s="26"/>
       <c r="C53" s="27" t="s">
@@ -17381,7 +17610,7 @@
       <c r="N53" s="23"/>
       <c r="O53" s="22"/>
     </row>
-    <row r="54" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="54" s="2" spans="1:15">
       <c r="A54" s="33"/>
       <c r="B54" s="34" t="s">
         <v>1014</v>
@@ -17408,7 +17637,7 @@
       <c r="N54" s="23"/>
       <c r="O54" s="22"/>
     </row>
-    <row r="55" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="55" s="2" spans="1:15">
       <c r="A55" s="25"/>
       <c r="B55" s="26"/>
       <c r="C55" s="27" t="s">
@@ -17433,7 +17662,7 @@
       <c r="N55" s="23"/>
       <c r="O55" s="22"/>
     </row>
-    <row r="56" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="56" s="2" spans="1:15">
       <c r="A56" s="25"/>
       <c r="B56" s="26"/>
       <c r="C56" s="27" t="s">
@@ -17458,7 +17687,7 @@
       <c r="N56" s="23"/>
       <c r="O56" s="22"/>
     </row>
-    <row r="57" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="57" s="2" spans="1:15">
       <c r="A57" s="25"/>
       <c r="B57" s="26"/>
       <c r="C57" s="27" t="s">
@@ -17483,7 +17712,7 @@
       <c r="N57" s="23"/>
       <c r="O57" s="22"/>
     </row>
-    <row r="58" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="58" s="2" spans="1:15">
       <c r="A58" s="25"/>
       <c r="B58" s="26" t="s">
         <v>1006</v>
@@ -17510,7 +17739,7 @@
       <c r="N58" s="23"/>
       <c r="O58" s="22"/>
     </row>
-    <row r="59" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="59" s="2" spans="1:15">
       <c r="A59" s="25"/>
       <c r="B59" s="26"/>
       <c r="C59" s="27" t="s">
@@ -17535,7 +17764,7 @@
       <c r="N59" s="23"/>
       <c r="O59" s="22"/>
     </row>
-    <row r="60" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="60" s="2" spans="1:15">
       <c r="A60" s="25"/>
       <c r="B60" s="26"/>
       <c r="C60" s="27" t="s">
@@ -17560,7 +17789,7 @@
       <c r="N60" s="23"/>
       <c r="O60" s="22"/>
     </row>
-    <row r="61" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="61" s="2" spans="1:15">
       <c r="A61" s="25"/>
       <c r="B61" s="26"/>
       <c r="C61" s="27" t="s">
@@ -17585,7 +17814,7 @@
       <c r="N61" s="23"/>
       <c r="O61" s="22"/>
     </row>
-    <row r="62" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="62" s="2" spans="1:15">
       <c r="A62" s="25"/>
       <c r="B62" s="26"/>
       <c r="C62" s="27" t="s">
@@ -17610,7 +17839,7 @@
       <c r="N62" s="23"/>
       <c r="O62" s="22"/>
     </row>
-    <row r="63" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="63" s="2" spans="1:15">
       <c r="A63" s="25"/>
       <c r="B63" s="26"/>
       <c r="C63" s="27" t="s">
@@ -17633,7 +17862,7 @@
       <c r="N63" s="23"/>
       <c r="O63" s="22"/>
     </row>
-    <row r="64" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="64" s="2" spans="1:15">
       <c r="A64" s="25"/>
       <c r="B64" s="26"/>
       <c r="C64" s="27" t="s">
@@ -17656,7 +17885,7 @@
       <c r="N64" s="23"/>
       <c r="O64" s="22"/>
     </row>
-    <row r="65" s="2" customFormat="1" ht="60" spans="1:15">
+    <row customFormat="1" ht="60" r="65" s="2" spans="1:15">
       <c r="A65" s="25"/>
       <c r="B65" s="26"/>
       <c r="C65" s="27" t="s">
@@ -17681,7 +17910,7 @@
       <c r="N65" s="23"/>
       <c r="O65" s="22"/>
     </row>
-    <row r="66" s="2" customFormat="1" ht="60" spans="1:15">
+    <row customFormat="1" ht="60" r="66" s="2" spans="1:15">
       <c r="A66" s="25"/>
       <c r="B66" s="26"/>
       <c r="C66" s="27" t="s">
@@ -17706,7 +17935,7 @@
       <c r="N66" s="23"/>
       <c r="O66" s="22"/>
     </row>
-    <row r="67" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="67" s="2" spans="1:15">
       <c r="A67" s="25"/>
       <c r="B67" s="26"/>
       <c r="C67" s="27" t="s">
@@ -17729,7 +17958,7 @@
       <c r="N67" s="23"/>
       <c r="O67" s="22"/>
     </row>
-    <row r="68" s="2" customFormat="1" ht="60" spans="1:15">
+    <row customFormat="1" ht="60" r="68" s="2" spans="1:15">
       <c r="A68" s="25"/>
       <c r="B68" s="26" t="s">
         <v>1033</v>
@@ -17756,7 +17985,7 @@
       <c r="N68" s="23"/>
       <c r="O68" s="22"/>
     </row>
-    <row r="69" s="2" customFormat="1" ht="75" spans="1:15">
+    <row customFormat="1" ht="75" r="69" s="2" spans="1:15">
       <c r="A69" s="25"/>
       <c r="B69" s="26"/>
       <c r="C69" s="27" t="s">
@@ -17781,7 +18010,7 @@
       <c r="N69" s="23"/>
       <c r="O69" s="22"/>
     </row>
-    <row r="70" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="70" s="2" spans="1:15">
       <c r="A70" s="25"/>
       <c r="B70" s="26"/>
       <c r="C70" s="27" t="s">
@@ -17804,7 +18033,7 @@
       <c r="N70" s="23"/>
       <c r="O70" s="22"/>
     </row>
-    <row r="71" s="2" customFormat="1" ht="60" spans="1:15">
+    <row customFormat="1" ht="60" r="71" s="2" spans="1:15">
       <c r="A71" s="25"/>
       <c r="B71" s="26"/>
       <c r="C71" s="27" t="s">
@@ -17829,7 +18058,7 @@
       <c r="N71" s="23"/>
       <c r="O71" s="22"/>
     </row>
-    <row r="72" s="2" customFormat="1" ht="60" spans="1:15">
+    <row customFormat="1" ht="60" r="72" s="2" spans="1:15">
       <c r="A72" s="25"/>
       <c r="B72" s="26"/>
       <c r="C72" s="27" t="s">
@@ -17854,7 +18083,7 @@
       <c r="N72" s="23"/>
       <c r="O72" s="22"/>
     </row>
-    <row r="73" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="73" s="2" spans="1:15">
       <c r="A73" s="25" t="s">
         <v>1041</v>
       </c>
@@ -17883,7 +18112,7 @@
       <c r="N73" s="23"/>
       <c r="O73" s="22"/>
     </row>
-    <row r="74" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="74" s="2" spans="1:15">
       <c r="A74" s="25"/>
       <c r="B74" s="26"/>
       <c r="C74" s="27" t="s">
@@ -17908,7 +18137,7 @@
       <c r="N74" s="23"/>
       <c r="O74" s="22"/>
     </row>
-    <row r="75" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="75" s="2" spans="1:15">
       <c r="A75" s="44" t="s">
         <v>1045</v>
       </c>
@@ -17937,7 +18166,7 @@
       <c r="N75" s="23"/>
       <c r="O75" s="22"/>
     </row>
-    <row r="76" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="76" s="2" spans="1:15">
       <c r="A76" s="25"/>
       <c r="B76" s="26"/>
       <c r="C76" s="27" t="s">
@@ -17962,7 +18191,7 @@
       <c r="N76" s="23"/>
       <c r="O76" s="22"/>
     </row>
-    <row r="77" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="77" s="2" spans="1:15">
       <c r="A77" s="25"/>
       <c r="B77" s="26"/>
       <c r="C77" s="27" t="s">
@@ -17987,7 +18216,7 @@
       <c r="N77" s="23"/>
       <c r="O77" s="22"/>
     </row>
-    <row r="78" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="78" s="2" spans="1:15">
       <c r="A78" s="25" t="s">
         <v>1051</v>
       </c>
@@ -18016,7 +18245,7 @@
       <c r="N78" s="23"/>
       <c r="O78" s="22"/>
     </row>
-    <row r="79" s="2" customFormat="1" ht="45" spans="1:15">
+    <row customFormat="1" ht="45" r="79" s="2" spans="1:15">
       <c r="A79" s="25"/>
       <c r="B79" s="26"/>
       <c r="C79" s="27" t="s">
@@ -18041,7 +18270,7 @@
       <c r="N79" s="23"/>
       <c r="O79" s="22"/>
     </row>
-    <row r="80" s="2" customFormat="1" ht="45" spans="1:15">
+    <row customFormat="1" ht="45" r="80" s="2" spans="1:15">
       <c r="A80" s="25"/>
       <c r="B80" s="26"/>
       <c r="C80" s="27" t="s">
@@ -18066,7 +18295,7 @@
       <c r="N80" s="23"/>
       <c r="O80" s="22"/>
     </row>
-    <row r="81" s="2" customFormat="1" ht="75" spans="1:15">
+    <row customFormat="1" ht="75" r="81" s="2" spans="1:15">
       <c r="A81" s="25"/>
       <c r="B81" s="26"/>
       <c r="C81" s="27" t="s">
@@ -18091,7 +18320,7 @@
       <c r="N81" s="23"/>
       <c r="O81" s="22"/>
     </row>
-    <row r="82" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="82" s="2" spans="1:15">
       <c r="A82" s="44" t="s">
         <v>1059</v>
       </c>
@@ -18120,7 +18349,7 @@
       <c r="N82" s="23"/>
       <c r="O82" s="22"/>
     </row>
-    <row r="83" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="83" s="2" spans="1:15">
       <c r="A83" s="25"/>
       <c r="B83" s="26"/>
       <c r="C83" s="27" t="s">
@@ -18145,7 +18374,7 @@
       <c r="N83" s="23"/>
       <c r="O83" s="22"/>
     </row>
-    <row r="84" s="2" customFormat="1" ht="150" spans="1:15">
+    <row customFormat="1" ht="150" r="84" s="2" spans="1:15">
       <c r="A84" s="25" t="s">
         <v>1063</v>
       </c>
@@ -18172,7 +18401,7 @@
       <c r="N84" s="23"/>
       <c r="O84" s="22"/>
     </row>
-    <row r="85" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="85" s="2" spans="1:15">
       <c r="A85" s="48" t="s">
         <v>1066</v>
       </c>
@@ -18199,7 +18428,7 @@
       <c r="N85" s="23"/>
       <c r="O85" s="22"/>
     </row>
-    <row r="86" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="86" s="2" spans="1:15">
       <c r="A86" s="25"/>
       <c r="B86" s="26" t="s">
         <v>1068</v>
@@ -18226,7 +18455,7 @@
       <c r="N86" s="23"/>
       <c r="O86" s="22"/>
     </row>
-    <row r="87" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="87" s="2" spans="1:15">
       <c r="A87" s="25"/>
       <c r="B87" s="26" t="s">
         <v>1071</v>
@@ -18253,7 +18482,7 @@
       <c r="N87" s="23"/>
       <c r="O87" s="22"/>
     </row>
-    <row r="88" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="88" s="2" spans="1:15">
       <c r="A88" s="25"/>
       <c r="B88" s="26" t="s">
         <v>1073</v>
@@ -18280,7 +18509,7 @@
       <c r="N88" s="23"/>
       <c r="O88" s="22"/>
     </row>
-    <row r="89" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="89" s="2" spans="1:15">
       <c r="A89" s="25"/>
       <c r="B89" s="26"/>
       <c r="C89" s="27" t="s">
@@ -18305,7 +18534,7 @@
       <c r="N89" s="23"/>
       <c r="O89" s="22"/>
     </row>
-    <row r="90" s="2" customFormat="1" ht="105" spans="1:15">
+    <row customFormat="1" ht="105" r="90" s="2" spans="1:15">
       <c r="A90" s="25" t="s">
         <v>1078</v>
       </c>
@@ -18334,7 +18563,7 @@
       <c r="N90" s="23"/>
       <c r="O90" s="22"/>
     </row>
-    <row r="91" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="91" s="2" spans="1:15">
       <c r="A91" s="25"/>
       <c r="B91" s="26" t="s">
         <v>1080</v>
@@ -18361,7 +18590,7 @@
       <c r="N91" s="23"/>
       <c r="O91" s="22"/>
     </row>
-    <row r="92" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="92" s="2" spans="1:15">
       <c r="A92" s="25"/>
       <c r="B92" s="26" t="s">
         <v>842</v>
@@ -18388,7 +18617,7 @@
       <c r="N92" s="23"/>
       <c r="O92" s="22"/>
     </row>
-    <row r="93" s="2" customFormat="1" ht="105" spans="1:15">
+    <row customFormat="1" ht="105" r="93" s="2" spans="1:15">
       <c r="A93" s="25"/>
       <c r="B93" s="26" t="s">
         <v>1084</v>
@@ -18415,7 +18644,7 @@
       <c r="N93" s="23"/>
       <c r="O93" s="22"/>
     </row>
-    <row r="94" s="2" customFormat="1" ht="105" spans="1:15">
+    <row customFormat="1" ht="105" r="94" s="2" spans="1:15">
       <c r="A94" s="25" t="s">
         <v>1086</v>
       </c>
@@ -18444,7 +18673,7 @@
       <c r="N94" s="23"/>
       <c r="O94" s="22"/>
     </row>
-    <row r="95" s="2" customFormat="1" ht="23.1" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="23.1" r="95" s="2" spans="1:15">
       <c r="A95" s="25"/>
       <c r="B95" s="26"/>
       <c r="C95" s="27" t="s">
@@ -18469,7 +18698,7 @@
       <c r="N95" s="23"/>
       <c r="O95" s="22"/>
     </row>
-    <row r="96" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="96" s="2" spans="1:15">
       <c r="A96" s="25" t="s">
         <v>1089</v>
       </c>
@@ -18498,7 +18727,7 @@
       <c r="N96" s="23"/>
       <c r="O96" s="22"/>
     </row>
-    <row r="97" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="97" s="2" spans="1:15">
       <c r="A97" s="25"/>
       <c r="B97" s="26"/>
       <c r="C97" s="27" t="s">
@@ -18523,7 +18752,7 @@
       <c r="N97" s="23"/>
       <c r="O97" s="22"/>
     </row>
-    <row r="98" s="2" customFormat="1" ht="105" spans="1:15">
+    <row customFormat="1" ht="105" r="98" s="2" spans="1:15">
       <c r="A98" s="25" t="s">
         <v>763</v>
       </c>
@@ -18552,7 +18781,7 @@
       <c r="N98" s="23"/>
       <c r="O98" s="22"/>
     </row>
-    <row r="99" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="99" s="2" spans="1:15">
       <c r="A99" s="25"/>
       <c r="B99" s="26"/>
       <c r="C99" s="27" t="s">
@@ -18577,7 +18806,7 @@
       <c r="N99" s="23"/>
       <c r="O99" s="22"/>
     </row>
-    <row r="100" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="100" s="2" spans="1:15">
       <c r="A100" s="25" t="s">
         <v>1094</v>
       </c>
@@ -18606,7 +18835,7 @@
       <c r="N100" s="23"/>
       <c r="O100" s="22"/>
     </row>
-    <row r="101" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="101" s="2" spans="1:15">
       <c r="A101" s="25"/>
       <c r="B101" s="26"/>
       <c r="C101" s="27" t="s">
@@ -18631,7 +18860,7 @@
       <c r="N101" s="23"/>
       <c r="O101" s="22"/>
     </row>
-    <row r="102" s="2" customFormat="1" ht="105" spans="1:15">
+    <row customFormat="1" ht="105" r="102" s="2" spans="1:15">
       <c r="A102" s="25" t="s">
         <v>1097</v>
       </c>
@@ -18660,7 +18889,7 @@
       <c r="N102" s="23"/>
       <c r="O102" s="22"/>
     </row>
-    <row r="103" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="103" s="2" spans="1:15">
       <c r="A103" s="25"/>
       <c r="B103" s="26"/>
       <c r="C103" s="27" t="s">
@@ -18685,7 +18914,7 @@
       <c r="N103" s="23"/>
       <c r="O103" s="22"/>
     </row>
-    <row r="104" s="2" customFormat="1" ht="30" spans="1:15">
+    <row customFormat="1" ht="30" r="104" s="2" spans="1:15">
       <c r="A104" s="25"/>
       <c r="B104" s="26"/>
       <c r="C104" s="27" t="s">
@@ -18710,7 +18939,7 @@
       <c r="N104" s="23"/>
       <c r="O104" s="22"/>
     </row>
-    <row r="105" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="105" s="2" spans="1:15">
       <c r="A105" s="25"/>
       <c r="B105" s="26" t="s">
         <v>1102</v>
@@ -18737,7 +18966,7 @@
       <c r="N105" s="23"/>
       <c r="O105" s="22"/>
     </row>
-    <row r="106" s="2" customFormat="1" ht="30" spans="1:15">
+    <row customFormat="1" ht="30" r="106" s="2" spans="1:15">
       <c r="A106" s="25"/>
       <c r="B106" s="26"/>
       <c r="C106" s="27" t="s">
@@ -18762,7 +18991,7 @@
       <c r="N106" s="23"/>
       <c r="O106" s="22"/>
     </row>
-    <row r="107" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="107" s="2" spans="1:15">
       <c r="A107" s="25"/>
       <c r="B107" s="26" t="s">
         <v>1105</v>
@@ -18789,7 +19018,7 @@
       <c r="N107" s="23"/>
       <c r="O107" s="22"/>
     </row>
-    <row r="108" s="2" customFormat="1" ht="30" spans="1:15">
+    <row customFormat="1" ht="30" r="108" s="2" spans="1:15">
       <c r="A108" s="25"/>
       <c r="B108" s="26"/>
       <c r="C108" s="27" t="s">
@@ -18814,7 +19043,7 @@
       <c r="N108" s="23"/>
       <c r="O108" s="22"/>
     </row>
-    <row r="109" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="109" s="2" spans="1:15">
       <c r="A109" s="25"/>
       <c r="B109" s="66" t="s">
         <v>1107</v>
@@ -18841,7 +19070,7 @@
       <c r="N109" s="23"/>
       <c r="O109" s="22"/>
     </row>
-    <row r="110" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="110" s="2" spans="1:15">
       <c r="A110" s="25"/>
       <c r="B110" s="66" t="s">
         <v>1109</v>
@@ -18868,7 +19097,7 @@
       <c r="N110" s="23"/>
       <c r="O110" s="22"/>
     </row>
-    <row r="111" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="111" s="2" spans="1:15">
       <c r="A111" s="25"/>
       <c r="B111" s="26" t="s">
         <v>1102</v>
@@ -18895,7 +19124,7 @@
       <c r="N111" s="23"/>
       <c r="O111" s="22"/>
     </row>
-    <row r="112" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="112" s="2" spans="1:15">
       <c r="A112" s="25" t="s">
         <v>914</v>
       </c>
@@ -18922,7 +19151,7 @@
       <c r="N112" s="23"/>
       <c r="O112" s="22"/>
     </row>
-    <row r="113" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="113" s="2" spans="1:15">
       <c r="A113" s="25"/>
       <c r="B113" s="26"/>
       <c r="C113" s="27" t="s">
@@ -18947,7 +19176,7 @@
       <c r="N113" s="23"/>
       <c r="O113" s="22"/>
     </row>
-    <row r="114" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="114" s="2" spans="1:15">
       <c r="A114" s="25" t="s">
         <v>1113</v>
       </c>
@@ -18976,7 +19205,7 @@
       <c r="N114" s="23"/>
       <c r="O114" s="22"/>
     </row>
-    <row r="115" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="115" s="2" spans="1:15">
       <c r="A115" s="25"/>
       <c r="B115" s="26"/>
       <c r="C115" s="27" t="s">
@@ -19001,7 +19230,7 @@
       <c r="N115" s="23"/>
       <c r="O115" s="22"/>
     </row>
-    <row r="116" s="2" customFormat="1" ht="105" spans="1:15">
+    <row customFormat="1" ht="105" r="116" s="2" spans="1:15">
       <c r="A116" s="25"/>
       <c r="B116" s="26" t="s">
         <v>1115</v>
@@ -19028,7 +19257,7 @@
       <c r="N116" s="23"/>
       <c r="O116" s="22"/>
     </row>
-    <row r="117" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="117" s="2" spans="1:15">
       <c r="A117" s="25" t="s">
         <v>1118</v>
       </c>
@@ -19057,7 +19286,7 @@
       <c r="N117" s="23"/>
       <c r="O117" s="22"/>
     </row>
-    <row r="118" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="118" s="2" spans="1:15">
       <c r="A118" s="25"/>
       <c r="B118" s="26"/>
       <c r="C118" s="27" t="s">
@@ -19082,7 +19311,7 @@
       <c r="N118" s="23"/>
       <c r="O118" s="22"/>
     </row>
-    <row r="119" s="2" customFormat="1" ht="105" spans="1:15">
+    <row customFormat="1" ht="105" r="119" s="2" spans="1:15">
       <c r="A119" s="25"/>
       <c r="B119" s="26" t="s">
         <v>1115</v>
@@ -19109,7 +19338,7 @@
       <c r="N119" s="23"/>
       <c r="O119" s="22"/>
     </row>
-    <row r="120" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="120" s="2" spans="1:15">
       <c r="A120" s="25" t="s">
         <v>1123</v>
       </c>
@@ -19138,7 +19367,7 @@
       <c r="N120" s="23"/>
       <c r="O120" s="22"/>
     </row>
-    <row r="121" s="2" customFormat="1" ht="75" spans="1:15">
+    <row customFormat="1" ht="75" r="121" s="2" spans="1:15">
       <c r="A121" s="25"/>
       <c r="B121" s="26"/>
       <c r="C121" s="27" t="s">
@@ -19163,7 +19392,7 @@
       <c r="N121" s="23"/>
       <c r="O121" s="22"/>
     </row>
-    <row r="122" s="2" customFormat="1" ht="60" spans="1:15">
+    <row customFormat="1" ht="60" r="122" s="2" spans="1:15">
       <c r="A122" s="25"/>
       <c r="B122" s="26"/>
       <c r="C122" s="27" t="s">
@@ -19188,7 +19417,7 @@
       <c r="N122" s="23"/>
       <c r="O122" s="22"/>
     </row>
-    <row r="123" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="123" s="2" spans="1:15">
       <c r="A123" s="25" t="s">
         <v>1128</v>
       </c>
@@ -19217,7 +19446,7 @@
       <c r="N123" s="23"/>
       <c r="O123" s="22"/>
     </row>
-    <row r="124" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="124" s="2" spans="1:15">
       <c r="A124" s="25"/>
       <c r="B124" s="26"/>
       <c r="C124" s="27" t="s">
@@ -19242,7 +19471,7 @@
       <c r="N124" s="23"/>
       <c r="O124" s="22"/>
     </row>
-    <row r="125" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="125" s="2" spans="1:15">
       <c r="A125" s="25"/>
       <c r="B125" s="26" t="s">
         <v>1133</v>
@@ -19269,7 +19498,7 @@
       <c r="N125" s="23"/>
       <c r="O125" s="22"/>
     </row>
-    <row r="126" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="126" s="2" spans="1:15">
       <c r="A126" s="25"/>
       <c r="B126" s="26"/>
       <c r="C126" s="27" t="s">
@@ -19294,7 +19523,7 @@
       <c r="N126" s="23"/>
       <c r="O126" s="22"/>
     </row>
-    <row r="127" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="127" s="2" spans="1:15">
       <c r="A127" s="25"/>
       <c r="B127" s="26" t="s">
         <v>1137</v>
@@ -19321,7 +19550,7 @@
       <c r="N127" s="23"/>
       <c r="O127" s="22"/>
     </row>
-    <row r="128" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="128" s="2" spans="1:15">
       <c r="A128" s="25"/>
       <c r="B128" s="26"/>
       <c r="C128" s="27" t="s">
@@ -19346,7 +19575,7 @@
       <c r="N128" s="23"/>
       <c r="O128" s="22"/>
     </row>
-    <row r="129" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="129" s="2" spans="1:15">
       <c r="A129" s="25"/>
       <c r="B129" s="26" t="s">
         <v>1141</v>
@@ -19373,7 +19602,7 @@
       <c r="N129" s="23"/>
       <c r="O129" s="22"/>
     </row>
-    <row r="130" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="130" s="2" spans="1:15">
       <c r="A130" s="25"/>
       <c r="B130" s="26"/>
       <c r="C130" s="27" t="s">
@@ -19398,7 +19627,7 @@
       <c r="N130" s="23"/>
       <c r="O130" s="22"/>
     </row>
-    <row r="131" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="131" s="2" spans="1:15">
       <c r="A131" s="25"/>
       <c r="B131" s="26"/>
       <c r="C131" s="27" t="s">
@@ -19423,7 +19652,7 @@
       <c r="N131" s="23"/>
       <c r="O131" s="22"/>
     </row>
-    <row r="132" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="132" s="2" spans="1:15">
       <c r="A132" s="25" t="s">
         <v>771</v>
       </c>
@@ -19452,7 +19681,7 @@
       <c r="N132" s="23"/>
       <c r="O132" s="22"/>
     </row>
-    <row r="133" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="133" s="2" spans="1:15">
       <c r="A133" s="25"/>
       <c r="B133" s="26"/>
       <c r="C133" s="27" t="s">
@@ -19477,7 +19706,7 @@
       <c r="N133" s="23"/>
       <c r="O133" s="22"/>
     </row>
-    <row r="134" s="2" customFormat="1" ht="90" spans="1:15">
+    <row customFormat="1" ht="90" r="134" s="2" spans="1:15">
       <c r="A134" s="25" t="s">
         <v>1149</v>
       </c>
@@ -19506,7 +19735,7 @@
       <c r="N134" s="23"/>
       <c r="O134" s="22"/>
     </row>
-    <row r="135" s="2" customFormat="1" ht="60" spans="1:15">
+    <row customFormat="1" ht="60" r="135" s="2" spans="1:15">
       <c r="A135" s="25"/>
       <c r="B135" s="26"/>
       <c r="C135" s="27" t="s">
@@ -19531,7 +19760,7 @@
       <c r="N135" s="23"/>
       <c r="O135" s="22"/>
     </row>
-    <row r="136" s="2" customFormat="1" ht="60" spans="1:15">
+    <row customFormat="1" ht="60" r="136" s="2" spans="1:15">
       <c r="A136" s="25"/>
       <c r="B136" s="26"/>
       <c r="C136" s="27" t="s">
@@ -19556,7 +19785,7 @@
       <c r="N136" s="23"/>
       <c r="O136" s="22"/>
     </row>
-    <row r="137" s="2" customFormat="1" ht="409.5" spans="1:15">
+    <row customFormat="1" ht="409.5" r="137" s="2" spans="1:15">
       <c r="A137" s="25" t="s">
         <v>1155</v>
       </c>
@@ -19585,7 +19814,7 @@
       <c r="N137" s="23"/>
       <c r="O137" s="22"/>
     </row>
-    <row r="138" s="2" customFormat="1" ht="409.5" spans="1:15">
+    <row customFormat="1" ht="409.5" r="138" s="2" spans="1:15">
       <c r="A138" s="25"/>
       <c r="B138" s="26"/>
       <c r="C138" s="27" t="s">
@@ -19610,7 +19839,7 @@
       <c r="N138" s="23"/>
       <c r="O138" s="22"/>
     </row>
-    <row r="139" s="2" customFormat="1" ht="408" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="408" r="139" s="2" spans="1:15">
       <c r="A139" s="25"/>
       <c r="B139" s="26"/>
       <c r="C139" s="27" t="s">
@@ -19635,7 +19864,7 @@
       <c r="N139" s="23"/>
       <c r="O139" s="22"/>
     </row>
-    <row r="140" s="2" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="140" s="2" spans="1:15">
       <c r="A140" s="25"/>
       <c r="B140" s="26"/>
       <c r="C140" s="27"/>
@@ -19652,7 +19881,7 @@
       <c r="N140" s="23"/>
       <c r="O140" s="22"/>
     </row>
-    <row r="141" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="141" spans="1:15">
       <c r="A141" s="25"/>
       <c r="B141" s="26"/>
       <c r="C141" s="27"/>
@@ -19669,7 +19898,7 @@
       <c r="N141" s="23"/>
       <c r="O141" s="22"/>
     </row>
-    <row r="142" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="142" spans="1:15">
       <c r="A142" s="25"/>
       <c r="B142" s="26"/>
       <c r="C142" s="27"/>
@@ -19686,7 +19915,7 @@
       <c r="N142" s="23"/>
       <c r="O142" s="22"/>
     </row>
-    <row r="143" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="143" spans="1:15">
       <c r="A143" s="25"/>
       <c r="B143" s="26"/>
       <c r="C143" s="27"/>
@@ -19703,7 +19932,7 @@
       <c r="N143" s="23"/>
       <c r="O143" s="22"/>
     </row>
-    <row r="144" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="144" spans="1:15">
       <c r="A144" s="25"/>
       <c r="B144" s="26"/>
       <c r="C144" s="27"/>
@@ -19720,7 +19949,7 @@
       <c r="N144" s="23"/>
       <c r="O144" s="22"/>
     </row>
-    <row r="145" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="145" spans="1:15">
       <c r="A145" s="25"/>
       <c r="B145" s="26"/>
       <c r="C145" s="27"/>
@@ -19737,7 +19966,7 @@
       <c r="N145" s="23"/>
       <c r="O145" s="22"/>
     </row>
-    <row r="146" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="146" spans="1:15">
       <c r="A146" s="25"/>
       <c r="B146" s="26"/>
       <c r="C146" s="27"/>
@@ -19754,7 +19983,7 @@
       <c r="N146" s="23"/>
       <c r="O146" s="22"/>
     </row>
-    <row r="147" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="147" spans="1:15">
       <c r="A147" s="25"/>
       <c r="B147" s="26"/>
       <c r="C147" s="27"/>
@@ -19771,7 +20000,7 @@
       <c r="N147" s="23"/>
       <c r="O147" s="22"/>
     </row>
-    <row r="148" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="148" spans="1:15">
       <c r="A148" s="19"/>
       <c r="B148" s="20"/>
       <c r="C148" s="27"/>
@@ -19788,7 +20017,7 @@
       <c r="N148" s="23"/>
       <c r="O148" s="22"/>
     </row>
-    <row r="149" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="149" spans="1:15">
       <c r="A149" s="19"/>
       <c r="B149" s="20"/>
       <c r="C149" s="52"/>
@@ -19805,7 +20034,7 @@
       <c r="N149" s="23"/>
       <c r="O149" s="22"/>
     </row>
-    <row r="150" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="150" spans="1:15">
       <c r="A150" s="19"/>
       <c r="B150" s="20"/>
       <c r="C150" s="52"/>
@@ -19823,7 +20052,7 @@
       <c r="O150" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -19831,54 +20060,54 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1">
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="10" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N150">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N3,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D73:D150">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D73:D150" type="list">
       <formula1>INDIRECT(C74)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D72">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D72" type="list">
       <formula1>INDIRECT(C78)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D70">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D70" type="list">
       <formula1>INDIRECT(C78)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D65 D5:D62">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D65 D5:D62" type="list">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D69">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D69" type="list">
       <formula1>INDIRECT(C78)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D71">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D71" type="list">
       <formula1>INDIRECT(C78)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C150">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C150" type="list">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D63:D64 D66:D68">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D63:D64 D66:D68" type="list">
       <formula1>INDIRECT(C73)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions1.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions1.xlsx
@@ -32,12 +32,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3382" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4592" uniqueCount="1131">
   <si>
     <t>target</t>
   </si>
@@ -6750,13 +6750,25 @@
   <si>
     <t>removeColumns(namesOrIndices)</t>
   </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="56">
+  <fonts count="90">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7115,8 +7127,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="52">
+  <fills count="100">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7133,6 +7359,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -7451,7 +7949,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="136">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -7728,55 +8226,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="41" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="42" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="47" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="58" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="59" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="66" fontId="62" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="65" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="66" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="78" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="90" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="93" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8433,7 +9033,7 @@
         <v>46</v>
       </c>
       <c r="Q2" t="s">
-        <v>47</v>
+        <v>1128</v>
       </c>
       <c r="R2" t="s">
         <v>48</v>
@@ -8527,6 +9127,9 @@
       <c r="P3" t="s">
         <v>76</v>
       </c>
+      <c r="Q3" t="s">
+        <v>1129</v>
+      </c>
       <c r="R3" t="s">
         <v>77</v>
       </c>
@@ -8613,6 +9216,9 @@
       <c r="P4" t="s">
         <v>103</v>
       </c>
+      <c r="Q4" t="s">
+        <v>1130</v>
+      </c>
       <c r="R4" t="s">
         <v>104</v>
       </c>
@@ -8824,7 +9430,7 @@
         <v>166</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>1127</v>
       </c>
       <c r="N7" t="s">
         <v>42</v>
@@ -8886,7 +9492,7 @@
         <v>183</v>
       </c>
       <c r="L8" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="N8" t="s">
         <v>185</v>
@@ -8945,7 +9551,7 @@
         <v>201</v>
       </c>
       <c r="L9" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="N9" t="s">
         <v>203</v>
@@ -8995,7 +9601,7 @@
         <v>215</v>
       </c>
       <c r="L10" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="N10" t="s">
         <v>217</v>
@@ -9039,7 +9645,7 @@
         <v>228</v>
       </c>
       <c r="L11" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="N11" t="s">
         <v>230</v>
@@ -9077,7 +9683,7 @@
         <v>239</v>
       </c>
       <c r="L12" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="N12" t="s">
         <v>241</v>
@@ -9115,7 +9721,7 @@
         <v>249</v>
       </c>
       <c r="L13" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="N13" t="s">
         <v>251</v>
@@ -9153,7 +9759,7 @@
         <v>260</v>
       </c>
       <c r="L14" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="N14" t="s">
         <v>262</v>
@@ -9188,7 +9794,7 @@
         <v>270</v>
       </c>
       <c r="L15" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="N15" t="s">
         <v>272</v>
@@ -9223,7 +9829,7 @@
         <v>280</v>
       </c>
       <c r="L16" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="N16" t="s">
         <v>282</v>
@@ -9255,7 +9861,7 @@
         <v>289</v>
       </c>
       <c r="L17" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="N17" t="s">
         <v>291</v>
@@ -9284,7 +9890,7 @@
         <v>297</v>
       </c>
       <c r="L18" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="N18" t="s">
         <v>299</v>
@@ -9310,7 +9916,7 @@
         <v>304</v>
       </c>
       <c r="L19" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AA19" t="s">
         <v>306</v>
@@ -9330,7 +9936,7 @@
         <v>309</v>
       </c>
       <c r="L20" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AA20" t="s">
         <v>311</v>
@@ -9350,7 +9956,7 @@
         <v>314</v>
       </c>
       <c r="L21" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AA21" t="s">
         <v>316</v>
@@ -9370,7 +9976,7 @@
         <v>319</v>
       </c>
       <c r="L22" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AA22" t="s">
         <v>321</v>
@@ -9390,7 +9996,7 @@
         <v>324</v>
       </c>
       <c r="L23" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AA23" t="s">
         <v>326</v>
@@ -9410,7 +10016,7 @@
         <v>329</v>
       </c>
       <c r="L24" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AA24" t="s">
         <v>331</v>
@@ -9430,7 +10036,7 @@
         <v>334</v>
       </c>
       <c r="L25" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AA25" t="s">
         <v>336</v>
@@ -9450,7 +10056,7 @@
         <v>339</v>
       </c>
       <c r="L26" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AA26" t="s">
         <v>341</v>
@@ -9470,7 +10076,7 @@
         <v>344</v>
       </c>
       <c r="L27" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AA27" t="s">
         <v>346</v>
@@ -9490,7 +10096,7 @@
         <v>349</v>
       </c>
       <c r="L28" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="AA28" t="s">
         <v>351</v>
@@ -9507,7 +10113,7 @@
         <v>353</v>
       </c>
       <c r="L29" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AA29" t="s">
         <v>355</v>
@@ -9524,7 +10130,7 @@
         <v>357</v>
       </c>
       <c r="L30" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AA30" t="s">
         <v>359</v>
@@ -9541,7 +10147,7 @@
         <v>361</v>
       </c>
       <c r="L31" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AA31" t="s">
         <v>363</v>
@@ -9556,6 +10162,9 @@
       </c>
       <c r="H32" t="s">
         <v>365</v>
+      </c>
+      <c r="L32" t="s">
+        <v>362</v>
       </c>
       <c r="AA32" t="s">
         <v>366</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions1.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions1.xlsx
@@ -37,12 +37,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4592" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5201" uniqueCount="1137">
   <si>
     <t>target</t>
   </si>
@@ -6762,13 +6762,31 @@
   <si>
     <t>send(profile,var)</t>
   </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="90">
+  <fonts count="107">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7341,8 +7359,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="100">
+  <fills count="124">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7359,6 +7484,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -7949,7 +8210,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="153">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -8328,55 +8589,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="78" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="78" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="75" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="76" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="90" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="79" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="93" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="87" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9033,7 +9345,7 @@
         <v>46</v>
       </c>
       <c r="Q2" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="R2" t="s">
         <v>48</v>
@@ -9128,7 +9440,7 @@
         <v>76</v>
       </c>
       <c r="Q3" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="R3" t="s">
         <v>77</v>
@@ -9217,7 +9529,7 @@
         <v>103</v>
       </c>
       <c r="Q4" t="s">
-        <v>1130</v>
+        <v>47</v>
       </c>
       <c r="R4" t="s">
         <v>104</v>
@@ -9299,6 +9611,9 @@
       <c r="O5" t="s">
         <v>127</v>
       </c>
+      <c r="Q5" t="s">
+        <v>1133</v>
+      </c>
       <c r="R5" t="s">
         <v>128</v>
       </c>
@@ -9733,7 +10048,7 @@
         <v>253</v>
       </c>
       <c r="S13" t="s">
-        <v>254</v>
+        <v>1134</v>
       </c>
       <c r="AA13" t="s">
         <v>255</v>
@@ -9768,7 +10083,7 @@
         <v>263</v>
       </c>
       <c r="S14" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="AA14" t="s">
         <v>265</v>
@@ -9803,7 +10118,7 @@
         <v>273</v>
       </c>
       <c r="S15" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="AA15" t="s">
         <v>275</v>
@@ -9838,7 +10153,7 @@
         <v>283</v>
       </c>
       <c r="S16" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="AA16" t="s">
         <v>285</v>
@@ -9867,7 +10182,7 @@
         <v>291</v>
       </c>
       <c r="S17" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AA17" t="s">
         <v>293</v>
@@ -9896,7 +10211,7 @@
         <v>299</v>
       </c>
       <c r="S18" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AA18" t="s">
         <v>301</v>
@@ -9918,6 +10233,9 @@
       <c r="L19" t="s">
         <v>298</v>
       </c>
+      <c r="S19" t="s">
+        <v>1135</v>
+      </c>
       <c r="AA19" t="s">
         <v>306</v>
       </c>
@@ -9938,6 +10256,9 @@
       <c r="L20" t="s">
         <v>305</v>
       </c>
+      <c r="S20" t="s">
+        <v>300</v>
+      </c>
       <c r="AA20" t="s">
         <v>311</v>
       </c>
@@ -9957,6 +10278,9 @@
       </c>
       <c r="L21" t="s">
         <v>310</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1136</v>
       </c>
       <c r="AA21" t="s">
         <v>316</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions1.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions1.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{49DA7219-EF34-41D3-A86B-746E09019438}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119EBFC7-DC3E-47B3-BE1A-8405FB98EC2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15990" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
-    <sheet name="TEXT" r:id="rId2" sheetId="5"/>
-    <sheet name="LIST" r:id="rId3" sheetId="6"/>
-    <sheet name="CSV" r:id="rId4" sheetId="2"/>
+    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
+    <sheet name="TEXT" sheetId="5" r:id="rId2"/>
+    <sheet name="LIST" sheetId="6" r:id="rId3"/>
+    <sheet name="CSV" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">CSV!$A$4:$J$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">CSV!$A$4:$J$141</definedName>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -61,11 +61,12 @@
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5201" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="1147">
   <si>
     <t>target</t>
   </si>
@@ -4761,9 +4762,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">removeColumns(namesOrIndices) </t>
-  </si>
-  <si>
     <t>SSN,Name,Position,Age
 123456789,James,Accountant,41
 234567890,Jim,Educator,42
@@ -6754,15 +6752,6 @@
     <t>checksum(var,file)</t>
   </si>
   <si>
-    <t>clearMail(var)</t>
-  </si>
-  <si>
-    <t>composeMail(var,action,value)</t>
-  </si>
-  <si>
-    <t>send(profile,var)</t>
-  </si>
-  <si>
     <t>clearComposed(var)</t>
   </si>
   <si>
@@ -6779,14 +6768,106 @@
   </si>
   <si>
     <t>split(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>replaceColumnRegex then tranpose</t>
+  </si>
+  <si>
+    <t>[EXCEL($(syspath|data|fullpath)/unitTest_expression_csv02.xlsx) =&gt;
+ read(unitTest_expressions1,A11:G32) pack csv
+ store(myCsv) size
+]</t>
+  </si>
+  <si>
+    <t>row-count</t>
+  </si>
+  <si>
+    <t>${row-count}</t>
+  </si>
+  <si>
+    <t>assert 19 rows read and converted</t>
+  </si>
+  <si>
+    <t>read excel to csv (without header)</t>
+  </si>
+  <si>
+    <t>write back to excel</t>
+  </si>
+  <si>
+    <t>[CSV(myCsv) =&gt; excel($(syspath|out|fullpath)/unitTest_expressions1.CSV.xlsx,CSV,B17)]</t>
+  </si>
+  <si>
+    <t>assert data being the same between CSV and Excel</t>
+  </si>
+  <si>
+    <t>[CSV(myCsv) =&gt; text]</t>
+  </si>
+  <si>
+    <t>Replace column data then transpose.
+But replace EMPTY string with the string (empty) is not easy. We need to replace EMPTY with (empty_TEMP_ and then _TEMP_ with ) to avoid Nexial's auto translation of (empty) to ""</t>
+  </si>
+  <si>
+    <r>
+      <t>[CSV(myCsv) =&gt; 
+ replaceColumnRegex(,\(empty</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_TEMP_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,*) 
+ replaceColumnRegex(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_TEMP_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,\),*)
+ transpose 
+ store(myCsv)
+]</t>
+    </r>
+  </si>
+  <si>
+    <t>[EXCEL($(syspath|out|fullpath)/unitTest_expressions1.CSV.xlsx) =&gt; 
+ read(CSV,B17:T50) pack text
+]</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/unitTest_expressions1.CSV.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="107">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6932,542 +7013,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="6E6E3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="6E6E3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="6E6E3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="6E6E3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="3E511F"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="287389"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="6E6E3C"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="5A5A32"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="11.0"/>
-      <color rgb="12284A"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Consolas"/>
-      <sz val="10.0"/>
-      <color rgb="0000FF"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="050505"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="006100"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="10.0"/>
-      <color rgb="9C0006"/>
-      <b val="true"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Tahoma"/>
-      <sz val="11.0"/>
-      <color rgb="808080"/>
-      <u val="none"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="124">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7484,686 +7049,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6EFD7"/>
-        <bgColor rgb="E6EFD7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="DCE1E6"/>
-        <bgColor rgb="DCE1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="F0F0E1"/>
-        <bgColor rgb="F0F0E1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
-        <bgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="ECECE8"/>
-        <bgColor rgb="ECECE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FAFAFA"/>
-        <bgColor rgb="FAFAFA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="E6E6E6"/>
-        <bgColor rgb="E6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
-        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -8207,526 +7092,261 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="73">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="15" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" quotePrefix="1" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="6" fontId="22" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="24" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="25" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="28" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="30" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="31" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="32" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="35" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="36" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="37" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="38" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="39" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="41" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="42" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="43" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="45" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="47" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="48" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="36" fontId="49" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="52" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="51" fontId="53" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="39" fontId="54" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="48" fontId="55" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="56" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="58" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="59" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="60" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="66" fontId="62" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="63" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="64" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="65" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="60" fontId="66" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="69" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="75" fontId="70" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="63" fontId="71" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="72" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="78" fontId="73" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="75" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="76" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="77" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="90" fontId="79" numFmtId="0" xfId="0">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="81" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="82" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="83" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="86" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="87" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="87" fontId="88" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="89" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="102" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="105" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="114" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment indent="1" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="117" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="120" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -8908,7 +7528,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -8933,10 +7553,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -9100,21 +7720,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -9131,7 +7751,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -9185,19 +7805,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF151"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
+    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9295,7 +7915,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9324,7 +7944,7 @@
         <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="K2" t="s">
         <v>41</v>
@@ -9345,7 +7965,7 @@
         <v>46</v>
       </c>
       <c r="Q2" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="R2" t="s">
         <v>48</v>
@@ -9393,7 +8013,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9440,7 +8060,7 @@
         <v>76</v>
       </c>
       <c r="Q3" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="R3" t="s">
         <v>77</v>
@@ -9485,7 +8105,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9574,7 +8194,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9612,7 +8232,7 @@
         <v>127</v>
       </c>
       <c r="Q5" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="R5" t="s">
         <v>128</v>
@@ -9651,7 +8271,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9722,7 +8342,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9745,7 +8365,7 @@
         <v>166</v>
       </c>
       <c r="L7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="N7" t="s">
         <v>42</v>
@@ -9787,7 +8407,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9849,7 +8469,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9902,7 +8522,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -9946,12 +8566,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H11" t="s">
         <v>227</v>
@@ -9984,7 +8604,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -10022,7 +8642,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -10048,7 +8668,7 @@
         <v>253</v>
       </c>
       <c r="S13" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="AA13" t="s">
         <v>255</v>
@@ -10060,7 +8680,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -10095,7 +8715,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -10130,7 +8750,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -10165,7 +8785,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -10194,7 +8814,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -10220,7 +8840,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -10234,7 +8854,7 @@
         <v>298</v>
       </c>
       <c r="S19" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="AA19" t="s">
         <v>306</v>
@@ -10243,7 +8863,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -10266,7 +8886,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -10280,7 +8900,7 @@
         <v>310</v>
       </c>
       <c r="S21" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="AA21" t="s">
         <v>316</v>
@@ -10289,7 +8909,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -10309,7 +8929,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -10329,7 +8949,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -10349,7 +8969,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -10369,7 +8989,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -10389,7 +9009,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -10409,7 +9029,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -10426,7 +9046,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:32">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -10443,7 +9063,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -10460,7 +9080,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:32">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -10477,7 +9097,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:32">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -10494,7 +9114,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="6:27">
       <c r="F33" t="s">
         <v>364</v>
       </c>
@@ -10505,7 +9125,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="6:27">
       <c r="F34" t="s">
         <v>367</v>
       </c>
@@ -10516,7 +9136,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="6:27">
       <c r="F35" t="s">
         <v>370</v>
       </c>
@@ -10527,7 +9147,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="6:27">
       <c r="F36" t="s">
         <v>373</v>
       </c>
@@ -10538,7 +9158,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="6:27">
       <c r="F37" t="s">
         <v>376</v>
       </c>
@@ -10549,7 +9169,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="6:27">
       <c r="F38" t="s">
         <v>379</v>
       </c>
@@ -10560,7 +9180,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="6:27">
       <c r="F39" t="s">
         <v>382</v>
       </c>
@@ -10571,7 +9191,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="6:27">
       <c r="F40" t="s">
         <v>385</v>
       </c>
@@ -10582,7 +9202,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="6:27">
       <c r="F41" t="s">
         <v>388</v>
       </c>
@@ -10593,7 +9213,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="6:27">
       <c r="F42" t="s">
         <v>391</v>
       </c>
@@ -10604,7 +9224,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="6:27">
       <c r="F43" t="s">
         <v>394</v>
       </c>
@@ -10615,7 +9235,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="6:27">
       <c r="F44" t="s">
         <v>397</v>
       </c>
@@ -10626,7 +9246,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="6:27">
       <c r="F45" t="s">
         <v>400</v>
       </c>
@@ -10637,7 +9257,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="6:27">
       <c r="H46" t="s">
         <v>405</v>
       </c>
@@ -10645,7 +9265,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="6:27">
       <c r="H47" t="s">
         <v>407</v>
       </c>
@@ -10653,7 +9273,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="6:27">
       <c r="H48" t="s">
         <v>409</v>
       </c>
@@ -10661,7 +9281,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="8:27">
       <c r="H49" t="s">
         <v>411</v>
       </c>
@@ -10669,7 +9289,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="8:27">
       <c r="H50" t="s">
         <v>413</v>
       </c>
@@ -10677,7 +9297,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="8:27">
       <c r="H51" t="s">
         <v>415</v>
       </c>
@@ -10685,7 +9305,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="8:27">
       <c r="H52" t="s">
         <v>417</v>
       </c>
@@ -10693,7 +9313,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="8:27">
       <c r="H53" t="s">
         <v>419</v>
       </c>
@@ -10701,7 +9321,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="8:27">
       <c r="H54" t="s">
         <v>421</v>
       </c>
@@ -10709,7 +9329,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="8:27">
       <c r="H55" t="s">
         <v>423</v>
       </c>
@@ -10717,7 +9337,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="8:27">
       <c r="H56" t="s">
         <v>425</v>
       </c>
@@ -10725,7 +9345,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="8:27">
       <c r="H57" t="s">
         <v>427</v>
       </c>
@@ -10733,7 +9353,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="8:27">
       <c r="H58" t="s">
         <v>429</v>
       </c>
@@ -10741,7 +9361,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="8:27">
       <c r="H59" t="s">
         <v>431</v>
       </c>
@@ -10749,7 +9369,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="8:27">
       <c r="H60" t="s">
         <v>433</v>
       </c>
@@ -10757,7 +9377,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="8:27">
       <c r="H61" t="s">
         <v>435</v>
       </c>
@@ -10765,7 +9385,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="8:27">
       <c r="H62" t="s">
         <v>437</v>
       </c>
@@ -10773,7 +9393,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="8:27">
       <c r="H63" t="s">
         <v>439</v>
       </c>
@@ -10781,7 +9401,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="8:27">
       <c r="H64" t="s">
         <v>441</v>
       </c>
@@ -10789,7 +9409,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="8:27">
       <c r="H65" t="s">
         <v>443</v>
       </c>
@@ -10797,7 +9417,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="8:27">
       <c r="H66" t="s">
         <v>445</v>
       </c>
@@ -10805,7 +9425,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="8:27">
       <c r="H67" t="s">
         <v>447</v>
       </c>
@@ -10813,7 +9433,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="8:27">
       <c r="H68" t="s">
         <v>449</v>
       </c>
@@ -10821,7 +9441,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="8:27">
       <c r="H69" t="s">
         <v>451</v>
       </c>
@@ -10829,7 +9449,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="8:27">
       <c r="H70" t="s">
         <v>453</v>
       </c>
@@ -10837,7 +9457,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="8:27">
       <c r="H71" t="s">
         <v>455</v>
       </c>
@@ -10845,7 +9465,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="8:27">
       <c r="H72" t="s">
         <v>457</v>
       </c>
@@ -10853,7 +9473,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="8:27">
       <c r="H73" t="s">
         <v>459</v>
       </c>
@@ -10861,7 +9481,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="8:27">
       <c r="H74" t="s">
         <v>461</v>
       </c>
@@ -10869,7 +9489,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="8:27">
       <c r="H75" t="s">
         <v>463</v>
       </c>
@@ -10877,7 +9497,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="8:27">
       <c r="H76" t="s">
         <v>465</v>
       </c>
@@ -10885,7 +9505,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="8:27">
       <c r="H77" t="s">
         <v>467</v>
       </c>
@@ -10893,7 +9513,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="8:27">
       <c r="H78" t="s">
         <v>469</v>
       </c>
@@ -10901,7 +9521,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="8:27">
       <c r="H79" t="s">
         <v>471</v>
       </c>
@@ -10909,7 +9529,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="8:27">
       <c r="H80" t="s">
         <v>473</v>
       </c>
@@ -10917,7 +9537,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="8:27">
       <c r="H81" t="s">
         <v>475</v>
       </c>
@@ -10925,7 +9545,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="8:27">
       <c r="H82" t="s">
         <v>477</v>
       </c>
@@ -10933,7 +9553,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="8:27">
       <c r="H83" t="s">
         <v>479</v>
       </c>
@@ -10941,7 +9561,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="8:27">
       <c r="H84" t="s">
         <v>481</v>
       </c>
@@ -10949,7 +9569,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="8:27">
       <c r="H85" t="s">
         <v>483</v>
       </c>
@@ -10957,7 +9577,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="8:27">
       <c r="H86" t="s">
         <v>485</v>
       </c>
@@ -10965,7 +9585,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="8:27">
       <c r="H87" t="s">
         <v>487</v>
       </c>
@@ -10973,7 +9593,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="8:27">
       <c r="H88" t="s">
         <v>489</v>
       </c>
@@ -10981,7 +9601,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="8:27">
       <c r="H89" t="s">
         <v>491</v>
       </c>
@@ -10989,7 +9609,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="8:27">
       <c r="H90" t="s">
         <v>493</v>
       </c>
@@ -10997,7 +9617,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="8:27">
       <c r="H91" t="s">
         <v>495</v>
       </c>
@@ -11005,7 +9625,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="8:27">
       <c r="H92" t="s">
         <v>497</v>
       </c>
@@ -11013,7 +9633,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="8:27">
       <c r="H93" t="s">
         <v>499</v>
       </c>
@@ -11021,7 +9641,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="8:27">
       <c r="H94" t="s">
         <v>501</v>
       </c>
@@ -11029,7 +9649,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="8:27">
       <c r="H95" t="s">
         <v>503</v>
       </c>
@@ -11037,7 +9657,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="8:27">
       <c r="H96" t="s">
         <v>505</v>
       </c>
@@ -11045,7 +9665,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="8:27">
       <c r="H97" t="s">
         <v>507</v>
       </c>
@@ -11053,7 +9673,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="8:27">
       <c r="H98" t="s">
         <v>509</v>
       </c>
@@ -11061,305 +9681,305 @@
         <v>510</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="8:27">
       <c r="AA99" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="8:27">
       <c r="AA100" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="8:27">
       <c r="AA101" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="8:27">
       <c r="AA102" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="8:27">
       <c r="AA103" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="8:27">
       <c r="AA104" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="8:27">
       <c r="AA105" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="8:27">
       <c r="AA106" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="8:27">
       <c r="AA107" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="8:27">
       <c r="AA108" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="8:27">
       <c r="AA109" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="8:27">
       <c r="AA110" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="8:27">
       <c r="AA111" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="8:27">
       <c r="AA112" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="27:27">
       <c r="AA113" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="27:27">
       <c r="AA114" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="27:27">
       <c r="AA115" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="27:27">
       <c r="AA116" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="27:27">
       <c r="AA117" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="27:27">
       <c r="AA118" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="27:27">
       <c r="AA119" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="27:27">
       <c r="AA120" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="27:27">
       <c r="AA121" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="27:27">
       <c r="AA122" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="27:27">
       <c r="AA123" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="27:27">
       <c r="AA124" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="27:27">
       <c r="AA125" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="27:27">
       <c r="AA126" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="27:27">
       <c r="AA127" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="27:27">
       <c r="AA128" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="27:27">
       <c r="AA129" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="27:27">
       <c r="AA130" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="27:27">
       <c r="AA131" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="27:27">
       <c r="AA132" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="27:27">
       <c r="AA133" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="27:27">
       <c r="AA134" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="27:27">
       <c r="AA135" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="27:27">
       <c r="AA136" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="27:27">
       <c r="AA137" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="27:27">
       <c r="AA138" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="27:27">
       <c r="AA139" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="27:27">
       <c r="AA140" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="27:27">
       <c r="AA141" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="27:27">
       <c r="AA142" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="27:27">
       <c r="AA143" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="27:27">
       <c r="AA144" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="27:27">
       <c r="AA145" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="27:27">
       <c r="AA146" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="27:27">
       <c r="AA147" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="27:27">
       <c r="AA148" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="27:27">
       <c r="AA149" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="27:27">
       <c r="AA150" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="27:27">
       <c r="AA151" t="s">
         <v>563</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="24.125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="29.75" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="9.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="6" width="31.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="6" width="23.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="6" width="42.375" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" style="6" width="20.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="7" width="20.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="8" width="1.625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="9" width="12.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="10" width="12.5" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="9" width="19.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="8" width="49.875" collapsed="true"/>
-    <col min="16" max="16384" style="11" width="10.875" collapsed="true"/>
+    <col min="1" max="1" width="24.125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.75" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.5" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.5" style="6" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.5" style="6" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="42.375" style="6" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="20" style="6" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20" style="7" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="1.625" style="8" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" style="9" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.5" style="10" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19" style="9" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="49.875" style="8" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="10.875" style="11" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23.1" r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="23.1" customHeight="1">
       <c r="A1" s="60" t="s">
         <v>564</v>
       </c>
@@ -11390,7 +10010,7 @@
       <c r="N1" s="62"/>
       <c r="O1" s="63"/>
     </row>
-    <row customHeight="1" ht="62.1" r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="62.1" customHeight="1">
       <c r="A2" s="64" t="s">
         <v>571</v>
       </c>
@@ -11411,7 +10031,7 @@
       <c r="N2" s="67"/>
       <c r="O2" s="67"/>
     </row>
-    <row customHeight="1" ht="11.1" r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="11.1" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -11428,7 +10048,7 @@
       <c r="N3" s="19"/>
       <c r="O3" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="4" s="1" spans="1:15">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="A4" s="20" t="s">
         <v>573</v>
       </c>
@@ -11473,7 +10093,7 @@
         <v>585</v>
       </c>
     </row>
-    <row customHeight="1" ht="23.1" r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="23.1" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>586</v>
       </c>
@@ -11500,7 +10120,7 @@
       <c r="N5" s="19"/>
       <c r="O5" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="23.1" customHeight="1">
       <c r="A6" s="21"/>
       <c r="B6" s="22"/>
       <c r="C6" s="51" t="s">
@@ -11525,7 +10145,7 @@
       <c r="N6" s="19"/>
       <c r="O6" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="23.1" customHeight="1">
       <c r="A7" s="21" t="s">
         <v>591</v>
       </c>
@@ -11552,7 +10172,7 @@
       <c r="N7" s="19"/>
       <c r="O7" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="23.1" customHeight="1">
       <c r="A8" s="21"/>
       <c r="B8" s="22"/>
       <c r="C8" s="51" t="s">
@@ -11577,7 +10197,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="23.1" customHeight="1">
       <c r="A9" s="21" t="s">
         <v>594</v>
       </c>
@@ -11604,7 +10224,7 @@
       <c r="N9" s="19"/>
       <c r="O9" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="23.1" customHeight="1">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
       <c r="C10" s="51" t="s">
@@ -11629,7 +10249,7 @@
       <c r="N10" s="19"/>
       <c r="O10" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="23.1" customHeight="1">
       <c r="A11" s="21" t="s">
         <v>598</v>
       </c>
@@ -11656,7 +10276,7 @@
       <c r="N11" s="19"/>
       <c r="O11" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="23.1" customHeight="1">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="C12" s="51" t="s">
@@ -11681,7 +10301,7 @@
       <c r="N12" s="19"/>
       <c r="O12" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="23.1" customHeight="1">
       <c r="A13" s="21" t="s">
         <v>601</v>
       </c>
@@ -11708,7 +10328,7 @@
       <c r="N13" s="19"/>
       <c r="O13" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="23.1" customHeight="1">
       <c r="A14" s="21"/>
       <c r="B14" s="22"/>
       <c r="C14" s="51" t="s">
@@ -11733,7 +10353,7 @@
       <c r="N14" s="19"/>
       <c r="O14" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="15" spans="1:15">
+    <row r="15" spans="1:15" ht="23.1" customHeight="1">
       <c r="A15" s="21" t="s">
         <v>604</v>
       </c>
@@ -11760,7 +10380,7 @@
       <c r="N15" s="19"/>
       <c r="O15" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="23.1" customHeight="1">
       <c r="A16" s="21"/>
       <c r="B16" s="22"/>
       <c r="C16" s="51" t="s">
@@ -11785,7 +10405,7 @@
       <c r="N16" s="19"/>
       <c r="O16" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="17" spans="1:15">
+    <row r="17" spans="1:15" ht="23.1" customHeight="1">
       <c r="A17" s="21" t="s">
         <v>607</v>
       </c>
@@ -11812,7 +10432,7 @@
       <c r="N17" s="19"/>
       <c r="O17" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="18" spans="1:15">
+    <row r="18" spans="1:15" ht="23.1" customHeight="1">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18" s="51" t="s">
@@ -11837,7 +10457,7 @@
       <c r="N18" s="19"/>
       <c r="O18" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="19" spans="1:15">
+    <row r="19" spans="1:15" ht="23.1" customHeight="1">
       <c r="A19" s="21" t="s">
         <v>611</v>
       </c>
@@ -11864,7 +10484,7 @@
       <c r="N19" s="19"/>
       <c r="O19" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="20" spans="1:15">
+    <row r="20" spans="1:15" ht="23.1" customHeight="1">
       <c r="A20" s="21"/>
       <c r="B20" s="22"/>
       <c r="C20" s="51" t="s">
@@ -11889,7 +10509,7 @@
       <c r="N20" s="19"/>
       <c r="O20" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="21" spans="1:15">
+    <row r="21" spans="1:15" ht="23.1" customHeight="1">
       <c r="A21" s="21" t="s">
         <v>614</v>
       </c>
@@ -11916,7 +10536,7 @@
       <c r="N21" s="19"/>
       <c r="O21" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="22" spans="1:15">
+    <row r="22" spans="1:15" ht="23.1" customHeight="1">
       <c r="A22" s="21"/>
       <c r="B22" s="22"/>
       <c r="C22" s="51" t="s">
@@ -11941,7 +10561,7 @@
       <c r="N22" s="19"/>
       <c r="O22" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="23.1" customHeight="1">
       <c r="A23" s="21" t="s">
         <v>618</v>
       </c>
@@ -11968,7 +10588,7 @@
       <c r="N23" s="19"/>
       <c r="O23" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="24" spans="1:15">
+    <row r="24" spans="1:15" ht="23.1" customHeight="1">
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
       <c r="C24" s="51" t="s">
@@ -11993,7 +10613,7 @@
       <c r="N24" s="19"/>
       <c r="O24" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="25" spans="1:15">
+    <row r="25" spans="1:15" ht="23.1" customHeight="1">
       <c r="A25" s="21" t="s">
         <v>622</v>
       </c>
@@ -12020,7 +10640,7 @@
       <c r="N25" s="19"/>
       <c r="O25" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="23.1" customHeight="1">
       <c r="A26" s="21"/>
       <c r="B26" s="22"/>
       <c r="C26" s="51" t="s">
@@ -12045,7 +10665,7 @@
       <c r="N26" s="19"/>
       <c r="O26" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="23.1" customHeight="1">
       <c r="A27" s="21" t="s">
         <v>625</v>
       </c>
@@ -12072,7 +10692,7 @@
       <c r="N27" s="19"/>
       <c r="O27" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="28" spans="1:15">
+    <row r="28" spans="1:15" ht="23.1" customHeight="1">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="C28" s="51" t="s">
@@ -12097,7 +10717,7 @@
       <c r="N28" s="19"/>
       <c r="O28" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="23.1" customHeight="1">
       <c r="A29" s="21" t="s">
         <v>629</v>
       </c>
@@ -12124,7 +10744,7 @@
       <c r="N29" s="19"/>
       <c r="O29" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="23.1" customHeight="1">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
       <c r="C30" s="51" t="s">
@@ -12149,7 +10769,7 @@
       <c r="N30" s="19"/>
       <c r="O30" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="31" spans="1:15">
+    <row r="31" spans="1:15" ht="23.1" customHeight="1">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="51" t="s">
@@ -12174,7 +10794,7 @@
       <c r="N31" s="19"/>
       <c r="O31" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="23.1" customHeight="1">
       <c r="A32" s="21" t="s">
         <v>635</v>
       </c>
@@ -12201,7 +10821,7 @@
       <c r="N32" s="19"/>
       <c r="O32" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="33" spans="1:15">
+    <row r="33" spans="1:15" ht="23.1" customHeight="1">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="51" t="s">
@@ -12226,7 +10846,7 @@
       <c r="N33" s="19"/>
       <c r="O33" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="34" spans="1:15">
+    <row r="34" spans="1:15" ht="23.1" customHeight="1">
       <c r="A34" s="21" t="s">
         <v>638</v>
       </c>
@@ -12253,7 +10873,7 @@
       <c r="N34" s="19"/>
       <c r="O34" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="35" spans="1:15">
+    <row r="35" spans="1:15" ht="23.1" customHeight="1">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="51" t="s">
@@ -12278,7 +10898,7 @@
       <c r="N35" s="19"/>
       <c r="O35" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="36" spans="1:15">
+    <row r="36" spans="1:15" ht="23.1" customHeight="1">
       <c r="A36" s="21" t="s">
         <v>641</v>
       </c>
@@ -12305,7 +10925,7 @@
       <c r="N36" s="19"/>
       <c r="O36" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="37" spans="1:15">
+    <row r="37" spans="1:15" ht="23.1" customHeight="1">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
       <c r="C37" s="51" t="s">
@@ -12330,7 +10950,7 @@
       <c r="N37" s="19"/>
       <c r="O37" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="38" spans="1:15">
+    <row r="38" spans="1:15" ht="23.1" customHeight="1">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="51" t="s">
@@ -12355,7 +10975,7 @@
       <c r="N38" s="19"/>
       <c r="O38" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="39" spans="1:15">
+    <row r="39" spans="1:15" ht="23.1" customHeight="1">
       <c r="A39" s="21" t="s">
         <v>647</v>
       </c>
@@ -12382,7 +11002,7 @@
       <c r="N39" s="19"/>
       <c r="O39" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="40" spans="1:15">
+    <row r="40" spans="1:15" ht="23.1" customHeight="1">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="51" t="s">
@@ -12407,7 +11027,7 @@
       <c r="N40" s="19"/>
       <c r="O40" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="41" spans="1:15">
+    <row r="41" spans="1:15" ht="23.1" customHeight="1">
       <c r="A41" s="21" t="s">
         <v>650</v>
       </c>
@@ -12434,7 +11054,7 @@
       <c r="N41" s="19"/>
       <c r="O41" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="42" spans="1:15">
+    <row r="42" spans="1:15" ht="23.1" customHeight="1">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="51" t="s">
@@ -12459,7 +11079,7 @@
       <c r="N42" s="19"/>
       <c r="O42" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="43" spans="1:15">
+    <row r="43" spans="1:15" ht="23.1" customHeight="1">
       <c r="A43" s="21" t="s">
         <v>653</v>
       </c>
@@ -12486,7 +11106,7 @@
       <c r="N43" s="19"/>
       <c r="O43" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="44" spans="1:15">
+    <row r="44" spans="1:15" ht="23.1" customHeight="1">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="51" t="s">
@@ -12511,7 +11131,7 @@
       <c r="N44" s="19"/>
       <c r="O44" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="45" spans="1:15">
+    <row r="45" spans="1:15" ht="23.1" customHeight="1">
       <c r="A45" s="21" t="s">
         <v>656</v>
       </c>
@@ -12538,7 +11158,7 @@
       <c r="N45" s="19"/>
       <c r="O45" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="46" spans="1:15">
+    <row r="46" spans="1:15" ht="23.1" customHeight="1">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="51" t="s">
@@ -12563,7 +11183,7 @@
       <c r="N46" s="19"/>
       <c r="O46" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="47" spans="1:15">
+    <row r="47" spans="1:15" ht="23.1" customHeight="1">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="51" t="s">
@@ -12588,7 +11208,7 @@
       <c r="N47" s="19"/>
       <c r="O47" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="48" spans="1:15">
+    <row r="48" spans="1:15" ht="23.1" customHeight="1">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="51" t="s">
@@ -12613,7 +11233,7 @@
       <c r="N48" s="19"/>
       <c r="O48" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="49" spans="1:15">
+    <row r="49" spans="1:15" ht="23.1" customHeight="1">
       <c r="A49" s="21" t="s">
         <v>659</v>
       </c>
@@ -12640,7 +11260,7 @@
       <c r="N49" s="19"/>
       <c r="O49" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="50" spans="1:15">
+    <row r="50" spans="1:15" ht="23.1" customHeight="1">
       <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="51" t="s">
@@ -12665,7 +11285,7 @@
       <c r="N50" s="19"/>
       <c r="O50" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="51" spans="1:15">
+    <row r="51" spans="1:15" ht="23.1" customHeight="1">
       <c r="A51" s="21" t="s">
         <v>663</v>
       </c>
@@ -12692,7 +11312,7 @@
       <c r="N51" s="19"/>
       <c r="O51" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="52" spans="1:15">
+    <row r="52" spans="1:15" ht="23.1" customHeight="1">
       <c r="A52" s="21"/>
       <c r="B52" s="22"/>
       <c r="C52" s="51" t="s">
@@ -12717,7 +11337,7 @@
       <c r="N52" s="19"/>
       <c r="O52" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="53" spans="1:15">
+    <row r="53" spans="1:15" ht="23.1" customHeight="1">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="51" t="s">
@@ -12742,7 +11362,7 @@
       <c r="N53" s="19"/>
       <c r="O53" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="54" spans="1:15">
+    <row r="54" spans="1:15" ht="23.1" customHeight="1">
       <c r="A54" s="21" t="s">
         <v>17</v>
       </c>
@@ -12769,7 +11389,7 @@
       <c r="N54" s="19"/>
       <c r="O54" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="55" spans="1:15">
+    <row r="55" spans="1:15" ht="23.1" customHeight="1">
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="51" t="s">
@@ -12794,7 +11414,7 @@
       <c r="N55" s="19"/>
       <c r="O55" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="56" spans="1:15">
+    <row r="56" spans="1:15" ht="23.1" customHeight="1">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="51" t="s">
@@ -12819,7 +11439,7 @@
       <c r="N56" s="19"/>
       <c r="O56" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="57" spans="1:15">
+    <row r="57" spans="1:15" ht="23.1" customHeight="1">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
       <c r="C57" s="51" t="s">
@@ -12844,7 +11464,7 @@
       <c r="N57" s="19"/>
       <c r="O57" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="58" spans="1:15">
+    <row r="58" spans="1:15" ht="23.1" customHeight="1">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
       <c r="C58" s="51" t="s">
@@ -12869,7 +11489,7 @@
       <c r="N58" s="19"/>
       <c r="O58" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="59" spans="1:15">
+    <row r="59" spans="1:15" ht="23.1" customHeight="1">
       <c r="A59" s="21" t="s">
         <v>674</v>
       </c>
@@ -12896,7 +11516,7 @@
       <c r="N59" s="19"/>
       <c r="O59" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="60" spans="1:15">
+    <row r="60" spans="1:15" ht="23.1" customHeight="1">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="51" t="s">
@@ -12921,7 +11541,7 @@
       <c r="N60" s="19"/>
       <c r="O60" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="61" spans="1:15">
+    <row r="61" spans="1:15" ht="23.1" customHeight="1">
       <c r="A61" s="21" t="s">
         <v>678</v>
       </c>
@@ -12948,7 +11568,7 @@
       <c r="N61" s="19"/>
       <c r="O61" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="62" spans="1:15">
+    <row r="62" spans="1:15" ht="23.1" customHeight="1">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="51" t="s">
@@ -12973,7 +11593,7 @@
       <c r="N62" s="19"/>
       <c r="O62" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="63" spans="1:15">
+    <row r="63" spans="1:15" ht="23.1" customHeight="1">
       <c r="A63" s="21" t="s">
         <v>682</v>
       </c>
@@ -13000,7 +11620,7 @@
       <c r="N63" s="19"/>
       <c r="O63" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="64" spans="1:15">
+    <row r="64" spans="1:15" ht="23.1" customHeight="1">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="51" t="s">
@@ -13025,7 +11645,7 @@
       <c r="N64" s="19"/>
       <c r="O64" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="65" spans="1:15">
+    <row r="65" spans="1:15" ht="23.1" customHeight="1">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="51" t="s">
@@ -13050,7 +11670,7 @@
       <c r="N65" s="19"/>
       <c r="O65" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="66" spans="1:15">
+    <row r="66" spans="1:15" ht="23.1" customHeight="1">
       <c r="A66" s="21" t="s">
         <v>686</v>
       </c>
@@ -13077,7 +11697,7 @@
       <c r="N66" s="19"/>
       <c r="O66" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="67" spans="1:15">
+    <row r="67" spans="1:15" ht="23.1" customHeight="1">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="51" t="s">
@@ -13102,7 +11722,7 @@
       <c r="N67" s="19"/>
       <c r="O67" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="68" spans="1:15">
+    <row r="68" spans="1:15" ht="23.1" customHeight="1">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="51" t="s">
@@ -13127,7 +11747,7 @@
       <c r="N68" s="19"/>
       <c r="O68" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="69" spans="1:15">
+    <row r="69" spans="1:15" ht="23.1" customHeight="1">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="51" t="s">
@@ -13152,7 +11772,7 @@
       <c r="N69" s="19"/>
       <c r="O69" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="70" spans="1:15">
+    <row r="70" spans="1:15" ht="23.1" customHeight="1">
       <c r="A70" s="21" t="s">
         <v>692</v>
       </c>
@@ -13179,7 +11799,7 @@
       <c r="N70" s="19"/>
       <c r="O70" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="71" spans="1:15">
+    <row r="71" spans="1:15" ht="23.1" customHeight="1">
       <c r="A71" s="21"/>
       <c r="B71" s="52"/>
       <c r="C71" s="51" t="s">
@@ -13204,7 +11824,7 @@
       <c r="N71" s="19"/>
       <c r="O71" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="72" spans="1:15">
+    <row r="72" spans="1:15" ht="23.1" customHeight="1">
       <c r="A72" s="21"/>
       <c r="B72" s="22"/>
       <c r="C72" s="51" t="s">
@@ -13229,7 +11849,7 @@
       <c r="N72" s="19"/>
       <c r="O72" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="73" spans="1:15">
+    <row r="73" spans="1:15" ht="23.1" customHeight="1">
       <c r="A73" s="21"/>
       <c r="B73" s="52"/>
       <c r="C73" s="51" t="s">
@@ -13254,7 +11874,7 @@
       <c r="N73" s="19"/>
       <c r="O73" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="74" spans="1:15">
+    <row r="74" spans="1:15" ht="23.1" customHeight="1">
       <c r="A74" s="21" t="s">
         <v>698</v>
       </c>
@@ -13281,7 +11901,7 @@
       <c r="N74" s="19"/>
       <c r="O74" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="75" spans="1:15">
+    <row r="75" spans="1:15" ht="23.1" customHeight="1">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="51" t="s">
@@ -13306,7 +11926,7 @@
       <c r="N75" s="19"/>
       <c r="O75" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="76" spans="1:15">
+    <row r="76" spans="1:15" ht="23.1" customHeight="1">
       <c r="A76" s="21" t="s">
         <v>702</v>
       </c>
@@ -13333,7 +11953,7 @@
       <c r="N76" s="19"/>
       <c r="O76" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="77" spans="1:15">
+    <row r="77" spans="1:15" ht="23.1" customHeight="1">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="51" t="s">
@@ -13358,7 +11978,7 @@
       <c r="N77" s="19"/>
       <c r="O77" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="78" spans="1:15">
+    <row r="78" spans="1:15" ht="23.1" customHeight="1">
       <c r="A78" s="21" t="s">
         <v>704</v>
       </c>
@@ -13385,7 +12005,7 @@
       <c r="N78" s="19"/>
       <c r="O78" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="79" spans="1:15">
+    <row r="79" spans="1:15" ht="23.1" customHeight="1">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="51" t="s">
@@ -13410,7 +12030,7 @@
       <c r="N79" s="19"/>
       <c r="O79" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="80" spans="1:15">
+    <row r="80" spans="1:15" ht="23.1" customHeight="1">
       <c r="A80" s="21" t="s">
         <v>6</v>
       </c>
@@ -13437,7 +12057,7 @@
       <c r="N80" s="19"/>
       <c r="O80" s="18"/>
     </row>
-    <row ht="25.5" r="81" spans="1:15">
+    <row r="81" spans="1:15" ht="25.5">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="51" t="s">
@@ -13462,7 +12082,7 @@
       <c r="N81" s="19"/>
       <c r="O81" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="82" spans="1:15">
+    <row r="82" spans="1:15" ht="23.1" customHeight="1">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="51" t="s">
@@ -13487,7 +12107,7 @@
       <c r="N82" s="19"/>
       <c r="O82" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="83" spans="1:15">
+    <row r="83" spans="1:15" ht="23.1" customHeight="1">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="51" t="s">
@@ -13510,7 +12130,7 @@
       <c r="N83" s="19"/>
       <c r="O83" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="84" spans="1:15">
+    <row r="84" spans="1:15" ht="23.1" customHeight="1">
       <c r="A84" s="21" t="s">
         <v>13</v>
       </c>
@@ -13537,7 +12157,7 @@
       <c r="N84" s="19"/>
       <c r="O84" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="85" spans="1:15">
+    <row r="85" spans="1:15" ht="23.1" customHeight="1">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="51" t="s">
@@ -13562,7 +12182,7 @@
       <c r="N85" s="19"/>
       <c r="O85" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="86" spans="1:15">
+    <row r="86" spans="1:15" ht="23.1" customHeight="1">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="51" t="s">
@@ -13587,7 +12207,7 @@
       <c r="N86" s="19"/>
       <c r="O86" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="87" spans="1:15">
+    <row r="87" spans="1:15" ht="23.1" customHeight="1">
       <c r="A87" s="21" t="s">
         <v>31</v>
       </c>
@@ -13614,7 +12234,7 @@
       <c r="N87" s="19"/>
       <c r="O87" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="88" spans="1:15">
+    <row r="88" spans="1:15" ht="23.1" customHeight="1">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="51" t="s">
@@ -13639,7 +12259,7 @@
       <c r="N88" s="19"/>
       <c r="O88" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="89" spans="1:15">
+    <row r="89" spans="1:15" ht="23.1" customHeight="1">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="51" t="s">
@@ -13664,7 +12284,7 @@
       <c r="N89" s="19"/>
       <c r="O89" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="90" spans="1:15">
+    <row r="90" spans="1:15" ht="23.1" customHeight="1">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="51" t="s">
@@ -13689,7 +12309,7 @@
       <c r="N90" s="19"/>
       <c r="O90" s="18"/>
     </row>
-    <row ht="76.5" r="91" spans="1:15">
+    <row r="91" spans="1:15" ht="76.5">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="51" t="s">
@@ -13714,7 +12334,7 @@
       <c r="N91" s="19"/>
       <c r="O91" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="92" spans="1:15">
+    <row r="92" spans="1:15" ht="23.1" customHeight="1">
       <c r="A92" s="21" t="s">
         <v>725</v>
       </c>
@@ -13741,7 +12361,7 @@
       <c r="N92" s="19"/>
       <c r="O92" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="93" spans="1:15">
+    <row r="93" spans="1:15" ht="23.1" customHeight="1">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="23" t="s">
@@ -13766,7 +12386,7 @@
       <c r="N93" s="19"/>
       <c r="O93" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="94" spans="1:15">
+    <row r="94" spans="1:15" ht="23.1" customHeight="1">
       <c r="A94" s="21" t="s">
         <v>729</v>
       </c>
@@ -13793,7 +12413,7 @@
       <c r="N94" s="19"/>
       <c r="O94" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="95" spans="1:15">
+    <row r="95" spans="1:15" ht="23.1" customHeight="1">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="51" t="s">
@@ -13818,7 +12438,7 @@
       <c r="N95" s="19"/>
       <c r="O95" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="96" spans="1:15">
+    <row r="96" spans="1:15" ht="23.1" customHeight="1">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="51" t="s">
@@ -13843,7 +12463,7 @@
       <c r="N96" s="19"/>
       <c r="O96" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="97" spans="1:15">
+    <row r="97" spans="1:15" ht="23.1" customHeight="1">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="23" t="s">
@@ -13868,7 +12488,7 @@
       <c r="N97" s="19"/>
       <c r="O97" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="98" spans="1:15">
+    <row r="98" spans="1:15" ht="23.1" customHeight="1">
       <c r="A98" s="21" t="s">
         <v>733</v>
       </c>
@@ -13895,7 +12515,7 @@
       <c r="N98" s="19"/>
       <c r="O98" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="99" spans="1:15">
+    <row r="99" spans="1:15" ht="23.1" customHeight="1">
       <c r="A99" s="21"/>
       <c r="B99" s="22"/>
       <c r="C99" s="23" t="s">
@@ -13920,7 +12540,7 @@
       <c r="N99" s="19"/>
       <c r="O99" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="100" spans="1:15">
+    <row r="100" spans="1:15" ht="23.1" customHeight="1">
       <c r="A100" s="15" t="s">
         <v>735</v>
       </c>
@@ -13947,7 +12567,7 @@
       <c r="N100" s="19"/>
       <c r="O100" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="101" spans="1:15">
+    <row r="101" spans="1:15" ht="23.1" customHeight="1">
       <c r="A101" s="15"/>
       <c r="B101" s="16"/>
       <c r="C101" s="45" t="s">
@@ -13972,7 +12592,7 @@
       <c r="N101" s="19"/>
       <c r="O101" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="102" spans="1:15">
+    <row r="102" spans="1:15" ht="23.1" customHeight="1">
       <c r="A102" s="16"/>
       <c r="B102" s="16"/>
       <c r="C102" s="45" t="s">
@@ -13997,7 +12617,7 @@
       <c r="N102" s="19"/>
       <c r="O102" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="103" spans="1:15">
+    <row r="103" spans="1:15" ht="23.1" customHeight="1">
       <c r="A103" s="21"/>
       <c r="B103" s="16"/>
       <c r="C103" s="45" t="s">
@@ -14022,7 +12642,7 @@
       <c r="N103" s="19"/>
       <c r="O103" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="104" spans="1:15">
+    <row r="104" spans="1:15" ht="23.1" customHeight="1">
       <c r="A104" s="21"/>
       <c r="B104" s="16"/>
       <c r="C104" s="45" t="s">
@@ -14047,7 +12667,7 @@
       <c r="N104" s="19"/>
       <c r="O104" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="105" spans="1:15">
+    <row r="105" spans="1:15" ht="23.1" customHeight="1">
       <c r="A105" s="15" t="s">
         <v>744</v>
       </c>
@@ -14074,7 +12694,7 @@
       <c r="N105" s="19"/>
       <c r="O105" s="18"/>
     </row>
-    <row ht="75" r="106" spans="1:15">
+    <row r="106" spans="1:15" ht="75">
       <c r="A106" s="15"/>
       <c r="B106" s="16"/>
       <c r="C106" s="45" t="s">
@@ -14101,7 +12721,7 @@
       <c r="N106" s="19"/>
       <c r="O106" s="18"/>
     </row>
-    <row ht="75" r="107" spans="1:15">
+    <row r="107" spans="1:15" ht="75">
       <c r="A107" s="15"/>
       <c r="B107" s="16"/>
       <c r="C107" s="45" t="s">
@@ -14126,7 +12746,7 @@
       <c r="N107" s="19"/>
       <c r="O107" s="18"/>
     </row>
-    <row customHeight="1" ht="21" r="108" spans="1:15">
+    <row r="108" spans="1:15" ht="21" customHeight="1">
       <c r="A108" s="15"/>
       <c r="B108" s="16"/>
       <c r="C108" s="45" t="s">
@@ -14151,7 +12771,7 @@
       <c r="N108" s="19"/>
       <c r="O108" s="18"/>
     </row>
-    <row customHeight="1" ht="21" r="109" spans="1:15">
+    <row r="109" spans="1:15" ht="21" customHeight="1">
       <c r="A109" s="21" t="s">
         <v>753</v>
       </c>
@@ -14178,7 +12798,7 @@
       <c r="N109" s="19"/>
       <c r="O109" s="18"/>
     </row>
-    <row customHeight="1" ht="21" r="110" spans="1:15">
+    <row r="110" spans="1:15" ht="21" customHeight="1">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="23" t="s">
@@ -14203,7 +12823,7 @@
       <c r="N110" s="19"/>
       <c r="O110" s="18"/>
     </row>
-    <row customHeight="1" ht="21" r="111" spans="1:15">
+    <row r="111" spans="1:15" ht="21" customHeight="1">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111" s="5" t="s">
@@ -14225,7 +12845,7 @@
       <c r="K111"/>
       <c r="L111"/>
     </row>
-    <row customHeight="1" ht="21" r="112" spans="1:15">
+    <row r="112" spans="1:15" ht="21" customHeight="1">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112" s="5" t="s">
@@ -14247,7 +12867,7 @@
       <c r="K112"/>
       <c r="L112"/>
     </row>
-    <row customHeight="1" ht="21" r="113" spans="1:12">
+    <row r="113" spans="1:12" ht="21" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>762</v>
       </c>
@@ -14271,7 +12891,7 @@
       <c r="K113"/>
       <c r="L113"/>
     </row>
-    <row customHeight="1" ht="21" r="114" spans="1:12">
+    <row r="114" spans="1:12" ht="21" customHeight="1">
       <c r="A114"/>
       <c r="B114" s="4" t="s">
         <v>765</v>
@@ -14295,7 +12915,7 @@
       <c r="K114"/>
       <c r="L114"/>
     </row>
-    <row customHeight="1" ht="21" r="115" spans="1:12">
+    <row r="115" spans="1:12" ht="21" customHeight="1">
       <c r="A115"/>
       <c r="B115" s="4" t="s">
         <v>768</v>
@@ -14319,29 +12939,29 @@
       <c r="K115"/>
       <c r="L115"/>
     </row>
-    <row customHeight="1" ht="21" r="116" spans="1:12"/>
-    <row customHeight="1" ht="21" r="117" spans="1:12"/>
-    <row customHeight="1" ht="21" r="118" spans="1:12"/>
-    <row customHeight="1" ht="21" r="119" spans="1:12"/>
-    <row customHeight="1" ht="21" r="120" spans="1:12"/>
-    <row customHeight="1" ht="21" r="121" spans="1:12"/>
-    <row customHeight="1" ht="21" r="122" spans="1:12"/>
-    <row customHeight="1" ht="21" r="123" spans="1:12"/>
-    <row customHeight="1" ht="21" r="124" spans="1:12"/>
-    <row customHeight="1" ht="21" r="125" spans="1:12"/>
-    <row customHeight="1" ht="21" r="126" spans="1:12"/>
-    <row customHeight="1" ht="21" r="127" spans="1:12"/>
-    <row customHeight="1" ht="21" r="128" spans="1:12"/>
-    <row customHeight="1" ht="21" r="129"/>
-    <row customHeight="1" ht="21" r="130"/>
-    <row customHeight="1" ht="21" r="131"/>
-    <row customHeight="1" ht="21" r="132"/>
-    <row customHeight="1" ht="21" r="133"/>
-    <row customHeight="1" ht="21" r="134"/>
-    <row customHeight="1" ht="21" r="135"/>
-    <row customHeight="1" ht="21" r="136"/>
+    <row r="116" spans="1:12" ht="21" customHeight="1"/>
+    <row r="117" spans="1:12" ht="21" customHeight="1"/>
+    <row r="118" spans="1:12" ht="21" customHeight="1"/>
+    <row r="119" spans="1:12" ht="21" customHeight="1"/>
+    <row r="120" spans="1:12" ht="21" customHeight="1"/>
+    <row r="121" spans="1:12" ht="21" customHeight="1"/>
+    <row r="122" spans="1:12" ht="21" customHeight="1"/>
+    <row r="123" spans="1:12" ht="21" customHeight="1"/>
+    <row r="124" spans="1:12" ht="21" customHeight="1"/>
+    <row r="125" spans="1:12" ht="21" customHeight="1"/>
+    <row r="126" spans="1:12" ht="21" customHeight="1"/>
+    <row r="127" spans="1:12" ht="21" customHeight="1"/>
+    <row r="128" spans="1:12" ht="21" customHeight="1"/>
+    <row r="129" ht="21" customHeight="1"/>
+    <row r="130" ht="21" customHeight="1"/>
+    <row r="131" ht="21" customHeight="1"/>
+    <row r="132" ht="21" customHeight="1"/>
+    <row r="133" ht="21" customHeight="1"/>
+    <row r="134" ht="21" customHeight="1"/>
+    <row r="135" ht="21" customHeight="1"/>
+    <row r="136" ht="21" customHeight="1"/>
   </sheetData>
-  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
+  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -14349,80 +12969,80 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1">
-    <cfRule dxfId="20" operator="beginsWith" priority="7" stopIfTrue="1" text="WARN" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="17" priority="7" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule dxfId="19" operator="beginsWith" priority="8" stopIfTrue="1" text="FAIL" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="16" priority="8" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="18" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="15" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N105:N108">
-    <cfRule dxfId="17" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="14" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N105,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule dxfId="16" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="13" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N105,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="15" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="12" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N105,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N109:N110 N3:N104">
-    <cfRule dxfId="14" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="11" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule dxfId="13" operator="beginsWith" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="10" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N3,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="12" operator="beginsWith" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="9" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C110" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C110" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D110" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D110" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A81" ySplit="4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection activeCell="B85" pane="bottomLeft" sqref="B85"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="16.375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="16.375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="10.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="6" width="31.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="6" width="43.625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="6" width="52.625" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" style="6" width="20.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="7" width="20.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="8" width="1.625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="9" width="12.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="10" width="12.5" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="9" width="19.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="8" width="49.875" collapsed="true"/>
-    <col min="16" max="16384" style="11" width="10.875" collapsed="true"/>
+    <col min="1" max="1" width="16.375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.375" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.5" style="6" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.625" style="6" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="52.625" style="6" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="20" style="6" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20" style="7" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="1.625" style="8" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" style="9" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.5" style="10" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19" style="9" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="49.875" style="8" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="10.875" style="11" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23.1" r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="23.1" customHeight="1">
       <c r="A1" s="60" t="s">
         <v>564</v>
       </c>
@@ -14453,7 +13073,7 @@
       <c r="N1" s="62"/>
       <c r="O1" s="63"/>
     </row>
-    <row customHeight="1" hidden="1" ht="93" r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="93" hidden="1" customHeight="1">
       <c r="A2" s="64" t="s">
         <v>571</v>
       </c>
@@ -14474,7 +13094,7 @@
       <c r="N2" s="67"/>
       <c r="O2" s="67"/>
     </row>
-    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -14491,7 +13111,7 @@
       <c r="N3" s="19"/>
       <c r="O3" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="4" s="1" spans="1:15">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="A4" s="20" t="s">
         <v>573</v>
       </c>
@@ -14536,7 +13156,7 @@
         <v>585</v>
       </c>
     </row>
-    <row customHeight="1" ht="23.1" r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="23.1" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>659</v>
       </c>
@@ -14565,7 +13185,7 @@
       <c r="N5" s="19"/>
       <c r="O5" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="23.1" customHeight="1">
       <c r="A6" s="21"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
@@ -14590,7 +13210,7 @@
       <c r="N6" s="19"/>
       <c r="O6" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="23.1" customHeight="1">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
@@ -14615,7 +13235,7 @@
       <c r="N7" s="19"/>
       <c r="O7" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="23.1" customHeight="1">
       <c r="A8" s="21" t="s">
         <v>776</v>
       </c>
@@ -14644,7 +13264,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="23.1" customHeight="1">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="23" t="s">
@@ -14669,7 +13289,7 @@
       <c r="N9" s="19"/>
       <c r="O9" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="23.1" customHeight="1">
       <c r="A10" s="21" t="s">
         <v>779</v>
       </c>
@@ -14698,7 +13318,7 @@
       <c r="N10" s="19"/>
       <c r="O10" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="23.1" customHeight="1">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
@@ -14723,7 +13343,7 @@
       <c r="N11" s="19"/>
       <c r="O11" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="23.1" customHeight="1">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23" t="s">
@@ -14748,7 +13368,7 @@
       <c r="N12" s="19"/>
       <c r="O12" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="13" spans="1:15">
+    <row r="13" spans="1:15" ht="23.1" customHeight="1">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23" t="s">
@@ -14773,7 +13393,7 @@
       <c r="N13" s="19"/>
       <c r="O13" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="23.1" customHeight="1">
       <c r="A14" s="21"/>
       <c r="B14" s="22"/>
       <c r="C14" s="23" t="s">
@@ -14798,7 +13418,7 @@
       <c r="N14" s="19"/>
       <c r="O14" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="15" spans="1:15">
+    <row r="15" spans="1:15" ht="23.1" customHeight="1">
       <c r="A15" s="21" t="s">
         <v>622</v>
       </c>
@@ -14827,7 +13447,7 @@
       <c r="N15" s="19"/>
       <c r="O15" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="16" spans="1:15">
+    <row r="16" spans="1:15" ht="23.1" customHeight="1">
       <c r="A16" s="21"/>
       <c r="B16" s="22"/>
       <c r="C16" s="23" t="s">
@@ -14852,7 +13472,7 @@
       <c r="N16" s="19"/>
       <c r="O16" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="17" spans="1:15">
+    <row r="17" spans="1:15" ht="23.1" customHeight="1">
       <c r="A17" s="21" t="s">
         <v>791</v>
       </c>
@@ -14881,7 +13501,7 @@
       <c r="N17" s="19"/>
       <c r="O17" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="18" spans="1:15">
+    <row r="18" spans="1:15" ht="23.1" customHeight="1">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18" s="23" t="s">
@@ -14906,7 +13526,7 @@
       <c r="N18" s="19"/>
       <c r="O18" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="19" spans="1:15">
+    <row r="19" spans="1:15" ht="23.1" customHeight="1">
       <c r="A19" s="21" t="s">
         <v>795</v>
       </c>
@@ -14935,7 +13555,7 @@
       <c r="N19" s="19"/>
       <c r="O19" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="20" spans="1:15">
+    <row r="20" spans="1:15" ht="23.1" customHeight="1">
       <c r="A20" s="21"/>
       <c r="B20" s="22"/>
       <c r="C20" s="23" t="s">
@@ -14960,7 +13580,7 @@
       <c r="N20" s="19"/>
       <c r="O20" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="21" spans="1:15">
+    <row r="21" spans="1:15" ht="23.1" customHeight="1">
       <c r="A21" s="21" t="s">
         <v>614</v>
       </c>
@@ -14989,7 +13609,7 @@
       <c r="N21" s="19"/>
       <c r="O21" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="22" spans="1:15">
+    <row r="22" spans="1:15" ht="23.1" customHeight="1">
       <c r="A22" s="21"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23" t="s">
@@ -15014,7 +13634,7 @@
       <c r="N22" s="19"/>
       <c r="O22" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="23.1" customHeight="1">
       <c r="A23" s="21" t="s">
         <v>801</v>
       </c>
@@ -15043,7 +13663,7 @@
       <c r="N23" s="19"/>
       <c r="O23" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="24" spans="1:15">
+    <row r="24" spans="1:15" ht="23.1" customHeight="1">
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
       <c r="C24" s="23" t="s">
@@ -15068,7 +13688,7 @@
       <c r="N24" s="19"/>
       <c r="O24" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="25" spans="1:15">
+    <row r="25" spans="1:15" ht="23.1" customHeight="1">
       <c r="A25" s="27" t="s">
         <v>804</v>
       </c>
@@ -15097,7 +13717,7 @@
       <c r="N25" s="19"/>
       <c r="O25" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="23.1" customHeight="1">
       <c r="A26" s="21"/>
       <c r="B26" s="22"/>
       <c r="C26" s="23" t="s">
@@ -15122,7 +13742,7 @@
       <c r="N26" s="19"/>
       <c r="O26" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="23.1" customHeight="1">
       <c r="A27" s="21" t="s">
         <v>601</v>
       </c>
@@ -15151,7 +13771,7 @@
       <c r="N27" s="19"/>
       <c r="O27" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="28" spans="1:15">
+    <row r="28" spans="1:15" ht="23.1" customHeight="1">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23" t="s">
@@ -15176,7 +13796,7 @@
       <c r="N28" s="19"/>
       <c r="O28" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="23.1" customHeight="1">
       <c r="A29" s="21" t="s">
         <v>809</v>
       </c>
@@ -15205,7 +13825,7 @@
       <c r="N29" s="19"/>
       <c r="O29" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="23.1" customHeight="1">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23" t="s">
@@ -15230,7 +13850,7 @@
       <c r="N30" s="19"/>
       <c r="O30" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="31" spans="1:15">
+    <row r="31" spans="1:15" ht="23.1" customHeight="1">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23" t="s">
@@ -15255,7 +13875,7 @@
       <c r="N31" s="19"/>
       <c r="O31" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="23.1" customHeight="1">
       <c r="A32" s="21" t="s">
         <v>815</v>
       </c>
@@ -15284,7 +13904,7 @@
       <c r="N32" s="19"/>
       <c r="O32" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="33" spans="1:15">
+    <row r="33" spans="1:15" ht="23.1" customHeight="1">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="23" t="s">
@@ -15309,7 +13929,7 @@
       <c r="N33" s="19"/>
       <c r="O33" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="34" spans="1:15">
+    <row r="34" spans="1:15" ht="23.1" customHeight="1">
       <c r="A34" s="21" t="s">
         <v>818</v>
       </c>
@@ -15338,7 +13958,7 @@
       <c r="N34" s="19"/>
       <c r="O34" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="35" spans="1:15">
+    <row r="35" spans="1:15" ht="23.1" customHeight="1">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="23" t="s">
@@ -15363,7 +13983,7 @@
       <c r="N35" s="19"/>
       <c r="O35" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="36" spans="1:15">
+    <row r="36" spans="1:15" ht="23.1" customHeight="1">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="23" t="s">
@@ -15388,7 +14008,7 @@
       <c r="N36" s="19"/>
       <c r="O36" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="37" spans="1:15">
+    <row r="37" spans="1:15" ht="23.1" customHeight="1">
       <c r="A37" s="21" t="s">
         <v>822</v>
       </c>
@@ -15417,7 +14037,7 @@
       <c r="N37" s="19"/>
       <c r="O37" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="38" spans="1:15">
+    <row r="38" spans="1:15" ht="23.1" customHeight="1">
       <c r="A38" s="46"/>
       <c r="B38" s="47"/>
       <c r="C38" s="23" t="s">
@@ -15442,7 +14062,7 @@
       <c r="N38" s="19"/>
       <c r="O38" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="39" spans="1:15">
+    <row r="39" spans="1:15" ht="23.1" customHeight="1">
       <c r="A39" s="21" t="s">
         <v>618</v>
       </c>
@@ -15471,7 +14091,7 @@
       <c r="N39" s="19"/>
       <c r="O39" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="40" spans="1:15">
+    <row r="40" spans="1:15" ht="23.1" customHeight="1">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="23" t="s">
@@ -15496,7 +14116,7 @@
       <c r="N40" s="19"/>
       <c r="O40" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="41" spans="1:15">
+    <row r="41" spans="1:15" ht="23.1" customHeight="1">
       <c r="A41" s="21" t="s">
         <v>826</v>
       </c>
@@ -15525,7 +14145,7 @@
       <c r="N41" s="19"/>
       <c r="O41" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="42" spans="1:15">
+    <row r="42" spans="1:15" ht="23.1" customHeight="1">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="23" t="s">
@@ -15550,7 +14170,7 @@
       <c r="N42" s="19"/>
       <c r="O42" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="43" spans="1:15">
+    <row r="43" spans="1:15" ht="23.1" customHeight="1">
       <c r="A43" s="21" t="s">
         <v>829</v>
       </c>
@@ -15579,7 +14199,7 @@
       <c r="N43" s="19"/>
       <c r="O43" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="44" spans="1:15">
+    <row r="44" spans="1:15" ht="23.1" customHeight="1">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="23" t="s">
@@ -15604,7 +14224,7 @@
       <c r="N44" s="19"/>
       <c r="O44" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="45" spans="1:15">
+    <row r="45" spans="1:15" ht="23.1" customHeight="1">
       <c r="A45" s="21" t="s">
         <v>725</v>
       </c>
@@ -15633,7 +14253,7 @@
       <c r="N45" s="19"/>
       <c r="O45" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="46" spans="1:15">
+    <row r="46" spans="1:15" ht="23.1" customHeight="1">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="23" t="s">
@@ -15658,7 +14278,7 @@
       <c r="N46" s="19"/>
       <c r="O46" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="47" spans="1:15">
+    <row r="47" spans="1:15" ht="23.1" customHeight="1">
       <c r="A47" s="21" t="s">
         <v>678</v>
       </c>
@@ -15687,7 +14307,7 @@
       <c r="N47" s="19"/>
       <c r="O47" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="48" spans="1:15">
+    <row r="48" spans="1:15" ht="23.1" customHeight="1">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="23" t="s">
@@ -15712,7 +14332,7 @@
       <c r="N48" s="19"/>
       <c r="O48" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="49" spans="1:15">
+    <row r="49" spans="1:15" ht="23.1" customHeight="1">
       <c r="A49" s="48" t="s">
         <v>594</v>
       </c>
@@ -15741,7 +14361,7 @@
       <c r="N49" s="19"/>
       <c r="O49" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="50" spans="1:15">
+    <row r="50" spans="1:15" ht="23.1" customHeight="1">
       <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="23" t="s">
@@ -15766,7 +14386,7 @@
       <c r="N50" s="19"/>
       <c r="O50" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="51" spans="1:15">
+    <row r="51" spans="1:15" ht="23.1" customHeight="1">
       <c r="A51" s="21" t="s">
         <v>839</v>
       </c>
@@ -15795,7 +14415,7 @@
       <c r="N51" s="19"/>
       <c r="O51" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="52" spans="1:15">
+    <row r="52" spans="1:15" ht="23.1" customHeight="1">
       <c r="A52" s="21"/>
       <c r="B52" s="22"/>
       <c r="C52" s="23" t="s">
@@ -15820,7 +14440,7 @@
       <c r="N52" s="19"/>
       <c r="O52" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="53" spans="1:15">
+    <row r="53" spans="1:15" ht="23.1" customHeight="1">
       <c r="A53" s="21" t="s">
         <v>598</v>
       </c>
@@ -15849,7 +14469,7 @@
       <c r="N53" s="19"/>
       <c r="O53" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="54" spans="1:15">
+    <row r="54" spans="1:15" ht="23.1" customHeight="1">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="23" t="s">
@@ -15874,7 +14494,7 @@
       <c r="N54" s="19"/>
       <c r="O54" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="55" spans="1:15">
+    <row r="55" spans="1:15" ht="23.1" customHeight="1">
       <c r="A55" s="21" t="s">
         <v>846</v>
       </c>
@@ -15903,7 +14523,7 @@
       <c r="N55" s="19"/>
       <c r="O55" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="56" spans="1:15">
+    <row r="56" spans="1:15" ht="23.1" customHeight="1">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="23" t="s">
@@ -15928,7 +14548,7 @@
       <c r="N56" s="19"/>
       <c r="O56" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="57" spans="1:15">
+    <row r="57" spans="1:15" ht="23.1" customHeight="1">
       <c r="A57" s="37" t="s">
         <v>656</v>
       </c>
@@ -15957,7 +14577,7 @@
       <c r="N57" s="19"/>
       <c r="O57" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="58" spans="1:15">
+    <row r="58" spans="1:15" ht="23.1" customHeight="1">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
       <c r="C58" s="23" t="s">
@@ -15982,7 +14602,7 @@
       <c r="N58" s="19"/>
       <c r="O58" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="59" spans="1:15">
+    <row r="59" spans="1:15" ht="23.1" customHeight="1">
       <c r="A59" s="21" t="s">
         <v>853</v>
       </c>
@@ -16011,7 +14631,7 @@
       <c r="N59" s="19"/>
       <c r="O59" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="60" spans="1:15">
+    <row r="60" spans="1:15" ht="23.1" customHeight="1">
       <c r="A60" s="48"/>
       <c r="B60" s="49"/>
       <c r="C60" s="23" t="s">
@@ -16036,7 +14656,7 @@
       <c r="N60" s="19"/>
       <c r="O60" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="61" spans="1:15">
+    <row r="61" spans="1:15" ht="23.1" customHeight="1">
       <c r="A61" s="21" t="s">
         <v>857</v>
       </c>
@@ -16065,7 +14685,7 @@
       <c r="N61" s="19"/>
       <c r="O61" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="62" spans="1:15">
+    <row r="62" spans="1:15" ht="23.1" customHeight="1">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="23" t="s">
@@ -16090,7 +14710,7 @@
       <c r="N62" s="19"/>
       <c r="O62" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="63" spans="1:15">
+    <row r="63" spans="1:15" ht="23.1" customHeight="1">
       <c r="A63" s="21" t="s">
         <v>860</v>
       </c>
@@ -16119,7 +14739,7 @@
       <c r="N63" s="19"/>
       <c r="O63" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="64" spans="1:15">
+    <row r="64" spans="1:15" ht="23.1" customHeight="1">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="23" t="s">
@@ -16144,7 +14764,7 @@
       <c r="N64" s="19"/>
       <c r="O64" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="65" spans="1:15">
+    <row r="65" spans="1:15" ht="23.1" customHeight="1">
       <c r="A65" s="21" t="s">
         <v>641</v>
       </c>
@@ -16173,7 +14793,7 @@
       <c r="N65" s="19"/>
       <c r="O65" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="66" spans="1:15">
+    <row r="66" spans="1:15" ht="23.1" customHeight="1">
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="23" t="s">
@@ -16198,7 +14818,7 @@
       <c r="N66" s="19"/>
       <c r="O66" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="67" spans="1:15">
+    <row r="67" spans="1:15" ht="23.1" customHeight="1">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="23" t="s">
@@ -16223,7 +14843,7 @@
       <c r="N67" s="19"/>
       <c r="O67" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="68" spans="1:15">
+    <row r="68" spans="1:15" ht="23.1" customHeight="1">
       <c r="A68" s="21" t="s">
         <v>866</v>
       </c>
@@ -16252,7 +14872,7 @@
       <c r="N68" s="19"/>
       <c r="O68" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="69" spans="1:15">
+    <row r="69" spans="1:15" ht="23.1" customHeight="1">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="23" t="s">
@@ -16277,7 +14897,7 @@
       <c r="N69" s="19"/>
       <c r="O69" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="70" spans="1:15">
+    <row r="70" spans="1:15" ht="23.1" customHeight="1">
       <c r="A70" s="21" t="s">
         <v>868</v>
       </c>
@@ -16306,7 +14926,7 @@
       <c r="N70" s="19"/>
       <c r="O70" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="71" spans="1:15">
+    <row r="71" spans="1:15" ht="23.1" customHeight="1">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="23" t="s">
@@ -16331,7 +14951,7 @@
       <c r="N71" s="19"/>
       <c r="O71" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="72" spans="1:15">
+    <row r="72" spans="1:15" ht="23.1" customHeight="1">
       <c r="A72" s="21" t="s">
         <v>733</v>
       </c>
@@ -16360,7 +14980,7 @@
       <c r="N72" s="19"/>
       <c r="O72" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="73" spans="1:15">
+    <row r="73" spans="1:15" ht="23.1" customHeight="1">
       <c r="A73" s="21"/>
       <c r="B73" s="22"/>
       <c r="C73" s="23" t="s">
@@ -16385,7 +15005,7 @@
       <c r="N73" s="19"/>
       <c r="O73" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="74" spans="1:15">
+    <row r="74" spans="1:15" ht="23.1" customHeight="1">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="23" t="s">
@@ -16410,7 +15030,7 @@
       <c r="N74" s="19"/>
       <c r="O74" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="75" spans="1:15">
+    <row r="75" spans="1:15" ht="23.1" customHeight="1">
       <c r="A75" s="21" t="s">
         <v>873</v>
       </c>
@@ -16439,7 +15059,7 @@
       <c r="N75" s="19"/>
       <c r="O75" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="76" spans="1:15">
+    <row r="76" spans="1:15" ht="23.1" customHeight="1">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="23" t="s">
@@ -16464,7 +15084,7 @@
       <c r="N76" s="19"/>
       <c r="O76" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="77" spans="1:15">
+    <row r="77" spans="1:15" ht="23.1" customHeight="1">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="23" t="s">
@@ -16489,7 +15109,7 @@
       <c r="N77" s="19"/>
       <c r="O77" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="78" spans="1:15">
+    <row r="78" spans="1:15" ht="23.1" customHeight="1">
       <c r="A78" s="21" t="s">
         <v>876</v>
       </c>
@@ -16518,7 +15138,7 @@
       <c r="N78" s="19"/>
       <c r="O78" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="79" spans="1:15">
+    <row r="79" spans="1:15" ht="23.1" customHeight="1">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="23" t="s">
@@ -16543,7 +15163,7 @@
       <c r="N79" s="19"/>
       <c r="O79" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="80" spans="1:15">
+    <row r="80" spans="1:15" ht="23.1" customHeight="1">
       <c r="A80" s="21" t="s">
         <v>878</v>
       </c>
@@ -16570,7 +15190,7 @@
       <c r="N80" s="19"/>
       <c r="O80" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="81" spans="1:15">
+    <row r="81" spans="1:15" ht="23.1" customHeight="1">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="23" t="s">
@@ -16595,7 +15215,7 @@
       <c r="N81" s="19"/>
       <c r="O81" s="18"/>
     </row>
-    <row ht="75" r="82" spans="1:15">
+    <row r="82" spans="1:15" ht="75">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="23" t="s">
@@ -16620,7 +15240,7 @@
       <c r="N82" s="19"/>
       <c r="O82" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="83" spans="1:15">
+    <row r="83" spans="1:15" ht="23.1" customHeight="1">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="23" t="s">
@@ -16645,7 +15265,7 @@
       <c r="N83" s="19"/>
       <c r="O83" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="84" spans="1:15">
+    <row r="84" spans="1:15" ht="23.1" customHeight="1">
       <c r="A84" s="21"/>
       <c r="B84" s="22"/>
       <c r="C84" s="23" t="s">
@@ -16670,7 +15290,7 @@
       <c r="N84" s="19"/>
       <c r="O84" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="85" spans="1:15">
+    <row r="85" spans="1:15" ht="23.1" customHeight="1">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="23" t="s">
@@ -16695,7 +15315,7 @@
       <c r="N85" s="19"/>
       <c r="O85" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="86" spans="1:15">
+    <row r="86" spans="1:15" ht="23.1" customHeight="1">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="23" t="s">
@@ -16720,7 +15340,7 @@
       <c r="N86" s="19"/>
       <c r="O86" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="87" spans="1:15">
+    <row r="87" spans="1:15" ht="23.1" customHeight="1">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="23" t="s">
@@ -16743,7 +15363,7 @@
       <c r="N87" s="19"/>
       <c r="O87" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="88" spans="1:15">
+    <row r="88" spans="1:15" ht="23.1" customHeight="1">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="23"/>
@@ -16760,7 +15380,7 @@
       <c r="N88" s="19"/>
       <c r="O88" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="89" spans="1:15">
+    <row r="89" spans="1:15" ht="23.1" customHeight="1">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="23"/>
@@ -16777,7 +15397,7 @@
       <c r="N89" s="19"/>
       <c r="O89" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="90" spans="1:15">
+    <row r="90" spans="1:15" ht="23.1" customHeight="1">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="23"/>
@@ -16795,7 +15415,7 @@
       <c r="O90" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
+  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -16803,68 +15423,68 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N88:N90">
-    <cfRule dxfId="11" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N88,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule dxfId="10" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N88,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="9" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N88,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N87">
-    <cfRule dxfId="8" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="5" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule dxfId="7" operator="beginsWith" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="4" priority="5" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="6" operator="beginsWith" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="3" priority="6" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C15 C16 C17 C18 C21 C22 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C65 C66 C67 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C5:C7 C8:C14 C19:C20 C23:C24 C25:C26 C27:C28 C63:C64 C68:C69 C80:C90" type="list" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15 C16 C17 C18 C21 C22 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C65 C66 C67 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C5:C7 C8:C14 C19:C20 C23:C24 C25:C26 C27:C28 C63:C64 C68:C69 C80:C90" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D90" type="list" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D90" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P150"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O147"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A72" ySplit="4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection activeCell="A76" pane="bottomLeft" sqref="A76"/>
+      <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="67.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="35.125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="5" width="9.625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="6" width="29.625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="6" width="114.625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="6" width="65.875" collapsed="true"/>
-    <col min="7" max="9" customWidth="true" style="6" width="20.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="7" width="20.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="8" width="1.625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="9" width="12.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="10" width="12.5" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="9" width="19.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="8" width="49.875" collapsed="true"/>
-    <col min="16" max="16384" style="11" width="10.875" collapsed="true"/>
+    <col min="1" max="1" width="67.625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.625" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.5" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="114.625" style="6" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="68.625" style="6" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="20" style="6" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20" style="7" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="1.625" style="8" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12" style="9" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.5" style="10" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19" style="9" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="49.875" style="8" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="10.875" style="11" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="23.1" r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="23.1" customHeight="1">
       <c r="A1" s="60" t="s">
         <v>564</v>
       </c>
@@ -16895,7 +15515,7 @@
       <c r="N1" s="62"/>
       <c r="O1" s="63"/>
     </row>
-    <row customHeight="1" ht="99.95" r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="99.95" customHeight="1">
       <c r="A2" s="64" t="s">
         <v>894</v>
       </c>
@@ -16916,7 +15536,7 @@
       <c r="N2" s="67"/>
       <c r="O2" s="67"/>
     </row>
-    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="17"/>
@@ -16933,7 +15553,7 @@
       <c r="N3" s="19"/>
       <c r="O3" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="4" s="1" spans="1:15">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="24" customHeight="1">
       <c r="A4" s="20" t="s">
         <v>573</v>
       </c>
@@ -16978,13 +15598,11 @@
         <v>585</v>
       </c>
     </row>
-    <row customFormat="1" ht="90" r="5" s="2" spans="1:15">
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A5" s="21" t="s">
         <v>895</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>895</v>
-      </c>
+      <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
         <v>5</v>
       </c>
@@ -17007,7 +15625,7 @@
       <c r="N5" s="19"/>
       <c r="O5" s="18"/>
     </row>
-    <row customFormat="1" ht="195" r="6" s="2" spans="1:15">
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="195">
       <c r="A6" s="21"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23" t="s">
@@ -17032,13 +15650,11 @@
       <c r="N6" s="19"/>
       <c r="O6" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="7" s="2" spans="1:15">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A7" s="21" t="s">
         <v>900</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>900</v>
-      </c>
+      <c r="B7" s="22"/>
       <c r="C7" s="23" t="s">
         <v>5</v>
       </c>
@@ -17061,7 +15677,7 @@
       <c r="N7" s="19"/>
       <c r="O7" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="8" s="2" spans="1:15">
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A8" s="21"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23" t="s">
@@ -17086,13 +15702,11 @@
       <c r="N8" s="19"/>
       <c r="O8" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="9" s="2" spans="1:15">
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A9" s="21" t="s">
         <v>902</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>902</v>
-      </c>
+      <c r="B9" s="22"/>
       <c r="C9" s="23" t="s">
         <v>5</v>
       </c>
@@ -17115,7 +15729,7 @@
       <c r="N9" s="19"/>
       <c r="O9" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="10" s="2" spans="1:15">
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
       <c r="C10" s="23" t="s">
@@ -17140,7 +15754,7 @@
       <c r="N10" s="19"/>
       <c r="O10" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="11" s="2" spans="1:15">
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23" t="s">
@@ -17165,7 +15779,7 @@
       <c r="N11" s="19"/>
       <c r="O11" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="12" s="2" spans="1:15">
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A12" s="21"/>
       <c r="B12" s="22" t="s">
         <v>907</v>
@@ -17192,7 +15806,7 @@
       <c r="N12" s="19"/>
       <c r="O12" s="18"/>
     </row>
-    <row customFormat="1" ht="135" r="13" s="2" spans="1:15">
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="135">
       <c r="A13" s="21"/>
       <c r="B13" s="22" t="s">
         <v>907</v>
@@ -17219,13 +15833,11 @@
       <c r="N13" s="19"/>
       <c r="O13" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="14" s="2" spans="1:15">
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A14" s="21" t="s">
         <v>912</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>912</v>
-      </c>
+      <c r="B14" s="22"/>
       <c r="C14" s="23" t="s">
         <v>5</v>
       </c>
@@ -17248,7 +15860,7 @@
       <c r="N14" s="19"/>
       <c r="O14" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="15" s="2" spans="1:15">
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A15" s="21"/>
       <c r="B15" s="22"/>
       <c r="C15" s="23" t="s">
@@ -17273,7 +15885,7 @@
       <c r="N15" s="19"/>
       <c r="O15" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="16" s="2" spans="1:15">
+    <row r="16" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A16" s="21"/>
       <c r="B16" s="22"/>
       <c r="C16" s="23" t="s">
@@ -17296,13 +15908,11 @@
       <c r="N16" s="19"/>
       <c r="O16" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="17" s="2" spans="1:15">
+    <row r="17" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A17" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>614</v>
-      </c>
+      <c r="B17" s="22"/>
       <c r="C17" s="23" t="s">
         <v>5</v>
       </c>
@@ -17325,7 +15935,7 @@
       <c r="N17" s="19"/>
       <c r="O17" s="18"/>
     </row>
-    <row customFormat="1" ht="60" r="18" s="2" spans="1:15">
+    <row r="18" spans="1:15" s="2" customFormat="1" ht="60">
       <c r="A18" s="21"/>
       <c r="B18" s="22"/>
       <c r="C18" s="23" t="s">
@@ -17350,13 +15960,11 @@
       <c r="N18" s="19"/>
       <c r="O18" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="19" s="2" spans="1:15">
+    <row r="19" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A19" s="21" t="s">
         <v>919</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>919</v>
-      </c>
+      <c r="B19" s="22"/>
       <c r="C19" s="23" t="s">
         <v>5</v>
       </c>
@@ -17379,7 +15987,7 @@
       <c r="N19" s="19"/>
       <c r="O19" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="20" s="2" spans="1:15">
+    <row r="20" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A20" s="21"/>
       <c r="B20" s="22"/>
       <c r="C20" s="23" t="s">
@@ -17404,7 +16012,7 @@
       <c r="N20" s="19"/>
       <c r="O20" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="21" s="2" spans="1:15">
+    <row r="21" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A21" s="21"/>
       <c r="B21" s="22"/>
       <c r="C21" s="23" t="s">
@@ -17429,7 +16037,7 @@
       <c r="N21" s="19"/>
       <c r="O21" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="22" s="2" spans="1:15">
+    <row r="22" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A22" s="21"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23" t="s">
@@ -17452,13 +16060,11 @@
       <c r="N22" s="19"/>
       <c r="O22" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="23" s="2" spans="1:15">
+    <row r="23" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A23" s="21" t="s">
         <v>925</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>925</v>
-      </c>
+      <c r="B23" s="22"/>
       <c r="C23" s="23" t="s">
         <v>5</v>
       </c>
@@ -17481,7 +16087,7 @@
       <c r="N23" s="19"/>
       <c r="O23" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="24" s="2" spans="1:15">
+    <row r="24" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
       <c r="C24" s="23" t="s">
@@ -17506,7 +16112,7 @@
       <c r="N24" s="19"/>
       <c r="O24" s="18"/>
     </row>
-    <row customFormat="1" ht="135" r="25" s="2" spans="1:15">
+    <row r="25" spans="1:15" s="2" customFormat="1" ht="135">
       <c r="A25" s="21"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23" t="s">
@@ -17531,13 +16137,11 @@
       <c r="N25" s="19"/>
       <c r="O25" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="26" s="2" spans="1:15">
+    <row r="26" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A26" s="21" t="s">
         <v>931</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>931</v>
-      </c>
+      <c r="B26" s="22"/>
       <c r="C26" s="23" t="s">
         <v>5</v>
       </c>
@@ -17560,7 +16164,7 @@
       <c r="N26" s="19"/>
       <c r="O26" s="18"/>
     </row>
-    <row customFormat="1" ht="60" r="27" s="2" spans="1:15">
+    <row r="27" spans="1:15" s="2" customFormat="1" ht="60">
       <c r="A27" s="21"/>
       <c r="B27" s="22"/>
       <c r="C27" s="23" t="s">
@@ -17585,7 +16189,7 @@
       <c r="N27" s="19"/>
       <c r="O27" s="18"/>
     </row>
-    <row customFormat="1" ht="60" r="28" s="2" spans="1:15">
+    <row r="28" spans="1:15" s="2" customFormat="1" ht="60">
       <c r="A28" s="21"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23" t="s">
@@ -17610,13 +16214,11 @@
       <c r="N28" s="19"/>
       <c r="O28" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="29" s="2" spans="1:15">
+    <row r="29" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A29" s="21" t="s">
         <v>936</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>936</v>
-      </c>
+      <c r="B29" s="22"/>
       <c r="C29" s="23" t="s">
         <v>5</v>
       </c>
@@ -17639,7 +16241,7 @@
       <c r="N29" s="19"/>
       <c r="O29" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="102" r="30" s="2" spans="1:15">
+    <row r="30" spans="1:15" s="2" customFormat="1" ht="102" customHeight="1">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23" t="s">
@@ -17664,7 +16266,7 @@
       <c r="N30" s="19"/>
       <c r="O30" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="87" r="31" s="2" spans="1:15">
+    <row r="31" spans="1:15" s="2" customFormat="1" ht="87" customHeight="1">
       <c r="A31" s="21"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23" t="s">
@@ -17689,13 +16291,11 @@
       <c r="N31" s="19"/>
       <c r="O31" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="32" s="2" spans="1:15">
+    <row r="32" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A32" s="21" t="s">
         <v>943</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>943</v>
-      </c>
+      <c r="B32" s="22"/>
       <c r="C32" s="23" t="s">
         <v>5</v>
       </c>
@@ -17718,7 +16318,7 @@
       <c r="N32" s="19"/>
       <c r="O32" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="75" r="33" s="2" spans="1:15">
+    <row r="33" spans="1:15" s="2" customFormat="1" ht="75" customHeight="1">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="23" t="s">
@@ -17743,7 +16343,7 @@
       <c r="N33" s="19"/>
       <c r="O33" s="18"/>
     </row>
-    <row customFormat="1" ht="30" r="34" s="2" spans="1:15">
+    <row r="34" spans="1:15" s="2" customFormat="1" ht="30">
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
       <c r="C34" s="23" t="s">
@@ -17768,7 +16368,7 @@
       <c r="N34" s="19"/>
       <c r="O34" s="18"/>
     </row>
-    <row customFormat="1" ht="75" r="35" s="2" spans="1:15">
+    <row r="35" spans="1:15" s="2" customFormat="1" ht="75">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="23" t="s">
@@ -17793,7 +16393,7 @@
       <c r="N35" s="19"/>
       <c r="O35" s="18"/>
     </row>
-    <row customFormat="1" ht="75" r="36" s="2" spans="1:15">
+    <row r="36" spans="1:15" s="2" customFormat="1" ht="75">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="23" t="s">
@@ -17818,7 +16418,7 @@
       <c r="N36" s="19"/>
       <c r="O36" s="18"/>
     </row>
-    <row customFormat="1" ht="75" r="37" s="2" spans="1:15">
+    <row r="37" spans="1:15" s="2" customFormat="1" ht="75">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
       <c r="C37" s="23" t="s">
@@ -17843,13 +16443,11 @@
       <c r="N37" s="19"/>
       <c r="O37" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="38" s="2" spans="1:15">
+    <row r="38" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A38" s="27" t="s">
         <v>950</v>
       </c>
-      <c r="B38" s="28" t="s">
-        <v>950</v>
-      </c>
+      <c r="B38" s="28"/>
       <c r="C38" s="23" t="s">
         <v>5</v>
       </c>
@@ -17872,7 +16470,7 @@
       <c r="N38" s="19"/>
       <c r="O38" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="39" s="2" spans="1:15">
+    <row r="39" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="23" t="s">
@@ -17897,7 +16495,7 @@
       <c r="N39" s="19"/>
       <c r="O39" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="40" s="2" spans="1:15">
+    <row r="40" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="23" t="s">
@@ -17922,7 +16520,7 @@
       <c r="N40" s="19"/>
       <c r="O40" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="41" s="2" spans="1:15">
+    <row r="41" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="23" t="s">
@@ -17947,13 +16545,11 @@
       <c r="N41" s="19"/>
       <c r="O41" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="42" s="2" spans="1:15">
+    <row r="42" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A42" s="21" t="s">
         <v>956</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>956</v>
-      </c>
+      <c r="B42" s="22"/>
       <c r="C42" s="23" t="s">
         <v>5</v>
       </c>
@@ -17976,7 +16572,7 @@
       <c r="N42" s="19"/>
       <c r="O42" s="18"/>
     </row>
-    <row customFormat="1" ht="165" r="43" s="2" spans="1:15">
+    <row r="43" spans="1:15" s="2" customFormat="1" ht="165">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="23" t="s">
@@ -18001,13 +16597,11 @@
       <c r="N43" s="19"/>
       <c r="O43" s="18"/>
     </row>
-    <row customFormat="1" ht="105" r="44" s="2" spans="1:15">
+    <row r="44" spans="1:15" s="2" customFormat="1" ht="105">
       <c r="A44" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="B44" s="22"/>
       <c r="C44" s="23" t="s">
         <v>5</v>
       </c>
@@ -18030,7 +16624,7 @@
       <c r="N44" s="19"/>
       <c r="O44" s="18"/>
     </row>
-    <row customFormat="1" ht="409.5" r="45" s="2" spans="1:15">
+    <row r="45" spans="1:15" s="2" customFormat="1" ht="409.5">
       <c r="A45" s="21"/>
       <c r="B45" s="22"/>
       <c r="C45" s="23" t="s">
@@ -18055,7 +16649,7 @@
       <c r="N45" s="19"/>
       <c r="O45" s="18"/>
     </row>
-    <row customFormat="1" ht="409.5" r="46" s="2" spans="1:15">
+    <row r="46" spans="1:15" s="2" customFormat="1" ht="409.5">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="23" t="s">
@@ -18080,13 +16674,11 @@
       <c r="N46" s="19"/>
       <c r="O46" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="47" s="2" spans="1:15">
+    <row r="47" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A47" s="21" t="s">
         <v>618</v>
       </c>
-      <c r="B47" s="22" t="s">
-        <v>618</v>
-      </c>
+      <c r="B47" s="22"/>
       <c r="C47" s="23" t="s">
         <v>5</v>
       </c>
@@ -18109,7 +16701,7 @@
       <c r="N47" s="19"/>
       <c r="O47" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="48" s="2" spans="1:15">
+    <row r="48" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="23" t="s">
@@ -18134,7 +16726,7 @@
       <c r="N48" s="19"/>
       <c r="O48" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="49" s="2" spans="1:15">
+    <row r="49" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="23" t="s">
@@ -18159,7 +16751,7 @@
       <c r="N49" s="19"/>
       <c r="O49" s="18"/>
     </row>
-    <row customFormat="1" ht="75" r="50" s="2" spans="1:15">
+    <row r="50" spans="1:15" s="2" customFormat="1" ht="75">
       <c r="A50" s="21" t="s">
         <v>967</v>
       </c>
@@ -18188,7 +16780,7 @@
       <c r="N50" s="19"/>
       <c r="O50" s="18"/>
     </row>
-    <row customFormat="1" ht="75" r="51" s="2" spans="1:15">
+    <row r="51" spans="1:15" s="2" customFormat="1" ht="75">
       <c r="A51" s="21"/>
       <c r="B51" s="22"/>
       <c r="C51" s="23" t="s">
@@ -18213,7 +16805,7 @@
       <c r="N51" s="19"/>
       <c r="O51" s="18"/>
     </row>
-    <row customFormat="1" ht="75" r="52" s="2" spans="1:15">
+    <row r="52" spans="1:15" s="2" customFormat="1" ht="75">
       <c r="A52" s="21"/>
       <c r="B52" s="22"/>
       <c r="C52" s="23" t="s">
@@ -18238,7 +16830,7 @@
       <c r="N52" s="19"/>
       <c r="O52" s="18"/>
     </row>
-    <row customFormat="1" ht="75" r="53" s="2" spans="1:15">
+    <row r="53" spans="1:15" s="2" customFormat="1" ht="75">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="23" t="s">
@@ -18263,7 +16855,7 @@
       <c r="N53" s="19"/>
       <c r="O53" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="54" s="2" spans="1:15">
+    <row r="54" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A54" s="29"/>
       <c r="B54" s="30" t="s">
         <v>976</v>
@@ -18290,7 +16882,7 @@
       <c r="N54" s="19"/>
       <c r="O54" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="55" s="2" spans="1:15">
+    <row r="55" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="23" t="s">
@@ -18315,7 +16907,7 @@
       <c r="N55" s="19"/>
       <c r="O55" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="56" s="2" spans="1:15">
+    <row r="56" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="23" t="s">
@@ -18340,7 +16932,7 @@
       <c r="N56" s="19"/>
       <c r="O56" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="57" s="2" spans="1:15">
+    <row r="57" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
       <c r="C57" s="23" t="s">
@@ -18365,7 +16957,7 @@
       <c r="N57" s="19"/>
       <c r="O57" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="58" s="2" spans="1:15">
+    <row r="58" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A58" s="21"/>
       <c r="B58" s="22" t="s">
         <v>968</v>
@@ -18392,7 +16984,7 @@
       <c r="N58" s="19"/>
       <c r="O58" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="59" s="2" spans="1:15">
+    <row r="59" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="23" t="s">
@@ -18417,7 +17009,7 @@
       <c r="N59" s="19"/>
       <c r="O59" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="60" s="2" spans="1:15">
+    <row r="60" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="23" t="s">
@@ -18442,7 +17034,7 @@
       <c r="N60" s="19"/>
       <c r="O60" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="61" s="2" spans="1:15">
+    <row r="61" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="23" t="s">
@@ -18467,7 +17059,7 @@
       <c r="N61" s="19"/>
       <c r="O61" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="62" s="2" spans="1:15">
+    <row r="62" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="23" t="s">
@@ -18492,7 +17084,7 @@
       <c r="N62" s="19"/>
       <c r="O62" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="63" s="2" spans="1:15">
+    <row r="63" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="23" t="s">
@@ -18515,7 +17107,7 @@
       <c r="N63" s="19"/>
       <c r="O63" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="64" s="2" spans="1:15">
+    <row r="64" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="23" t="s">
@@ -18538,7 +17130,7 @@
       <c r="N64" s="19"/>
       <c r="O64" s="18"/>
     </row>
-    <row customFormat="1" ht="60" r="65" s="2" spans="1:15">
+    <row r="65" spans="1:15" s="2" customFormat="1" ht="60">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="23" t="s">
@@ -18563,7 +17155,7 @@
       <c r="N65" s="19"/>
       <c r="O65" s="18"/>
     </row>
-    <row customFormat="1" ht="60" r="66" s="2" spans="1:15">
+    <row r="66" spans="1:15" s="2" customFormat="1" ht="60">
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="23" t="s">
@@ -18588,7 +17180,7 @@
       <c r="N66" s="19"/>
       <c r="O66" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="67" s="2" spans="1:15">
+    <row r="67" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="23" t="s">
@@ -18611,7 +17203,7 @@
       <c r="N67" s="19"/>
       <c r="O67" s="18"/>
     </row>
-    <row customFormat="1" ht="60" r="68" s="2" spans="1:15">
+    <row r="68" spans="1:15" s="2" customFormat="1" ht="60">
       <c r="A68" s="21"/>
       <c r="B68" s="22" t="s">
         <v>995</v>
@@ -18638,7 +17230,7 @@
       <c r="N68" s="19"/>
       <c r="O68" s="18"/>
     </row>
-    <row customFormat="1" ht="75" r="69" s="2" spans="1:15">
+    <row r="69" spans="1:15" s="2" customFormat="1" ht="75">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="23" t="s">
@@ -18663,7 +17255,7 @@
       <c r="N69" s="19"/>
       <c r="O69" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="70" s="2" spans="1:15">
+    <row r="70" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="23" t="s">
@@ -18686,7 +17278,7 @@
       <c r="N70" s="19"/>
       <c r="O70" s="18"/>
     </row>
-    <row customFormat="1" ht="60" r="71" s="2" spans="1:15">
+    <row r="71" spans="1:15" s="2" customFormat="1" ht="60">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="23" t="s">
@@ -18711,7 +17303,7 @@
       <c r="N71" s="19"/>
       <c r="O71" s="18"/>
     </row>
-    <row customFormat="1" ht="60" r="72" s="2" spans="1:15">
+    <row r="72" spans="1:15" s="2" customFormat="1" ht="60">
       <c r="A72" s="21"/>
       <c r="B72" s="22"/>
       <c r="C72" s="23" t="s">
@@ -18736,13 +17328,11 @@
       <c r="N72" s="19"/>
       <c r="O72" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="73" s="2" spans="1:15">
+    <row r="73" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A73" s="21" t="s">
         <v>1003</v>
       </c>
-      <c r="B73" s="22" t="s">
-        <v>1003</v>
-      </c>
+      <c r="B73" s="22"/>
       <c r="C73" s="23" t="s">
         <v>5</v>
       </c>
@@ -18765,7 +17355,7 @@
       <c r="N73" s="19"/>
       <c r="O73" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="74" s="2" spans="1:15">
+    <row r="74" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="23" t="s">
@@ -18790,13 +17380,11 @@
       <c r="N74" s="19"/>
       <c r="O74" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="75" s="2" spans="1:15">
+    <row r="75" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A75" s="37" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B75" s="38" t="s">
-        <v>1007</v>
-      </c>
+        <v>1125</v>
+      </c>
+      <c r="B75" s="38"/>
       <c r="C75" s="23" t="s">
         <v>5</v>
       </c>
@@ -18807,7 +17395,7 @@
         <v>896</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G75" s="24"/>
       <c r="H75" s="24"/>
@@ -18819,7 +17407,7 @@
       <c r="N75" s="19"/>
       <c r="O75" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="76" s="2" spans="1:15">
+    <row r="76" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="23" t="s">
@@ -18829,10 +17417,10 @@
         <v>42</v>
       </c>
       <c r="E76" s="25" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F76" s="25" t="s">
         <v>1009</v>
-      </c>
-      <c r="F76" s="25" t="s">
-        <v>1010</v>
       </c>
       <c r="G76" s="25"/>
       <c r="H76" s="24"/>
@@ -18844,7 +17432,7 @@
       <c r="N76" s="19"/>
       <c r="O76" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="77" s="2" spans="1:15">
+    <row r="77" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="23" t="s">
@@ -18854,10 +17442,10 @@
         <v>42</v>
       </c>
       <c r="E77" s="25" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F77" s="25" t="s">
         <v>1011</v>
-      </c>
-      <c r="F77" s="25" t="s">
-        <v>1012</v>
       </c>
       <c r="G77" s="25"/>
       <c r="H77" s="24"/>
@@ -18869,13 +17457,11 @@
       <c r="N77" s="19"/>
       <c r="O77" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="78" s="2" spans="1:15">
+    <row r="78" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A78" s="21" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>1013</v>
-      </c>
+        <v>1012</v>
+      </c>
+      <c r="B78" s="22"/>
       <c r="C78" s="23" t="s">
         <v>5</v>
       </c>
@@ -18886,7 +17472,7 @@
         <v>896</v>
       </c>
       <c r="F78" s="39" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G78" s="24"/>
       <c r="H78" s="24"/>
@@ -18898,7 +17484,7 @@
       <c r="N78" s="19"/>
       <c r="O78" s="18"/>
     </row>
-    <row customFormat="1" ht="45" r="79" s="2" spans="1:15">
+    <row r="79" spans="1:15" s="2" customFormat="1" ht="45">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="23" t="s">
@@ -18908,10 +17494,10 @@
         <v>42</v>
       </c>
       <c r="E79" s="25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F79" s="39" t="s">
         <v>1015</v>
-      </c>
-      <c r="F79" s="39" t="s">
-        <v>1016</v>
       </c>
       <c r="G79" s="25"/>
       <c r="H79" s="24"/>
@@ -18923,7 +17509,7 @@
       <c r="N79" s="19"/>
       <c r="O79" s="18"/>
     </row>
-    <row customFormat="1" ht="45" r="80" s="2" spans="1:15">
+    <row r="80" spans="1:15" s="2" customFormat="1" ht="45">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="23" t="s">
@@ -18933,10 +17519,10 @@
         <v>42</v>
       </c>
       <c r="E80" s="40" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F80" s="25" t="s">
         <v>1017</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>1018</v>
       </c>
       <c r="G80" s="25"/>
       <c r="H80" s="24"/>
@@ -18948,7 +17534,7 @@
       <c r="N80" s="19"/>
       <c r="O80" s="18"/>
     </row>
-    <row customFormat="1" ht="75" r="81" s="2" spans="1:15">
+    <row r="81" spans="1:15" s="2" customFormat="1" ht="75">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="23" t="s">
@@ -18958,10 +17544,10 @@
         <v>42</v>
       </c>
       <c r="E81" s="25" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F81" s="39" t="s">
         <v>1019</v>
-      </c>
-      <c r="F81" s="39" t="s">
-        <v>1020</v>
       </c>
       <c r="G81" s="25"/>
       <c r="H81" s="24"/>
@@ -18973,13 +17559,11 @@
       <c r="N81" s="19"/>
       <c r="O81" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="82" s="2" spans="1:15">
+    <row r="82" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A82" s="37" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B82" s="38" t="s">
-        <v>1021</v>
-      </c>
+        <v>1020</v>
+      </c>
+      <c r="B82" s="38"/>
       <c r="C82" s="23" t="s">
         <v>5</v>
       </c>
@@ -18990,7 +17574,7 @@
         <v>896</v>
       </c>
       <c r="F82" s="25" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G82" s="24"/>
       <c r="H82" s="24"/>
@@ -19002,7 +17586,7 @@
       <c r="N82" s="19"/>
       <c r="O82" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="83" s="2" spans="1:15">
+    <row r="83" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="23" t="s">
@@ -19012,10 +17596,10 @@
         <v>42</v>
       </c>
       <c r="E83" s="25" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F83" s="25" t="s">
         <v>1023</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>1024</v>
       </c>
       <c r="G83" s="25"/>
       <c r="H83" s="24"/>
@@ -19027,9 +17611,9 @@
       <c r="N83" s="19"/>
       <c r="O83" s="18"/>
     </row>
-    <row customFormat="1" ht="165" r="84" s="2" spans="1:15">
+    <row r="84" spans="1:15" s="2" customFormat="1" ht="165">
       <c r="A84" s="21" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B84" s="22"/>
       <c r="C84" s="23" t="s">
@@ -19039,10 +17623,10 @@
         <v>42</v>
       </c>
       <c r="E84" s="25" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F84" s="25" t="s">
         <v>1026</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>1027</v>
       </c>
       <c r="G84" s="25"/>
       <c r="H84" s="24"/>
@@ -19054,9 +17638,9 @@
       <c r="N84" s="19"/>
       <c r="O84" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="85" s="2" spans="1:15">
+    <row r="85" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A85" s="41" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B85" s="38"/>
       <c r="C85" s="23" t="s">
@@ -19069,7 +17653,7 @@
         <v>896</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G85" s="24"/>
       <c r="H85" s="24"/>
@@ -19081,10 +17665,10 @@
       <c r="N85" s="19"/>
       <c r="O85" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="86" s="2" spans="1:15">
+    <row r="86" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A86" s="21"/>
       <c r="B86" s="22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C86" s="23" t="s">
         <v>5</v>
@@ -19093,10 +17677,10 @@
         <v>42</v>
       </c>
       <c r="E86" s="25" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F86" s="25" t="s">
         <v>1031</v>
-      </c>
-      <c r="F86" s="25" t="s">
-        <v>1032</v>
       </c>
       <c r="G86" s="25"/>
       <c r="H86" s="24"/>
@@ -19108,10 +17692,10 @@
       <c r="N86" s="19"/>
       <c r="O86" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="87" s="2" spans="1:15">
+    <row r="87" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A87" s="21"/>
       <c r="B87" s="22" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C87" s="23" t="s">
         <v>5</v>
@@ -19120,10 +17704,10 @@
         <v>42</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F87" s="25" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G87" s="25"/>
       <c r="H87" s="24"/>
@@ -19135,10 +17719,10 @@
       <c r="N87" s="19"/>
       <c r="O87" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="88" s="2" spans="1:15">
+    <row r="88" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A88" s="21"/>
       <c r="B88" s="22" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C88" s="23" t="s">
         <v>5</v>
@@ -19147,10 +17731,10 @@
         <v>42</v>
       </c>
       <c r="E88" s="25" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F88" s="25" t="s">
         <v>1036</v>
-      </c>
-      <c r="F88" s="25" t="s">
-        <v>1037</v>
       </c>
       <c r="G88" s="25"/>
       <c r="H88" s="24"/>
@@ -19162,7 +17746,7 @@
       <c r="N88" s="19"/>
       <c r="O88" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="89" s="2" spans="1:15">
+    <row r="89" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="23" t="s">
@@ -19172,10 +17756,10 @@
         <v>42</v>
       </c>
       <c r="E89" s="25" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F89" s="25" t="s">
         <v>1038</v>
-      </c>
-      <c r="F89" s="25" t="s">
-        <v>1039</v>
       </c>
       <c r="G89" s="25"/>
       <c r="H89" s="24"/>
@@ -19187,13 +17771,11 @@
       <c r="N89" s="19"/>
       <c r="O89" s="18"/>
     </row>
-    <row customFormat="1" ht="105" r="90" s="2" spans="1:15">
+    <row r="90" spans="1:15" s="2" customFormat="1" ht="105">
       <c r="A90" s="21" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B90" s="22" t="s">
-        <v>1040</v>
-      </c>
+        <v>1039</v>
+      </c>
+      <c r="B90" s="22"/>
       <c r="C90" s="23" t="s">
         <v>5</v>
       </c>
@@ -19204,7 +17786,7 @@
         <v>896</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G90" s="24"/>
       <c r="H90" s="24"/>
@@ -19216,10 +17798,10 @@
       <c r="N90" s="19"/>
       <c r="O90" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="91" s="2" spans="1:15">
+    <row r="91" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A91" s="21"/>
       <c r="B91" s="22" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C91" s="23" t="s">
         <v>5</v>
@@ -19228,10 +17810,10 @@
         <v>42</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G91" s="25"/>
       <c r="H91" s="24"/>
@@ -19243,7 +17825,7 @@
       <c r="N91" s="19"/>
       <c r="O91" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="92" s="2" spans="1:15">
+    <row r="92" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A92" s="21"/>
       <c r="B92" s="22" t="s">
         <v>804</v>
@@ -19255,10 +17837,10 @@
         <v>42</v>
       </c>
       <c r="E92" s="25" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F92" s="25" t="s">
         <v>1044</v>
-      </c>
-      <c r="F92" s="25" t="s">
-        <v>1045</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="24"/>
@@ -19270,10 +17852,10 @@
       <c r="N92" s="19"/>
       <c r="O92" s="18"/>
     </row>
-    <row customFormat="1" ht="105" r="93" s="2" spans="1:15">
+    <row r="93" spans="1:15" s="2" customFormat="1" ht="105">
       <c r="A93" s="21"/>
       <c r="B93" s="22" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C93" s="23" t="s">
         <v>5</v>
@@ -19282,10 +17864,10 @@
         <v>42</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F93" s="25" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G93" s="25"/>
       <c r="H93" s="24"/>
@@ -19297,13 +17879,11 @@
       <c r="N93" s="19"/>
       <c r="O93" s="18"/>
     </row>
-    <row customFormat="1" ht="105" r="94" s="2" spans="1:15">
+    <row r="94" spans="1:15" s="2" customFormat="1" ht="105">
       <c r="A94" s="21" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B94" s="22" t="s">
-        <v>1048</v>
-      </c>
+        <v>1047</v>
+      </c>
+      <c r="B94" s="22"/>
       <c r="C94" s="23" t="s">
         <v>5</v>
       </c>
@@ -19314,7 +17894,7 @@
         <v>896</v>
       </c>
       <c r="F94" s="25" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="G94" s="25"/>
       <c r="H94" s="24"/>
@@ -19326,7 +17906,7 @@
       <c r="N94" s="19"/>
       <c r="O94" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="23.1" r="95" s="2" spans="1:15">
+    <row r="95" spans="1:15" s="2" customFormat="1" ht="23.1" customHeight="1">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="23" t="s">
@@ -19336,10 +17916,10 @@
         <v>42</v>
       </c>
       <c r="E95" s="25" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F95" s="25" t="s">
         <v>1049</v>
-      </c>
-      <c r="F95" s="25" t="s">
-        <v>1050</v>
       </c>
       <c r="G95" s="25"/>
       <c r="H95" s="24"/>
@@ -19351,13 +17931,11 @@
       <c r="N95" s="19"/>
       <c r="O95" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="96" s="2" spans="1:15">
+    <row r="96" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A96" s="21" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B96" s="22" t="s">
-        <v>1051</v>
-      </c>
+        <v>1050</v>
+      </c>
+      <c r="B96" s="22"/>
       <c r="C96" s="23" t="s">
         <v>5</v>
       </c>
@@ -19368,7 +17946,7 @@
         <v>896</v>
       </c>
       <c r="F96" s="25" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G96" s="24"/>
       <c r="H96" s="24"/>
@@ -19380,7 +17958,7 @@
       <c r="N96" s="19"/>
       <c r="O96" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="97" s="2" spans="1:15">
+    <row r="97" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="23" t="s">
@@ -19393,7 +17971,7 @@
         <v>789</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G97" s="24"/>
       <c r="H97" s="24"/>
@@ -19405,13 +17983,11 @@
       <c r="N97" s="19"/>
       <c r="O97" s="18"/>
     </row>
-    <row customFormat="1" ht="105" r="98" s="2" spans="1:15">
+    <row r="98" spans="1:15" s="2" customFormat="1" ht="105">
       <c r="A98" s="21" t="s">
         <v>725</v>
       </c>
-      <c r="B98" s="22" t="s">
-        <v>725</v>
-      </c>
+      <c r="B98" s="22"/>
       <c r="C98" s="23" t="s">
         <v>5</v>
       </c>
@@ -19422,7 +17998,7 @@
         <v>896</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G98" s="24"/>
       <c r="H98" s="24"/>
@@ -19434,7 +18010,7 @@
       <c r="N98" s="19"/>
       <c r="O98" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="99" s="2" spans="1:15">
+    <row r="99" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A99" s="21"/>
       <c r="B99" s="22"/>
       <c r="C99" s="23" t="s">
@@ -19444,10 +18020,10 @@
         <v>42</v>
       </c>
       <c r="E99" s="25" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F99" s="25" t="s">
         <v>1054</v>
-      </c>
-      <c r="F99" s="25" t="s">
-        <v>1055</v>
       </c>
       <c r="G99" s="25"/>
       <c r="H99" s="24"/>
@@ -19459,13 +18035,11 @@
       <c r="N99" s="19"/>
       <c r="O99" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="100" s="2" spans="1:15">
+    <row r="100" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A100" s="21" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B100" s="22" t="s">
-        <v>1056</v>
-      </c>
+        <v>1055</v>
+      </c>
+      <c r="B100" s="22"/>
       <c r="C100" s="23" t="s">
         <v>5</v>
       </c>
@@ -19476,7 +18050,7 @@
         <v>896</v>
       </c>
       <c r="F100" s="25" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G100" s="24"/>
       <c r="H100" s="24"/>
@@ -19488,7 +18062,7 @@
       <c r="N100" s="19"/>
       <c r="O100" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="101" s="2" spans="1:15">
+    <row r="101" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A101" s="21"/>
       <c r="B101" s="22"/>
       <c r="C101" s="23" t="s">
@@ -19498,10 +18072,10 @@
         <v>42</v>
       </c>
       <c r="E101" s="25" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F101" s="25" t="s">
         <v>1057</v>
-      </c>
-      <c r="F101" s="25" t="s">
-        <v>1058</v>
       </c>
       <c r="G101" s="25"/>
       <c r="H101" s="24"/>
@@ -19513,13 +18087,11 @@
       <c r="N101" s="19"/>
       <c r="O101" s="18"/>
     </row>
-    <row customFormat="1" ht="105" r="102" s="2" spans="1:15">
+    <row r="102" spans="1:15" s="2" customFormat="1" ht="105">
       <c r="A102" s="21" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B102" s="22" t="s">
-        <v>1059</v>
-      </c>
+        <v>1058</v>
+      </c>
+      <c r="B102" s="22"/>
       <c r="C102" s="23" t="s">
         <v>5</v>
       </c>
@@ -19530,7 +18102,7 @@
         <v>896</v>
       </c>
       <c r="F102" s="25" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G102" s="24"/>
       <c r="H102" s="24"/>
@@ -19542,7 +18114,7 @@
       <c r="N102" s="19"/>
       <c r="O102" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="103" s="2" spans="1:15">
+    <row r="103" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="23" t="s">
@@ -19552,10 +18124,10 @@
         <v>42</v>
       </c>
       <c r="E103" s="25" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F103" s="25" t="s">
         <v>1060</v>
-      </c>
-      <c r="F103" s="25" t="s">
-        <v>1061</v>
       </c>
       <c r="G103" s="25"/>
       <c r="H103" s="24"/>
@@ -19567,7 +18139,7 @@
       <c r="N103" s="19"/>
       <c r="O103" s="18"/>
     </row>
-    <row customFormat="1" ht="30" r="104" s="2" spans="1:15">
+    <row r="104" spans="1:15" s="2" customFormat="1" ht="30">
       <c r="A104" s="21"/>
       <c r="B104" s="22"/>
       <c r="C104" s="23" t="s">
@@ -19577,10 +18149,10 @@
         <v>42</v>
       </c>
       <c r="E104" s="25" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F104" s="25" t="s">
         <v>1062</v>
-      </c>
-      <c r="F104" s="25" t="s">
-        <v>1063</v>
       </c>
       <c r="G104" s="25"/>
       <c r="H104" s="24"/>
@@ -19592,10 +18164,10 @@
       <c r="N104" s="19"/>
       <c r="O104" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="105" s="2" spans="1:15">
+    <row r="105" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A105" s="21"/>
       <c r="B105" s="22" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C105" s="23" t="s">
         <v>5</v>
@@ -19604,10 +18176,10 @@
         <v>42</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="G105" s="25"/>
       <c r="H105" s="24"/>
@@ -19619,7 +18191,7 @@
       <c r="N105" s="19"/>
       <c r="O105" s="18"/>
     </row>
-    <row customFormat="1" ht="30" r="106" s="2" spans="1:15">
+    <row r="106" spans="1:15" s="2" customFormat="1" ht="30">
       <c r="A106" s="21"/>
       <c r="B106" s="22"/>
       <c r="C106" s="23" t="s">
@@ -19629,10 +18201,10 @@
         <v>42</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G106" s="25"/>
       <c r="H106" s="24"/>
@@ -19644,10 +18216,10 @@
       <c r="N106" s="19"/>
       <c r="O106" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="107" s="2" spans="1:15">
+    <row r="107" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A107" s="21"/>
       <c r="B107" s="22" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C107" s="23" t="s">
         <v>5</v>
@@ -19656,10 +18228,10 @@
         <v>42</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F107" s="25" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G107" s="25"/>
       <c r="H107" s="24"/>
@@ -19671,7 +18243,7 @@
       <c r="N107" s="19"/>
       <c r="O107" s="18"/>
     </row>
-    <row customFormat="1" ht="30" r="108" s="2" spans="1:15">
+    <row r="108" spans="1:15" s="2" customFormat="1" ht="30">
       <c r="A108" s="21"/>
       <c r="B108" s="22"/>
       <c r="C108" s="23" t="s">
@@ -19681,10 +18253,10 @@
         <v>42</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F108" s="25" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G108" s="25"/>
       <c r="H108" s="24"/>
@@ -19696,10 +18268,10 @@
       <c r="N108" s="19"/>
       <c r="O108" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="109" s="2" spans="1:15">
+    <row r="109" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A109" s="21"/>
       <c r="B109" s="59" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C109" s="23" t="s">
         <v>5</v>
@@ -19708,10 +18280,10 @@
         <v>42</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F109" s="25" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G109" s="25"/>
       <c r="H109" s="24"/>
@@ -19723,10 +18295,10 @@
       <c r="N109" s="19"/>
       <c r="O109" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="110" s="2" spans="1:15">
+    <row r="110" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A110" s="21"/>
       <c r="B110" s="59" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C110" s="23" t="s">
         <v>5</v>
@@ -19735,10 +18307,10 @@
         <v>42</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F110" s="25" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="G110" s="25"/>
       <c r="H110" s="24"/>
@@ -19750,10 +18322,10 @@
       <c r="N110" s="19"/>
       <c r="O110" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="111" s="2" spans="1:15">
+    <row r="111" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A111" s="21"/>
       <c r="B111" s="22" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C111" s="23" t="s">
         <v>5</v>
@@ -19762,10 +18334,10 @@
         <v>42</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F111" s="25" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G111" s="25"/>
       <c r="H111" s="24"/>
@@ -19777,7 +18349,7 @@
       <c r="N111" s="19"/>
       <c r="O111" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="112" s="2" spans="1:15">
+    <row r="112" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A112" s="21" t="s">
         <v>876</v>
       </c>
@@ -19792,7 +18364,7 @@
         <v>896</v>
       </c>
       <c r="F112" s="25" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G112" s="24"/>
       <c r="H112" s="24"/>
@@ -19804,7 +18376,7 @@
       <c r="N112" s="19"/>
       <c r="O112" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="113" s="2" spans="1:15">
+    <row r="113" spans="1:15" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A113" s="21"/>
       <c r="B113" s="22"/>
       <c r="C113" s="23" t="s">
@@ -19817,7 +18389,7 @@
         <v>789</v>
       </c>
       <c r="F113" s="25" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G113" s="24"/>
       <c r="H113" s="24"/>
@@ -19829,13 +18401,11 @@
       <c r="N113" s="19"/>
       <c r="O113" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="114" s="2" spans="1:15">
+    <row r="114" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A114" s="21" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B114" s="22" t="s">
-        <v>1075</v>
-      </c>
+        <v>1074</v>
+      </c>
+      <c r="B114" s="22"/>
       <c r="C114" s="23" t="s">
         <v>5</v>
       </c>
@@ -19846,7 +18416,7 @@
         <v>896</v>
       </c>
       <c r="F114" s="25" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G114" s="24"/>
       <c r="H114" s="24"/>
@@ -19858,7 +18428,7 @@
       <c r="N114" s="19"/>
       <c r="O114" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="115" s="2" spans="1:15">
+    <row r="115" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A115" s="21"/>
       <c r="B115" s="22"/>
       <c r="C115" s="23" t="s">
@@ -19868,10 +18438,10 @@
         <v>42</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F115" s="25" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="G115" s="6"/>
       <c r="H115" s="24"/>
@@ -19883,10 +18453,10 @@
       <c r="N115" s="19"/>
       <c r="O115" s="18"/>
     </row>
-    <row customFormat="1" ht="105" r="116" s="2" spans="1:15">
+    <row r="116" spans="1:15" s="2" customFormat="1" ht="105">
       <c r="A116" s="21"/>
       <c r="B116" s="22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C116" s="23" t="s">
         <v>5</v>
@@ -19895,10 +18465,10 @@
         <v>42</v>
       </c>
       <c r="E116" s="25" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F116" s="25" t="s">
         <v>1078</v>
-      </c>
-      <c r="F116" s="25" t="s">
-        <v>1079</v>
       </c>
       <c r="G116" s="6"/>
       <c r="H116" s="24"/>
@@ -19910,13 +18480,11 @@
       <c r="N116" s="19"/>
       <c r="O116" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="117" s="2" spans="1:15">
+    <row r="117" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A117" s="21" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B117" s="22" t="s">
-        <v>1080</v>
-      </c>
+        <v>1079</v>
+      </c>
+      <c r="B117" s="22"/>
       <c r="C117" s="23" t="s">
         <v>5</v>
       </c>
@@ -19927,7 +18495,7 @@
         <v>896</v>
       </c>
       <c r="F117" s="25" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G117" s="24"/>
       <c r="H117" s="24"/>
@@ -19939,7 +18507,7 @@
       <c r="N117" s="19"/>
       <c r="O117" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="118" s="2" spans="1:15">
+    <row r="118" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A118" s="21"/>
       <c r="B118" s="22"/>
       <c r="C118" s="23" t="s">
@@ -19949,10 +18517,10 @@
         <v>42</v>
       </c>
       <c r="E118" s="25" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F118" s="25" t="s">
         <v>1081</v>
-      </c>
-      <c r="F118" s="25" t="s">
-        <v>1082</v>
       </c>
       <c r="G118" s="6"/>
       <c r="H118" s="24"/>
@@ -19964,10 +18532,10 @@
       <c r="N118" s="19"/>
       <c r="O118" s="18"/>
     </row>
-    <row customFormat="1" ht="105" r="119" s="2" spans="1:15">
+    <row r="119" spans="1:15" s="2" customFormat="1" ht="105">
       <c r="A119" s="21"/>
       <c r="B119" s="22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C119" s="23" t="s">
         <v>5</v>
@@ -19976,10 +18544,10 @@
         <v>42</v>
       </c>
       <c r="E119" s="25" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F119" s="25" t="s">
         <v>1083</v>
-      </c>
-      <c r="F119" s="25" t="s">
-        <v>1084</v>
       </c>
       <c r="G119" s="6"/>
       <c r="H119" s="24"/>
@@ -19991,13 +18559,11 @@
       <c r="N119" s="19"/>
       <c r="O119" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="120" s="2" spans="1:15">
+    <row r="120" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A120" s="21" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B120" s="22" t="s">
-        <v>1085</v>
-      </c>
+        <v>1084</v>
+      </c>
+      <c r="B120" s="22"/>
       <c r="C120" s="23" t="s">
         <v>5</v>
       </c>
@@ -20008,7 +18574,7 @@
         <v>896</v>
       </c>
       <c r="F120" s="25" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="G120" s="6"/>
       <c r="H120" s="24"/>
@@ -20020,7 +18586,7 @@
       <c r="N120" s="19"/>
       <c r="O120" s="18"/>
     </row>
-    <row customFormat="1" ht="75" r="121" s="2" spans="1:15">
+    <row r="121" spans="1:15" s="2" customFormat="1" ht="75">
       <c r="A121" s="21"/>
       <c r="B121" s="22"/>
       <c r="C121" s="23" t="s">
@@ -20030,10 +18596,10 @@
         <v>42</v>
       </c>
       <c r="E121" s="25" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F121" s="25" t="s">
         <v>1087</v>
-      </c>
-      <c r="F121" s="25" t="s">
-        <v>1088</v>
       </c>
       <c r="G121" s="24"/>
       <c r="H121" s="24"/>
@@ -20045,7 +18611,7 @@
       <c r="N121" s="19"/>
       <c r="O121" s="18"/>
     </row>
-    <row customFormat="1" ht="60" r="122" s="2" spans="1:15">
+    <row r="122" spans="1:15" s="2" customFormat="1" ht="60">
       <c r="A122" s="21"/>
       <c r="B122" s="22"/>
       <c r="C122" s="23" t="s">
@@ -20055,10 +18621,10 @@
         <v>42</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F122" s="25" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G122" s="6"/>
       <c r="H122" s="24"/>
@@ -20070,12 +18636,12 @@
       <c r="N122" s="19"/>
       <c r="O122" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="123" s="2" spans="1:15">
+    <row r="123" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A123" s="21" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B123" s="22" t="s">
         <v>1090</v>
-      </c>
-      <c r="B123" s="22" t="s">
-        <v>1091</v>
       </c>
       <c r="C123" s="23" t="s">
         <v>5</v>
@@ -20087,7 +18653,7 @@
         <v>6</v>
       </c>
       <c r="F123" s="25" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="G123" s="24"/>
       <c r="H123" s="24"/>
@@ -20099,7 +18665,7 @@
       <c r="N123" s="19"/>
       <c r="O123" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="124" s="2" spans="1:15">
+    <row r="124" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="23" t="s">
@@ -20109,10 +18675,10 @@
         <v>42</v>
       </c>
       <c r="E124" s="25" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F124" s="42" t="s">
         <v>1093</v>
-      </c>
-      <c r="F124" s="42" t="s">
-        <v>1094</v>
       </c>
       <c r="G124" s="6"/>
       <c r="H124" s="24"/>
@@ -20124,10 +18690,10 @@
       <c r="N124" s="19"/>
       <c r="O124" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="125" s="2" spans="1:15">
+    <row r="125" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A125" s="21"/>
       <c r="B125" s="22" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C125" s="23" t="s">
         <v>5</v>
@@ -20139,7 +18705,7 @@
         <v>6</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="G125" s="24"/>
       <c r="H125" s="24"/>
@@ -20151,7 +18717,7 @@
       <c r="N125" s="19"/>
       <c r="O125" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="126" s="2" spans="1:15">
+    <row r="126" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A126" s="21"/>
       <c r="B126" s="22"/>
       <c r="C126" s="23" t="s">
@@ -20161,10 +18727,10 @@
         <v>42</v>
       </c>
       <c r="E126" s="25" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F126" s="42" t="s">
         <v>1097</v>
-      </c>
-      <c r="F126" s="42" t="s">
-        <v>1098</v>
       </c>
       <c r="G126" s="6"/>
       <c r="H126" s="24"/>
@@ -20176,10 +18742,10 @@
       <c r="N126" s="19"/>
       <c r="O126" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="127" s="2" spans="1:15">
+    <row r="127" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A127" s="21"/>
       <c r="B127" s="22" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C127" s="23" t="s">
         <v>5</v>
@@ -20191,7 +18757,7 @@
         <v>6</v>
       </c>
       <c r="F127" s="25" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G127" s="24"/>
       <c r="H127" s="24"/>
@@ -20203,7 +18769,7 @@
       <c r="N127" s="19"/>
       <c r="O127" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="128" s="2" spans="1:15">
+    <row r="128" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A128" s="21"/>
       <c r="B128" s="22"/>
       <c r="C128" s="23" t="s">
@@ -20213,10 +18779,10 @@
         <v>42</v>
       </c>
       <c r="E128" s="25" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F128" s="44" t="s">
         <v>1101</v>
-      </c>
-      <c r="F128" s="44" t="s">
-        <v>1102</v>
       </c>
       <c r="G128" s="6"/>
       <c r="H128" s="24"/>
@@ -20228,10 +18794,10 @@
       <c r="N128" s="19"/>
       <c r="O128" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="129" s="2" spans="1:15">
+    <row r="129" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A129" s="21"/>
       <c r="B129" s="22" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C129" s="23" t="s">
         <v>5</v>
@@ -20243,7 +18809,7 @@
         <v>6</v>
       </c>
       <c r="F129" s="25" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G129" s="24"/>
       <c r="H129" s="24"/>
@@ -20255,7 +18821,7 @@
       <c r="N129" s="19"/>
       <c r="O129" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="130" s="2" spans="1:15">
+    <row r="130" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="23" t="s">
@@ -20265,10 +18831,10 @@
         <v>42</v>
       </c>
       <c r="E130" s="25" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F130" s="44" t="s">
         <v>1105</v>
-      </c>
-      <c r="F130" s="44" t="s">
-        <v>1106</v>
       </c>
       <c r="G130" s="6"/>
       <c r="H130" s="24"/>
@@ -20280,7 +18846,7 @@
       <c r="N130" s="19"/>
       <c r="O130" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="131" s="2" spans="1:15">
+    <row r="131" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="23" t="s">
@@ -20290,10 +18856,10 @@
         <v>42</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F131" s="44" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G131" s="6"/>
       <c r="H131" s="24"/>
@@ -20305,13 +18871,11 @@
       <c r="N131" s="19"/>
       <c r="O131" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="132" s="2" spans="1:15">
+    <row r="132" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A132" s="21" t="s">
         <v>733</v>
       </c>
-      <c r="B132" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="B132" s="22"/>
       <c r="C132" s="23" t="s">
         <v>5</v>
       </c>
@@ -20322,7 +18886,7 @@
         <v>896</v>
       </c>
       <c r="F132" s="25" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G132" s="24"/>
       <c r="H132" s="24"/>
@@ -20334,7 +18898,7 @@
       <c r="N132" s="19"/>
       <c r="O132" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="133" s="2" spans="1:15">
+    <row r="133" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A133" s="21"/>
       <c r="B133" s="22"/>
       <c r="C133" s="23" t="s">
@@ -20344,10 +18908,10 @@
         <v>42</v>
       </c>
       <c r="E133" s="25" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F133" s="25" t="s">
         <v>1109</v>
-      </c>
-      <c r="F133" s="25" t="s">
-        <v>1110</v>
       </c>
       <c r="G133" s="6"/>
       <c r="H133" s="24"/>
@@ -20359,13 +18923,11 @@
       <c r="N133" s="19"/>
       <c r="O133" s="18"/>
     </row>
-    <row customFormat="1" ht="90" r="134" s="2" spans="1:15">
+    <row r="134" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A134" s="21" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B134" s="22" t="s">
-        <v>1111</v>
-      </c>
+        <v>1110</v>
+      </c>
+      <c r="B134" s="22"/>
       <c r="C134" s="23" t="s">
         <v>5</v>
       </c>
@@ -20376,7 +18938,7 @@
         <v>896</v>
       </c>
       <c r="F134" s="25" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G134" s="24"/>
       <c r="H134" s="24"/>
@@ -20388,7 +18950,7 @@
       <c r="N134" s="19"/>
       <c r="O134" s="18"/>
     </row>
-    <row customFormat="1" ht="60" r="135" s="2" spans="1:15">
+    <row r="135" spans="1:15" s="2" customFormat="1" ht="60">
       <c r="A135" s="21"/>
       <c r="B135" s="22"/>
       <c r="C135" s="23" t="s">
@@ -20398,10 +18960,10 @@
         <v>42</v>
       </c>
       <c r="E135" s="25" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F135" s="25" t="s">
         <v>1113</v>
-      </c>
-      <c r="F135" s="25" t="s">
-        <v>1114</v>
       </c>
       <c r="G135" s="6"/>
       <c r="H135" s="24"/>
@@ -20413,7 +18975,7 @@
       <c r="N135" s="19"/>
       <c r="O135" s="18"/>
     </row>
-    <row customFormat="1" ht="60" r="136" s="2" spans="1:15">
+    <row r="136" spans="1:15" s="2" customFormat="1" ht="60">
       <c r="A136" s="21"/>
       <c r="B136" s="22"/>
       <c r="C136" s="23" t="s">
@@ -20423,10 +18985,10 @@
         <v>42</v>
       </c>
       <c r="E136" s="25" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F136" s="25" t="s">
         <v>1115</v>
-      </c>
-      <c r="F136" s="25" t="s">
-        <v>1116</v>
       </c>
       <c r="G136" s="6"/>
       <c r="H136" s="24"/>
@@ -20438,13 +19000,11 @@
       <c r="N136" s="19"/>
       <c r="O136" s="18"/>
     </row>
-    <row customFormat="1" ht="409.5" r="137" s="2" spans="1:15">
+    <row r="137" spans="1:15" s="2" customFormat="1" ht="409.5">
       <c r="A137" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B137" s="22" t="s">
-        <v>1117</v>
-      </c>
+        <v>1116</v>
+      </c>
+      <c r="B137" s="22"/>
       <c r="C137" s="23" t="s">
         <v>5</v>
       </c>
@@ -20452,10 +19012,10 @@
         <v>42</v>
       </c>
       <c r="E137" s="25" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F137" s="25" t="s">
         <v>1118</v>
-      </c>
-      <c r="F137" s="25" t="s">
-        <v>1119</v>
       </c>
       <c r="G137" s="6"/>
       <c r="H137" s="24"/>
@@ -20467,7 +19027,7 @@
       <c r="N137" s="19"/>
       <c r="O137" s="18"/>
     </row>
-    <row customFormat="1" ht="409.5" r="138" s="2" spans="1:15">
+    <row r="138" spans="1:15" s="2" customFormat="1" ht="409.5">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="23" t="s">
@@ -20477,10 +19037,10 @@
         <v>42</v>
       </c>
       <c r="E138" s="25" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F138" s="25" t="s">
         <v>1120</v>
-      </c>
-      <c r="F138" s="25" t="s">
-        <v>1121</v>
       </c>
       <c r="G138" s="6"/>
       <c r="H138" s="24"/>
@@ -20492,7 +19052,7 @@
       <c r="N138" s="19"/>
       <c r="O138" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="408" r="139" s="2" spans="1:15">
+    <row r="139" spans="1:15" s="2" customFormat="1" ht="408" customHeight="1">
       <c r="A139" s="21"/>
       <c r="B139" s="22"/>
       <c r="C139" s="23" t="s">
@@ -20502,10 +19062,10 @@
         <v>42</v>
       </c>
       <c r="E139" s="25" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F139" s="25" t="s">
         <v>1122</v>
-      </c>
-      <c r="F139" s="25" t="s">
-        <v>1123</v>
       </c>
       <c r="G139" s="24"/>
       <c r="H139" s="24"/>
@@ -20517,13 +19077,25 @@
       <c r="N139" s="19"/>
       <c r="O139" s="18"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="24" r="140" s="2" spans="1:15">
-      <c r="A140" s="21"/>
-      <c r="B140" s="22"/>
-      <c r="C140" s="23"/>
-      <c r="D140" s="24"/>
-      <c r="E140" s="25"/>
-      <c r="F140" s="25"/>
+    <row r="140" spans="1:15" s="2" customFormat="1" ht="60">
+      <c r="A140" s="21" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C140" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D140" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F140" s="25" t="s">
+        <v>1134</v>
+      </c>
       <c r="G140" s="24"/>
       <c r="H140" s="24"/>
       <c r="I140" s="35"/>
@@ -20534,13 +19106,23 @@
       <c r="N140" s="19"/>
       <c r="O140" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="141" spans="1:15">
+    <row r="141" spans="1:15" ht="23.1" customHeight="1">
       <c r="A141" s="21"/>
-      <c r="B141" s="22"/>
-      <c r="C141" s="23"/>
-      <c r="D141" s="24"/>
-      <c r="E141" s="24"/>
-      <c r="F141" s="24"/>
+      <c r="B141" s="22" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E141" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="F141" s="24" t="s">
+        <v>1136</v>
+      </c>
       <c r="G141" s="24"/>
       <c r="H141" s="24"/>
       <c r="I141" s="35"/>
@@ -20551,12 +19133,20 @@
       <c r="N141" s="19"/>
       <c r="O141" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="142" spans="1:15">
+    <row r="142" spans="1:15" ht="90">
       <c r="A142" s="21"/>
-      <c r="B142" s="22"/>
-      <c r="C142" s="23"/>
-      <c r="D142" s="24"/>
-      <c r="E142" s="24"/>
+      <c r="B142" s="70" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C142" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="E142" s="68" t="s">
+        <v>1144</v>
+      </c>
       <c r="F142" s="24"/>
       <c r="G142" s="24"/>
       <c r="H142" s="24"/>
@@ -20568,12 +19158,20 @@
       <c r="N142" s="19"/>
       <c r="O142" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="143" spans="1:15">
+    <row r="143" spans="1:15" ht="23.1" customHeight="1">
       <c r="A143" s="21"/>
-      <c r="B143" s="22"/>
-      <c r="C143" s="23"/>
-      <c r="D143" s="24"/>
-      <c r="E143" s="24"/>
+      <c r="B143" s="22" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C143" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="E143" s="69" t="s">
+        <v>1140</v>
+      </c>
       <c r="F143" s="24"/>
       <c r="G143" s="24"/>
       <c r="H143" s="24"/>
@@ -20585,13 +19183,23 @@
       <c r="N143" s="19"/>
       <c r="O143" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="144" spans="1:15">
+    <row r="144" spans="1:15" ht="45">
       <c r="A144" s="21"/>
-      <c r="B144" s="22"/>
-      <c r="C144" s="23"/>
-      <c r="D144" s="24"/>
-      <c r="E144" s="24"/>
-      <c r="F144" s="24"/>
+      <c r="B144" s="22" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C144" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E144" s="24" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F144" s="68" t="s">
+        <v>1145</v>
+      </c>
       <c r="G144" s="24"/>
       <c r="H144" s="24"/>
       <c r="I144" s="35"/>
@@ -20602,15 +19210,23 @@
       <c r="N144" s="19"/>
       <c r="O144" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="145" spans="1:15">
-      <c r="A145" s="21"/>
-      <c r="B145" s="22"/>
-      <c r="C145" s="23"/>
-      <c r="D145" s="24"/>
-      <c r="E145" s="24"/>
-      <c r="F145" s="24"/>
-      <c r="G145" s="24"/>
-      <c r="H145" s="24"/>
+    <row r="145" spans="1:15" ht="23.1" customHeight="1">
+      <c r="A145" s="15"/>
+      <c r="B145" s="16"/>
+      <c r="C145" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="E145" s="72" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F145" s="72" t="s">
+        <v>749</v>
+      </c>
+      <c r="G145" s="35"/>
+      <c r="H145" s="35"/>
       <c r="I145" s="35"/>
       <c r="J145" s="36"/>
       <c r="K145" s="18"/>
@@ -20619,15 +19235,15 @@
       <c r="N145" s="19"/>
       <c r="O145" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="146" spans="1:15">
-      <c r="A146" s="21"/>
-      <c r="B146" s="22"/>
-      <c r="C146" s="23"/>
-      <c r="D146" s="24"/>
-      <c r="E146" s="24"/>
-      <c r="F146" s="24"/>
-      <c r="G146" s="24"/>
-      <c r="H146" s="24"/>
+    <row r="146" spans="1:15" ht="23.1" customHeight="1">
+      <c r="A146" s="15"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="35"/>
+      <c r="F146" s="35"/>
+      <c r="G146" s="35"/>
+      <c r="H146" s="35"/>
       <c r="I146" s="35"/>
       <c r="J146" s="36"/>
       <c r="K146" s="18"/>
@@ -20636,15 +19252,15 @@
       <c r="N146" s="19"/>
       <c r="O146" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="147" spans="1:15">
-      <c r="A147" s="21"/>
-      <c r="B147" s="22"/>
-      <c r="C147" s="23"/>
-      <c r="D147" s="24"/>
-      <c r="E147" s="24"/>
-      <c r="F147" s="24"/>
-      <c r="G147" s="24"/>
-      <c r="H147" s="24"/>
+    <row r="147" spans="1:15" ht="23.1" customHeight="1">
+      <c r="A147" s="15"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="45"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="35"/>
+      <c r="F147" s="35"/>
+      <c r="G147" s="35"/>
+      <c r="H147" s="35"/>
       <c r="I147" s="35"/>
       <c r="J147" s="36"/>
       <c r="K147" s="18"/>
@@ -20653,113 +19269,52 @@
       <c r="N147" s="19"/>
       <c r="O147" s="18"/>
     </row>
-    <row customHeight="1" ht="23.1" r="148" spans="1:15">
-      <c r="A148" s="15"/>
-      <c r="B148" s="16"/>
-      <c r="C148" s="23"/>
-      <c r="D148" s="35"/>
-      <c r="E148" s="35"/>
-      <c r="F148" s="35"/>
-      <c r="G148" s="35"/>
-      <c r="H148" s="35"/>
-      <c r="I148" s="35"/>
-      <c r="J148" s="36"/>
-      <c r="K148" s="18"/>
-      <c r="L148" s="19"/>
-      <c r="M148" s="17"/>
-      <c r="N148" s="19"/>
-      <c r="O148" s="18"/>
-    </row>
-    <row customHeight="1" ht="23.1" r="149" spans="1:15">
-      <c r="A149" s="15"/>
-      <c r="B149" s="16"/>
-      <c r="C149" s="45"/>
-      <c r="D149" s="35"/>
-      <c r="E149" s="35"/>
-      <c r="F149" s="35"/>
-      <c r="G149" s="35"/>
-      <c r="H149" s="35"/>
-      <c r="I149" s="35"/>
-      <c r="J149" s="36"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="19"/>
-      <c r="M149" s="17"/>
-      <c r="N149" s="19"/>
-      <c r="O149" s="18"/>
-    </row>
-    <row customHeight="1" ht="23.1" r="150" spans="1:15">
-      <c r="A150" s="15"/>
-      <c r="B150" s="16"/>
-      <c r="C150" s="45"/>
-      <c r="D150" s="35"/>
-      <c r="E150" s="35"/>
-      <c r="F150" s="35"/>
-      <c r="G150" s="35"/>
-      <c r="H150" s="35"/>
-      <c r="I150" s="35"/>
-      <c r="J150" s="36"/>
-      <c r="K150" s="18"/>
-      <c r="L150" s="19"/>
-      <c r="M150" s="17"/>
-      <c r="N150" s="19"/>
-      <c r="O150" s="18"/>
-    </row>
   </sheetData>
-  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
+  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N1">
-    <cfRule dxfId="5" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
+  <conditionalFormatting sqref="N1 N3:N147">
+    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule dxfId="4" operator="beginsWith" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="1" priority="10" stopIfTrue="1" operator="beginsWith" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule dxfId="3" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
+    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N150">
-    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
-      <formula>LEFT(N3,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
-      <formula>LEFT(N3,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
-      <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D73:D150" type="list" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D72" xr:uid="{00000000-0002-0000-0300-000001000000}">
+      <formula1>INDIRECT(C78)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D70" xr:uid="{00000000-0002-0000-0300-000002000000}">
+      <formula1>INDIRECT(C78)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D65 D5:D62 D145" xr:uid="{00000000-0002-0000-0300-000003000000}">
+      <formula1>INDIRECT(C5)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D69" xr:uid="{00000000-0002-0000-0300-000004000000}">
+      <formula1>INDIRECT(C78)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D71" xr:uid="{00000000-0002-0000-0300-000005000000}">
+      <formula1>INDIRECT(C78)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D63:D64 D66:D68" xr:uid="{00000000-0002-0000-0300-000007000000}">
+      <formula1>INDIRECT(C73)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D73:D144 D146:D147" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>INDIRECT(C74)</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D72" type="list" xr:uid="{00000000-0002-0000-0300-000001000000}">
-      <formula1>INDIRECT(C78)</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D70" type="list" xr:uid="{00000000-0002-0000-0300-000002000000}">
-      <formula1>INDIRECT(C78)</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D65 D5:D62" type="list" xr:uid="{00000000-0002-0000-0300-000003000000}">
-      <formula1>INDIRECT(C5)</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D69" type="list" xr:uid="{00000000-0002-0000-0300-000004000000}">
-      <formula1>INDIRECT(C78)</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D71" type="list" xr:uid="{00000000-0002-0000-0300-000005000000}">
-      <formula1>INDIRECT(C78)</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C150" type="list" xr:uid="{00000000-0002-0000-0300-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C147" xr:uid="{00000000-0002-0000-0300-000006000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D63:D64 D66:D68" type="list" xr:uid="{00000000-0002-0000-0300-000007000000}">
-      <formula1>INDIRECT(C73)</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions1.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119EBFC7-DC3E-47B3-BE1A-8405FB98EC2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C7D4CD-0C81-42FD-89F5-3CCF02593936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -61,12 +61,11 @@
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="1158">
   <si>
     <t>target</t>
   </si>
@@ -6862,12 +6861,128 @@
   <si>
     <t>$(syspath|out|fullpath)/unitTest_expressions1.CSV.xlsx</t>
   </si>
+  <si>
+    <t>replace_empty</t>
+  </si>
+  <si>
+    <t>a|b|c|CC|d|DDDD|e|DDTABDD|f|g|CC|CC</t>
+  </si>
+  <si>
+    <t>test search-replace empty and blank chars</t>
+  </si>
+  <si>
+    <r>
+      <t>[LIST(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a,b,c,,d,  ,e, \t ,f,g,,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) =&gt; 
+ replace(,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) 
+ replace( ,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) 
+ replace(\t,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TAB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) 
+ combine(|)
+]</t>
+    </r>
+  </si>
+  <si>
+    <t>search-replace blank chars</t>
+  </si>
+  <si>
+    <t>search-replace tab chars</t>
+  </si>
+  <si>
+    <t>[TEXT(  ) =&gt; replace( ,DD)]</t>
+  </si>
+  <si>
+    <t>DDDD</t>
+  </si>
+  <si>
+    <t>[TEXT( \t ) =&gt; replace(\t,TAB) replace( ,EE)]</t>
+  </si>
+  <si>
+    <t>EETABEE</t>
+  </si>
+  <si>
+    <t>replace_nonprintable</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7031,6 +7146,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -7095,7 +7217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7293,6 +7415,26 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -7321,25 +7463,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9953,12 +10091,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O136"/>
+  <dimension ref="A1:O135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -9980,12 +10118,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>564</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="12" t="s">
         <v>565</v>
       </c>
@@ -10003,20 +10141,20 @@
       </c>
       <c r="J1" s="31"/>
       <c r="K1" s="18"/>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="67" t="s">
         <v>570</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="63"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" ht="62.1" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>571</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="13"/>
       <c r="F2" s="14"/>
       <c r="G2" s="13"/>
@@ -10026,10 +10164,10 @@
       </c>
       <c r="J2" s="31"/>
       <c r="K2" s="18"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="11.1" customHeight="1">
       <c r="A3" s="15"/>
@@ -12939,8 +13077,43 @@
       <c r="K115"/>
       <c r="L115"/>
     </row>
-    <row r="116" spans="1:12" ht="21" customHeight="1"/>
-    <row r="117" spans="1:12" ht="21" customHeight="1"/>
+    <row r="116" spans="1:12" ht="21" customHeight="1">
+      <c r="A116" s="74" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B116" s="75" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C116" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E116" s="76" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F116" s="76" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="21" customHeight="1">
+      <c r="B117" s="75" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C117" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E117" s="76" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F117" s="76" t="s">
+        <v>1155</v>
+      </c>
+    </row>
     <row r="118" spans="1:12" ht="21" customHeight="1"/>
     <row r="119" spans="1:12" ht="21" customHeight="1"/>
     <row r="120" spans="1:12" ht="21" customHeight="1"/>
@@ -12959,7 +13132,6 @@
     <row r="133" ht="21" customHeight="1"/>
     <row r="134" ht="21" customHeight="1"/>
     <row r="135" ht="21" customHeight="1"/>
-    <row r="136" ht="21" customHeight="1"/>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -13001,11 +13173,11 @@
       <formula>LEFT(N3,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C110" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D110" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D110 D116:D117" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -13019,18 +13191,18 @@
   <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88:F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.375" style="4" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.5" style="6" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43.625" style="6" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.25" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.5" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.5" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43.875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="52.625" style="6" customWidth="1" collapsed="1"/>
     <col min="7" max="9" width="20" style="6" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="20" style="7" customWidth="1" collapsed="1"/>
@@ -13043,12 +13215,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>564</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="12" t="s">
         <v>565</v>
       </c>
@@ -13066,20 +13238,20 @@
       </c>
       <c r="J1" s="31"/>
       <c r="K1" s="18"/>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="67" t="s">
         <v>570</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="63"/>
-    </row>
-    <row r="2" spans="1:15" ht="93" hidden="1" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
+    </row>
+    <row r="2" spans="1:15" ht="45" customHeight="1">
+      <c r="A2" s="69" t="s">
         <v>571</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="13"/>
       <c r="F2" s="14"/>
       <c r="G2" s="13"/>
@@ -13089,10 +13261,10 @@
       </c>
       <c r="J2" s="31"/>
       <c r="K2" s="18"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1">
       <c r="A3" s="15"/>
@@ -13160,9 +13332,7 @@
       <c r="A5" s="21" t="s">
         <v>659</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>659</v>
-      </c>
+      <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
         <v>5</v>
       </c>
@@ -13239,9 +13409,7 @@
       <c r="A8" s="21" t="s">
         <v>776</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>776</v>
-      </c>
+      <c r="B8" s="22"/>
       <c r="C8" s="23" t="s">
         <v>5</v>
       </c>
@@ -13293,9 +13461,7 @@
       <c r="A10" s="21" t="s">
         <v>779</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>779</v>
-      </c>
+      <c r="B10" s="22"/>
       <c r="C10" s="23" t="s">
         <v>5</v>
       </c>
@@ -13422,9 +13588,7 @@
       <c r="A15" s="21" t="s">
         <v>622</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>622</v>
-      </c>
+      <c r="B15" s="22"/>
       <c r="C15" s="23" t="s">
         <v>5</v>
       </c>
@@ -13476,9 +13640,7 @@
       <c r="A17" s="21" t="s">
         <v>791</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>791</v>
-      </c>
+      <c r="B17" s="22"/>
       <c r="C17" s="23" t="s">
         <v>5</v>
       </c>
@@ -13530,9 +13692,7 @@
       <c r="A19" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>795</v>
-      </c>
+      <c r="B19" s="22"/>
       <c r="C19" s="23" t="s">
         <v>5</v>
       </c>
@@ -13584,9 +13744,7 @@
       <c r="A21" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>614</v>
-      </c>
+      <c r="B21" s="22"/>
       <c r="C21" s="23" t="s">
         <v>5</v>
       </c>
@@ -13638,9 +13796,7 @@
       <c r="A23" s="21" t="s">
         <v>801</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>801</v>
-      </c>
+      <c r="B23" s="22"/>
       <c r="C23" s="23" t="s">
         <v>5</v>
       </c>
@@ -13692,9 +13848,7 @@
       <c r="A25" s="27" t="s">
         <v>804</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>804</v>
-      </c>
+      <c r="B25" s="28"/>
       <c r="C25" s="23" t="s">
         <v>5</v>
       </c>
@@ -13746,9 +13900,7 @@
       <c r="A27" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>601</v>
-      </c>
+      <c r="B27" s="22"/>
       <c r="C27" s="23" t="s">
         <v>5</v>
       </c>
@@ -13800,9 +13952,7 @@
       <c r="A29" s="21" t="s">
         <v>809</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>809</v>
-      </c>
+      <c r="B29" s="22"/>
       <c r="C29" s="23" t="s">
         <v>5</v>
       </c>
@@ -13879,9 +14029,7 @@
       <c r="A32" s="21" t="s">
         <v>815</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>815</v>
-      </c>
+      <c r="B32" s="22"/>
       <c r="C32" s="23" t="s">
         <v>5</v>
       </c>
@@ -13933,9 +14081,7 @@
       <c r="A34" s="21" t="s">
         <v>818</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>818</v>
-      </c>
+      <c r="B34" s="22"/>
       <c r="C34" s="23" t="s">
         <v>5</v>
       </c>
@@ -14012,9 +14158,7 @@
       <c r="A37" s="21" t="s">
         <v>822</v>
       </c>
-      <c r="B37" s="22" t="s">
-        <v>822</v>
-      </c>
+      <c r="B37" s="22"/>
       <c r="C37" s="23" t="s">
         <v>5</v>
       </c>
@@ -14066,9 +14210,7 @@
       <c r="A39" s="21" t="s">
         <v>618</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>618</v>
-      </c>
+      <c r="B39" s="22"/>
       <c r="C39" s="23" t="s">
         <v>5</v>
       </c>
@@ -14120,9 +14262,7 @@
       <c r="A41" s="21" t="s">
         <v>826</v>
       </c>
-      <c r="B41" s="22" t="s">
-        <v>826</v>
-      </c>
+      <c r="B41" s="22"/>
       <c r="C41" s="23" t="s">
         <v>5</v>
       </c>
@@ -14174,9 +14314,7 @@
       <c r="A43" s="21" t="s">
         <v>829</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>829</v>
-      </c>
+      <c r="B43" s="22"/>
       <c r="C43" s="23" t="s">
         <v>5</v>
       </c>
@@ -14228,9 +14366,7 @@
       <c r="A45" s="21" t="s">
         <v>725</v>
       </c>
-      <c r="B45" s="22" t="s">
-        <v>725</v>
-      </c>
+      <c r="B45" s="22"/>
       <c r="C45" s="23" t="s">
         <v>5</v>
       </c>
@@ -14282,9 +14418,7 @@
       <c r="A47" s="21" t="s">
         <v>678</v>
       </c>
-      <c r="B47" s="22" t="s">
-        <v>678</v>
-      </c>
+      <c r="B47" s="22"/>
       <c r="C47" s="23" t="s">
         <v>5</v>
       </c>
@@ -14336,9 +14470,7 @@
       <c r="A49" s="48" t="s">
         <v>594</v>
       </c>
-      <c r="B49" s="49" t="s">
-        <v>594</v>
-      </c>
+      <c r="B49" s="49"/>
       <c r="C49" s="23" t="s">
         <v>5</v>
       </c>
@@ -14390,9 +14522,7 @@
       <c r="A51" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="B51" s="22" t="s">
-        <v>839</v>
-      </c>
+      <c r="B51" s="22"/>
       <c r="C51" s="23" t="s">
         <v>5</v>
       </c>
@@ -14444,9 +14574,7 @@
       <c r="A53" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="B53" s="22" t="s">
-        <v>598</v>
-      </c>
+      <c r="B53" s="22"/>
       <c r="C53" s="23" t="s">
         <v>5</v>
       </c>
@@ -14498,9 +14626,7 @@
       <c r="A55" s="21" t="s">
         <v>846</v>
       </c>
-      <c r="B55" s="22" t="s">
-        <v>846</v>
-      </c>
+      <c r="B55" s="22"/>
       <c r="C55" s="23" t="s">
         <v>5</v>
       </c>
@@ -14552,9 +14678,7 @@
       <c r="A57" s="37" t="s">
         <v>656</v>
       </c>
-      <c r="B57" s="38" t="s">
-        <v>656</v>
-      </c>
+      <c r="B57" s="38"/>
       <c r="C57" s="23" t="s">
         <v>5</v>
       </c>
@@ -14606,9 +14730,7 @@
       <c r="A59" s="21" t="s">
         <v>853</v>
       </c>
-      <c r="B59" s="22" t="s">
-        <v>853</v>
-      </c>
+      <c r="B59" s="22"/>
       <c r="C59" s="23" t="s">
         <v>5</v>
       </c>
@@ -14660,9 +14782,7 @@
       <c r="A61" s="21" t="s">
         <v>857</v>
       </c>
-      <c r="B61" s="22" t="s">
-        <v>857</v>
-      </c>
+      <c r="B61" s="22"/>
       <c r="C61" s="23" t="s">
         <v>5</v>
       </c>
@@ -14714,9 +14834,7 @@
       <c r="A63" s="21" t="s">
         <v>860</v>
       </c>
-      <c r="B63" s="22" t="s">
-        <v>860</v>
-      </c>
+      <c r="B63" s="22"/>
       <c r="C63" s="23" t="s">
         <v>5</v>
       </c>
@@ -14768,9 +14886,7 @@
       <c r="A65" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="B65" s="22" t="s">
-        <v>641</v>
-      </c>
+      <c r="B65" s="22"/>
       <c r="C65" s="23" t="s">
         <v>5</v>
       </c>
@@ -14847,9 +14963,7 @@
       <c r="A68" s="21" t="s">
         <v>866</v>
       </c>
-      <c r="B68" s="22" t="s">
-        <v>866</v>
-      </c>
+      <c r="B68" s="22"/>
       <c r="C68" s="23" t="s">
         <v>5</v>
       </c>
@@ -14901,9 +15015,7 @@
       <c r="A70" s="21" t="s">
         <v>868</v>
       </c>
-      <c r="B70" s="22" t="s">
-        <v>868</v>
-      </c>
+      <c r="B70" s="22"/>
       <c r="C70" s="23" t="s">
         <v>5</v>
       </c>
@@ -14955,9 +15067,7 @@
       <c r="A72" s="21" t="s">
         <v>733</v>
       </c>
-      <c r="B72" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="B72" s="22"/>
       <c r="C72" s="23" t="s">
         <v>5</v>
       </c>
@@ -15034,9 +15144,7 @@
       <c r="A75" s="21" t="s">
         <v>873</v>
       </c>
-      <c r="B75" s="22" t="s">
-        <v>873</v>
-      </c>
+      <c r="B75" s="22"/>
       <c r="C75" s="23" t="s">
         <v>5</v>
       </c>
@@ -15113,9 +15221,7 @@
       <c r="A78" s="21" t="s">
         <v>876</v>
       </c>
-      <c r="B78" s="22" t="s">
-        <v>876</v>
-      </c>
+      <c r="B78" s="22"/>
       <c r="C78" s="23" t="s">
         <v>5</v>
       </c>
@@ -15363,13 +15469,25 @@
       <c r="N87" s="19"/>
       <c r="O87" s="18"/>
     </row>
-    <row r="88" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
+    <row r="88" spans="1:15" ht="90">
+      <c r="A88" s="21" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="73" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F88" s="60" t="s">
+        <v>1150</v>
+      </c>
       <c r="G88" s="24"/>
       <c r="H88" s="24"/>
       <c r="I88" s="35"/>
@@ -15453,6 +15571,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -15460,7 +15579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="A145" sqref="A145"/>
@@ -15485,12 +15604,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="65" t="s">
         <v>564</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="12" t="s">
         <v>565</v>
       </c>
@@ -15508,20 +15627,20 @@
       </c>
       <c r="J1" s="31"/>
       <c r="K1" s="18"/>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="67" t="s">
         <v>570</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="63"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="68"/>
     </row>
     <row r="2" spans="1:15" ht="99.95" customHeight="1">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>894</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="13"/>
       <c r="F2" s="14"/>
       <c r="G2" s="13"/>
@@ -15531,10 +15650,10 @@
       </c>
       <c r="J2" s="31"/>
       <c r="K2" s="18"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1">
       <c r="A3" s="15"/>
@@ -18087,7 +18206,7 @@
       <c r="N101" s="19"/>
       <c r="O101" s="18"/>
     </row>
-    <row r="102" spans="1:15" s="2" customFormat="1" ht="105">
+    <row r="102" spans="1:15" s="2" customFormat="1" ht="90">
       <c r="A102" s="21" t="s">
         <v>1058</v>
       </c>
@@ -19135,7 +19254,7 @@
     </row>
     <row r="142" spans="1:15" ht="90">
       <c r="A142" s="21"/>
-      <c r="B142" s="70" t="s">
+      <c r="B142" s="62" t="s">
         <v>1143</v>
       </c>
       <c r="C142" s="23" t="s">
@@ -19144,7 +19263,7 @@
       <c r="D142" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="E142" s="68" t="s">
+      <c r="E142" s="60" t="s">
         <v>1144</v>
       </c>
       <c r="F142" s="24"/>
@@ -19169,7 +19288,7 @@
       <c r="D143" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="E143" s="69" t="s">
+      <c r="E143" s="61" t="s">
         <v>1140</v>
       </c>
       <c r="F143" s="24"/>
@@ -19197,7 +19316,7 @@
       <c r="E144" s="24" t="s">
         <v>1142</v>
       </c>
-      <c r="F144" s="68" t="s">
+      <c r="F144" s="60" t="s">
         <v>1145</v>
       </c>
       <c r="G144" s="24"/>
@@ -19213,16 +19332,16 @@
     <row r="145" spans="1:15" ht="23.1" customHeight="1">
       <c r="A145" s="15"/>
       <c r="B145" s="16"/>
-      <c r="C145" s="71" t="s">
+      <c r="C145" s="63" t="s">
         <v>11</v>
       </c>
       <c r="D145" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="E145" s="72" t="s">
+      <c r="E145" s="64" t="s">
         <v>1146</v>
       </c>
-      <c r="F145" s="72" t="s">
+      <c r="F145" s="64" t="s">
         <v>749</v>
       </c>
       <c r="G145" s="35"/>
